--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9496000</v>
+        <v>5782400</v>
       </c>
       <c r="E8" s="3">
-        <v>8407900</v>
+        <v>7589700</v>
       </c>
       <c r="F8" s="3">
-        <v>7227800</v>
+        <v>7524200</v>
       </c>
       <c r="G8" s="3">
-        <v>8746500</v>
+        <v>6662000</v>
       </c>
       <c r="H8" s="3">
-        <v>8841600</v>
+        <v>5727000</v>
       </c>
       <c r="I8" s="3">
+        <v>6930300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7005700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7293600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6522800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7647100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7332500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5989800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6634200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7604100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5284000</v>
+        <v>3555300</v>
       </c>
       <c r="E9" s="3">
-        <v>4736300</v>
+        <v>4288300</v>
       </c>
       <c r="F9" s="3">
-        <v>4145000</v>
+        <v>4186800</v>
       </c>
       <c r="G9" s="3">
-        <v>5123600</v>
+        <v>3752800</v>
       </c>
       <c r="H9" s="3">
-        <v>5330600</v>
+        <v>3284300</v>
       </c>
       <c r="I9" s="3">
+        <v>4059700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4223700</v>
+      </c>
+      <c r="K9" s="3">
         <v>4544900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3962900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4828000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4383800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4220500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3560000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4062900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4212000</v>
+        <v>2227100</v>
       </c>
       <c r="E10" s="3">
-        <v>3671600</v>
+        <v>3301400</v>
       </c>
       <c r="F10" s="3">
-        <v>3082900</v>
+        <v>3337400</v>
       </c>
       <c r="G10" s="3">
-        <v>3622900</v>
+        <v>2909200</v>
       </c>
       <c r="H10" s="3">
-        <v>3511000</v>
+        <v>2442700</v>
       </c>
       <c r="I10" s="3">
+        <v>2870600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2781900</v>
+      </c>
+      <c r="K10" s="3">
         <v>2748700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2559900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2819100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2948600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1769200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3074200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>3541300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>238800</v>
+        <v>130900</v>
       </c>
       <c r="E14" s="3">
-        <v>1382700</v>
+        <v>4462700</v>
       </c>
       <c r="F14" s="3">
-        <v>4043500</v>
+        <v>189200</v>
       </c>
       <c r="G14" s="3">
-        <v>257700</v>
+        <v>1095600</v>
       </c>
       <c r="H14" s="3">
-        <v>165200</v>
+        <v>3203800</v>
       </c>
       <c r="I14" s="3">
+        <v>204200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>130900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>402500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>136300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>186000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>127800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2084300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>11400</v>
+        <v>15200</v>
       </c>
       <c r="E15" s="3">
-        <v>13500</v>
+        <v>10700</v>
       </c>
       <c r="F15" s="3">
-        <v>13100</v>
+        <v>9100</v>
       </c>
       <c r="G15" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="H15" s="3">
-        <v>15600</v>
+        <v>10400</v>
       </c>
       <c r="I15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K15" s="3">
         <v>13300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>13300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>18200</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>18500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>22300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>102600</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6020400</v>
+        <v>4298100</v>
       </c>
       <c r="E17" s="3">
-        <v>7409500</v>
+        <v>9535900</v>
       </c>
       <c r="F17" s="3">
-        <v>8722500</v>
+        <v>4770300</v>
       </c>
       <c r="G17" s="3">
-        <v>6108400</v>
+        <v>5870900</v>
       </c>
       <c r="H17" s="3">
-        <v>5801900</v>
+        <v>6911300</v>
       </c>
       <c r="I17" s="3">
+        <v>4840000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4597100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5190500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4285100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5681300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4816100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4773800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3636500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5701000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3475600</v>
+        <v>1484200</v>
       </c>
       <c r="E18" s="3">
-        <v>998400</v>
+        <v>-1946200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1494700</v>
+        <v>2753900</v>
       </c>
       <c r="G18" s="3">
-        <v>2638100</v>
+        <v>791100</v>
       </c>
       <c r="H18" s="3">
-        <v>3039700</v>
+        <v>-1184300</v>
       </c>
       <c r="I18" s="3">
+        <v>2090300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2408500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2103100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2237700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1965800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2516400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1215900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2997700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1903100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-844000</v>
+        <v>-1775000</v>
       </c>
       <c r="E20" s="3">
-        <v>-424000</v>
+        <v>-492500</v>
       </c>
       <c r="F20" s="3">
-        <v>-416300</v>
+        <v>-668800</v>
       </c>
       <c r="G20" s="3">
-        <v>193800</v>
+        <v>-336000</v>
       </c>
       <c r="H20" s="3">
-        <v>-953700</v>
+        <v>-329900</v>
       </c>
       <c r="I20" s="3">
+        <v>153600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-755700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-210700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-855000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>440700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-741700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-143800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-221800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3493000</v>
+        <v>389500</v>
       </c>
       <c r="E21" s="3">
-        <v>1458500</v>
+        <v>-1653100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1203700</v>
+        <v>2767700</v>
       </c>
       <c r="G21" s="3">
-        <v>3513200</v>
+        <v>1155700</v>
       </c>
       <c r="H21" s="3">
-        <v>2874500</v>
+        <v>-953700</v>
       </c>
       <c r="I21" s="3">
+        <v>2783700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2277600</v>
+      </c>
+      <c r="K21" s="3">
         <v>487300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2688700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1923000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3704700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1219400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3561300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2509400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>219700</v>
+        <v>165400</v>
       </c>
       <c r="E22" s="3">
-        <v>238200</v>
+        <v>148600</v>
       </c>
       <c r="F22" s="3">
-        <v>188200</v>
+        <v>174100</v>
       </c>
       <c r="G22" s="3">
-        <v>216700</v>
+        <v>188700</v>
       </c>
       <c r="H22" s="3">
-        <v>204100</v>
+        <v>149100</v>
       </c>
       <c r="I22" s="3">
+        <v>171700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K22" s="3">
         <v>209900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>209200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>213800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>247700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>370900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>270200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>286300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2411900</v>
+        <v>-456100</v>
       </c>
       <c r="E23" s="3">
-        <v>336200</v>
+        <v>-2587300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2099300</v>
+        <v>1911000</v>
       </c>
       <c r="G23" s="3">
-        <v>2615200</v>
+        <v>266400</v>
       </c>
       <c r="H23" s="3">
-        <v>1881900</v>
+        <v>-1663400</v>
       </c>
       <c r="I23" s="3">
+        <v>2072200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1491200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-449200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1817800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>897000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2709500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>103300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>2583700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1395100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>903000</v>
+        <v>-574000</v>
       </c>
       <c r="E24" s="3">
-        <v>434000</v>
+        <v>-1071400</v>
       </c>
       <c r="F24" s="3">
-        <v>-570700</v>
+        <v>715500</v>
       </c>
       <c r="G24" s="3">
-        <v>-808500</v>
+        <v>343900</v>
       </c>
       <c r="H24" s="3">
-        <v>572400</v>
+        <v>-452200</v>
       </c>
       <c r="I24" s="3">
+        <v>-640600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>453600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-535800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>546300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-132000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>784800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-39800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>549700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>38400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1508800</v>
+        <v>117900</v>
       </c>
       <c r="E26" s="3">
-        <v>-97800</v>
+        <v>-1515900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1528500</v>
+        <v>1195500</v>
       </c>
       <c r="G26" s="3">
-        <v>3423700</v>
+        <v>-77500</v>
       </c>
       <c r="H26" s="3">
-        <v>1309500</v>
+        <v>-1211100</v>
       </c>
       <c r="I26" s="3">
+        <v>2712800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1037600</v>
+      </c>
+      <c r="K26" s="3">
         <v>86500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1271500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1029000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1924700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>143100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>2034000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1356700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1527600</v>
+        <v>182100</v>
       </c>
       <c r="E27" s="3">
-        <v>-89700</v>
+        <v>-1185500</v>
       </c>
       <c r="F27" s="3">
-        <v>-1499700</v>
+        <v>1210400</v>
       </c>
       <c r="G27" s="3">
-        <v>3382800</v>
+        <v>-71100</v>
       </c>
       <c r="H27" s="3">
-        <v>1343500</v>
+        <v>-1188300</v>
       </c>
       <c r="I27" s="3">
+        <v>2680300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1064500</v>
+      </c>
+      <c r="K27" s="3">
         <v>80600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1257000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1066000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1917800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>115000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>2021400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1383900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1689,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1589,37 +1710,43 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-9100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-63300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>-416600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-86500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-99500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-63800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-993600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>844000</v>
+        <v>1775000</v>
       </c>
       <c r="E32" s="3">
-        <v>424000</v>
+        <v>492500</v>
       </c>
       <c r="F32" s="3">
-        <v>416300</v>
+        <v>668800</v>
       </c>
       <c r="G32" s="3">
-        <v>-193800</v>
+        <v>336000</v>
       </c>
       <c r="H32" s="3">
-        <v>953700</v>
+        <v>329900</v>
       </c>
       <c r="I32" s="3">
+        <v>-153600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>755700</v>
+      </c>
+      <c r="K32" s="3">
         <v>2342400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>210700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>855000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-440700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>741700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>143800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>221800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1527600</v>
+        <v>182100</v>
       </c>
       <c r="E33" s="3">
-        <v>-89700</v>
+        <v>-1185500</v>
       </c>
       <c r="F33" s="3">
-        <v>-1499700</v>
+        <v>1210400</v>
       </c>
       <c r="G33" s="3">
-        <v>3382600</v>
+        <v>-71100</v>
       </c>
       <c r="H33" s="3">
-        <v>1343500</v>
+        <v>-1188300</v>
       </c>
       <c r="I33" s="3">
+        <v>2680200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1064500</v>
+      </c>
+      <c r="K33" s="3">
         <v>71500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1193800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>649400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1831300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>15500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1957600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>390300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1527600</v>
+        <v>182100</v>
       </c>
       <c r="E35" s="3">
-        <v>-89700</v>
+        <v>-1185500</v>
       </c>
       <c r="F35" s="3">
-        <v>-1499700</v>
+        <v>1210400</v>
       </c>
       <c r="G35" s="3">
-        <v>3382600</v>
+        <v>-71100</v>
       </c>
       <c r="H35" s="3">
-        <v>1343500</v>
+        <v>-1188300</v>
       </c>
       <c r="I35" s="3">
+        <v>2680200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1064500</v>
+      </c>
+      <c r="K35" s="3">
         <v>71500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1193800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>649400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1831300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>15500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1957600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>390300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,75 +2138,83 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8323700</v>
+        <v>11339400</v>
       </c>
       <c r="E41" s="3">
-        <v>5412100</v>
+        <v>5481900</v>
       </c>
       <c r="F41" s="3">
-        <v>4556700</v>
+        <v>6595300</v>
       </c>
       <c r="G41" s="3">
-        <v>5233800</v>
+        <v>4288300</v>
       </c>
       <c r="H41" s="3">
-        <v>5703600</v>
+        <v>3610500</v>
       </c>
       <c r="I41" s="3">
+        <v>4147000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4519200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5734600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4166300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3670700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3832600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4851300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>5278900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3446000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>460300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>615900</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2046,325 +2225,373 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3681100</v>
+        <v>2827900</v>
       </c>
       <c r="E43" s="3">
-        <v>4031200</v>
+        <v>2812800</v>
       </c>
       <c r="F43" s="3">
-        <v>4102800</v>
+        <v>2916700</v>
       </c>
       <c r="G43" s="3">
-        <v>4015400</v>
+        <v>3194200</v>
       </c>
       <c r="H43" s="3">
-        <v>4094200</v>
+        <v>3250900</v>
       </c>
       <c r="I43" s="3">
+        <v>3181600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3244000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3929800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3695900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>5471000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5103900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4454100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>5326500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4461500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4501600</v>
+        <v>3934300</v>
       </c>
       <c r="E44" s="3">
-        <v>4227900</v>
+        <v>3187800</v>
       </c>
       <c r="F44" s="3">
-        <v>4467200</v>
+        <v>3566800</v>
       </c>
       <c r="G44" s="3">
-        <v>4020300</v>
+        <v>3350000</v>
       </c>
       <c r="H44" s="3">
-        <v>3792000</v>
+        <v>3539600</v>
       </c>
       <c r="I44" s="3">
+        <v>3185500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3004600</v>
+      </c>
+      <c r="K44" s="3">
         <v>3600300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3078800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3329700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3316000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3277300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2862100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2707400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1471300</v>
+        <v>622400</v>
       </c>
       <c r="E45" s="3">
-        <v>570900</v>
+        <v>612700</v>
       </c>
       <c r="F45" s="3">
-        <v>590800</v>
+        <v>1165800</v>
       </c>
       <c r="G45" s="3">
-        <v>568000</v>
+        <v>452400</v>
       </c>
       <c r="H45" s="3">
-        <v>558200</v>
+        <v>468100</v>
       </c>
       <c r="I45" s="3">
+        <v>450100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>442300</v>
+      </c>
+      <c r="K45" s="3">
         <v>662200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>886800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3603900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3900800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>4262900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>4157200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7630700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17977700</v>
+        <v>19184300</v>
       </c>
       <c r="E46" s="3">
-        <v>14242200</v>
+        <v>12711100</v>
       </c>
       <c r="F46" s="3">
-        <v>13717500</v>
+        <v>14244700</v>
       </c>
       <c r="G46" s="3">
-        <v>13837500</v>
+        <v>11284800</v>
       </c>
       <c r="H46" s="3">
-        <v>14148000</v>
+        <v>10869100</v>
       </c>
       <c r="I46" s="3">
+        <v>10964200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>11210200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13927000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11827800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>16075200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>16153400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>16845500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>17624700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18245600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4557800</v>
+        <v>3696700</v>
       </c>
       <c r="E47" s="3">
-        <v>4308700</v>
+        <v>3344700</v>
       </c>
       <c r="F47" s="3">
-        <v>4571200</v>
+        <v>3611400</v>
       </c>
       <c r="G47" s="3">
-        <v>4514400</v>
+        <v>3414000</v>
       </c>
       <c r="H47" s="3">
-        <v>4586900</v>
+        <v>3622000</v>
       </c>
       <c r="I47" s="3">
+        <v>3577000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3634400</v>
+      </c>
+      <c r="K47" s="3">
         <v>4463000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4230800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5382600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>5425000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>5465700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5299900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>3135400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47524100</v>
+        <v>37679700</v>
       </c>
       <c r="E48" s="3">
-        <v>45315000</v>
+        <v>34736300</v>
       </c>
       <c r="F48" s="3">
-        <v>45408900</v>
+        <v>37655800</v>
       </c>
       <c r="G48" s="3">
-        <v>43780700</v>
+        <v>35905400</v>
       </c>
       <c r="H48" s="3">
-        <v>44349300</v>
+        <v>35979800</v>
       </c>
       <c r="I48" s="3">
+        <v>34689700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>35140300</v>
+      </c>
+      <c r="K48" s="3">
         <v>43858900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>42028700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>46541900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>45711500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>46359000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>44231600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>44807200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8079600</v>
+        <v>6633800</v>
       </c>
       <c r="E49" s="3">
-        <v>7733600</v>
+        <v>6338600</v>
       </c>
       <c r="F49" s="3">
-        <v>7771200</v>
+        <v>6401900</v>
       </c>
       <c r="G49" s="3">
-        <v>7204200</v>
+        <v>6127800</v>
       </c>
       <c r="H49" s="3">
-        <v>7283600</v>
+        <v>6157500</v>
       </c>
       <c r="I49" s="3">
+        <v>5708200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5771100</v>
+      </c>
+      <c r="K49" s="3">
         <v>7193600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6669200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7202800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7026100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6116100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5742700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5555600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13172000</v>
+        <v>14164500</v>
       </c>
       <c r="E52" s="3">
-        <v>14071900</v>
+        <v>11269400</v>
       </c>
       <c r="F52" s="3">
-        <v>14203900</v>
+        <v>10436900</v>
       </c>
       <c r="G52" s="3">
-        <v>10460500</v>
+        <v>11149900</v>
       </c>
       <c r="H52" s="3">
-        <v>9561100</v>
+        <v>11254500</v>
       </c>
       <c r="I52" s="3">
+        <v>8288400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7575700</v>
+      </c>
+      <c r="K52" s="3">
         <v>9872000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>8500200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8915000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8603700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8591300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8068500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>8310700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>91311200</v>
+        <v>81359000</v>
       </c>
       <c r="E54" s="3">
-        <v>85671400</v>
+        <v>68400100</v>
       </c>
       <c r="F54" s="3">
-        <v>85672800</v>
+        <v>72350600</v>
       </c>
       <c r="G54" s="3">
-        <v>79797200</v>
+        <v>67881900</v>
       </c>
       <c r="H54" s="3">
-        <v>79928900</v>
+        <v>67883000</v>
       </c>
       <c r="I54" s="3">
+        <v>63227500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>63331800</v>
+      </c>
+      <c r="K54" s="3">
         <v>79314400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>73256700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>84117400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>82919700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>83377600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>80967300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>80054500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4869200</v>
+        <v>3717700</v>
       </c>
       <c r="E57" s="3">
-        <v>4209900</v>
+        <v>3794300</v>
       </c>
       <c r="F57" s="3">
-        <v>4033500</v>
+        <v>3858100</v>
       </c>
       <c r="G57" s="3">
-        <v>4203900</v>
+        <v>3335700</v>
       </c>
       <c r="H57" s="3">
-        <v>4246700</v>
+        <v>3196000</v>
       </c>
       <c r="I57" s="3">
+        <v>3330900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3364900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3721200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3451600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3656100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3671200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3613400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3632600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3477900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1524600</v>
+        <v>1121400</v>
       </c>
       <c r="E58" s="3">
-        <v>1364900</v>
+        <v>1074100</v>
       </c>
       <c r="F58" s="3">
-        <v>2670400</v>
+        <v>1208000</v>
       </c>
       <c r="G58" s="3">
-        <v>908000</v>
+        <v>1081500</v>
       </c>
       <c r="H58" s="3">
-        <v>1283800</v>
+        <v>2115900</v>
       </c>
       <c r="I58" s="3">
+        <v>719500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1017200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1641000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1525900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1444300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1493200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1749300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1891800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1342000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6666800</v>
+        <v>6297200</v>
       </c>
       <c r="E59" s="3">
-        <v>5908700</v>
+        <v>5457300</v>
       </c>
       <c r="F59" s="3">
-        <v>4638900</v>
+        <v>5282500</v>
       </c>
       <c r="G59" s="3">
-        <v>3181900</v>
+        <v>4681800</v>
       </c>
       <c r="H59" s="3">
-        <v>3043900</v>
+        <v>3675600</v>
       </c>
       <c r="I59" s="3">
+        <v>2521200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2411800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2909200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2776400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>6015600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3540800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3612600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3770200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4262100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13060700</v>
+        <v>11136300</v>
       </c>
       <c r="E60" s="3">
-        <v>11483500</v>
+        <v>10325700</v>
       </c>
       <c r="F60" s="3">
-        <v>11342800</v>
+        <v>10348600</v>
       </c>
       <c r="G60" s="3">
-        <v>8293900</v>
+        <v>9099000</v>
       </c>
       <c r="H60" s="3">
-        <v>8574400</v>
+        <v>8987500</v>
       </c>
       <c r="I60" s="3">
+        <v>6571600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>6794000</v>
+      </c>
+      <c r="K60" s="3">
         <v>8271400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>7754000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11116000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8705200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8975400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>9294600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9082100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14615500</v>
+        <v>16932600</v>
       </c>
       <c r="E61" s="3">
-        <v>14411400</v>
+        <v>9998600</v>
       </c>
       <c r="F61" s="3">
-        <v>14434800</v>
+        <v>11580600</v>
       </c>
       <c r="G61" s="3">
-        <v>13086300</v>
+        <v>11418900</v>
       </c>
       <c r="H61" s="3">
-        <v>14433500</v>
+        <v>11437400</v>
       </c>
       <c r="I61" s="3">
+        <v>10369000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>11436400</v>
+      </c>
+      <c r="K61" s="3">
         <v>14481900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>14211900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>17628400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>19453700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>21873800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>21350800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>22365300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>22137200</v>
+        <v>21299100</v>
       </c>
       <c r="E62" s="3">
-        <v>21016200</v>
+        <v>18998400</v>
       </c>
       <c r="F62" s="3">
-        <v>20603100</v>
+        <v>17540400</v>
       </c>
       <c r="G62" s="3">
-        <v>17858800</v>
+        <v>16652300</v>
       </c>
       <c r="H62" s="3">
-        <v>17994700</v>
+        <v>16324900</v>
       </c>
       <c r="I62" s="3">
+        <v>14150500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>14258200</v>
+      </c>
+      <c r="K62" s="3">
         <v>17951400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>15742900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>17401700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>17013600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>16990600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>16074300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15438300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50469300</v>
+        <v>48265600</v>
       </c>
       <c r="E66" s="3">
-        <v>47575100</v>
+        <v>38521400</v>
       </c>
       <c r="F66" s="3">
-        <v>47120600</v>
+        <v>39989400</v>
       </c>
       <c r="G66" s="3">
-        <v>40004800</v>
+        <v>37696200</v>
       </c>
       <c r="H66" s="3">
-        <v>41804900</v>
+        <v>37336100</v>
       </c>
       <c r="I66" s="3">
+        <v>31697900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>33124200</v>
+      </c>
+      <c r="K66" s="3">
         <v>41550700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>38565900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>47260900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>46370100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>49052200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>47925500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>48488600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10089700</v>
+        <v>5910100</v>
       </c>
       <c r="E72" s="3">
-        <v>8562100</v>
+        <v>5727900</v>
       </c>
       <c r="F72" s="3">
-        <v>8651800</v>
+        <v>7994600</v>
       </c>
       <c r="G72" s="3">
-        <v>10151500</v>
+        <v>6784200</v>
       </c>
       <c r="H72" s="3">
-        <v>6768900</v>
+        <v>6855300</v>
       </c>
       <c r="I72" s="3">
+        <v>8043500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>5363300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7222100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7146900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>6553000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7109800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4470600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4822700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>2946700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40842000</v>
+        <v>33093300</v>
       </c>
       <c r="E76" s="3">
-        <v>38096300</v>
+        <v>29878700</v>
       </c>
       <c r="F76" s="3">
-        <v>38552200</v>
+        <v>32361200</v>
       </c>
       <c r="G76" s="3">
-        <v>39792400</v>
+        <v>30185600</v>
       </c>
       <c r="H76" s="3">
-        <v>38124000</v>
+        <v>30546900</v>
       </c>
       <c r="I76" s="3">
+        <v>31529600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>30207600</v>
+      </c>
+      <c r="K76" s="3">
         <v>37763700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>34690800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>36856600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>36549600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>34325300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>33041800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>31565800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1527600</v>
+        <v>182100</v>
       </c>
       <c r="E81" s="3">
-        <v>-89700</v>
+        <v>-1185500</v>
       </c>
       <c r="F81" s="3">
-        <v>-1499700</v>
+        <v>1210400</v>
       </c>
       <c r="G81" s="3">
-        <v>3382600</v>
+        <v>-71100</v>
       </c>
       <c r="H81" s="3">
-        <v>1343500</v>
+        <v>-1188300</v>
       </c>
       <c r="I81" s="3">
+        <v>2680200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1064500</v>
+      </c>
+      <c r="K81" s="3">
         <v>71500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1193800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>649400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1831300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>15500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1957600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>390300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>861400</v>
+        <v>680200</v>
       </c>
       <c r="E83" s="3">
-        <v>884200</v>
+        <v>785700</v>
       </c>
       <c r="F83" s="3">
+        <v>682600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>700600</v>
+      </c>
+      <c r="H83" s="3">
+        <v>560500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>539800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>624700</v>
+      </c>
+      <c r="K83" s="3">
+        <v>726600</v>
+      </c>
+      <c r="L83" s="3">
+        <v>661700</v>
+      </c>
+      <c r="M83" s="3">
+        <v>812200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>747600</v>
+      </c>
+      <c r="O83" s="3">
+        <v>745200</v>
+      </c>
+      <c r="P83" s="3">
         <v>707400</v>
       </c>
-      <c r="G83" s="3">
-        <v>681300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>788400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>726600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>661700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>812200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>747600</v>
-      </c>
-      <c r="M83" s="3">
-        <v>745200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>707400</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>598500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3798400</v>
+        <v>1431100</v>
       </c>
       <c r="E89" s="3">
-        <v>2700200</v>
+        <v>2071100</v>
       </c>
       <c r="F89" s="3">
-        <v>1929200</v>
+        <v>3009700</v>
       </c>
       <c r="G89" s="3">
-        <v>2915700</v>
+        <v>2139500</v>
       </c>
       <c r="H89" s="3">
-        <v>3606600</v>
+        <v>1528600</v>
       </c>
       <c r="I89" s="3">
+        <v>2310200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2857700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3016300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1654300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3075400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1940400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2841900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>2379500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2108400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-893700</v>
+        <v>-924900</v>
       </c>
       <c r="E91" s="3">
-        <v>-669000</v>
+        <v>-1068800</v>
       </c>
       <c r="F91" s="3">
-        <v>-538500</v>
+        <v>-708100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1340400</v>
+        <v>-530100</v>
       </c>
       <c r="H91" s="3">
-        <v>-656900</v>
+        <v>-426700</v>
       </c>
       <c r="I91" s="3">
+        <v>-1062100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-520500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-592700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-674300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-816500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-695500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-731200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-865000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>2329500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-506200</v>
+        <v>-874100</v>
       </c>
       <c r="E94" s="3">
-        <v>-546500</v>
+        <v>-970000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3920100</v>
+        <v>-401100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1374300</v>
+        <v>-433000</v>
       </c>
       <c r="H94" s="3">
-        <v>-641800</v>
+        <v>-3106100</v>
       </c>
       <c r="I94" s="3">
+        <v>-1088900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-508600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-366500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2166300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-687700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-404900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-949700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-675900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-92300</v>
+        <v>-2200</v>
       </c>
       <c r="E96" s="3">
-        <v>-11900</v>
+        <v>-2100</v>
       </c>
       <c r="F96" s="3">
-        <v>-55400</v>
+        <v>-73100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2500</v>
+        <v>-9400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1870200</v>
+        <v>-43900</v>
       </c>
       <c r="I96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1481900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-2200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-436800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-894600</v>
+        <v>4165200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1238900</v>
+        <v>-2102900</v>
       </c>
       <c r="F100" s="3">
-        <v>1312200</v>
+        <v>-708800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1818200</v>
+        <v>-981600</v>
       </c>
       <c r="H100" s="3">
-        <v>-3189400</v>
+        <v>1039700</v>
       </c>
       <c r="I100" s="3">
+        <v>-1440600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-2527100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>179900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>514000</v>
+        <v>1135300</v>
       </c>
       <c r="E101" s="3">
-        <v>-59400</v>
+        <v>-111600</v>
       </c>
       <c r="F101" s="3">
-        <v>1600</v>
+        <v>407200</v>
       </c>
       <c r="G101" s="3">
-        <v>-193000</v>
+        <v>-47100</v>
       </c>
       <c r="H101" s="3">
-        <v>193400</v>
+        <v>1300</v>
       </c>
       <c r="I101" s="3">
+        <v>-152900</v>
+      </c>
+      <c r="J101" s="3">
+        <v>153200</v>
+      </c>
+      <c r="K101" s="3">
         <v>453300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-75200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>89000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-96000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>57700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-50600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>8800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2911600</v>
+        <v>5857500</v>
       </c>
       <c r="E102" s="3">
-        <v>855400</v>
+        <v>-1113400</v>
       </c>
       <c r="F102" s="3">
-        <v>-677100</v>
+        <v>2307000</v>
       </c>
       <c r="G102" s="3">
-        <v>-469800</v>
+        <v>677800</v>
       </c>
       <c r="H102" s="3">
-        <v>-31100</v>
+        <v>-536500</v>
       </c>
       <c r="I102" s="3">
+        <v>-372200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="K102" s="3">
         <v>1568300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>822900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-161900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-604200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1832900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-877500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5782400</v>
+        <v>7213400</v>
       </c>
       <c r="E8" s="3">
-        <v>7589700</v>
+        <v>5575200</v>
       </c>
       <c r="F8" s="3">
-        <v>7524200</v>
+        <v>7317700</v>
       </c>
       <c r="G8" s="3">
-        <v>6662000</v>
+        <v>7254600</v>
       </c>
       <c r="H8" s="3">
-        <v>5727000</v>
+        <v>6423300</v>
       </c>
       <c r="I8" s="3">
-        <v>6930300</v>
+        <v>5521800</v>
       </c>
       <c r="J8" s="3">
+        <v>6682000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7005700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7293600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6522800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7647100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7332500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5989800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6634200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7604100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3555300</v>
+        <v>4043800</v>
       </c>
       <c r="E9" s="3">
-        <v>4288300</v>
+        <v>3427900</v>
       </c>
       <c r="F9" s="3">
-        <v>4186800</v>
+        <v>4134600</v>
       </c>
       <c r="G9" s="3">
-        <v>3752800</v>
+        <v>4036800</v>
       </c>
       <c r="H9" s="3">
-        <v>3284300</v>
+        <v>3618300</v>
       </c>
       <c r="I9" s="3">
-        <v>4059700</v>
+        <v>3166600</v>
       </c>
       <c r="J9" s="3">
+        <v>3914200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4223700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4544900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3962900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4828000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4383800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4220500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3560000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4062900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2227100</v>
+        <v>3169600</v>
       </c>
       <c r="E10" s="3">
-        <v>3301400</v>
+        <v>2147300</v>
       </c>
       <c r="F10" s="3">
-        <v>3337400</v>
+        <v>3183100</v>
       </c>
       <c r="G10" s="3">
-        <v>2909200</v>
+        <v>3217800</v>
       </c>
       <c r="H10" s="3">
-        <v>2442700</v>
+        <v>2805000</v>
       </c>
       <c r="I10" s="3">
-        <v>2870600</v>
+        <v>2355200</v>
       </c>
       <c r="J10" s="3">
+        <v>2767800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2781900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2748700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2559900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2819100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2948600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1769200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3074200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3541300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>526900</v>
+      </c>
+      <c r="E14" s="3">
+        <v>126200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4302800</v>
+      </c>
+      <c r="G14" s="3">
+        <v>182400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1056300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3089000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>196900</v>
+      </c>
+      <c r="K14" s="3">
         <v>130900</v>
       </c>
-      <c r="E14" s="3">
-        <v>4462700</v>
-      </c>
-      <c r="F14" s="3">
-        <v>189200</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1095600</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3203800</v>
-      </c>
-      <c r="I14" s="3">
-        <v>204200</v>
-      </c>
-      <c r="J14" s="3">
-        <v>130900</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2500</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>402500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>136300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>186000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>127800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2084300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15200</v>
+        <v>12700</v>
       </c>
       <c r="E15" s="3">
-        <v>10700</v>
+        <v>14600</v>
       </c>
       <c r="F15" s="3">
-        <v>9100</v>
+        <v>10300</v>
       </c>
       <c r="G15" s="3">
-        <v>10700</v>
+        <v>8700</v>
       </c>
       <c r="H15" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I15" s="3">
-        <v>8100</v>
+        <v>10000</v>
       </c>
       <c r="J15" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K15" s="3">
         <v>12400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>13300</v>
       </c>
       <c r="L15" s="3">
         <v>13300</v>
       </c>
       <c r="M15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="N15" s="3">
         <v>18200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>18500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>102600</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4298100</v>
+        <v>5728900</v>
       </c>
       <c r="E17" s="3">
-        <v>9535900</v>
+        <v>4144100</v>
       </c>
       <c r="F17" s="3">
-        <v>4770300</v>
+        <v>9194200</v>
       </c>
       <c r="G17" s="3">
-        <v>5870900</v>
+        <v>4599300</v>
       </c>
       <c r="H17" s="3">
-        <v>6911300</v>
+        <v>5660600</v>
       </c>
       <c r="I17" s="3">
-        <v>4840000</v>
+        <v>6663700</v>
       </c>
       <c r="J17" s="3">
+        <v>4666600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4597100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5190500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4285100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5681300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4816100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4773800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3636500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5701000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1484200</v>
+        <v>1484500</v>
       </c>
       <c r="E18" s="3">
-        <v>-1946200</v>
+        <v>1431100</v>
       </c>
       <c r="F18" s="3">
-        <v>2753900</v>
+        <v>-1876500</v>
       </c>
       <c r="G18" s="3">
-        <v>791100</v>
+        <v>2655200</v>
       </c>
       <c r="H18" s="3">
-        <v>-1184300</v>
+        <v>762700</v>
       </c>
       <c r="I18" s="3">
-        <v>2090300</v>
+        <v>-1141900</v>
       </c>
       <c r="J18" s="3">
+        <v>2015400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2408500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2103100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2237700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1965800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2516400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1215900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2997700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1903100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1775000</v>
+        <v>-461800</v>
       </c>
       <c r="E20" s="3">
-        <v>-492500</v>
+        <v>-1711400</v>
       </c>
       <c r="F20" s="3">
-        <v>-668800</v>
+        <v>-474900</v>
       </c>
       <c r="G20" s="3">
-        <v>-336000</v>
+        <v>-644800</v>
       </c>
       <c r="H20" s="3">
-        <v>-329900</v>
+        <v>-323900</v>
       </c>
       <c r="I20" s="3">
-        <v>153600</v>
+        <v>-318100</v>
       </c>
       <c r="J20" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-755700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-210700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-855000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>440700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-741700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-143800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-221800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>389500</v>
+        <v>1796400</v>
       </c>
       <c r="E21" s="3">
-        <v>-1653100</v>
+        <v>375500</v>
       </c>
       <c r="F21" s="3">
-        <v>2767700</v>
+        <v>-1593800</v>
       </c>
       <c r="G21" s="3">
-        <v>1155700</v>
+        <v>2668500</v>
       </c>
       <c r="H21" s="3">
-        <v>-953700</v>
+        <v>1114300</v>
       </c>
       <c r="I21" s="3">
-        <v>2783700</v>
+        <v>-919600</v>
       </c>
       <c r="J21" s="3">
+        <v>2684000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2277600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>487300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2688700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1923000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3704700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1219400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3561300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2509400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>165400</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>148600</v>
+        <v>159500</v>
       </c>
       <c r="F22" s="3">
-        <v>174100</v>
+        <v>143300</v>
       </c>
       <c r="G22" s="3">
-        <v>188700</v>
+        <v>167900</v>
       </c>
       <c r="H22" s="3">
-        <v>149100</v>
+        <v>182000</v>
       </c>
       <c r="I22" s="3">
-        <v>171700</v>
+        <v>143800</v>
       </c>
       <c r="J22" s="3">
+        <v>165600</v>
+      </c>
+      <c r="K22" s="3">
         <v>161700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>209900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>213800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>247700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>370900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>270200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>286300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-456100</v>
+        <v>1022600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2587300</v>
+        <v>-439800</v>
       </c>
       <c r="F23" s="3">
-        <v>1911000</v>
+        <v>-2494600</v>
       </c>
       <c r="G23" s="3">
-        <v>266400</v>
+        <v>1842600</v>
       </c>
       <c r="H23" s="3">
-        <v>-1663400</v>
+        <v>256800</v>
       </c>
       <c r="I23" s="3">
-        <v>2072200</v>
+        <v>-1603800</v>
       </c>
       <c r="J23" s="3">
+        <v>1997900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1491200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-449200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1817800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>897000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2709500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>103300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2583700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1395100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-574000</v>
+        <v>152500</v>
       </c>
       <c r="E24" s="3">
-        <v>-1071400</v>
+        <v>-553400</v>
       </c>
       <c r="F24" s="3">
-        <v>715500</v>
+        <v>-1033000</v>
       </c>
       <c r="G24" s="3">
-        <v>343900</v>
+        <v>689900</v>
       </c>
       <c r="H24" s="3">
-        <v>-452200</v>
+        <v>331500</v>
       </c>
       <c r="I24" s="3">
-        <v>-640600</v>
+        <v>-436000</v>
       </c>
       <c r="J24" s="3">
+        <v>-617700</v>
+      </c>
+      <c r="K24" s="3">
         <v>453600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-535800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>546300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-132000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>784800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>549700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>117900</v>
+        <v>870100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1515900</v>
+        <v>113600</v>
       </c>
       <c r="F26" s="3">
-        <v>1195500</v>
+        <v>-1461600</v>
       </c>
       <c r="G26" s="3">
-        <v>-77500</v>
+        <v>1152700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1211100</v>
+        <v>-74700</v>
       </c>
       <c r="I26" s="3">
-        <v>2712800</v>
+        <v>-1167700</v>
       </c>
       <c r="J26" s="3">
+        <v>2615600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1037600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>86500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1271500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1029000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1924700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>143100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2034000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1356700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>182100</v>
+        <v>943500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1185500</v>
+        <v>175600</v>
       </c>
       <c r="F27" s="3">
-        <v>1210400</v>
+        <v>-1143000</v>
       </c>
       <c r="G27" s="3">
-        <v>-71100</v>
+        <v>1167000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1188300</v>
+        <v>-68500</v>
       </c>
       <c r="I27" s="3">
-        <v>2680300</v>
+        <v>-1145700</v>
       </c>
       <c r="J27" s="3">
+        <v>2584300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1064500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>80600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1257000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1066000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1917800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>115000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2021400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1383900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1716,37 +1777,40 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-9100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-63300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-416600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-86500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-99500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-63800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-993600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1775000</v>
+        <v>461800</v>
       </c>
       <c r="E32" s="3">
-        <v>492500</v>
+        <v>1711400</v>
       </c>
       <c r="F32" s="3">
-        <v>668800</v>
+        <v>474900</v>
       </c>
       <c r="G32" s="3">
-        <v>336000</v>
+        <v>644800</v>
       </c>
       <c r="H32" s="3">
-        <v>329900</v>
+        <v>323900</v>
       </c>
       <c r="I32" s="3">
-        <v>-153600</v>
+        <v>318100</v>
       </c>
       <c r="J32" s="3">
+        <v>-148100</v>
+      </c>
+      <c r="K32" s="3">
         <v>755700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2342400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>210700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>855000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-440700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>741700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>143800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>221800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>182100</v>
+        <v>943500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1185500</v>
+        <v>175600</v>
       </c>
       <c r="F33" s="3">
-        <v>1210400</v>
+        <v>-1143000</v>
       </c>
       <c r="G33" s="3">
-        <v>-71100</v>
+        <v>1167000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1188300</v>
+        <v>-68500</v>
       </c>
       <c r="I33" s="3">
-        <v>2680200</v>
+        <v>-1145700</v>
       </c>
       <c r="J33" s="3">
+        <v>2584200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1064500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>71500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1193800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>649400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1831300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>15500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1957600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>390300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>182100</v>
+        <v>943500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1185500</v>
+        <v>175600</v>
       </c>
       <c r="F35" s="3">
-        <v>1210400</v>
+        <v>-1143000</v>
       </c>
       <c r="G35" s="3">
-        <v>-71100</v>
+        <v>1167000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1188300</v>
+        <v>-68500</v>
       </c>
       <c r="I35" s="3">
-        <v>2680200</v>
+        <v>-1145700</v>
       </c>
       <c r="J35" s="3">
+        <v>2584200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1064500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>71500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1193800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>649400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1831300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>15500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1957600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>390300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,69 +2226,73 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11339400</v>
+        <v>11833800</v>
       </c>
       <c r="E41" s="3">
-        <v>5481900</v>
+        <v>10933100</v>
       </c>
       <c r="F41" s="3">
-        <v>6595300</v>
+        <v>5285500</v>
       </c>
       <c r="G41" s="3">
-        <v>4288300</v>
+        <v>6359000</v>
       </c>
       <c r="H41" s="3">
-        <v>3610500</v>
+        <v>4134600</v>
       </c>
       <c r="I41" s="3">
-        <v>4147000</v>
+        <v>3481100</v>
       </c>
       <c r="J41" s="3">
+        <v>3998400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4519200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5734600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4166300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3670700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3832600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4851300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5278900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3446000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>460300</v>
+        <v>90500</v>
       </c>
       <c r="E42" s="3">
-        <v>615900</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>443800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>593900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2216,8 +2306,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2231,367 +2321,391 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
+      <c r="P42" s="3">
+        <v>0</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2827900</v>
+        <v>3358500</v>
       </c>
       <c r="E43" s="3">
-        <v>2812800</v>
+        <v>2726600</v>
       </c>
       <c r="F43" s="3">
-        <v>2916700</v>
+        <v>2712000</v>
       </c>
       <c r="G43" s="3">
-        <v>3194200</v>
+        <v>2812200</v>
       </c>
       <c r="H43" s="3">
-        <v>3250900</v>
+        <v>3079700</v>
       </c>
       <c r="I43" s="3">
-        <v>3181600</v>
+        <v>3134400</v>
       </c>
       <c r="J43" s="3">
+        <v>3067600</v>
+      </c>
+      <c r="K43" s="3">
         <v>3244000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3929800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3695900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5471000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5103900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4454100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5326500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4461500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3934300</v>
+        <v>3964200</v>
       </c>
       <c r="E44" s="3">
-        <v>3187800</v>
+        <v>3793300</v>
       </c>
       <c r="F44" s="3">
-        <v>3566800</v>
+        <v>3073600</v>
       </c>
       <c r="G44" s="3">
-        <v>3350000</v>
+        <v>3439000</v>
       </c>
       <c r="H44" s="3">
-        <v>3539600</v>
+        <v>3229900</v>
       </c>
       <c r="I44" s="3">
-        <v>3185500</v>
+        <v>3412800</v>
       </c>
       <c r="J44" s="3">
+        <v>3071300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3004600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3600300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3078800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3329700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3316000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3277300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2862100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2707400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>622400</v>
+        <v>590100</v>
       </c>
       <c r="E45" s="3">
-        <v>612700</v>
+        <v>600100</v>
       </c>
       <c r="F45" s="3">
-        <v>1165800</v>
+        <v>590700</v>
       </c>
       <c r="G45" s="3">
-        <v>452400</v>
+        <v>1124000</v>
       </c>
       <c r="H45" s="3">
-        <v>468100</v>
+        <v>436200</v>
       </c>
       <c r="I45" s="3">
-        <v>450100</v>
+        <v>451300</v>
       </c>
       <c r="J45" s="3">
+        <v>433900</v>
+      </c>
+      <c r="K45" s="3">
         <v>442300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>662200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>886800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3603900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>4262900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4157200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7630700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19184300</v>
+        <v>19837200</v>
       </c>
       <c r="E46" s="3">
-        <v>12711100</v>
+        <v>18496900</v>
       </c>
       <c r="F46" s="3">
-        <v>14244700</v>
+        <v>12255600</v>
       </c>
       <c r="G46" s="3">
-        <v>11284800</v>
+        <v>13734200</v>
       </c>
       <c r="H46" s="3">
-        <v>10869100</v>
+        <v>10880500</v>
       </c>
       <c r="I46" s="3">
-        <v>10964200</v>
+        <v>10479600</v>
       </c>
       <c r="J46" s="3">
+        <v>10571300</v>
+      </c>
+      <c r="K46" s="3">
         <v>11210200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13927000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11827800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16075200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16153400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16845500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17624700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18245600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3696700</v>
+        <v>5133400</v>
       </c>
       <c r="E47" s="3">
-        <v>3344700</v>
+        <v>3564200</v>
       </c>
       <c r="F47" s="3">
-        <v>3611400</v>
+        <v>3224900</v>
       </c>
       <c r="G47" s="3">
-        <v>3414000</v>
+        <v>3482000</v>
       </c>
       <c r="H47" s="3">
-        <v>3622000</v>
+        <v>3291700</v>
       </c>
       <c r="I47" s="3">
-        <v>3577000</v>
+        <v>3492300</v>
       </c>
       <c r="J47" s="3">
+        <v>3448900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3634400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4463000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4230800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5382600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5425000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5465700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5299900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3135400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37679700</v>
+        <v>37329900</v>
       </c>
       <c r="E48" s="3">
-        <v>34736300</v>
+        <v>36329600</v>
       </c>
       <c r="F48" s="3">
-        <v>37655800</v>
+        <v>33491600</v>
       </c>
       <c r="G48" s="3">
-        <v>35905400</v>
+        <v>36306500</v>
       </c>
       <c r="H48" s="3">
-        <v>35979800</v>
+        <v>34618900</v>
       </c>
       <c r="I48" s="3">
-        <v>34689700</v>
+        <v>34690600</v>
       </c>
       <c r="J48" s="3">
+        <v>33446700</v>
+      </c>
+      <c r="K48" s="3">
         <v>35140300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43858900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42028700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46541900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45711500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46359000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>44231600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44807200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6633800</v>
+        <v>6551600</v>
       </c>
       <c r="E49" s="3">
-        <v>6338600</v>
+        <v>6396100</v>
       </c>
       <c r="F49" s="3">
-        <v>6401900</v>
+        <v>6111400</v>
       </c>
       <c r="G49" s="3">
-        <v>6127800</v>
+        <v>6172500</v>
       </c>
       <c r="H49" s="3">
-        <v>6157500</v>
+        <v>5908200</v>
       </c>
       <c r="I49" s="3">
-        <v>5708200</v>
+        <v>5936900</v>
       </c>
       <c r="J49" s="3">
+        <v>5503700</v>
+      </c>
+      <c r="K49" s="3">
         <v>5771100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7193600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6669200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7202800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7026100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6116100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5742700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5555600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14164500</v>
+        <v>12373900</v>
       </c>
       <c r="E52" s="3">
-        <v>11269400</v>
+        <v>13657000</v>
       </c>
       <c r="F52" s="3">
-        <v>10436900</v>
+        <v>10865600</v>
       </c>
       <c r="G52" s="3">
-        <v>11149900</v>
+        <v>10062900</v>
       </c>
       <c r="H52" s="3">
-        <v>11254500</v>
+        <v>10750400</v>
       </c>
       <c r="I52" s="3">
-        <v>8288400</v>
+        <v>10851200</v>
       </c>
       <c r="J52" s="3">
+        <v>7991400</v>
+      </c>
+      <c r="K52" s="3">
         <v>7575700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9872000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8500200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8915000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8603700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8591300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8068500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8310700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81359000</v>
+        <v>81226100</v>
       </c>
       <c r="E54" s="3">
-        <v>68400100</v>
+        <v>78443700</v>
       </c>
       <c r="F54" s="3">
-        <v>72350600</v>
+        <v>65949200</v>
       </c>
       <c r="G54" s="3">
-        <v>67881900</v>
+        <v>69758200</v>
       </c>
       <c r="H54" s="3">
-        <v>67883000</v>
+        <v>65449500</v>
       </c>
       <c r="I54" s="3">
-        <v>63227500</v>
+        <v>65450600</v>
       </c>
       <c r="J54" s="3">
+        <v>60961900</v>
+      </c>
+      <c r="K54" s="3">
         <v>63331800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79314400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73256700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>84117400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>82919700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>83377600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>80967300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80054500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3717700</v>
+        <v>3593300</v>
       </c>
       <c r="E57" s="3">
-        <v>3794300</v>
+        <v>3584500</v>
       </c>
       <c r="F57" s="3">
-        <v>3858100</v>
+        <v>3658400</v>
       </c>
       <c r="G57" s="3">
-        <v>3335700</v>
+        <v>3719900</v>
       </c>
       <c r="H57" s="3">
-        <v>3196000</v>
+        <v>3216200</v>
       </c>
       <c r="I57" s="3">
-        <v>3330900</v>
+        <v>3081500</v>
       </c>
       <c r="J57" s="3">
+        <v>3211600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3364900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3721200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3451600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3656100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3671200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3613400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3632600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3477900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1121400</v>
+        <v>1179900</v>
       </c>
       <c r="E58" s="3">
-        <v>1074100</v>
+        <v>1081200</v>
       </c>
       <c r="F58" s="3">
-        <v>1208000</v>
+        <v>1035600</v>
       </c>
       <c r="G58" s="3">
-        <v>1081500</v>
+        <v>1164800</v>
       </c>
       <c r="H58" s="3">
-        <v>2115900</v>
+        <v>1042700</v>
       </c>
       <c r="I58" s="3">
-        <v>719500</v>
+        <v>2040100</v>
       </c>
       <c r="J58" s="3">
+        <v>693700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1017200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1641000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1525900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1444300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1493200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1749300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1891800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1342000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6297200</v>
+        <v>6122300</v>
       </c>
       <c r="E59" s="3">
-        <v>5457300</v>
+        <v>6071500</v>
       </c>
       <c r="F59" s="3">
-        <v>5282500</v>
+        <v>5261800</v>
       </c>
       <c r="G59" s="3">
-        <v>4681800</v>
+        <v>5093200</v>
       </c>
       <c r="H59" s="3">
-        <v>3675600</v>
+        <v>4514000</v>
       </c>
       <c r="I59" s="3">
-        <v>2521200</v>
+        <v>3543900</v>
       </c>
       <c r="J59" s="3">
+        <v>2430900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2411800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2909200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2776400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6015600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3540800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3612600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3770200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4262100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11136300</v>
+        <v>10895500</v>
       </c>
       <c r="E60" s="3">
-        <v>10325700</v>
+        <v>10737200</v>
       </c>
       <c r="F60" s="3">
-        <v>10348600</v>
+        <v>9955700</v>
       </c>
       <c r="G60" s="3">
-        <v>9099000</v>
+        <v>9977800</v>
       </c>
       <c r="H60" s="3">
-        <v>8987500</v>
+        <v>8773000</v>
       </c>
       <c r="I60" s="3">
-        <v>6571600</v>
+        <v>8665500</v>
       </c>
       <c r="J60" s="3">
+        <v>6336200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6794000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8271400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7754000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11116000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8705200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8975400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9294600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9082100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16932600</v>
+        <v>16947000</v>
       </c>
       <c r="E61" s="3">
-        <v>9998600</v>
+        <v>16325900</v>
       </c>
       <c r="F61" s="3">
-        <v>11580600</v>
+        <v>9640400</v>
       </c>
       <c r="G61" s="3">
-        <v>11418900</v>
+        <v>11165700</v>
       </c>
       <c r="H61" s="3">
-        <v>11437400</v>
+        <v>11009700</v>
       </c>
       <c r="I61" s="3">
-        <v>10369000</v>
+        <v>11027600</v>
       </c>
       <c r="J61" s="3">
+        <v>9997400</v>
+      </c>
+      <c r="K61" s="3">
         <v>11436400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14481900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14211900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17628400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>19453700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>21873800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21350800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>22365300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21299100</v>
+        <v>21204700</v>
       </c>
       <c r="E62" s="3">
-        <v>18998400</v>
+        <v>20535900</v>
       </c>
       <c r="F62" s="3">
-        <v>17540400</v>
+        <v>18317600</v>
       </c>
       <c r="G62" s="3">
-        <v>16652300</v>
+        <v>16911900</v>
       </c>
       <c r="H62" s="3">
-        <v>16324900</v>
+        <v>16055600</v>
       </c>
       <c r="I62" s="3">
-        <v>14150500</v>
+        <v>15739900</v>
       </c>
       <c r="J62" s="3">
+        <v>13643400</v>
+      </c>
+      <c r="K62" s="3">
         <v>14258200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17951400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15742900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17401700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17013600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16990600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16074300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15438300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48265600</v>
+        <v>47872600</v>
       </c>
       <c r="E66" s="3">
-        <v>38521400</v>
+        <v>46536200</v>
       </c>
       <c r="F66" s="3">
-        <v>39989400</v>
+        <v>37141100</v>
       </c>
       <c r="G66" s="3">
-        <v>37696200</v>
+        <v>38556500</v>
       </c>
       <c r="H66" s="3">
-        <v>37336100</v>
+        <v>36345500</v>
       </c>
       <c r="I66" s="3">
-        <v>31697900</v>
+        <v>35998300</v>
       </c>
       <c r="J66" s="3">
+        <v>30562100</v>
+      </c>
+      <c r="K66" s="3">
         <v>33124200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>41550700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38565900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>47260900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46370100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49052200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47925500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48488600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5910100</v>
+        <v>6654400</v>
       </c>
       <c r="E72" s="3">
-        <v>5727900</v>
+        <v>5698300</v>
       </c>
       <c r="F72" s="3">
-        <v>7994600</v>
+        <v>5522700</v>
       </c>
       <c r="G72" s="3">
-        <v>6784200</v>
+        <v>7708100</v>
       </c>
       <c r="H72" s="3">
-        <v>6855300</v>
+        <v>6541100</v>
       </c>
       <c r="I72" s="3">
-        <v>8043500</v>
+        <v>6609600</v>
       </c>
       <c r="J72" s="3">
+        <v>7755300</v>
+      </c>
+      <c r="K72" s="3">
         <v>5363300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7222100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7146900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6553000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7109800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4470600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4822700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2946700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33093300</v>
+        <v>33353500</v>
       </c>
       <c r="E76" s="3">
-        <v>29878700</v>
+        <v>31907500</v>
       </c>
       <c r="F76" s="3">
-        <v>32361200</v>
+        <v>28808100</v>
       </c>
       <c r="G76" s="3">
-        <v>30185600</v>
+        <v>31201600</v>
       </c>
       <c r="H76" s="3">
-        <v>30546900</v>
+        <v>29104000</v>
       </c>
       <c r="I76" s="3">
-        <v>31529600</v>
+        <v>29452300</v>
       </c>
       <c r="J76" s="3">
+        <v>30399800</v>
+      </c>
+      <c r="K76" s="3">
         <v>30207600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37763700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34690800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36856600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36549600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34325300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>33041800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31565800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>182100</v>
+        <v>943500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1185500</v>
+        <v>175600</v>
       </c>
       <c r="F81" s="3">
-        <v>1210400</v>
+        <v>-1143000</v>
       </c>
       <c r="G81" s="3">
-        <v>-71100</v>
+        <v>1167000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1188300</v>
+        <v>-68500</v>
       </c>
       <c r="I81" s="3">
-        <v>2680200</v>
+        <v>-1145700</v>
       </c>
       <c r="J81" s="3">
+        <v>2584200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1064500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>71500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1193800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>649400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1831300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>15500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1957600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>390300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>680200</v>
+        <v>773600</v>
       </c>
       <c r="E83" s="3">
-        <v>785700</v>
+        <v>655800</v>
       </c>
       <c r="F83" s="3">
-        <v>682600</v>
+        <v>757500</v>
       </c>
       <c r="G83" s="3">
-        <v>700600</v>
+        <v>658100</v>
       </c>
       <c r="H83" s="3">
-        <v>560500</v>
+        <v>675500</v>
       </c>
       <c r="I83" s="3">
-        <v>539800</v>
+        <v>540400</v>
       </c>
       <c r="J83" s="3">
+        <v>520500</v>
+      </c>
+      <c r="K83" s="3">
         <v>624700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>726600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>661700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>812200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>747600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>745200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>707400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>598500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1431100</v>
+        <v>1253900</v>
       </c>
       <c r="E89" s="3">
-        <v>2071100</v>
+        <v>1379800</v>
       </c>
       <c r="F89" s="3">
-        <v>3009700</v>
+        <v>1996900</v>
       </c>
       <c r="G89" s="3">
-        <v>2139500</v>
+        <v>2901900</v>
       </c>
       <c r="H89" s="3">
-        <v>1528600</v>
+        <v>2062800</v>
       </c>
       <c r="I89" s="3">
-        <v>2310200</v>
+        <v>1473800</v>
       </c>
       <c r="J89" s="3">
+        <v>2227400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2857700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3016300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1654300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3075400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1940400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2841900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2379500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2108400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-924900</v>
+        <v>-927900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1068800</v>
+        <v>-891800</v>
       </c>
       <c r="F91" s="3">
-        <v>-708100</v>
+        <v>-1030500</v>
       </c>
       <c r="G91" s="3">
-        <v>-530100</v>
+        <v>-682800</v>
       </c>
       <c r="H91" s="3">
-        <v>-426700</v>
+        <v>-511100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1062100</v>
+        <v>-411400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1024000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-520500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-592700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-674300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-816500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-695500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-731200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-865000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>2329500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-874100</v>
+        <v>-645600</v>
       </c>
       <c r="E94" s="3">
-        <v>-970000</v>
+        <v>-842700</v>
       </c>
       <c r="F94" s="3">
-        <v>-401100</v>
+        <v>-935200</v>
       </c>
       <c r="G94" s="3">
-        <v>-433000</v>
+        <v>-386700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3106100</v>
+        <v>-417500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1088900</v>
+        <v>-2994800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1049900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-508600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-366500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2166300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-687700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-404900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-949700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-675900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2200</v>
+        <v>-5300</v>
       </c>
       <c r="E96" s="3">
         <v>-2100</v>
       </c>
       <c r="F96" s="3">
-        <v>-73100</v>
+        <v>-2000</v>
       </c>
       <c r="G96" s="3">
-        <v>-9400</v>
+        <v>-70500</v>
       </c>
       <c r="H96" s="3">
-        <v>-43900</v>
+        <v>-9100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2000</v>
+        <v>-42400</v>
       </c>
       <c r="J96" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-436800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4165200</v>
+        <v>-164200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2102900</v>
+        <v>4016000</v>
       </c>
       <c r="F100" s="3">
-        <v>-708800</v>
+        <v>-2027600</v>
       </c>
       <c r="G100" s="3">
-        <v>-981600</v>
+        <v>-683400</v>
       </c>
       <c r="H100" s="3">
-        <v>1039700</v>
+        <v>-946500</v>
       </c>
       <c r="I100" s="3">
-        <v>-1440600</v>
+        <v>1002400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1389000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>179900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1135300</v>
+        <v>456600</v>
       </c>
       <c r="E101" s="3">
-        <v>-111600</v>
+        <v>1094600</v>
       </c>
       <c r="F101" s="3">
-        <v>407200</v>
+        <v>-107600</v>
       </c>
       <c r="G101" s="3">
-        <v>-47100</v>
+        <v>392600</v>
       </c>
       <c r="H101" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="I101" s="3">
         <v>1300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-152900</v>
-      </c>
       <c r="J101" s="3">
+        <v>-147400</v>
+      </c>
+      <c r="K101" s="3">
         <v>153200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>453300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-75200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>89000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-96000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>57700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-50600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5857500</v>
+        <v>900700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1113400</v>
+        <v>5647600</v>
       </c>
       <c r="F102" s="3">
-        <v>2307000</v>
+        <v>-1073500</v>
       </c>
       <c r="G102" s="3">
-        <v>677800</v>
+        <v>2224300</v>
       </c>
       <c r="H102" s="3">
-        <v>-536500</v>
+        <v>653500</v>
       </c>
       <c r="I102" s="3">
-        <v>-372200</v>
+        <v>-517300</v>
       </c>
       <c r="J102" s="3">
+        <v>-358900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-24600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1568300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>822900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-161900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-604200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1832900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-877500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7213400</v>
+        <v>10835900</v>
       </c>
       <c r="E8" s="3">
-        <v>5575200</v>
+        <v>7566400</v>
       </c>
       <c r="F8" s="3">
-        <v>7317700</v>
+        <v>5848000</v>
       </c>
       <c r="G8" s="3">
-        <v>7254600</v>
+        <v>7675800</v>
       </c>
       <c r="H8" s="3">
-        <v>6423300</v>
+        <v>7609600</v>
       </c>
       <c r="I8" s="3">
-        <v>5521800</v>
+        <v>6737600</v>
       </c>
       <c r="J8" s="3">
+        <v>5792000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6682000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7005700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7293600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6522800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7647100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7332500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5989800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6634200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7604100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4043800</v>
+        <v>4845400</v>
       </c>
       <c r="E9" s="3">
-        <v>3427900</v>
+        <v>4241700</v>
       </c>
       <c r="F9" s="3">
-        <v>4134600</v>
+        <v>3595600</v>
       </c>
       <c r="G9" s="3">
-        <v>4036800</v>
+        <v>4336900</v>
       </c>
       <c r="H9" s="3">
-        <v>3618300</v>
+        <v>4234300</v>
       </c>
       <c r="I9" s="3">
-        <v>3166600</v>
+        <v>3795400</v>
       </c>
       <c r="J9" s="3">
+        <v>3321500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3914200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4223700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4544900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3962900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4828000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4383800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4220500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3560000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4062900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3169600</v>
+        <v>5990500</v>
       </c>
       <c r="E10" s="3">
-        <v>2147300</v>
+        <v>3324700</v>
       </c>
       <c r="F10" s="3">
-        <v>3183100</v>
+        <v>2252400</v>
       </c>
       <c r="G10" s="3">
-        <v>3217800</v>
+        <v>3338900</v>
       </c>
       <c r="H10" s="3">
-        <v>2805000</v>
+        <v>3375300</v>
       </c>
       <c r="I10" s="3">
-        <v>2355200</v>
+        <v>2942200</v>
       </c>
       <c r="J10" s="3">
+        <v>2470400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2767800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2781900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2748700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2559900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2819100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2948600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1769200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3074200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3541300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>526900</v>
+        <v>415900</v>
       </c>
       <c r="E14" s="3">
-        <v>126200</v>
+        <v>552600</v>
       </c>
       <c r="F14" s="3">
-        <v>4302800</v>
+        <v>157800</v>
       </c>
       <c r="G14" s="3">
-        <v>182400</v>
+        <v>4513300</v>
       </c>
       <c r="H14" s="3">
-        <v>1056300</v>
+        <v>191300</v>
       </c>
       <c r="I14" s="3">
-        <v>3089000</v>
+        <v>1108000</v>
       </c>
       <c r="J14" s="3">
+        <v>3240200</v>
+      </c>
+      <c r="K14" s="3">
         <v>196900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>130900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>402500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>136300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>186000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>127800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2084300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12700</v>
+        <v>9400</v>
       </c>
       <c r="E15" s="3">
-        <v>14600</v>
+        <v>13300</v>
       </c>
       <c r="F15" s="3">
-        <v>10300</v>
+        <v>15300</v>
       </c>
       <c r="G15" s="3">
-        <v>8700</v>
+        <v>10900</v>
       </c>
       <c r="H15" s="3">
-        <v>10300</v>
+        <v>9200</v>
       </c>
       <c r="I15" s="3">
-        <v>10000</v>
+        <v>10900</v>
       </c>
       <c r="J15" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K15" s="3">
         <v>7800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>12400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>13300</v>
       </c>
       <c r="M15" s="3">
         <v>13300</v>
       </c>
       <c r="N15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="O15" s="3">
         <v>18200</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>18500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>102600</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5728900</v>
+        <v>5837600</v>
       </c>
       <c r="E17" s="3">
-        <v>4144100</v>
+        <v>6009200</v>
       </c>
       <c r="F17" s="3">
-        <v>9194200</v>
+        <v>4346900</v>
       </c>
       <c r="G17" s="3">
-        <v>4599300</v>
+        <v>9644100</v>
       </c>
       <c r="H17" s="3">
-        <v>5660600</v>
+        <v>4824400</v>
       </c>
       <c r="I17" s="3">
-        <v>6663700</v>
+        <v>5937600</v>
       </c>
       <c r="J17" s="3">
+        <v>6989800</v>
+      </c>
+      <c r="K17" s="3">
         <v>4666600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4597100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5190500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4285100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5681300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4816100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4773800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3636500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5701000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1484500</v>
+        <v>4998300</v>
       </c>
       <c r="E18" s="3">
-        <v>1431100</v>
+        <v>1557200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1876500</v>
+        <v>1501100</v>
       </c>
       <c r="G18" s="3">
-        <v>2655200</v>
+        <v>-1968300</v>
       </c>
       <c r="H18" s="3">
-        <v>762700</v>
+        <v>2785200</v>
       </c>
       <c r="I18" s="3">
-        <v>-1141900</v>
+        <v>800000</v>
       </c>
       <c r="J18" s="3">
+        <v>-1197800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2015400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2408500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2103100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2237700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1965800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2516400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1215900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2997700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1903100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-461800</v>
+        <v>-1167400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1711400</v>
+        <v>-286000</v>
       </c>
       <c r="F20" s="3">
-        <v>-474900</v>
+        <v>-1795100</v>
       </c>
       <c r="G20" s="3">
-        <v>-644800</v>
+        <v>-498100</v>
       </c>
       <c r="H20" s="3">
-        <v>-323900</v>
+        <v>-676400</v>
       </c>
       <c r="I20" s="3">
-        <v>-318100</v>
+        <v>-339800</v>
       </c>
       <c r="J20" s="3">
+        <v>-333600</v>
+      </c>
+      <c r="K20" s="3">
         <v>148100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-755700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-210700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-855000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>440700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-741700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-143800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-221800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1796400</v>
+        <v>4609600</v>
       </c>
       <c r="E21" s="3">
-        <v>375500</v>
+        <v>2082600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1593800</v>
+        <v>393900</v>
       </c>
       <c r="G21" s="3">
-        <v>2668500</v>
+        <v>-1671800</v>
       </c>
       <c r="H21" s="3">
-        <v>1114300</v>
+        <v>2799100</v>
       </c>
       <c r="I21" s="3">
-        <v>-919600</v>
+        <v>1168800</v>
       </c>
       <c r="J21" s="3">
+        <v>-964600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2684000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2277600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>487300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2688700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1923000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3704700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1219400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3561300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2509400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>213700</v>
       </c>
       <c r="E22" s="3">
-        <v>159500</v>
+        <v>198500</v>
       </c>
       <c r="F22" s="3">
-        <v>143300</v>
+        <v>167300</v>
       </c>
       <c r="G22" s="3">
-        <v>167900</v>
+        <v>150300</v>
       </c>
       <c r="H22" s="3">
-        <v>182000</v>
+        <v>176100</v>
       </c>
       <c r="I22" s="3">
-        <v>143800</v>
+        <v>190900</v>
       </c>
       <c r="J22" s="3">
+        <v>150800</v>
+      </c>
+      <c r="K22" s="3">
         <v>165600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>161700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>213800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>247700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>370900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>270200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>286300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1022600</v>
+        <v>3617200</v>
       </c>
       <c r="E23" s="3">
-        <v>-439800</v>
+        <v>1072600</v>
       </c>
       <c r="F23" s="3">
-        <v>-2494600</v>
+        <v>-461300</v>
       </c>
       <c r="G23" s="3">
-        <v>1842600</v>
+        <v>-2616700</v>
       </c>
       <c r="H23" s="3">
-        <v>256800</v>
+        <v>1932700</v>
       </c>
       <c r="I23" s="3">
-        <v>-1603800</v>
+        <v>269400</v>
       </c>
       <c r="J23" s="3">
+        <v>-1682200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1997900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1491200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-449200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1817800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>897000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2709500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>103300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2583700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1395100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>152500</v>
+        <v>796700</v>
       </c>
       <c r="E24" s="3">
-        <v>-553400</v>
+        <v>160000</v>
       </c>
       <c r="F24" s="3">
-        <v>-1033000</v>
+        <v>-580500</v>
       </c>
       <c r="G24" s="3">
-        <v>689900</v>
+        <v>-1083500</v>
       </c>
       <c r="H24" s="3">
-        <v>331500</v>
+        <v>723600</v>
       </c>
       <c r="I24" s="3">
-        <v>-436000</v>
+        <v>347800</v>
       </c>
       <c r="J24" s="3">
+        <v>-457400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-617700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>453600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-535800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>546300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-132000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>784800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>549700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>870100</v>
+        <v>2820500</v>
       </c>
       <c r="E26" s="3">
-        <v>113600</v>
+        <v>912700</v>
       </c>
       <c r="F26" s="3">
-        <v>-1461600</v>
+        <v>119200</v>
       </c>
       <c r="G26" s="3">
-        <v>1152700</v>
+        <v>-1533100</v>
       </c>
       <c r="H26" s="3">
-        <v>-74700</v>
+        <v>1209100</v>
       </c>
       <c r="I26" s="3">
-        <v>-1167700</v>
+        <v>-78400</v>
       </c>
       <c r="J26" s="3">
+        <v>-1224900</v>
+      </c>
+      <c r="K26" s="3">
         <v>2615600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1037600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>86500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1271500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1029000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1924700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>143100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2034000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1356700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>943500</v>
+        <v>2922100</v>
       </c>
       <c r="E27" s="3">
-        <v>175600</v>
+        <v>989600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1143000</v>
+        <v>184200</v>
       </c>
       <c r="G27" s="3">
-        <v>1167000</v>
+        <v>-1198900</v>
       </c>
       <c r="H27" s="3">
-        <v>-68500</v>
+        <v>1224100</v>
       </c>
       <c r="I27" s="3">
-        <v>-1145700</v>
+        <v>-71900</v>
       </c>
       <c r="J27" s="3">
+        <v>-1201700</v>
+      </c>
+      <c r="K27" s="3">
         <v>2584300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1064500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1257000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1066000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1917800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>115000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2021400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1383900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1767,8 +1828,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1780,37 +1841,40 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-9100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-63300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-416600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-86500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-99500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-63800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-993600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>461800</v>
+        <v>1167400</v>
       </c>
       <c r="E32" s="3">
-        <v>1711400</v>
+        <v>286000</v>
       </c>
       <c r="F32" s="3">
-        <v>474900</v>
+        <v>1795100</v>
       </c>
       <c r="G32" s="3">
-        <v>644800</v>
+        <v>498100</v>
       </c>
       <c r="H32" s="3">
-        <v>323900</v>
+        <v>676400</v>
       </c>
       <c r="I32" s="3">
-        <v>318100</v>
+        <v>339800</v>
       </c>
       <c r="J32" s="3">
+        <v>333600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-148100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>755700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2342400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>210700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>855000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-440700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>741700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>143800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>221800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>943500</v>
+        <v>2922100</v>
       </c>
       <c r="E33" s="3">
-        <v>175600</v>
+        <v>989600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1143000</v>
+        <v>184200</v>
       </c>
       <c r="G33" s="3">
-        <v>1167000</v>
+        <v>-1198900</v>
       </c>
       <c r="H33" s="3">
-        <v>-68500</v>
+        <v>1224100</v>
       </c>
       <c r="I33" s="3">
-        <v>-1145700</v>
+        <v>-71900</v>
       </c>
       <c r="J33" s="3">
+        <v>-1201700</v>
+      </c>
+      <c r="K33" s="3">
         <v>2584200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1064500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>71500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1193800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>649400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1831300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>15500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1957600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>390300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>943500</v>
+        <v>2922100</v>
       </c>
       <c r="E35" s="3">
-        <v>175600</v>
+        <v>989600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1143000</v>
+        <v>184200</v>
       </c>
       <c r="G35" s="3">
-        <v>1167000</v>
+        <v>-1198900</v>
       </c>
       <c r="H35" s="3">
-        <v>-68500</v>
+        <v>1224100</v>
       </c>
       <c r="I35" s="3">
-        <v>-1145700</v>
+        <v>-71900</v>
       </c>
       <c r="J35" s="3">
+        <v>-1201700</v>
+      </c>
+      <c r="K35" s="3">
         <v>2584200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1064500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>71500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1193800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>649400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1831300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>15500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1957600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>390300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,75 +2313,79 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11833800</v>
+        <v>9335800</v>
       </c>
       <c r="E41" s="3">
-        <v>10933100</v>
+        <v>12412900</v>
       </c>
       <c r="F41" s="3">
-        <v>5285500</v>
+        <v>11468100</v>
       </c>
       <c r="G41" s="3">
-        <v>6359000</v>
+        <v>5544100</v>
       </c>
       <c r="H41" s="3">
-        <v>4134600</v>
+        <v>6670100</v>
       </c>
       <c r="I41" s="3">
-        <v>3481100</v>
+        <v>4337000</v>
       </c>
       <c r="J41" s="3">
+        <v>3651500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3998400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4519200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5734600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4166300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3670700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3832600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4851300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5278900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3446000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>90500</v>
+        <v>132400</v>
       </c>
       <c r="E42" s="3">
-        <v>443800</v>
+        <v>94900</v>
       </c>
       <c r="F42" s="3">
-        <v>593900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>465500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>622900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2309,8 +2399,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2324,388 +2414,412 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
+      <c r="Q42" s="3">
+        <v>0</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3358500</v>
+        <v>4006000</v>
       </c>
       <c r="E43" s="3">
-        <v>2726600</v>
+        <v>3522900</v>
       </c>
       <c r="F43" s="3">
-        <v>2712000</v>
+        <v>2860000</v>
       </c>
       <c r="G43" s="3">
-        <v>2812200</v>
+        <v>2844800</v>
       </c>
       <c r="H43" s="3">
-        <v>3079700</v>
+        <v>2949900</v>
       </c>
       <c r="I43" s="3">
-        <v>3134400</v>
+        <v>3230400</v>
       </c>
       <c r="J43" s="3">
+        <v>3287800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3067600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3244000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3929800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3695900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5471000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5103900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4454100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5326500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4461500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3964200</v>
+        <v>4569300</v>
       </c>
       <c r="E44" s="3">
-        <v>3793300</v>
+        <v>4158200</v>
       </c>
       <c r="F44" s="3">
-        <v>3073600</v>
+        <v>3978900</v>
       </c>
       <c r="G44" s="3">
-        <v>3439000</v>
+        <v>3224000</v>
       </c>
       <c r="H44" s="3">
-        <v>3229900</v>
+        <v>3607300</v>
       </c>
       <c r="I44" s="3">
-        <v>3412800</v>
+        <v>3388000</v>
       </c>
       <c r="J44" s="3">
+        <v>3579800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3071300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3004600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3600300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3078800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3329700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3316000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3277300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2862100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2707400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>590100</v>
+        <v>474400</v>
       </c>
       <c r="E45" s="3">
-        <v>600100</v>
+        <v>619000</v>
       </c>
       <c r="F45" s="3">
-        <v>590700</v>
+        <v>629500</v>
       </c>
       <c r="G45" s="3">
-        <v>1124000</v>
+        <v>619600</v>
       </c>
       <c r="H45" s="3">
-        <v>436200</v>
+        <v>1179000</v>
       </c>
       <c r="I45" s="3">
-        <v>451300</v>
+        <v>457500</v>
       </c>
       <c r="J45" s="3">
+        <v>473400</v>
+      </c>
+      <c r="K45" s="3">
         <v>433900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>442300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>662200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>886800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3603900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>4262900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4157200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7630700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19837200</v>
+        <v>18517900</v>
       </c>
       <c r="E46" s="3">
-        <v>18496900</v>
+        <v>20808000</v>
       </c>
       <c r="F46" s="3">
-        <v>12255600</v>
+        <v>19402100</v>
       </c>
       <c r="G46" s="3">
-        <v>13734200</v>
+        <v>12855400</v>
       </c>
       <c r="H46" s="3">
-        <v>10880500</v>
+        <v>14406300</v>
       </c>
       <c r="I46" s="3">
-        <v>10479600</v>
+        <v>11412900</v>
       </c>
       <c r="J46" s="3">
+        <v>10992400</v>
+      </c>
+      <c r="K46" s="3">
         <v>10571300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11210200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13927000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11827800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16075200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16153400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16845500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17624700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18245600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5133400</v>
+        <v>5683000</v>
       </c>
       <c r="E47" s="3">
-        <v>3564200</v>
+        <v>5384700</v>
       </c>
       <c r="F47" s="3">
-        <v>3224900</v>
+        <v>3738600</v>
       </c>
       <c r="G47" s="3">
-        <v>3482000</v>
+        <v>3382700</v>
       </c>
       <c r="H47" s="3">
-        <v>3291700</v>
+        <v>3652400</v>
       </c>
       <c r="I47" s="3">
-        <v>3492300</v>
+        <v>3452700</v>
       </c>
       <c r="J47" s="3">
+        <v>3663100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3448900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3634400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4463000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4230800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5382600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5425000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5465700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5299900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3135400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37329900</v>
+        <v>40098300</v>
       </c>
       <c r="E48" s="3">
-        <v>36329600</v>
+        <v>39156600</v>
       </c>
       <c r="F48" s="3">
-        <v>33491600</v>
+        <v>38107400</v>
       </c>
       <c r="G48" s="3">
-        <v>36306500</v>
+        <v>35130500</v>
       </c>
       <c r="H48" s="3">
-        <v>34618900</v>
+        <v>38083200</v>
       </c>
       <c r="I48" s="3">
-        <v>34690600</v>
+        <v>36312900</v>
       </c>
       <c r="J48" s="3">
+        <v>36388200</v>
+      </c>
+      <c r="K48" s="3">
         <v>33446700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>35140300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43858900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42028700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46541900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>45711500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46359000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>44231600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44807200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6551600</v>
+        <v>6981300</v>
       </c>
       <c r="E49" s="3">
-        <v>6396100</v>
+        <v>6872200</v>
       </c>
       <c r="F49" s="3">
-        <v>6111400</v>
+        <v>6709100</v>
       </c>
       <c r="G49" s="3">
-        <v>6172500</v>
+        <v>6410500</v>
       </c>
       <c r="H49" s="3">
-        <v>5908200</v>
+        <v>6474500</v>
       </c>
       <c r="I49" s="3">
-        <v>5936900</v>
+        <v>6197300</v>
       </c>
       <c r="J49" s="3">
+        <v>6227400</v>
+      </c>
+      <c r="K49" s="3">
         <v>5503700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5771100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7193600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6669200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7202800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7026100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6116100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5742700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5555600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12373900</v>
+        <v>13141400</v>
       </c>
       <c r="E52" s="3">
-        <v>13657000</v>
+        <v>12979500</v>
       </c>
       <c r="F52" s="3">
-        <v>10865600</v>
+        <v>14325300</v>
       </c>
       <c r="G52" s="3">
-        <v>10062900</v>
+        <v>11397300</v>
       </c>
       <c r="H52" s="3">
-        <v>10750400</v>
+        <v>10555300</v>
       </c>
       <c r="I52" s="3">
-        <v>10851200</v>
+        <v>11276400</v>
       </c>
       <c r="J52" s="3">
+        <v>11382200</v>
+      </c>
+      <c r="K52" s="3">
         <v>7991400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7575700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9872000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8500200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8915000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8603700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8591300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8068500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8310700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81226100</v>
+        <v>84421700</v>
       </c>
       <c r="E54" s="3">
-        <v>78443700</v>
+        <v>85200900</v>
       </c>
       <c r="F54" s="3">
-        <v>65949200</v>
+        <v>82282400</v>
       </c>
       <c r="G54" s="3">
-        <v>69758200</v>
+        <v>69176400</v>
       </c>
       <c r="H54" s="3">
-        <v>65449500</v>
+        <v>73171800</v>
       </c>
       <c r="I54" s="3">
-        <v>65450600</v>
+        <v>68652300</v>
       </c>
       <c r="J54" s="3">
+        <v>68653400</v>
+      </c>
+      <c r="K54" s="3">
         <v>60961900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>63331800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79314400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73256700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>84117400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>82919700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83377600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>80967300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80054500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3593300</v>
+        <v>4059600</v>
       </c>
       <c r="E57" s="3">
-        <v>3584500</v>
+        <v>3769100</v>
       </c>
       <c r="F57" s="3">
-        <v>3658400</v>
+        <v>3759900</v>
       </c>
       <c r="G57" s="3">
-        <v>3719900</v>
+        <v>3837400</v>
       </c>
       <c r="H57" s="3">
-        <v>3216200</v>
+        <v>3901900</v>
       </c>
       <c r="I57" s="3">
-        <v>3081500</v>
+        <v>3373600</v>
       </c>
       <c r="J57" s="3">
+        <v>3232300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3211600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3364900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3721200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3451600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3656100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3671200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3613400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3632600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3477900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1179900</v>
+        <v>1080700</v>
       </c>
       <c r="E58" s="3">
-        <v>1081200</v>
+        <v>1237600</v>
       </c>
       <c r="F58" s="3">
-        <v>1035600</v>
+        <v>1134100</v>
       </c>
       <c r="G58" s="3">
-        <v>1164800</v>
+        <v>1086300</v>
       </c>
       <c r="H58" s="3">
-        <v>1042700</v>
+        <v>1221800</v>
       </c>
       <c r="I58" s="3">
-        <v>2040100</v>
+        <v>1093800</v>
       </c>
       <c r="J58" s="3">
+        <v>2139900</v>
+      </c>
+      <c r="K58" s="3">
         <v>693700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1017200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1641000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1525900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1444300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1493200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1749300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1891800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1342000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6122300</v>
+        <v>6136100</v>
       </c>
       <c r="E59" s="3">
-        <v>6071500</v>
+        <v>6421900</v>
       </c>
       <c r="F59" s="3">
-        <v>5261800</v>
+        <v>6368600</v>
       </c>
       <c r="G59" s="3">
-        <v>5093200</v>
+        <v>5519300</v>
       </c>
       <c r="H59" s="3">
-        <v>4514000</v>
+        <v>5342400</v>
       </c>
       <c r="I59" s="3">
-        <v>3543900</v>
+        <v>4734900</v>
       </c>
       <c r="J59" s="3">
+        <v>3717300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2430900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2411800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2909200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2776400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6015600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3540800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3612600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3770200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4262100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10895500</v>
+        <v>11276400</v>
       </c>
       <c r="E60" s="3">
-        <v>10737200</v>
+        <v>11428600</v>
       </c>
       <c r="F60" s="3">
-        <v>9955700</v>
+        <v>11262700</v>
       </c>
       <c r="G60" s="3">
-        <v>9977800</v>
+        <v>10442900</v>
       </c>
       <c r="H60" s="3">
-        <v>8773000</v>
+        <v>10466100</v>
       </c>
       <c r="I60" s="3">
-        <v>8665500</v>
+        <v>9202300</v>
       </c>
       <c r="J60" s="3">
+        <v>9089500</v>
+      </c>
+      <c r="K60" s="3">
         <v>6336200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6794000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8271400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7754000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11116000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8705200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8975400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9294600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9082100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16947000</v>
+        <v>14822100</v>
       </c>
       <c r="E61" s="3">
-        <v>16325900</v>
+        <v>17776400</v>
       </c>
       <c r="F61" s="3">
-        <v>9640400</v>
+        <v>17124800</v>
       </c>
       <c r="G61" s="3">
-        <v>11165700</v>
+        <v>10112100</v>
       </c>
       <c r="H61" s="3">
-        <v>11009700</v>
+        <v>11712100</v>
       </c>
       <c r="I61" s="3">
-        <v>11027600</v>
+        <v>11548500</v>
       </c>
       <c r="J61" s="3">
+        <v>11567200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9997400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11436400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14481900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14211900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17628400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>19453700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>21873800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21350800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>22365300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21204700</v>
+        <v>23262200</v>
       </c>
       <c r="E62" s="3">
-        <v>20535900</v>
+        <v>22242300</v>
       </c>
       <c r="F62" s="3">
-        <v>18317600</v>
+        <v>21540800</v>
       </c>
       <c r="G62" s="3">
-        <v>16911900</v>
+        <v>19214000</v>
       </c>
       <c r="H62" s="3">
-        <v>16055600</v>
+        <v>17739500</v>
       </c>
       <c r="I62" s="3">
-        <v>15739900</v>
+        <v>16841300</v>
       </c>
       <c r="J62" s="3">
+        <v>16510200</v>
+      </c>
+      <c r="K62" s="3">
         <v>13643400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14258200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17951400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15742900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17401700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17013600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16990600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16074300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15438300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47872600</v>
+        <v>47998800</v>
       </c>
       <c r="E66" s="3">
-        <v>46536200</v>
+        <v>50215300</v>
       </c>
       <c r="F66" s="3">
-        <v>37141100</v>
+        <v>48813400</v>
       </c>
       <c r="G66" s="3">
-        <v>38556500</v>
+        <v>38958600</v>
       </c>
       <c r="H66" s="3">
-        <v>36345500</v>
+        <v>40443300</v>
       </c>
       <c r="I66" s="3">
-        <v>35998300</v>
+        <v>38124100</v>
       </c>
       <c r="J66" s="3">
+        <v>37759800</v>
+      </c>
+      <c r="K66" s="3">
         <v>30562100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33124200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>41550700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38565900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>47260900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46370100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>49052200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47925500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48488600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6654400</v>
+        <v>7591000</v>
       </c>
       <c r="E72" s="3">
-        <v>5698300</v>
+        <v>6980000</v>
       </c>
       <c r="F72" s="3">
-        <v>5522700</v>
+        <v>5977200</v>
       </c>
       <c r="G72" s="3">
-        <v>7708100</v>
+        <v>5793000</v>
       </c>
       <c r="H72" s="3">
-        <v>6541100</v>
+        <v>8085300</v>
       </c>
       <c r="I72" s="3">
-        <v>6609600</v>
+        <v>6861200</v>
       </c>
       <c r="J72" s="3">
+        <v>6933100</v>
+      </c>
+      <c r="K72" s="3">
         <v>7755300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5363300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7222100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7146900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6553000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7109800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4470600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4822700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2946700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33353500</v>
+        <v>36422900</v>
       </c>
       <c r="E76" s="3">
-        <v>31907500</v>
+        <v>34985700</v>
       </c>
       <c r="F76" s="3">
-        <v>28808100</v>
+        <v>33468900</v>
       </c>
       <c r="G76" s="3">
-        <v>31201600</v>
+        <v>30217800</v>
       </c>
       <c r="H76" s="3">
-        <v>29104000</v>
+        <v>32728500</v>
       </c>
       <c r="I76" s="3">
-        <v>29452300</v>
+        <v>30528200</v>
       </c>
       <c r="J76" s="3">
+        <v>30893600</v>
+      </c>
+      <c r="K76" s="3">
         <v>30399800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30207600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37763700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34690800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36856600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36549600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34325300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>33041800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31565800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>943500</v>
+        <v>2922100</v>
       </c>
       <c r="E81" s="3">
-        <v>175600</v>
+        <v>989600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1143000</v>
+        <v>184200</v>
       </c>
       <c r="G81" s="3">
-        <v>1167000</v>
+        <v>-1198900</v>
       </c>
       <c r="H81" s="3">
-        <v>-68500</v>
+        <v>1224100</v>
       </c>
       <c r="I81" s="3">
-        <v>-1145700</v>
+        <v>-71900</v>
       </c>
       <c r="J81" s="3">
+        <v>-1201700</v>
+      </c>
+      <c r="K81" s="3">
         <v>2584200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1064500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>71500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1193800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>649400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1831300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>15500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1957600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>390300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>773600</v>
+        <v>778700</v>
       </c>
       <c r="E83" s="3">
-        <v>655800</v>
+        <v>811500</v>
       </c>
       <c r="F83" s="3">
-        <v>757500</v>
+        <v>687900</v>
       </c>
       <c r="G83" s="3">
-        <v>658100</v>
+        <v>794600</v>
       </c>
       <c r="H83" s="3">
-        <v>675500</v>
+        <v>690300</v>
       </c>
       <c r="I83" s="3">
-        <v>540400</v>
+        <v>708500</v>
       </c>
       <c r="J83" s="3">
+        <v>566900</v>
+      </c>
+      <c r="K83" s="3">
         <v>520500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>624700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>726600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>661700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>812200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>747600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>745200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>707400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>598500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1253900</v>
+        <v>4794200</v>
       </c>
       <c r="E89" s="3">
-        <v>1379800</v>
+        <v>1315300</v>
       </c>
       <c r="F89" s="3">
-        <v>1996900</v>
+        <v>1447300</v>
       </c>
       <c r="G89" s="3">
-        <v>2901900</v>
+        <v>2094600</v>
       </c>
       <c r="H89" s="3">
-        <v>2062800</v>
+        <v>3043900</v>
       </c>
       <c r="I89" s="3">
-        <v>1473800</v>
+        <v>2163800</v>
       </c>
       <c r="J89" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="K89" s="3">
         <v>2227400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2857700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3016300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1654300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3075400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1940400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2841900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2379500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2108400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-927900</v>
+        <v>-878100</v>
       </c>
       <c r="E91" s="3">
-        <v>-891800</v>
+        <v>-973400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1030500</v>
+        <v>-935400</v>
       </c>
       <c r="G91" s="3">
-        <v>-682800</v>
+        <v>-1080900</v>
       </c>
       <c r="H91" s="3">
-        <v>-511100</v>
+        <v>-716200</v>
       </c>
       <c r="I91" s="3">
-        <v>-411400</v>
+        <v>-536100</v>
       </c>
       <c r="J91" s="3">
+        <v>-431500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-520500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-592700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-674300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-816500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-695500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-731200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-865000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>2329500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-645600</v>
+        <v>-1013000</v>
       </c>
       <c r="E94" s="3">
-        <v>-842700</v>
+        <v>-677200</v>
       </c>
       <c r="F94" s="3">
-        <v>-935200</v>
+        <v>-884000</v>
       </c>
       <c r="G94" s="3">
-        <v>-386700</v>
+        <v>-981000</v>
       </c>
       <c r="H94" s="3">
-        <v>-417500</v>
+        <v>-405600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2994800</v>
+        <v>-437900</v>
       </c>
       <c r="J94" s="3">
+        <v>-3141400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-508600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-366500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2166300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-687700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-404900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-949700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-675900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5300</v>
+        <v>-3463200</v>
       </c>
       <c r="E96" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G96" s="3">
         <v>-2100</v>
       </c>
-      <c r="F96" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-70500</v>
-      </c>
       <c r="H96" s="3">
-        <v>-9100</v>
+        <v>-74000</v>
       </c>
       <c r="I96" s="3">
-        <v>-42400</v>
+        <v>-9500</v>
       </c>
       <c r="J96" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-2200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-436800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-164200</v>
+        <v>-7211000</v>
       </c>
       <c r="E100" s="3">
-        <v>4016000</v>
+        <v>-172200</v>
       </c>
       <c r="F100" s="3">
-        <v>-2027600</v>
+        <v>4212500</v>
       </c>
       <c r="G100" s="3">
-        <v>-683400</v>
+        <v>-2126800</v>
       </c>
       <c r="H100" s="3">
-        <v>-946500</v>
+        <v>-716900</v>
       </c>
       <c r="I100" s="3">
-        <v>1002400</v>
+        <v>-992800</v>
       </c>
       <c r="J100" s="3">
+        <v>1051500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>179900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>456600</v>
+        <v>352700</v>
       </c>
       <c r="E101" s="3">
-        <v>1094600</v>
+        <v>478900</v>
       </c>
       <c r="F101" s="3">
-        <v>-107600</v>
+        <v>1148100</v>
       </c>
       <c r="G101" s="3">
-        <v>392600</v>
+        <v>-112800</v>
       </c>
       <c r="H101" s="3">
-        <v>-45400</v>
+        <v>411900</v>
       </c>
       <c r="I101" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="J101" s="3">
         <v>1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-147400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>153200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>453300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-75200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>89000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-96000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>57700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-50600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>900700</v>
+        <v>-3077100</v>
       </c>
       <c r="E102" s="3">
-        <v>5647600</v>
+        <v>944800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1073500</v>
+        <v>5924000</v>
       </c>
       <c r="G102" s="3">
-        <v>2224300</v>
+        <v>-1126000</v>
       </c>
       <c r="H102" s="3">
-        <v>653500</v>
+        <v>2333200</v>
       </c>
       <c r="I102" s="3">
-        <v>-517300</v>
+        <v>685500</v>
       </c>
       <c r="J102" s="3">
+        <v>-542600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-358900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-24600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1568300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>822900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-161900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-604200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1832900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-877500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10835900</v>
+        <v>13977600</v>
       </c>
       <c r="E8" s="3">
-        <v>7566400</v>
+        <v>10253400</v>
       </c>
       <c r="F8" s="3">
-        <v>5848000</v>
+        <v>7159600</v>
       </c>
       <c r="G8" s="3">
-        <v>7675800</v>
+        <v>5533600</v>
       </c>
       <c r="H8" s="3">
-        <v>7609600</v>
+        <v>7263200</v>
       </c>
       <c r="I8" s="3">
-        <v>6737600</v>
+        <v>7200500</v>
       </c>
       <c r="J8" s="3">
+        <v>6375400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5792000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6682000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7005700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7293600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6522800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7647100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7332500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5989800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6634200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7604100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4845400</v>
+        <v>5452500</v>
       </c>
       <c r="E9" s="3">
-        <v>4241700</v>
+        <v>4584900</v>
       </c>
       <c r="F9" s="3">
-        <v>3595600</v>
+        <v>4013700</v>
       </c>
       <c r="G9" s="3">
-        <v>4336900</v>
+        <v>3402300</v>
       </c>
       <c r="H9" s="3">
-        <v>4234300</v>
+        <v>4103800</v>
       </c>
       <c r="I9" s="3">
-        <v>3795400</v>
+        <v>4006700</v>
       </c>
       <c r="J9" s="3">
+        <v>3591400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3321500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3914200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4223700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4544900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3962900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4828000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4383800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4220500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3560000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4062900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5990500</v>
+        <v>8525100</v>
       </c>
       <c r="E10" s="3">
-        <v>3324700</v>
+        <v>5668500</v>
       </c>
       <c r="F10" s="3">
-        <v>2252400</v>
+        <v>3146000</v>
       </c>
       <c r="G10" s="3">
-        <v>3338900</v>
+        <v>2131300</v>
       </c>
       <c r="H10" s="3">
-        <v>3375300</v>
+        <v>3159400</v>
       </c>
       <c r="I10" s="3">
-        <v>2942200</v>
+        <v>3193800</v>
       </c>
       <c r="J10" s="3">
+        <v>2784100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2470400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2767800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2781900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2748700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2559900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2819100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2948600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1769200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3074200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3541300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>415900</v>
+        <v>5810600</v>
       </c>
       <c r="E14" s="3">
-        <v>552600</v>
+        <v>393600</v>
       </c>
       <c r="F14" s="3">
-        <v>157800</v>
+        <v>522900</v>
       </c>
       <c r="G14" s="3">
-        <v>4513300</v>
+        <v>149400</v>
       </c>
       <c r="H14" s="3">
-        <v>191300</v>
+        <v>4270700</v>
       </c>
       <c r="I14" s="3">
-        <v>1108000</v>
+        <v>181000</v>
       </c>
       <c r="J14" s="3">
+        <v>1048500</v>
+      </c>
+      <c r="K14" s="3">
         <v>3240200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>196900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>130900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>402500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>136300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>186000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>127800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2084300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9400</v>
+        <v>8500</v>
       </c>
       <c r="E15" s="3">
-        <v>13300</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3">
-        <v>15300</v>
+        <v>12600</v>
       </c>
       <c r="G15" s="3">
-        <v>10900</v>
+        <v>14500</v>
       </c>
       <c r="H15" s="3">
-        <v>9200</v>
+        <v>10300</v>
       </c>
       <c r="I15" s="3">
-        <v>10900</v>
+        <v>8700</v>
       </c>
       <c r="J15" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K15" s="3">
         <v>10500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>7800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>12400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>13300</v>
       </c>
       <c r="N15" s="3">
         <v>13300</v>
       </c>
       <c r="O15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="P15" s="3">
         <v>18200</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>18500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>22300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>102600</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5837600</v>
+        <v>12381400</v>
       </c>
       <c r="E17" s="3">
-        <v>6009200</v>
+        <v>5523800</v>
       </c>
       <c r="F17" s="3">
-        <v>4346900</v>
+        <v>5686200</v>
       </c>
       <c r="G17" s="3">
-        <v>9644100</v>
+        <v>4113200</v>
       </c>
       <c r="H17" s="3">
-        <v>4824400</v>
+        <v>9125700</v>
       </c>
       <c r="I17" s="3">
-        <v>5937600</v>
+        <v>4565100</v>
       </c>
       <c r="J17" s="3">
+        <v>5618400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6989800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4666600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4597100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5190500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4285100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5681300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4816100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4773800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3636500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5701000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4998300</v>
+        <v>1596100</v>
       </c>
       <c r="E18" s="3">
-        <v>1557200</v>
+        <v>4729600</v>
       </c>
       <c r="F18" s="3">
-        <v>1501100</v>
+        <v>1473500</v>
       </c>
       <c r="G18" s="3">
-        <v>-1968300</v>
+        <v>1420400</v>
       </c>
       <c r="H18" s="3">
-        <v>2785200</v>
+        <v>-1862500</v>
       </c>
       <c r="I18" s="3">
-        <v>800000</v>
+        <v>2635400</v>
       </c>
       <c r="J18" s="3">
+        <v>757000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2015400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2408500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2103100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2237700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1965800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2516400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1215900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2997700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1903100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1167400</v>
+        <v>-452900</v>
       </c>
       <c r="E20" s="3">
-        <v>-286000</v>
+        <v>-1104700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1795100</v>
+        <v>-270600</v>
       </c>
       <c r="G20" s="3">
-        <v>-498100</v>
+        <v>-1698600</v>
       </c>
       <c r="H20" s="3">
-        <v>-676400</v>
+        <v>-471300</v>
       </c>
       <c r="I20" s="3">
-        <v>-339800</v>
+        <v>-640000</v>
       </c>
       <c r="J20" s="3">
+        <v>-321500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-333600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>148100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-755700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-210700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-855000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>440700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-741700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-143800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-221800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4609600</v>
+        <v>1941000</v>
       </c>
       <c r="E21" s="3">
-        <v>2082600</v>
+        <v>4361800</v>
       </c>
       <c r="F21" s="3">
-        <v>393900</v>
+        <v>1970700</v>
       </c>
       <c r="G21" s="3">
-        <v>-1671800</v>
+        <v>372700</v>
       </c>
       <c r="H21" s="3">
-        <v>2799100</v>
+        <v>-1581900</v>
       </c>
       <c r="I21" s="3">
-        <v>1168800</v>
+        <v>2648700</v>
       </c>
       <c r="J21" s="3">
+        <v>1106000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-964600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2684000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2277600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>487300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2688700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1923000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3704700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1219400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3561300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2509400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>213700</v>
+        <v>199400</v>
       </c>
       <c r="E22" s="3">
-        <v>198500</v>
+        <v>202200</v>
       </c>
       <c r="F22" s="3">
-        <v>167300</v>
+        <v>187900</v>
       </c>
       <c r="G22" s="3">
-        <v>150300</v>
+        <v>158300</v>
       </c>
       <c r="H22" s="3">
-        <v>176100</v>
+        <v>142200</v>
       </c>
       <c r="I22" s="3">
-        <v>190900</v>
+        <v>166600</v>
       </c>
       <c r="J22" s="3">
+        <v>180600</v>
+      </c>
+      <c r="K22" s="3">
         <v>150800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>165600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>161700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>213800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>247700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>370900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>270200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>286300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3617200</v>
+        <v>943900</v>
       </c>
       <c r="E23" s="3">
-        <v>1072600</v>
+        <v>3422700</v>
       </c>
       <c r="F23" s="3">
-        <v>-461300</v>
+        <v>1015000</v>
       </c>
       <c r="G23" s="3">
-        <v>-2616700</v>
+        <v>-436500</v>
       </c>
       <c r="H23" s="3">
-        <v>1932700</v>
+        <v>-2476000</v>
       </c>
       <c r="I23" s="3">
-        <v>269400</v>
+        <v>1828800</v>
       </c>
       <c r="J23" s="3">
+        <v>254900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1997900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1491200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-449200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1817800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>897000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2709500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>103300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2583700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1395100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>796700</v>
+        <v>179600</v>
       </c>
       <c r="E24" s="3">
-        <v>160000</v>
+        <v>753900</v>
       </c>
       <c r="F24" s="3">
-        <v>-580500</v>
+        <v>151400</v>
       </c>
       <c r="G24" s="3">
-        <v>-1083500</v>
+        <v>-549300</v>
       </c>
       <c r="H24" s="3">
-        <v>723600</v>
+        <v>-1025300</v>
       </c>
       <c r="I24" s="3">
-        <v>347800</v>
+        <v>684700</v>
       </c>
       <c r="J24" s="3">
+        <v>329100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-457400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-617700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>453600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-535800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>546300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-132000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>784800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>549700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2820500</v>
+        <v>764200</v>
       </c>
       <c r="E26" s="3">
-        <v>912700</v>
+        <v>2668800</v>
       </c>
       <c r="F26" s="3">
-        <v>119200</v>
+        <v>863600</v>
       </c>
       <c r="G26" s="3">
-        <v>-1533100</v>
+        <v>112800</v>
       </c>
       <c r="H26" s="3">
-        <v>1209100</v>
+        <v>-1450700</v>
       </c>
       <c r="I26" s="3">
-        <v>-78400</v>
+        <v>1144100</v>
       </c>
       <c r="J26" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2615600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1037600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>86500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1271500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1029000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1924700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>143100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2034000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1356700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2922100</v>
+        <v>854300</v>
       </c>
       <c r="E27" s="3">
-        <v>989600</v>
+        <v>2765000</v>
       </c>
       <c r="F27" s="3">
-        <v>184200</v>
+        <v>936400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1198900</v>
+        <v>174300</v>
       </c>
       <c r="H27" s="3">
-        <v>1224100</v>
+        <v>-1134500</v>
       </c>
       <c r="I27" s="3">
-        <v>-71900</v>
+        <v>1158300</v>
       </c>
       <c r="J27" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2584300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1064500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>80600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1257000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1066000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1917800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>115000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2021400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1383900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,8 +1891,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1844,37 +1904,40 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-9100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-63300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-416600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-86500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-99500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-63800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-993600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1167400</v>
+        <v>452900</v>
       </c>
       <c r="E32" s="3">
-        <v>286000</v>
+        <v>1104700</v>
       </c>
       <c r="F32" s="3">
-        <v>1795100</v>
+        <v>270600</v>
       </c>
       <c r="G32" s="3">
-        <v>498100</v>
+        <v>1698600</v>
       </c>
       <c r="H32" s="3">
-        <v>676400</v>
+        <v>471300</v>
       </c>
       <c r="I32" s="3">
-        <v>339800</v>
+        <v>640000</v>
       </c>
       <c r="J32" s="3">
+        <v>321500</v>
+      </c>
+      <c r="K32" s="3">
         <v>333600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-148100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>755700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2342400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>210700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>855000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-440700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>741700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>143800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>221800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2922100</v>
+        <v>854300</v>
       </c>
       <c r="E33" s="3">
-        <v>989600</v>
+        <v>2765000</v>
       </c>
       <c r="F33" s="3">
-        <v>184200</v>
+        <v>936400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1198900</v>
+        <v>174300</v>
       </c>
       <c r="H33" s="3">
-        <v>1224100</v>
+        <v>-1134500</v>
       </c>
       <c r="I33" s="3">
-        <v>-71900</v>
+        <v>1158300</v>
       </c>
       <c r="J33" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2584200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1064500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>71500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1193800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>649400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1831300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>15500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1957600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>390300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2922100</v>
+        <v>854300</v>
       </c>
       <c r="E35" s="3">
-        <v>989600</v>
+        <v>2765000</v>
       </c>
       <c r="F35" s="3">
-        <v>184200</v>
+        <v>936400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1198900</v>
+        <v>174300</v>
       </c>
       <c r="H35" s="3">
-        <v>1224100</v>
+        <v>-1134500</v>
       </c>
       <c r="I35" s="3">
-        <v>-71900</v>
+        <v>1158300</v>
       </c>
       <c r="J35" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2584200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1064500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>71500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1193800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>649400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1831300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>15500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1957600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>390300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,81 +2399,85 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9335800</v>
+        <v>12410100</v>
       </c>
       <c r="E41" s="3">
-        <v>12412900</v>
+        <v>8833900</v>
       </c>
       <c r="F41" s="3">
-        <v>11468100</v>
+        <v>11745600</v>
       </c>
       <c r="G41" s="3">
-        <v>5544100</v>
+        <v>10851600</v>
       </c>
       <c r="H41" s="3">
-        <v>6670100</v>
+        <v>5246100</v>
       </c>
       <c r="I41" s="3">
-        <v>4337000</v>
+        <v>6311600</v>
       </c>
       <c r="J41" s="3">
+        <v>4103800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3651500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3998400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4519200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5734600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4166300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3670700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3832600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4851300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5278900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3446000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>132400</v>
+        <v>709300</v>
       </c>
       <c r="E42" s="3">
-        <v>94900</v>
+        <v>125300</v>
       </c>
       <c r="F42" s="3">
-        <v>465500</v>
+        <v>89800</v>
       </c>
       <c r="G42" s="3">
-        <v>622900</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>440500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>589400</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2402,8 +2491,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2417,409 +2506,433 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
+      <c r="R42" s="3">
+        <v>0</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4006000</v>
+        <v>5290900</v>
       </c>
       <c r="E43" s="3">
-        <v>3522900</v>
+        <v>3790700</v>
       </c>
       <c r="F43" s="3">
-        <v>2860000</v>
+        <v>3333500</v>
       </c>
       <c r="G43" s="3">
-        <v>2844800</v>
+        <v>2706300</v>
       </c>
       <c r="H43" s="3">
-        <v>2949900</v>
+        <v>2691800</v>
       </c>
       <c r="I43" s="3">
-        <v>3230400</v>
+        <v>2791300</v>
       </c>
       <c r="J43" s="3">
+        <v>3056800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3287800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3067600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3244000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3929800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3695900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5471000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5103900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4454100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5326500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4461500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4569300</v>
+        <v>3736700</v>
       </c>
       <c r="E44" s="3">
-        <v>4158200</v>
+        <v>4323600</v>
       </c>
       <c r="F44" s="3">
-        <v>3978900</v>
+        <v>3934700</v>
       </c>
       <c r="G44" s="3">
-        <v>3224000</v>
+        <v>3765000</v>
       </c>
       <c r="H44" s="3">
-        <v>3607300</v>
+        <v>3050600</v>
       </c>
       <c r="I44" s="3">
-        <v>3388000</v>
+        <v>3413400</v>
       </c>
       <c r="J44" s="3">
+        <v>3205900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3579800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3071300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3004600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3600300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3078800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3329700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3316000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3277300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2862100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2707400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>474400</v>
+        <v>306500</v>
       </c>
       <c r="E45" s="3">
-        <v>619000</v>
+        <v>448900</v>
       </c>
       <c r="F45" s="3">
-        <v>629500</v>
+        <v>585700</v>
       </c>
       <c r="G45" s="3">
-        <v>619600</v>
+        <v>595600</v>
       </c>
       <c r="H45" s="3">
-        <v>1179000</v>
+        <v>586300</v>
       </c>
       <c r="I45" s="3">
-        <v>457500</v>
+        <v>1115700</v>
       </c>
       <c r="J45" s="3">
+        <v>432900</v>
+      </c>
+      <c r="K45" s="3">
         <v>473400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>433900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>442300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>662200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>886800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3603900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3900800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>4262900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4157200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7630700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18517900</v>
+        <v>22453400</v>
       </c>
       <c r="E46" s="3">
-        <v>20808000</v>
+        <v>17522300</v>
       </c>
       <c r="F46" s="3">
-        <v>19402100</v>
+        <v>19689400</v>
       </c>
       <c r="G46" s="3">
-        <v>12855400</v>
+        <v>18359000</v>
       </c>
       <c r="H46" s="3">
-        <v>14406300</v>
+        <v>12164300</v>
       </c>
       <c r="I46" s="3">
-        <v>11412900</v>
+        <v>13631900</v>
       </c>
       <c r="J46" s="3">
+        <v>10799300</v>
+      </c>
+      <c r="K46" s="3">
         <v>10992400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10571300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11210200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13927000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11827800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16075200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16153400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16845500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17624700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>18245600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5683000</v>
+        <v>2773000</v>
       </c>
       <c r="E47" s="3">
-        <v>5384700</v>
+        <v>5377400</v>
       </c>
       <c r="F47" s="3">
-        <v>3738600</v>
+        <v>5095200</v>
       </c>
       <c r="G47" s="3">
-        <v>3382700</v>
+        <v>3537600</v>
       </c>
       <c r="H47" s="3">
-        <v>3652400</v>
+        <v>3200900</v>
       </c>
       <c r="I47" s="3">
-        <v>3452700</v>
+        <v>3456000</v>
       </c>
       <c r="J47" s="3">
+        <v>3267100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3663100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3448900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3634400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4463000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4230800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5382600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5425000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5465700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5299900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3135400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40098300</v>
+        <v>37863900</v>
       </c>
       <c r="E48" s="3">
-        <v>39156600</v>
+        <v>37942600</v>
       </c>
       <c r="F48" s="3">
-        <v>38107400</v>
+        <v>37051600</v>
       </c>
       <c r="G48" s="3">
-        <v>35130500</v>
+        <v>36058700</v>
       </c>
       <c r="H48" s="3">
-        <v>38083200</v>
+        <v>33241900</v>
       </c>
       <c r="I48" s="3">
-        <v>36312900</v>
+        <v>36035900</v>
       </c>
       <c r="J48" s="3">
+        <v>34360800</v>
+      </c>
+      <c r="K48" s="3">
         <v>36388200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33446700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>35140300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43858900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42028700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46541900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>45711500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46359000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>44231600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44807200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6981300</v>
+        <v>8554000</v>
       </c>
       <c r="E49" s="3">
-        <v>6872200</v>
+        <v>6606000</v>
       </c>
       <c r="F49" s="3">
-        <v>6709100</v>
+        <v>6502800</v>
       </c>
       <c r="G49" s="3">
-        <v>6410500</v>
+        <v>6348400</v>
       </c>
       <c r="H49" s="3">
-        <v>6474500</v>
+        <v>6065900</v>
       </c>
       <c r="I49" s="3">
-        <v>6197300</v>
+        <v>6126500</v>
       </c>
       <c r="J49" s="3">
+        <v>5864100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6227400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5503700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5771100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7193600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6669200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7202800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7026100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6116100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5742700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5555600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13141400</v>
+        <v>13018100</v>
       </c>
       <c r="E52" s="3">
-        <v>12979500</v>
+        <v>12434900</v>
       </c>
       <c r="F52" s="3">
-        <v>14325300</v>
+        <v>12281700</v>
       </c>
       <c r="G52" s="3">
-        <v>11397300</v>
+        <v>13555100</v>
       </c>
       <c r="H52" s="3">
-        <v>10555300</v>
+        <v>10784600</v>
       </c>
       <c r="I52" s="3">
-        <v>11276400</v>
+        <v>9987900</v>
       </c>
       <c r="J52" s="3">
+        <v>10670200</v>
+      </c>
+      <c r="K52" s="3">
         <v>11382200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7991400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7575700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9872000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8500200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8915000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8603700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8591300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8068500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8310700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84421700</v>
+        <v>84662400</v>
       </c>
       <c r="E54" s="3">
-        <v>85200900</v>
+        <v>79883300</v>
       </c>
       <c r="F54" s="3">
-        <v>82282400</v>
+        <v>80620600</v>
       </c>
       <c r="G54" s="3">
-        <v>69176400</v>
+        <v>77858900</v>
       </c>
       <c r="H54" s="3">
-        <v>73171800</v>
+        <v>65457500</v>
       </c>
       <c r="I54" s="3">
-        <v>68652300</v>
+        <v>69238100</v>
       </c>
       <c r="J54" s="3">
+        <v>64961600</v>
+      </c>
+      <c r="K54" s="3">
         <v>68653400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60961900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>63331800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>79314400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73256700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>84117400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>82919700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>83377600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>80967300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>80054500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4059600</v>
+        <v>3763700</v>
       </c>
       <c r="E57" s="3">
-        <v>3769100</v>
+        <v>3841400</v>
       </c>
       <c r="F57" s="3">
-        <v>3759900</v>
+        <v>3566500</v>
       </c>
       <c r="G57" s="3">
-        <v>3837400</v>
+        <v>3557800</v>
       </c>
       <c r="H57" s="3">
-        <v>3901900</v>
+        <v>3631100</v>
       </c>
       <c r="I57" s="3">
-        <v>3373600</v>
+        <v>3692100</v>
       </c>
       <c r="J57" s="3">
+        <v>3192200</v>
+      </c>
+      <c r="K57" s="3">
         <v>3232300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3211600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3364900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3721200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3451600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3656100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3671200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3613400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3632600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3477900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1080700</v>
+        <v>1045000</v>
       </c>
       <c r="E58" s="3">
-        <v>1237600</v>
+        <v>1022600</v>
       </c>
       <c r="F58" s="3">
-        <v>1134100</v>
+        <v>1171100</v>
       </c>
       <c r="G58" s="3">
-        <v>1086300</v>
+        <v>1073100</v>
       </c>
       <c r="H58" s="3">
-        <v>1221800</v>
+        <v>1027900</v>
       </c>
       <c r="I58" s="3">
-        <v>1093800</v>
+        <v>1156100</v>
       </c>
       <c r="J58" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2139900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>693700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1017200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1641000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1525900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1444300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1493200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1749300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1891800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1342000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6136100</v>
+        <v>8619900</v>
       </c>
       <c r="E59" s="3">
-        <v>6421900</v>
+        <v>5806200</v>
       </c>
       <c r="F59" s="3">
-        <v>6368600</v>
+        <v>6076700</v>
       </c>
       <c r="G59" s="3">
-        <v>5519300</v>
+        <v>6026300</v>
       </c>
       <c r="H59" s="3">
-        <v>5342400</v>
+        <v>5222600</v>
       </c>
       <c r="I59" s="3">
-        <v>4734900</v>
+        <v>5055200</v>
       </c>
       <c r="J59" s="3">
+        <v>4480400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3717300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2430900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2411800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2909200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2776400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6015600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3540800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3612600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3770200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4262100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11276400</v>
+        <v>13428500</v>
       </c>
       <c r="E60" s="3">
-        <v>11428600</v>
+        <v>10670200</v>
       </c>
       <c r="F60" s="3">
-        <v>11262700</v>
+        <v>10814200</v>
       </c>
       <c r="G60" s="3">
-        <v>10442900</v>
+        <v>10657200</v>
       </c>
       <c r="H60" s="3">
-        <v>10466100</v>
+        <v>9881500</v>
       </c>
       <c r="I60" s="3">
-        <v>9202300</v>
+        <v>9903400</v>
       </c>
       <c r="J60" s="3">
+        <v>8707600</v>
+      </c>
+      <c r="K60" s="3">
         <v>9089500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6336200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6794000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8271400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7754000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11116000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8705200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8975400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9294600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9082100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14822100</v>
+        <v>12782300</v>
       </c>
       <c r="E61" s="3">
-        <v>17776400</v>
+        <v>14025300</v>
       </c>
       <c r="F61" s="3">
-        <v>17124800</v>
+        <v>16820700</v>
       </c>
       <c r="G61" s="3">
-        <v>10112100</v>
+        <v>16204200</v>
       </c>
       <c r="H61" s="3">
-        <v>11712100</v>
+        <v>9568500</v>
       </c>
       <c r="I61" s="3">
-        <v>11548500</v>
+        <v>11082400</v>
       </c>
       <c r="J61" s="3">
+        <v>10927700</v>
+      </c>
+      <c r="K61" s="3">
         <v>11567200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9997400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11436400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14481900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14211900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17628400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>19453700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>21873800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21350800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>22365300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23262200</v>
+        <v>26404400</v>
       </c>
       <c r="E62" s="3">
-        <v>22242300</v>
+        <v>22011700</v>
       </c>
       <c r="F62" s="3">
-        <v>21540800</v>
+        <v>21046600</v>
       </c>
       <c r="G62" s="3">
-        <v>19214000</v>
+        <v>20382800</v>
       </c>
       <c r="H62" s="3">
-        <v>17739500</v>
+        <v>18181100</v>
       </c>
       <c r="I62" s="3">
-        <v>16841300</v>
+        <v>16785800</v>
       </c>
       <c r="J62" s="3">
+        <v>15935900</v>
+      </c>
+      <c r="K62" s="3">
         <v>16510200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13643400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14258200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17951400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15742900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17401700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17013600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16990600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16074300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15438300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47998800</v>
+        <v>51765400</v>
       </c>
       <c r="E66" s="3">
-        <v>50215300</v>
+        <v>45418400</v>
       </c>
       <c r="F66" s="3">
-        <v>48813400</v>
+        <v>47515700</v>
       </c>
       <c r="G66" s="3">
-        <v>38958600</v>
+        <v>46189200</v>
       </c>
       <c r="H66" s="3">
-        <v>40443300</v>
+        <v>36864200</v>
       </c>
       <c r="I66" s="3">
-        <v>38124100</v>
+        <v>38269100</v>
       </c>
       <c r="J66" s="3">
+        <v>36074500</v>
+      </c>
+      <c r="K66" s="3">
         <v>37759800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30562100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33124200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>41550700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38565900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>47260900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46370100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>49052200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47925500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48488600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7591000</v>
+        <v>6692500</v>
       </c>
       <c r="E72" s="3">
-        <v>6980000</v>
+        <v>7182900</v>
       </c>
       <c r="F72" s="3">
-        <v>5977200</v>
+        <v>6604800</v>
       </c>
       <c r="G72" s="3">
-        <v>5793000</v>
+        <v>5655800</v>
       </c>
       <c r="H72" s="3">
-        <v>8085300</v>
+        <v>5481500</v>
       </c>
       <c r="I72" s="3">
-        <v>6861200</v>
+        <v>7650700</v>
       </c>
       <c r="J72" s="3">
+        <v>6492300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6933100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7755300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5363300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7222100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7146900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6553000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7109800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4470600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4822700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2946700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36422900</v>
+        <v>32896900</v>
       </c>
       <c r="E76" s="3">
-        <v>34985700</v>
+        <v>34464900</v>
       </c>
       <c r="F76" s="3">
-        <v>33468900</v>
+        <v>33104800</v>
       </c>
       <c r="G76" s="3">
-        <v>30217800</v>
+        <v>31669700</v>
       </c>
       <c r="H76" s="3">
-        <v>32728500</v>
+        <v>28593300</v>
       </c>
       <c r="I76" s="3">
-        <v>30528200</v>
+        <v>30969000</v>
       </c>
       <c r="J76" s="3">
+        <v>28887100</v>
+      </c>
+      <c r="K76" s="3">
         <v>30893600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30399800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30207600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37763700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34690800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36856600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36549600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34325300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>33041800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31565800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2922100</v>
+        <v>854300</v>
       </c>
       <c r="E81" s="3">
-        <v>989600</v>
+        <v>2765000</v>
       </c>
       <c r="F81" s="3">
-        <v>184200</v>
+        <v>936400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1198900</v>
+        <v>174300</v>
       </c>
       <c r="H81" s="3">
-        <v>1224100</v>
+        <v>-1134500</v>
       </c>
       <c r="I81" s="3">
-        <v>-71900</v>
+        <v>1158300</v>
       </c>
       <c r="J81" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2584200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1064500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>71500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1193800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>649400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1831300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>15500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1957600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>390300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>778700</v>
+        <v>797800</v>
       </c>
       <c r="E83" s="3">
-        <v>811500</v>
+        <v>736800</v>
       </c>
       <c r="F83" s="3">
-        <v>687900</v>
+        <v>767900</v>
       </c>
       <c r="G83" s="3">
-        <v>794600</v>
+        <v>650900</v>
       </c>
       <c r="H83" s="3">
-        <v>690300</v>
+        <v>751900</v>
       </c>
       <c r="I83" s="3">
-        <v>708500</v>
+        <v>653200</v>
       </c>
       <c r="J83" s="3">
+        <v>670400</v>
+      </c>
+      <c r="K83" s="3">
         <v>566900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>520500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>624700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>726600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>661700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>812200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>747600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>745200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>707400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>598500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4794200</v>
+        <v>6166500</v>
       </c>
       <c r="E89" s="3">
-        <v>1315300</v>
+        <v>4536400</v>
       </c>
       <c r="F89" s="3">
-        <v>1447300</v>
+        <v>1244600</v>
       </c>
       <c r="G89" s="3">
-        <v>2094600</v>
+        <v>1369500</v>
       </c>
       <c r="H89" s="3">
-        <v>3043900</v>
+        <v>1982000</v>
       </c>
       <c r="I89" s="3">
-        <v>2163800</v>
+        <v>2880200</v>
       </c>
       <c r="J89" s="3">
+        <v>2047500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1546000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2227400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2857700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3016300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1654300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3075400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1940400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2841900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2379500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2108400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-878100</v>
+        <v>-1387000</v>
       </c>
       <c r="E91" s="3">
-        <v>-973400</v>
+        <v>-830900</v>
       </c>
       <c r="F91" s="3">
-        <v>-935400</v>
+        <v>-921000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1080900</v>
+        <v>-885100</v>
       </c>
       <c r="H91" s="3">
-        <v>-716200</v>
+        <v>-1022800</v>
       </c>
       <c r="I91" s="3">
-        <v>-536100</v>
+        <v>-677700</v>
       </c>
       <c r="J91" s="3">
+        <v>-507300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-431500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-520500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-592700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-674300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-816500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-695500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-731200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-865000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>2329500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1013000</v>
+        <v>-1855300</v>
       </c>
       <c r="E94" s="3">
-        <v>-677200</v>
+        <v>-958600</v>
       </c>
       <c r="F94" s="3">
-        <v>-884000</v>
+        <v>-640800</v>
       </c>
       <c r="G94" s="3">
-        <v>-981000</v>
+        <v>-836500</v>
       </c>
       <c r="H94" s="3">
-        <v>-405600</v>
+        <v>-928200</v>
       </c>
       <c r="I94" s="3">
-        <v>-437900</v>
+        <v>-383800</v>
       </c>
       <c r="J94" s="3">
+        <v>-414400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-508600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-366500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2166300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-687700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-404900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-949700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-675900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3463200</v>
+        <v>-28500</v>
       </c>
       <c r="E96" s="3">
-        <v>-5500</v>
+        <v>-3277000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2200</v>
+        <v>-5200</v>
       </c>
       <c r="G96" s="3">
         <v>-2100</v>
       </c>
       <c r="H96" s="3">
-        <v>-74000</v>
+        <v>-2000</v>
       </c>
       <c r="I96" s="3">
-        <v>-9500</v>
+        <v>-70000</v>
       </c>
       <c r="J96" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-44400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-2200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-436800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7211000</v>
+        <v>-194200</v>
       </c>
       <c r="E100" s="3">
-        <v>-172200</v>
+        <v>-6823300</v>
       </c>
       <c r="F100" s="3">
-        <v>4212500</v>
+        <v>-163000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2126800</v>
+        <v>3986100</v>
       </c>
       <c r="H100" s="3">
-        <v>-716900</v>
+        <v>-2012500</v>
       </c>
       <c r="I100" s="3">
-        <v>-992800</v>
+        <v>-678400</v>
       </c>
       <c r="J100" s="3">
+        <v>-939400</v>
+      </c>
+      <c r="K100" s="3">
         <v>1051500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>179900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>352700</v>
+        <v>-540900</v>
       </c>
       <c r="E101" s="3">
-        <v>478900</v>
+        <v>333800</v>
       </c>
       <c r="F101" s="3">
-        <v>1148100</v>
+        <v>453200</v>
       </c>
       <c r="G101" s="3">
-        <v>-112800</v>
+        <v>1086400</v>
       </c>
       <c r="H101" s="3">
-        <v>411900</v>
+        <v>-106800</v>
       </c>
       <c r="I101" s="3">
-        <v>-47600</v>
+        <v>389700</v>
       </c>
       <c r="J101" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-147400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>153200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>453300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-75200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>89000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-96000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>57700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-50600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3077100</v>
+        <v>3576100</v>
       </c>
       <c r="E102" s="3">
-        <v>944800</v>
+        <v>-2911700</v>
       </c>
       <c r="F102" s="3">
-        <v>5924000</v>
+        <v>894000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1126000</v>
+        <v>5605500</v>
       </c>
       <c r="H102" s="3">
-        <v>2333200</v>
+        <v>-1065500</v>
       </c>
       <c r="I102" s="3">
-        <v>685500</v>
+        <v>2207800</v>
       </c>
       <c r="J102" s="3">
+        <v>648600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-542600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-358900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1568300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>822900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-161900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-604200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1832900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-877500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13977600</v>
+        <v>12999500</v>
       </c>
       <c r="E8" s="3">
-        <v>10253400</v>
+        <v>14807200</v>
       </c>
       <c r="F8" s="3">
-        <v>7159600</v>
+        <v>10862000</v>
       </c>
       <c r="G8" s="3">
-        <v>5533600</v>
+        <v>7584600</v>
       </c>
       <c r="H8" s="3">
-        <v>7263200</v>
+        <v>5862000</v>
       </c>
       <c r="I8" s="3">
-        <v>7200500</v>
+        <v>7694300</v>
       </c>
       <c r="J8" s="3">
+        <v>7627900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6375400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5792000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6682000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7005700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7293600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6522800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7647100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7332500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5989800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6634200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7604100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5452500</v>
+        <v>4764000</v>
       </c>
       <c r="E9" s="3">
-        <v>4584900</v>
+        <v>5776100</v>
       </c>
       <c r="F9" s="3">
-        <v>4013700</v>
+        <v>4857000</v>
       </c>
       <c r="G9" s="3">
-        <v>3402300</v>
+        <v>4251900</v>
       </c>
       <c r="H9" s="3">
-        <v>4103800</v>
+        <v>3604300</v>
       </c>
       <c r="I9" s="3">
-        <v>4006700</v>
+        <v>4347400</v>
       </c>
       <c r="J9" s="3">
+        <v>4244500</v>
+      </c>
+      <c r="K9" s="3">
         <v>3591400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3321500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3914200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4223700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4544900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3962900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4828000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4383800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4220500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3560000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4062900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8525100</v>
+        <v>8235500</v>
       </c>
       <c r="E10" s="3">
-        <v>5668500</v>
+        <v>9031100</v>
       </c>
       <c r="F10" s="3">
-        <v>3146000</v>
+        <v>6004900</v>
       </c>
       <c r="G10" s="3">
-        <v>2131300</v>
+        <v>3332700</v>
       </c>
       <c r="H10" s="3">
-        <v>3159400</v>
+        <v>2257800</v>
       </c>
       <c r="I10" s="3">
-        <v>3193800</v>
+        <v>3346900</v>
       </c>
       <c r="J10" s="3">
+        <v>3383400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2784100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2470400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2767800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2781900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2748700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2559900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2819100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2948600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1769200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3074200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3541300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>5810600</v>
+        <v>287700</v>
       </c>
       <c r="E14" s="3">
-        <v>393600</v>
+        <v>6155500</v>
       </c>
       <c r="F14" s="3">
-        <v>522900</v>
+        <v>416900</v>
       </c>
       <c r="G14" s="3">
-        <v>149400</v>
+        <v>554000</v>
       </c>
       <c r="H14" s="3">
-        <v>4270700</v>
+        <v>158200</v>
       </c>
       <c r="I14" s="3">
-        <v>181000</v>
+        <v>4524200</v>
       </c>
       <c r="J14" s="3">
+        <v>191800</v>
+      </c>
+      <c r="K14" s="3">
         <v>1048500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3240200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>196900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>130900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2500</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>402500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>136300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>186000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>127800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2084300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8500</v>
+        <v>9000</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>9000</v>
       </c>
       <c r="F15" s="3">
-        <v>12600</v>
+        <v>9400</v>
       </c>
       <c r="G15" s="3">
-        <v>14500</v>
+        <v>13300</v>
       </c>
       <c r="H15" s="3">
+        <v>15400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K15" s="3">
         <v>10300</v>
       </c>
-      <c r="I15" s="3">
-        <v>8700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10300</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>7800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>12400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>13300</v>
       </c>
       <c r="O15" s="3">
         <v>13300</v>
       </c>
       <c r="P15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>18200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>18500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>22300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>102600</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12381400</v>
+        <v>5437200</v>
       </c>
       <c r="E17" s="3">
-        <v>5523800</v>
+        <v>13116300</v>
       </c>
       <c r="F17" s="3">
-        <v>5686200</v>
+        <v>5851600</v>
       </c>
       <c r="G17" s="3">
-        <v>4113200</v>
+        <v>6023700</v>
       </c>
       <c r="H17" s="3">
-        <v>9125700</v>
+        <v>4357300</v>
       </c>
       <c r="I17" s="3">
-        <v>4565100</v>
+        <v>9667300</v>
       </c>
       <c r="J17" s="3">
+        <v>4836000</v>
+      </c>
+      <c r="K17" s="3">
         <v>5618400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6989800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4666600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4597100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5190500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4285100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5681300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4816100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4773800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3636500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5701000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1596100</v>
+        <v>7562400</v>
       </c>
       <c r="E18" s="3">
-        <v>4729600</v>
+        <v>1690900</v>
       </c>
       <c r="F18" s="3">
-        <v>1473500</v>
+        <v>5010300</v>
       </c>
       <c r="G18" s="3">
-        <v>1420400</v>
+        <v>1560900</v>
       </c>
       <c r="H18" s="3">
-        <v>-1862500</v>
+        <v>1504700</v>
       </c>
       <c r="I18" s="3">
-        <v>2635400</v>
+        <v>-1973000</v>
       </c>
       <c r="J18" s="3">
+        <v>2791900</v>
+      </c>
+      <c r="K18" s="3">
         <v>757000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2015400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2408500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2103100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2237700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1965800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2516400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1215900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2997700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1903100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-452900</v>
+        <v>181500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1104700</v>
+        <v>-479800</v>
       </c>
       <c r="F20" s="3">
-        <v>-270600</v>
+        <v>-1170200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1698600</v>
+        <v>-286700</v>
       </c>
       <c r="H20" s="3">
-        <v>-471300</v>
+        <v>-1799400</v>
       </c>
       <c r="I20" s="3">
-        <v>-640000</v>
+        <v>-499300</v>
       </c>
       <c r="J20" s="3">
+        <v>-678000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-321500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-333600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>148100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-755700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-210700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-855000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>440700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-741700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-143800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-221800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1941000</v>
+        <v>8496300</v>
       </c>
       <c r="E21" s="3">
-        <v>4361800</v>
+        <v>2056200</v>
       </c>
       <c r="F21" s="3">
-        <v>1970700</v>
+        <v>4620700</v>
       </c>
       <c r="G21" s="3">
-        <v>372700</v>
+        <v>2087700</v>
       </c>
       <c r="H21" s="3">
-        <v>-1581900</v>
+        <v>394900</v>
       </c>
       <c r="I21" s="3">
-        <v>2648700</v>
+        <v>-1675800</v>
       </c>
       <c r="J21" s="3">
+        <v>2805900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1106000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-964600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2684000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2277600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>487300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2688700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1923000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3704700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1219400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3561300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2509400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199400</v>
+        <v>214600</v>
       </c>
       <c r="E22" s="3">
-        <v>202200</v>
+        <v>211200</v>
       </c>
       <c r="F22" s="3">
-        <v>187900</v>
+        <v>214200</v>
       </c>
       <c r="G22" s="3">
-        <v>158300</v>
+        <v>199000</v>
       </c>
       <c r="H22" s="3">
-        <v>142200</v>
+        <v>167700</v>
       </c>
       <c r="I22" s="3">
-        <v>166600</v>
+        <v>150600</v>
       </c>
       <c r="J22" s="3">
+        <v>176500</v>
+      </c>
+      <c r="K22" s="3">
         <v>180600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>150800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>165600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>161700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>209200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>213800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>247700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>370900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>270200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>286300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>943900</v>
+        <v>7529300</v>
       </c>
       <c r="E23" s="3">
-        <v>3422700</v>
+        <v>999900</v>
       </c>
       <c r="F23" s="3">
-        <v>1015000</v>
+        <v>3625900</v>
       </c>
       <c r="G23" s="3">
-        <v>-436500</v>
+        <v>1075200</v>
       </c>
       <c r="H23" s="3">
-        <v>-2476000</v>
+        <v>-462400</v>
       </c>
       <c r="I23" s="3">
-        <v>1828800</v>
+        <v>-2623000</v>
       </c>
       <c r="J23" s="3">
+        <v>1937400</v>
+      </c>
+      <c r="K23" s="3">
         <v>254900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1997900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1491200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-449200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1817800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>897000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2709500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>103300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2583700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1395100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>179600</v>
+        <v>1866400</v>
       </c>
       <c r="E24" s="3">
-        <v>753900</v>
+        <v>190300</v>
       </c>
       <c r="F24" s="3">
-        <v>151400</v>
+        <v>798600</v>
       </c>
       <c r="G24" s="3">
-        <v>-549300</v>
+        <v>160300</v>
       </c>
       <c r="H24" s="3">
-        <v>-1025300</v>
+        <v>-581900</v>
       </c>
       <c r="I24" s="3">
-        <v>684700</v>
+        <v>-1086200</v>
       </c>
       <c r="J24" s="3">
+        <v>725400</v>
+      </c>
+      <c r="K24" s="3">
         <v>329100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-457400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-617700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>453600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-535800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>546300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>784800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>549700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>764200</v>
+        <v>5662800</v>
       </c>
       <c r="E26" s="3">
-        <v>2668800</v>
+        <v>809600</v>
       </c>
       <c r="F26" s="3">
-        <v>863600</v>
+        <v>2827200</v>
       </c>
       <c r="G26" s="3">
-        <v>112800</v>
+        <v>914800</v>
       </c>
       <c r="H26" s="3">
-        <v>-1450700</v>
+        <v>119500</v>
       </c>
       <c r="I26" s="3">
-        <v>1144100</v>
+        <v>-1536800</v>
       </c>
       <c r="J26" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-74200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2615600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1037600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>86500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1271500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1029000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1924700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>143100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2034000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1356700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>854300</v>
+        <v>5733200</v>
       </c>
       <c r="E27" s="3">
-        <v>2765000</v>
+        <v>905000</v>
       </c>
       <c r="F27" s="3">
-        <v>936400</v>
+        <v>2929100</v>
       </c>
       <c r="G27" s="3">
-        <v>174300</v>
+        <v>992000</v>
       </c>
       <c r="H27" s="3">
-        <v>-1134500</v>
+        <v>184700</v>
       </c>
       <c r="I27" s="3">
-        <v>1158300</v>
+        <v>-1201800</v>
       </c>
       <c r="J27" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-68000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2584300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1064500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>80600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1257000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1917800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>115000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2021400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1383900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1894,8 +1955,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1907,37 +1968,40 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-9100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-63300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-416600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-86500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-99500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-63800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-993600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>452900</v>
+        <v>-181500</v>
       </c>
       <c r="E32" s="3">
-        <v>1104700</v>
+        <v>479800</v>
       </c>
       <c r="F32" s="3">
-        <v>270600</v>
+        <v>1170200</v>
       </c>
       <c r="G32" s="3">
-        <v>1698600</v>
+        <v>286700</v>
       </c>
       <c r="H32" s="3">
-        <v>471300</v>
+        <v>1799400</v>
       </c>
       <c r="I32" s="3">
-        <v>640000</v>
+        <v>499300</v>
       </c>
       <c r="J32" s="3">
+        <v>678000</v>
+      </c>
+      <c r="K32" s="3">
         <v>321500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>333600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-148100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>755700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2342400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>210700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>855000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-440700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>741700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>143800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>221800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>854300</v>
+        <v>5733200</v>
       </c>
       <c r="E33" s="3">
-        <v>2765000</v>
+        <v>905000</v>
       </c>
       <c r="F33" s="3">
-        <v>936400</v>
+        <v>2929100</v>
       </c>
       <c r="G33" s="3">
-        <v>174300</v>
+        <v>992000</v>
       </c>
       <c r="H33" s="3">
-        <v>-1134500</v>
+        <v>184700</v>
       </c>
       <c r="I33" s="3">
-        <v>1158300</v>
+        <v>-1201800</v>
       </c>
       <c r="J33" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-68000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2584200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1064500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1193800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>649400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1831300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>15500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1957600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>390300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>854300</v>
+        <v>5733200</v>
       </c>
       <c r="E35" s="3">
-        <v>2765000</v>
+        <v>905000</v>
       </c>
       <c r="F35" s="3">
-        <v>936400</v>
+        <v>2929100</v>
       </c>
       <c r="G35" s="3">
-        <v>174300</v>
+        <v>992000</v>
       </c>
       <c r="H35" s="3">
-        <v>-1134500</v>
+        <v>184700</v>
       </c>
       <c r="I35" s="3">
-        <v>1158300</v>
+        <v>-1201800</v>
       </c>
       <c r="J35" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-68000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2584200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1064500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1193800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>649400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1831300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>15500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1957600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>390300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,87 +2486,91 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12410100</v>
+        <v>13768100</v>
       </c>
       <c r="E41" s="3">
-        <v>8833900</v>
+        <v>13146700</v>
       </c>
       <c r="F41" s="3">
-        <v>11745600</v>
+        <v>9358300</v>
       </c>
       <c r="G41" s="3">
-        <v>10851600</v>
+        <v>12442800</v>
       </c>
       <c r="H41" s="3">
-        <v>5246100</v>
+        <v>11495700</v>
       </c>
       <c r="I41" s="3">
-        <v>6311600</v>
+        <v>5557400</v>
       </c>
       <c r="J41" s="3">
+        <v>6686200</v>
+      </c>
+      <c r="K41" s="3">
         <v>4103800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3651500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3998400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4519200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5734600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4166300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3670700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3832600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4851300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5278900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3446000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>709300</v>
+        <v>1527000</v>
       </c>
       <c r="E42" s="3">
-        <v>125300</v>
+        <v>751400</v>
       </c>
       <c r="F42" s="3">
-        <v>89800</v>
+        <v>132700</v>
       </c>
       <c r="G42" s="3">
-        <v>440500</v>
+        <v>95100</v>
       </c>
       <c r="H42" s="3">
-        <v>589400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>466700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>624400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2494,8 +2584,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2509,430 +2599,454 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
+      <c r="S42" s="3">
+        <v>0</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5290900</v>
+        <v>4413000</v>
       </c>
       <c r="E43" s="3">
-        <v>3790700</v>
+        <v>5604900</v>
       </c>
       <c r="F43" s="3">
-        <v>3333500</v>
+        <v>4015600</v>
       </c>
       <c r="G43" s="3">
-        <v>2706300</v>
+        <v>3531400</v>
       </c>
       <c r="H43" s="3">
-        <v>2691800</v>
+        <v>2866900</v>
       </c>
       <c r="I43" s="3">
-        <v>2791300</v>
+        <v>2851600</v>
       </c>
       <c r="J43" s="3">
+        <v>2956900</v>
+      </c>
+      <c r="K43" s="3">
         <v>3056800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3287800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3067600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3244000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3929800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3695900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5471000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5103900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4454100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5326500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4461500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3736700</v>
+        <v>4568000</v>
       </c>
       <c r="E44" s="3">
-        <v>4323600</v>
+        <v>3958500</v>
       </c>
       <c r="F44" s="3">
-        <v>3934700</v>
+        <v>4580300</v>
       </c>
       <c r="G44" s="3">
-        <v>3765000</v>
+        <v>4168200</v>
       </c>
       <c r="H44" s="3">
-        <v>3050600</v>
+        <v>3988500</v>
       </c>
       <c r="I44" s="3">
-        <v>3413400</v>
+        <v>3231700</v>
       </c>
       <c r="J44" s="3">
+        <v>3616000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3205900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3579800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3071300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3004600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3600300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3078800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3329700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3316000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3277300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2862100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2707400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>306500</v>
+        <v>488900</v>
       </c>
       <c r="E45" s="3">
-        <v>448900</v>
+        <v>324700</v>
       </c>
       <c r="F45" s="3">
-        <v>585700</v>
+        <v>475500</v>
       </c>
       <c r="G45" s="3">
-        <v>595600</v>
+        <v>620500</v>
       </c>
       <c r="H45" s="3">
-        <v>586300</v>
+        <v>631000</v>
       </c>
       <c r="I45" s="3">
-        <v>1115700</v>
+        <v>621100</v>
       </c>
       <c r="J45" s="3">
+        <v>1181900</v>
+      </c>
+      <c r="K45" s="3">
         <v>432900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>473400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>433900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>442300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>662200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>886800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3603900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3900800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>4262900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4157200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7630700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22453400</v>
+        <v>24765100</v>
       </c>
       <c r="E46" s="3">
-        <v>17522300</v>
+        <v>23786100</v>
       </c>
       <c r="F46" s="3">
-        <v>19689400</v>
+        <v>18562400</v>
       </c>
       <c r="G46" s="3">
-        <v>18359000</v>
+        <v>20858000</v>
       </c>
       <c r="H46" s="3">
-        <v>12164300</v>
+        <v>19448700</v>
       </c>
       <c r="I46" s="3">
-        <v>13631900</v>
+        <v>12886300</v>
       </c>
       <c r="J46" s="3">
+        <v>14441000</v>
+      </c>
+      <c r="K46" s="3">
         <v>10799300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10992400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10571300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11210200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13927000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11827800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16075200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16153400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16845500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17624700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>18245600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2773000</v>
+        <v>3035200</v>
       </c>
       <c r="E47" s="3">
-        <v>5377400</v>
+        <v>2937600</v>
       </c>
       <c r="F47" s="3">
-        <v>5095200</v>
+        <v>5696600</v>
       </c>
       <c r="G47" s="3">
-        <v>3537600</v>
+        <v>5397600</v>
       </c>
       <c r="H47" s="3">
-        <v>3200900</v>
+        <v>3747600</v>
       </c>
       <c r="I47" s="3">
-        <v>3456000</v>
+        <v>3390800</v>
       </c>
       <c r="J47" s="3">
+        <v>3661200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3267100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3663100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3448900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3634400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4463000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4230800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5382600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5425000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5465700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5299900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3135400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37863900</v>
+        <v>41745300</v>
       </c>
       <c r="E48" s="3">
-        <v>37942600</v>
+        <v>40111300</v>
       </c>
       <c r="F48" s="3">
-        <v>37051600</v>
+        <v>40194700</v>
       </c>
       <c r="G48" s="3">
-        <v>36058700</v>
+        <v>39250800</v>
       </c>
       <c r="H48" s="3">
-        <v>33241900</v>
+        <v>38199000</v>
       </c>
       <c r="I48" s="3">
-        <v>36035900</v>
+        <v>35215000</v>
       </c>
       <c r="J48" s="3">
+        <v>38174800</v>
+      </c>
+      <c r="K48" s="3">
         <v>34360800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36388200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33446700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35140300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43858900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42028700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46541900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>45711500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46359000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>44231600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44807200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8554000</v>
+        <v>9255700</v>
       </c>
       <c r="E49" s="3">
-        <v>6606000</v>
+        <v>9061700</v>
       </c>
       <c r="F49" s="3">
-        <v>6502800</v>
+        <v>6998100</v>
       </c>
       <c r="G49" s="3">
-        <v>6348400</v>
+        <v>6888800</v>
       </c>
       <c r="H49" s="3">
-        <v>6065900</v>
+        <v>6725200</v>
       </c>
       <c r="I49" s="3">
-        <v>6126500</v>
+        <v>6425900</v>
       </c>
       <c r="J49" s="3">
+        <v>6490100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5864100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6227400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5503700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5771100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7193600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6669200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7202800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7026100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6116100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5742700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5555600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13018100</v>
+        <v>14157500</v>
       </c>
       <c r="E52" s="3">
-        <v>12434900</v>
+        <v>13790800</v>
       </c>
       <c r="F52" s="3">
-        <v>12281700</v>
+        <v>13173000</v>
       </c>
       <c r="G52" s="3">
-        <v>13555100</v>
+        <v>13010700</v>
       </c>
       <c r="H52" s="3">
-        <v>10784600</v>
+        <v>14359700</v>
       </c>
       <c r="I52" s="3">
-        <v>9987900</v>
+        <v>11424700</v>
       </c>
       <c r="J52" s="3">
+        <v>10580700</v>
+      </c>
+      <c r="K52" s="3">
         <v>10670200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11382200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7991400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7575700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9872000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8500200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8915000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8603700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8591300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8068500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8310700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84662400</v>
+        <v>92958800</v>
       </c>
       <c r="E54" s="3">
-        <v>79883300</v>
+        <v>89687500</v>
       </c>
       <c r="F54" s="3">
-        <v>80620600</v>
+        <v>84624800</v>
       </c>
       <c r="G54" s="3">
-        <v>77858900</v>
+        <v>85405800</v>
       </c>
       <c r="H54" s="3">
-        <v>65457500</v>
+        <v>82480200</v>
       </c>
       <c r="I54" s="3">
-        <v>69238100</v>
+        <v>69342800</v>
       </c>
       <c r="J54" s="3">
+        <v>73347700</v>
+      </c>
+      <c r="K54" s="3">
         <v>64961600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68653400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60961900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>63331800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>79314400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73256700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>84117400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>82919700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>83377600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>80967300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80054500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3763700</v>
+        <v>4104400</v>
       </c>
       <c r="E57" s="3">
-        <v>3841400</v>
+        <v>3987100</v>
       </c>
       <c r="F57" s="3">
-        <v>3566500</v>
+        <v>4069400</v>
       </c>
       <c r="G57" s="3">
-        <v>3557800</v>
+        <v>3778200</v>
       </c>
       <c r="H57" s="3">
-        <v>3631100</v>
+        <v>3768900</v>
       </c>
       <c r="I57" s="3">
-        <v>3692100</v>
+        <v>3846600</v>
       </c>
       <c r="J57" s="3">
+        <v>3911300</v>
+      </c>
+      <c r="K57" s="3">
         <v>3192200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3232300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3211600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3364900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3721200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3451600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3656100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3671200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3613400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3632600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3477900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1045000</v>
+        <v>1056700</v>
       </c>
       <c r="E58" s="3">
-        <v>1022600</v>
+        <v>1107000</v>
       </c>
       <c r="F58" s="3">
-        <v>1171100</v>
+        <v>1083300</v>
       </c>
       <c r="G58" s="3">
-        <v>1073100</v>
+        <v>1240600</v>
       </c>
       <c r="H58" s="3">
-        <v>1027900</v>
+        <v>1136800</v>
       </c>
       <c r="I58" s="3">
-        <v>1156100</v>
+        <v>1088900</v>
       </c>
       <c r="J58" s="3">
+        <v>1224700</v>
+      </c>
+      <c r="K58" s="3">
         <v>1035000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2139900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>693700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1017200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1641000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1525900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1444300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1493200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1749300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1891800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1342000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8619900</v>
+        <v>7477900</v>
       </c>
       <c r="E59" s="3">
-        <v>5806200</v>
+        <v>9131500</v>
       </c>
       <c r="F59" s="3">
-        <v>6076700</v>
+        <v>6150800</v>
       </c>
       <c r="G59" s="3">
-        <v>6026300</v>
+        <v>6437400</v>
       </c>
       <c r="H59" s="3">
-        <v>5222600</v>
+        <v>6384000</v>
       </c>
       <c r="I59" s="3">
-        <v>5055200</v>
+        <v>5532500</v>
       </c>
       <c r="J59" s="3">
+        <v>5355300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4480400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3717300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2430900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2411800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2909200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2776400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6015600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3540800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3612600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3770200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4262100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13428500</v>
+        <v>12639000</v>
       </c>
       <c r="E60" s="3">
-        <v>10670200</v>
+        <v>14225600</v>
       </c>
       <c r="F60" s="3">
-        <v>10814200</v>
+        <v>11303500</v>
       </c>
       <c r="G60" s="3">
-        <v>10657200</v>
+        <v>11456100</v>
       </c>
       <c r="H60" s="3">
-        <v>9881500</v>
+        <v>11289700</v>
       </c>
       <c r="I60" s="3">
-        <v>9903400</v>
+        <v>10468000</v>
       </c>
       <c r="J60" s="3">
+        <v>10491300</v>
+      </c>
+      <c r="K60" s="3">
         <v>8707600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9089500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6336200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6794000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8271400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7754000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11116000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8705200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8975400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9294600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9082100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12782300</v>
+        <v>13699800</v>
       </c>
       <c r="E61" s="3">
-        <v>14025300</v>
+        <v>13541000</v>
       </c>
       <c r="F61" s="3">
-        <v>16820700</v>
+        <v>14857700</v>
       </c>
       <c r="G61" s="3">
-        <v>16204200</v>
+        <v>17819100</v>
       </c>
       <c r="H61" s="3">
-        <v>9568500</v>
+        <v>17166000</v>
       </c>
       <c r="I61" s="3">
-        <v>11082400</v>
+        <v>10136400</v>
       </c>
       <c r="J61" s="3">
+        <v>11740200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10927700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11567200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9997400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11436400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14481900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14211900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17628400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>19453700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>21873800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21350800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>22365300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>26404400</v>
+        <v>28747200</v>
       </c>
       <c r="E62" s="3">
-        <v>22011700</v>
+        <v>27971600</v>
       </c>
       <c r="F62" s="3">
-        <v>21046600</v>
+        <v>23318200</v>
       </c>
       <c r="G62" s="3">
-        <v>20382800</v>
+        <v>22295800</v>
       </c>
       <c r="H62" s="3">
-        <v>18181100</v>
+        <v>21592600</v>
       </c>
       <c r="I62" s="3">
-        <v>16785800</v>
+        <v>19260200</v>
       </c>
       <c r="J62" s="3">
+        <v>17782200</v>
+      </c>
+      <c r="K62" s="3">
         <v>15935900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>16510200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13643400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14258200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17951400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15742900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17401700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17013600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16990600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16074300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15438300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51765400</v>
+        <v>54038400</v>
       </c>
       <c r="E66" s="3">
-        <v>45418400</v>
+        <v>54838000</v>
       </c>
       <c r="F66" s="3">
-        <v>47515700</v>
+        <v>48114200</v>
       </c>
       <c r="G66" s="3">
-        <v>46189200</v>
+        <v>50336000</v>
       </c>
       <c r="H66" s="3">
-        <v>36864200</v>
+        <v>48930800</v>
       </c>
       <c r="I66" s="3">
-        <v>38269100</v>
+        <v>39052300</v>
       </c>
       <c r="J66" s="3">
+        <v>40540500</v>
+      </c>
+      <c r="K66" s="3">
         <v>36074500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37759800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30562100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33124200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>41550700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38565900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>47260900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46370100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>49052200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47925500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48488600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6692500</v>
+        <v>10592700</v>
       </c>
       <c r="E72" s="3">
-        <v>7182900</v>
+        <v>7089800</v>
       </c>
       <c r="F72" s="3">
-        <v>6604800</v>
+        <v>7609200</v>
       </c>
       <c r="G72" s="3">
-        <v>5655800</v>
+        <v>6996800</v>
       </c>
       <c r="H72" s="3">
-        <v>5481500</v>
+        <v>5991500</v>
       </c>
       <c r="I72" s="3">
-        <v>7650700</v>
+        <v>5806900</v>
       </c>
       <c r="J72" s="3">
+        <v>8104800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6492300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6933100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7755300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5363300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7222100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7146900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6553000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7109800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4470600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4822700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2946700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32896900</v>
+        <v>38920400</v>
       </c>
       <c r="E76" s="3">
-        <v>34464900</v>
+        <v>34849500</v>
       </c>
       <c r="F76" s="3">
-        <v>33104800</v>
+        <v>36510500</v>
       </c>
       <c r="G76" s="3">
-        <v>31669700</v>
+        <v>35069800</v>
       </c>
       <c r="H76" s="3">
-        <v>28593300</v>
+        <v>33549400</v>
       </c>
       <c r="I76" s="3">
-        <v>30969000</v>
+        <v>30290500</v>
       </c>
       <c r="J76" s="3">
+        <v>32807200</v>
+      </c>
+      <c r="K76" s="3">
         <v>28887100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30893600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30399800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30207600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37763700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34690800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36856600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36549600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34325300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>33041800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31565800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>854300</v>
+        <v>5733200</v>
       </c>
       <c r="E81" s="3">
-        <v>2765000</v>
+        <v>905000</v>
       </c>
       <c r="F81" s="3">
-        <v>936400</v>
+        <v>2929100</v>
       </c>
       <c r="G81" s="3">
-        <v>174300</v>
+        <v>992000</v>
       </c>
       <c r="H81" s="3">
-        <v>-1134500</v>
+        <v>184700</v>
       </c>
       <c r="I81" s="3">
-        <v>1158300</v>
+        <v>-1201800</v>
       </c>
       <c r="J81" s="3">
+        <v>1227100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-68000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2584200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1064500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1193800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>649400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1831300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>15500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1957600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>390300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>797800</v>
+        <v>752500</v>
       </c>
       <c r="E83" s="3">
-        <v>736800</v>
+        <v>845100</v>
       </c>
       <c r="F83" s="3">
-        <v>767900</v>
+        <v>780600</v>
       </c>
       <c r="G83" s="3">
-        <v>650900</v>
+        <v>813400</v>
       </c>
       <c r="H83" s="3">
-        <v>751900</v>
+        <v>689600</v>
       </c>
       <c r="I83" s="3">
-        <v>653200</v>
+        <v>796500</v>
       </c>
       <c r="J83" s="3">
+        <v>692000</v>
+      </c>
+      <c r="K83" s="3">
         <v>670400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>566900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>520500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>624700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>726600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>661700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>812200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>747600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>745200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>707400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>598500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>6166500</v>
+        <v>7186100</v>
       </c>
       <c r="E89" s="3">
-        <v>4536400</v>
+        <v>6532500</v>
       </c>
       <c r="F89" s="3">
-        <v>1244600</v>
+        <v>4805700</v>
       </c>
       <c r="G89" s="3">
-        <v>1369500</v>
+        <v>1318500</v>
       </c>
       <c r="H89" s="3">
-        <v>1982000</v>
+        <v>1450800</v>
       </c>
       <c r="I89" s="3">
-        <v>2880200</v>
+        <v>2099600</v>
       </c>
       <c r="J89" s="3">
+        <v>3051200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2047500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1546000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2227400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2857700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3016300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1654300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3075400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1940400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2841900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2379500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2108400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1387000</v>
+        <v>-587900</v>
       </c>
       <c r="E91" s="3">
-        <v>-830900</v>
+        <v>-1469300</v>
       </c>
       <c r="F91" s="3">
-        <v>-921000</v>
+        <v>-880200</v>
       </c>
       <c r="G91" s="3">
-        <v>-885100</v>
+        <v>-975700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1022800</v>
+        <v>-937700</v>
       </c>
       <c r="I91" s="3">
-        <v>-677700</v>
+        <v>-1083500</v>
       </c>
       <c r="J91" s="3">
+        <v>-717900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-507300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-431500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-520500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-592700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-674300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-816500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-695500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-731200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-865000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>2329500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1855300</v>
+        <v>-2461300</v>
       </c>
       <c r="E94" s="3">
-        <v>-958600</v>
+        <v>-1965400</v>
       </c>
       <c r="F94" s="3">
-        <v>-640800</v>
+        <v>-1015500</v>
       </c>
       <c r="G94" s="3">
-        <v>-836500</v>
+        <v>-678800</v>
       </c>
       <c r="H94" s="3">
-        <v>-928200</v>
+        <v>-886100</v>
       </c>
       <c r="I94" s="3">
-        <v>-383800</v>
+        <v>-983300</v>
       </c>
       <c r="J94" s="3">
+        <v>-406600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-414400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-508600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-366500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>2166300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-687700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-404900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-949700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-675900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28500</v>
+        <v>-4101600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3277000</v>
+        <v>-30200</v>
       </c>
       <c r="F96" s="3">
-        <v>-5200</v>
+        <v>-3471500</v>
       </c>
       <c r="G96" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2100</v>
       </c>
-      <c r="H96" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-70000</v>
-      </c>
       <c r="J96" s="3">
+        <v>-74100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-9000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-44400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-2200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-436800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-194200</v>
+        <v>-5151900</v>
       </c>
       <c r="E100" s="3">
-        <v>-6823300</v>
+        <v>-205700</v>
       </c>
       <c r="F100" s="3">
-        <v>-163000</v>
+        <v>-7228300</v>
       </c>
       <c r="G100" s="3">
-        <v>3986100</v>
+        <v>-172600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2012500</v>
+        <v>4222700</v>
       </c>
       <c r="I100" s="3">
-        <v>-678400</v>
+        <v>-2131900</v>
       </c>
       <c r="J100" s="3">
+        <v>-718600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-939400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1051500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>179900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-540900</v>
+        <v>1048500</v>
       </c>
       <c r="E101" s="3">
-        <v>333800</v>
+        <v>-573000</v>
       </c>
       <c r="F101" s="3">
-        <v>453200</v>
+        <v>353600</v>
       </c>
       <c r="G101" s="3">
-        <v>1086400</v>
+        <v>480100</v>
       </c>
       <c r="H101" s="3">
-        <v>-106800</v>
+        <v>1150900</v>
       </c>
       <c r="I101" s="3">
-        <v>389700</v>
+        <v>-113100</v>
       </c>
       <c r="J101" s="3">
+        <v>412800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-45000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-147400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>153200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>453300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-75200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>89000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-96000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>57700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-50600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3576100</v>
+        <v>621400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2911700</v>
+        <v>3788400</v>
       </c>
       <c r="F102" s="3">
-        <v>894000</v>
+        <v>-3084500</v>
       </c>
       <c r="G102" s="3">
-        <v>5605500</v>
+        <v>947100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1065500</v>
+        <v>5938200</v>
       </c>
       <c r="I102" s="3">
-        <v>2207800</v>
+        <v>-1128700</v>
       </c>
       <c r="J102" s="3">
+        <v>2338800</v>
+      </c>
+      <c r="K102" s="3">
         <v>648600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-542600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-358900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1568300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>822900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-161900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-604200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1832900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-877500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12999500</v>
+        <v>16225300</v>
       </c>
       <c r="E8" s="3">
-        <v>14807200</v>
+        <v>12799900</v>
       </c>
       <c r="F8" s="3">
-        <v>10862000</v>
+        <v>14579900</v>
       </c>
       <c r="G8" s="3">
-        <v>7584600</v>
+        <v>10695200</v>
       </c>
       <c r="H8" s="3">
-        <v>5862000</v>
+        <v>7468100</v>
       </c>
       <c r="I8" s="3">
-        <v>7694300</v>
+        <v>5772000</v>
       </c>
       <c r="J8" s="3">
+        <v>7576200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7627900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6375400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5792000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6682000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7005700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7293600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6522800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7647100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7332500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5989800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6634200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7604100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4764000</v>
+        <v>5647100</v>
       </c>
       <c r="E9" s="3">
-        <v>5776100</v>
+        <v>4690900</v>
       </c>
       <c r="F9" s="3">
-        <v>4857000</v>
+        <v>5687400</v>
       </c>
       <c r="G9" s="3">
-        <v>4251900</v>
+        <v>4782500</v>
       </c>
       <c r="H9" s="3">
-        <v>3604300</v>
+        <v>4186600</v>
       </c>
       <c r="I9" s="3">
-        <v>4347400</v>
+        <v>3548900</v>
       </c>
       <c r="J9" s="3">
+        <v>4280600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4244500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3591400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3321500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3914200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4223700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4544900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3962900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4828000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4383800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4220500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3560000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4062900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8235500</v>
+        <v>10578200</v>
       </c>
       <c r="E10" s="3">
-        <v>9031100</v>
+        <v>8109100</v>
       </c>
       <c r="F10" s="3">
-        <v>6004900</v>
+        <v>8892500</v>
       </c>
       <c r="G10" s="3">
-        <v>3332700</v>
+        <v>5912700</v>
       </c>
       <c r="H10" s="3">
-        <v>2257800</v>
+        <v>3281500</v>
       </c>
       <c r="I10" s="3">
-        <v>3346900</v>
+        <v>2223100</v>
       </c>
       <c r="J10" s="3">
+        <v>3295500</v>
+      </c>
+      <c r="K10" s="3">
         <v>3383400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2784100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2470400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2767800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2781900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2748700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2559900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2819100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2948600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1769200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3074200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3541300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>287700</v>
+        <v>579000</v>
       </c>
       <c r="E14" s="3">
-        <v>6155500</v>
+        <v>283300</v>
       </c>
       <c r="F14" s="3">
-        <v>416900</v>
+        <v>6060900</v>
       </c>
       <c r="G14" s="3">
-        <v>554000</v>
+        <v>410500</v>
       </c>
       <c r="H14" s="3">
-        <v>158200</v>
+        <v>545500</v>
       </c>
       <c r="I14" s="3">
-        <v>4524200</v>
+        <v>155800</v>
       </c>
       <c r="J14" s="3">
+        <v>4454700</v>
+      </c>
+      <c r="K14" s="3">
         <v>191800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1048500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3240200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>196900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>130900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>402500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>136300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>186000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>127800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2084300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>9000</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3">
-        <v>9400</v>
+        <v>8900</v>
       </c>
       <c r="G15" s="3">
-        <v>13300</v>
+        <v>9200</v>
       </c>
       <c r="H15" s="3">
-        <v>15400</v>
+        <v>13100</v>
       </c>
       <c r="I15" s="3">
-        <v>10900</v>
+        <v>15100</v>
       </c>
       <c r="J15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K15" s="3">
         <v>9200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>7800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>12400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>13300</v>
       </c>
       <c r="P15" s="3">
         <v>13300</v>
       </c>
       <c r="Q15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="R15" s="3">
         <v>18200</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>18500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>22300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>102600</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5437200</v>
+        <v>7177200</v>
       </c>
       <c r="E17" s="3">
-        <v>13116300</v>
+        <v>5353700</v>
       </c>
       <c r="F17" s="3">
-        <v>5851600</v>
+        <v>12915000</v>
       </c>
       <c r="G17" s="3">
-        <v>6023700</v>
+        <v>5761800</v>
       </c>
       <c r="H17" s="3">
-        <v>4357300</v>
+        <v>5931200</v>
       </c>
       <c r="I17" s="3">
-        <v>9667300</v>
+        <v>4290400</v>
       </c>
       <c r="J17" s="3">
+        <v>9518900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4836000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5618400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6989800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4666600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4597100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5190500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4285100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5681300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4816100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4773800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3636500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5701000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7562400</v>
+        <v>9048100</v>
       </c>
       <c r="E18" s="3">
-        <v>1690900</v>
+        <v>7446200</v>
       </c>
       <c r="F18" s="3">
-        <v>5010300</v>
+        <v>1664900</v>
       </c>
       <c r="G18" s="3">
-        <v>1560900</v>
+        <v>4933400</v>
       </c>
       <c r="H18" s="3">
-        <v>1504700</v>
+        <v>1536900</v>
       </c>
       <c r="I18" s="3">
-        <v>-1973000</v>
+        <v>1481600</v>
       </c>
       <c r="J18" s="3">
+        <v>-1942700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2791900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>757000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2015400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2408500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2103100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2237700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1965800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2516400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1215900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2997700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1903100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>181500</v>
+        <v>519600</v>
       </c>
       <c r="E20" s="3">
-        <v>-479800</v>
+        <v>178700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1170200</v>
+        <v>-472400</v>
       </c>
       <c r="G20" s="3">
-        <v>-286700</v>
+        <v>-1152300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1799400</v>
+        <v>-282300</v>
       </c>
       <c r="I20" s="3">
-        <v>-499300</v>
+        <v>-1771800</v>
       </c>
       <c r="J20" s="3">
+        <v>-491600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-678000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-321500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-333600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>148100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-755700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-210700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-855000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>440700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-741700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-143800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-221800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>8496300</v>
+        <v>10394700</v>
       </c>
       <c r="E21" s="3">
-        <v>2056200</v>
+        <v>8365900</v>
       </c>
       <c r="F21" s="3">
-        <v>4620700</v>
+        <v>2024600</v>
       </c>
       <c r="G21" s="3">
-        <v>2087700</v>
+        <v>4549700</v>
       </c>
       <c r="H21" s="3">
-        <v>394900</v>
+        <v>2055600</v>
       </c>
       <c r="I21" s="3">
-        <v>-1675800</v>
+        <v>388800</v>
       </c>
       <c r="J21" s="3">
+        <v>-1650100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2805900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1106000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-964600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2684000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2277600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>487300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2688700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1923000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3704700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1219400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3561300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2509400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>214600</v>
+        <v>175800</v>
       </c>
       <c r="E22" s="3">
-        <v>211200</v>
+        <v>211300</v>
       </c>
       <c r="F22" s="3">
-        <v>214200</v>
+        <v>208000</v>
       </c>
       <c r="G22" s="3">
-        <v>199000</v>
+        <v>210900</v>
       </c>
       <c r="H22" s="3">
-        <v>167700</v>
+        <v>196000</v>
       </c>
       <c r="I22" s="3">
-        <v>150600</v>
+        <v>165100</v>
       </c>
       <c r="J22" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K22" s="3">
         <v>176500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>180600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>150800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>165600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>161700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>209900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>209200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>213800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>247700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>370900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>270200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>286300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7529300</v>
+        <v>9391800</v>
       </c>
       <c r="E23" s="3">
-        <v>999900</v>
+        <v>7413700</v>
       </c>
       <c r="F23" s="3">
-        <v>3625900</v>
+        <v>984500</v>
       </c>
       <c r="G23" s="3">
-        <v>1075200</v>
+        <v>3570200</v>
       </c>
       <c r="H23" s="3">
-        <v>-462400</v>
+        <v>1058700</v>
       </c>
       <c r="I23" s="3">
-        <v>-2623000</v>
+        <v>-455300</v>
       </c>
       <c r="J23" s="3">
+        <v>-2582700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1937400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>254900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1997900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1491200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-449200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1817800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>897000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2709500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>103300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2583700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1395100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1866400</v>
+        <v>2034900</v>
       </c>
       <c r="E24" s="3">
-        <v>190300</v>
+        <v>1837800</v>
       </c>
       <c r="F24" s="3">
-        <v>798600</v>
+        <v>187400</v>
       </c>
       <c r="G24" s="3">
-        <v>160300</v>
+        <v>786400</v>
       </c>
       <c r="H24" s="3">
-        <v>-581900</v>
+        <v>157900</v>
       </c>
       <c r="I24" s="3">
-        <v>-1086200</v>
+        <v>-573000</v>
       </c>
       <c r="J24" s="3">
+        <v>-1069500</v>
+      </c>
+      <c r="K24" s="3">
         <v>725400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>329100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-457400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-617700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>453600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-535800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>546300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-132000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>784800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>549700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5662800</v>
+        <v>7356900</v>
       </c>
       <c r="E26" s="3">
-        <v>809600</v>
+        <v>5575900</v>
       </c>
       <c r="F26" s="3">
-        <v>2827200</v>
+        <v>797200</v>
       </c>
       <c r="G26" s="3">
-        <v>914800</v>
+        <v>2783800</v>
       </c>
       <c r="H26" s="3">
-        <v>119500</v>
+        <v>900800</v>
       </c>
       <c r="I26" s="3">
-        <v>-1536800</v>
+        <v>117600</v>
       </c>
       <c r="J26" s="3">
+        <v>-1513200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1212000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-74200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2615600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1037600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>86500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1271500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1029000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1924700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>143100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2034000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1356700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5733200</v>
+        <v>7405500</v>
       </c>
       <c r="E27" s="3">
-        <v>905000</v>
+        <v>5645200</v>
       </c>
       <c r="F27" s="3">
-        <v>2929100</v>
+        <v>891100</v>
       </c>
       <c r="G27" s="3">
-        <v>992000</v>
+        <v>2884100</v>
       </c>
       <c r="H27" s="3">
-        <v>184700</v>
+        <v>976800</v>
       </c>
       <c r="I27" s="3">
-        <v>-1201800</v>
+        <v>181800</v>
       </c>
       <c r="J27" s="3">
+        <v>-1183400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1227100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-68000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2584300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1064500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>80600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1257000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1066000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1917800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>115000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2021400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1383900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1958,8 +2019,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1971,37 +2032,40 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-9100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-63300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-416600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-86500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-99500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-63800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-993600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-181500</v>
+        <v>-519600</v>
       </c>
       <c r="E32" s="3">
-        <v>479800</v>
+        <v>-178700</v>
       </c>
       <c r="F32" s="3">
-        <v>1170200</v>
+        <v>472400</v>
       </c>
       <c r="G32" s="3">
-        <v>286700</v>
+        <v>1152300</v>
       </c>
       <c r="H32" s="3">
-        <v>1799400</v>
+        <v>282300</v>
       </c>
       <c r="I32" s="3">
-        <v>499300</v>
+        <v>1771800</v>
       </c>
       <c r="J32" s="3">
+        <v>491600</v>
+      </c>
+      <c r="K32" s="3">
         <v>678000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>321500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>333600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-148100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>755700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2342400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>210700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>855000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-440700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>741700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>143800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>221800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5733200</v>
+        <v>7405500</v>
       </c>
       <c r="E33" s="3">
-        <v>905000</v>
+        <v>5645200</v>
       </c>
       <c r="F33" s="3">
-        <v>2929100</v>
+        <v>891100</v>
       </c>
       <c r="G33" s="3">
-        <v>992000</v>
+        <v>2884100</v>
       </c>
       <c r="H33" s="3">
-        <v>184700</v>
+        <v>976800</v>
       </c>
       <c r="I33" s="3">
-        <v>-1201800</v>
+        <v>181800</v>
       </c>
       <c r="J33" s="3">
+        <v>-1183400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1227100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-68000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2584200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1064500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>71500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>649400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1831300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>15500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1957600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>390300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5733200</v>
+        <v>7405500</v>
       </c>
       <c r="E35" s="3">
-        <v>905000</v>
+        <v>5645200</v>
       </c>
       <c r="F35" s="3">
-        <v>2929100</v>
+        <v>891100</v>
       </c>
       <c r="G35" s="3">
-        <v>992000</v>
+        <v>2884100</v>
       </c>
       <c r="H35" s="3">
-        <v>184700</v>
+        <v>976800</v>
       </c>
       <c r="I35" s="3">
-        <v>-1201800</v>
+        <v>181800</v>
       </c>
       <c r="J35" s="3">
+        <v>-1183400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1227100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-68000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2584200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1064500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>71500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>649400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1831300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>15500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1957600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>390300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,93 +2573,97 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13768100</v>
+        <v>12610300</v>
       </c>
       <c r="E41" s="3">
-        <v>13146700</v>
+        <v>13556700</v>
       </c>
       <c r="F41" s="3">
-        <v>9358300</v>
+        <v>12944800</v>
       </c>
       <c r="G41" s="3">
-        <v>12442800</v>
+        <v>9214600</v>
       </c>
       <c r="H41" s="3">
-        <v>11495700</v>
+        <v>12251700</v>
       </c>
       <c r="I41" s="3">
-        <v>5557400</v>
+        <v>11319200</v>
       </c>
       <c r="J41" s="3">
+        <v>5472100</v>
+      </c>
+      <c r="K41" s="3">
         <v>6686200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4103800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3651500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3998400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4519200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5734600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4166300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3670700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3832600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4851300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5278900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3446000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1527000</v>
+        <v>879000</v>
       </c>
       <c r="E42" s="3">
-        <v>751400</v>
+        <v>1503600</v>
       </c>
       <c r="F42" s="3">
-        <v>132700</v>
+        <v>739800</v>
       </c>
       <c r="G42" s="3">
-        <v>95100</v>
+        <v>130700</v>
       </c>
       <c r="H42" s="3">
-        <v>466700</v>
+        <v>93700</v>
       </c>
       <c r="I42" s="3">
-        <v>624400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>459500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>614800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2587,8 +2677,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2602,451 +2692,475 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>8</v>
+      <c r="T42" s="3">
+        <v>0</v>
       </c>
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4413000</v>
+        <v>5194500</v>
       </c>
       <c r="E43" s="3">
-        <v>5604900</v>
+        <v>4345300</v>
       </c>
       <c r="F43" s="3">
-        <v>4015600</v>
+        <v>5518900</v>
       </c>
       <c r="G43" s="3">
-        <v>3531400</v>
+        <v>3954000</v>
       </c>
       <c r="H43" s="3">
-        <v>2866900</v>
+        <v>3477200</v>
       </c>
       <c r="I43" s="3">
-        <v>2851600</v>
+        <v>2822900</v>
       </c>
       <c r="J43" s="3">
+        <v>2807800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2956900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3056800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3287800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3067600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3244000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3929800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3695900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5471000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5103900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4454100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5326500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4461500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4568000</v>
+        <v>4342800</v>
       </c>
       <c r="E44" s="3">
-        <v>3958500</v>
+        <v>4497900</v>
       </c>
       <c r="F44" s="3">
-        <v>4580300</v>
+        <v>3897700</v>
       </c>
       <c r="G44" s="3">
-        <v>4168200</v>
+        <v>4509900</v>
       </c>
       <c r="H44" s="3">
-        <v>3988500</v>
+        <v>4104200</v>
       </c>
       <c r="I44" s="3">
-        <v>3231700</v>
+        <v>3927200</v>
       </c>
       <c r="J44" s="3">
+        <v>3182100</v>
+      </c>
+      <c r="K44" s="3">
         <v>3616000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3205900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3579800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3071300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3004600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3600300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3078800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3329700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3316000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3277300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2862100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2707400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>488900</v>
+        <v>442700</v>
       </c>
       <c r="E45" s="3">
-        <v>324700</v>
+        <v>481400</v>
       </c>
       <c r="F45" s="3">
-        <v>475500</v>
+        <v>319700</v>
       </c>
       <c r="G45" s="3">
-        <v>620500</v>
+        <v>468200</v>
       </c>
       <c r="H45" s="3">
-        <v>631000</v>
+        <v>611000</v>
       </c>
       <c r="I45" s="3">
-        <v>621100</v>
+        <v>621300</v>
       </c>
       <c r="J45" s="3">
+        <v>611600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1181900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>432900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>473400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>433900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>442300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>662200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>886800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3603900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3900800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>4262900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4157200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7630700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24765100</v>
+        <v>23469500</v>
       </c>
       <c r="E46" s="3">
-        <v>23786100</v>
+        <v>24384900</v>
       </c>
       <c r="F46" s="3">
-        <v>18562400</v>
+        <v>23420900</v>
       </c>
       <c r="G46" s="3">
-        <v>20858000</v>
+        <v>18277400</v>
       </c>
       <c r="H46" s="3">
-        <v>19448700</v>
+        <v>20537800</v>
       </c>
       <c r="I46" s="3">
-        <v>12886300</v>
+        <v>19150100</v>
       </c>
       <c r="J46" s="3">
+        <v>12688400</v>
+      </c>
+      <c r="K46" s="3">
         <v>14441000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10799300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10992400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10571300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11210200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13927000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11827800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16075200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16153400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16845500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17624700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>18245600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3035200</v>
+        <v>3414600</v>
       </c>
       <c r="E47" s="3">
-        <v>2937600</v>
+        <v>2988600</v>
       </c>
       <c r="F47" s="3">
-        <v>5696600</v>
+        <v>2892500</v>
       </c>
       <c r="G47" s="3">
-        <v>5397600</v>
+        <v>5609200</v>
       </c>
       <c r="H47" s="3">
-        <v>3747600</v>
+        <v>5314700</v>
       </c>
       <c r="I47" s="3">
-        <v>3390800</v>
+        <v>3690100</v>
       </c>
       <c r="J47" s="3">
+        <v>3338800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3661200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3267100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3663100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3448900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3634400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4463000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4230800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5382600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5425000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5465700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5299900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3135400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41745300</v>
+        <v>40545000</v>
       </c>
       <c r="E48" s="3">
-        <v>40111300</v>
+        <v>41104400</v>
       </c>
       <c r="F48" s="3">
-        <v>40194700</v>
+        <v>39495500</v>
       </c>
       <c r="G48" s="3">
-        <v>39250800</v>
+        <v>39577600</v>
       </c>
       <c r="H48" s="3">
-        <v>38199000</v>
+        <v>38648100</v>
       </c>
       <c r="I48" s="3">
-        <v>35215000</v>
+        <v>37612500</v>
       </c>
       <c r="J48" s="3">
+        <v>34674300</v>
+      </c>
+      <c r="K48" s="3">
         <v>38174800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34360800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36388200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33446700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35140300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>43858900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42028700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46541900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>45711500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46359000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>44231600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44807200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9255700</v>
+        <v>10160300</v>
       </c>
       <c r="E49" s="3">
-        <v>9061700</v>
+        <v>9113600</v>
       </c>
       <c r="F49" s="3">
-        <v>6998100</v>
+        <v>8922600</v>
       </c>
       <c r="G49" s="3">
-        <v>6888800</v>
+        <v>6890700</v>
       </c>
       <c r="H49" s="3">
-        <v>6725200</v>
+        <v>6783000</v>
       </c>
       <c r="I49" s="3">
-        <v>6425900</v>
+        <v>6622000</v>
       </c>
       <c r="J49" s="3">
+        <v>6327300</v>
+      </c>
+      <c r="K49" s="3">
         <v>6490100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5864100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6227400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5503700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5771100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7193600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6669200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7202800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7026100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6116100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5742700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5555600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14157500</v>
+        <v>11766500</v>
       </c>
       <c r="E52" s="3">
-        <v>13790800</v>
+        <v>13940100</v>
       </c>
       <c r="F52" s="3">
-        <v>13173000</v>
+        <v>13579100</v>
       </c>
       <c r="G52" s="3">
-        <v>13010700</v>
+        <v>12970700</v>
       </c>
       <c r="H52" s="3">
-        <v>14359700</v>
+        <v>12810900</v>
       </c>
       <c r="I52" s="3">
-        <v>11424700</v>
+        <v>14139200</v>
       </c>
       <c r="J52" s="3">
+        <v>11249300</v>
+      </c>
+      <c r="K52" s="3">
         <v>10580700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10670200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11382200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7991400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7575700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9872000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8500200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8915000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8603700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8591300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8068500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8310700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92958800</v>
+        <v>89355900</v>
       </c>
       <c r="E54" s="3">
-        <v>89687500</v>
+        <v>91531600</v>
       </c>
       <c r="F54" s="3">
-        <v>84624800</v>
+        <v>88310500</v>
       </c>
       <c r="G54" s="3">
-        <v>85405800</v>
+        <v>83325500</v>
       </c>
       <c r="H54" s="3">
-        <v>82480200</v>
+        <v>84094600</v>
       </c>
       <c r="I54" s="3">
-        <v>69342800</v>
+        <v>81213900</v>
       </c>
       <c r="J54" s="3">
+        <v>68278100</v>
+      </c>
+      <c r="K54" s="3">
         <v>73347700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>64961600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68653400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60961900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>63331800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>79314400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73256700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>84117400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>82919700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>83377600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>80967300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80054500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4104400</v>
+        <v>3663400</v>
       </c>
       <c r="E57" s="3">
-        <v>3987100</v>
+        <v>4041400</v>
       </c>
       <c r="F57" s="3">
-        <v>4069400</v>
+        <v>3925900</v>
       </c>
       <c r="G57" s="3">
-        <v>3778200</v>
+        <v>4006900</v>
       </c>
       <c r="H57" s="3">
-        <v>3768900</v>
+        <v>3720200</v>
       </c>
       <c r="I57" s="3">
-        <v>3846600</v>
+        <v>3711100</v>
       </c>
       <c r="J57" s="3">
+        <v>3787600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3911300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3192200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3232300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3211600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3364900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3721200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3451600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3656100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3671200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3613400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3632600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3477900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1056700</v>
+        <v>916600</v>
       </c>
       <c r="E58" s="3">
-        <v>1107000</v>
+        <v>1040500</v>
       </c>
       <c r="F58" s="3">
-        <v>1083300</v>
+        <v>1090000</v>
       </c>
       <c r="G58" s="3">
-        <v>1240600</v>
+        <v>1066600</v>
       </c>
       <c r="H58" s="3">
-        <v>1136800</v>
+        <v>1221500</v>
       </c>
       <c r="I58" s="3">
-        <v>1088900</v>
+        <v>1119400</v>
       </c>
       <c r="J58" s="3">
+        <v>1072100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1224700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1035000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2139900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>693700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1017200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1641000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1525900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1444300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1493200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1749300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1891800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1342000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7477900</v>
+        <v>8662700</v>
       </c>
       <c r="E59" s="3">
-        <v>9131500</v>
+        <v>7363100</v>
       </c>
       <c r="F59" s="3">
-        <v>6150800</v>
+        <v>8991300</v>
       </c>
       <c r="G59" s="3">
-        <v>6437400</v>
+        <v>6056400</v>
       </c>
       <c r="H59" s="3">
-        <v>6384000</v>
+        <v>6338500</v>
       </c>
       <c r="I59" s="3">
-        <v>5532500</v>
+        <v>6285900</v>
       </c>
       <c r="J59" s="3">
+        <v>5447600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5355300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4480400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3717300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2430900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2411800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2909200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2776400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6015600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3540800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3612600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3770200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4262100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12639000</v>
+        <v>13242700</v>
       </c>
       <c r="E60" s="3">
-        <v>14225600</v>
+        <v>12444900</v>
       </c>
       <c r="F60" s="3">
-        <v>11303500</v>
+        <v>14007200</v>
       </c>
       <c r="G60" s="3">
-        <v>11456100</v>
+        <v>11129900</v>
       </c>
       <c r="H60" s="3">
-        <v>11289700</v>
+        <v>11280200</v>
       </c>
       <c r="I60" s="3">
-        <v>10468000</v>
+        <v>11116400</v>
       </c>
       <c r="J60" s="3">
+        <v>10307300</v>
+      </c>
+      <c r="K60" s="3">
         <v>10491300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8707600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9089500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6336200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6794000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8271400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7754000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11116000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8705200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8975400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9294600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9082100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13699800</v>
+        <v>11891100</v>
       </c>
       <c r="E61" s="3">
-        <v>13541000</v>
+        <v>13489500</v>
       </c>
       <c r="F61" s="3">
-        <v>14857700</v>
+        <v>13333100</v>
       </c>
       <c r="G61" s="3">
-        <v>17819100</v>
+        <v>14629600</v>
       </c>
       <c r="H61" s="3">
-        <v>17166000</v>
+        <v>17545500</v>
       </c>
       <c r="I61" s="3">
-        <v>10136400</v>
+        <v>16902500</v>
       </c>
       <c r="J61" s="3">
+        <v>9980800</v>
+      </c>
+      <c r="K61" s="3">
         <v>11740200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10927700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11567200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9997400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11436400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14481900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14211900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17628400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>19453700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>21873800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21350800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>22365300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28747200</v>
+        <v>25079300</v>
       </c>
       <c r="E62" s="3">
-        <v>27971600</v>
+        <v>28305900</v>
       </c>
       <c r="F62" s="3">
-        <v>23318200</v>
+        <v>27542100</v>
       </c>
       <c r="G62" s="3">
-        <v>22295800</v>
+        <v>22960200</v>
       </c>
       <c r="H62" s="3">
-        <v>21592600</v>
+        <v>21953500</v>
       </c>
       <c r="I62" s="3">
-        <v>19260200</v>
+        <v>21261100</v>
       </c>
       <c r="J62" s="3">
+        <v>18964500</v>
+      </c>
+      <c r="K62" s="3">
         <v>17782200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15935900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>16510200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>13643400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14258200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17951400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15742900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17401700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17013600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16990600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16074300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15438300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54038400</v>
+        <v>50857600</v>
       </c>
       <c r="E66" s="3">
-        <v>54838000</v>
+        <v>53208800</v>
       </c>
       <c r="F66" s="3">
-        <v>48114200</v>
+        <v>53996000</v>
       </c>
       <c r="G66" s="3">
-        <v>50336000</v>
+        <v>47375500</v>
       </c>
       <c r="H66" s="3">
-        <v>48930800</v>
+        <v>49563200</v>
       </c>
       <c r="I66" s="3">
-        <v>39052300</v>
+        <v>48179600</v>
       </c>
       <c r="J66" s="3">
+        <v>38452700</v>
+      </c>
+      <c r="K66" s="3">
         <v>40540500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36074500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37759800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30562100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33124200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>41550700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38565900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>47260900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>46370100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>49052200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47925500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48488600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10592700</v>
+        <v>14858900</v>
       </c>
       <c r="E72" s="3">
-        <v>7089800</v>
+        <v>10430100</v>
       </c>
       <c r="F72" s="3">
-        <v>7609200</v>
+        <v>6980900</v>
       </c>
       <c r="G72" s="3">
-        <v>6996800</v>
+        <v>7492400</v>
       </c>
       <c r="H72" s="3">
-        <v>5991500</v>
+        <v>6889400</v>
       </c>
       <c r="I72" s="3">
-        <v>5806900</v>
+        <v>5899500</v>
       </c>
       <c r="J72" s="3">
+        <v>5717700</v>
+      </c>
+      <c r="K72" s="3">
         <v>8104800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6492300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6933100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7755300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5363300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7222100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7146900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6553000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7109800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4470600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4822700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2946700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38920400</v>
+        <v>38498300</v>
       </c>
       <c r="E76" s="3">
-        <v>34849500</v>
+        <v>38322800</v>
       </c>
       <c r="F76" s="3">
-        <v>36510500</v>
+        <v>34314500</v>
       </c>
       <c r="G76" s="3">
-        <v>35069800</v>
+        <v>35950000</v>
       </c>
       <c r="H76" s="3">
-        <v>33549400</v>
+        <v>34531300</v>
       </c>
       <c r="I76" s="3">
-        <v>30290500</v>
+        <v>33034300</v>
       </c>
       <c r="J76" s="3">
+        <v>29825400</v>
+      </c>
+      <c r="K76" s="3">
         <v>32807200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28887100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30893600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30399800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30207600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37763700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34690800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36856600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36549600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34325300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>33041800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31565800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5733200</v>
+        <v>7405500</v>
       </c>
       <c r="E81" s="3">
-        <v>905000</v>
+        <v>5645200</v>
       </c>
       <c r="F81" s="3">
-        <v>2929100</v>
+        <v>891100</v>
       </c>
       <c r="G81" s="3">
-        <v>992000</v>
+        <v>2884100</v>
       </c>
       <c r="H81" s="3">
-        <v>184700</v>
+        <v>976800</v>
       </c>
       <c r="I81" s="3">
-        <v>-1201800</v>
+        <v>181800</v>
       </c>
       <c r="J81" s="3">
+        <v>-1183400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1227100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-68000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2584200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1064500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>71500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1193800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>649400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1831300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>15500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1957600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>390300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>752500</v>
+        <v>827000</v>
       </c>
       <c r="E83" s="3">
-        <v>845100</v>
+        <v>740900</v>
       </c>
       <c r="F83" s="3">
-        <v>780600</v>
+        <v>832100</v>
       </c>
       <c r="G83" s="3">
-        <v>813400</v>
+        <v>768600</v>
       </c>
       <c r="H83" s="3">
-        <v>689600</v>
+        <v>800900</v>
       </c>
       <c r="I83" s="3">
-        <v>796500</v>
+        <v>679000</v>
       </c>
       <c r="J83" s="3">
+        <v>784300</v>
+      </c>
+      <c r="K83" s="3">
         <v>692000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>670400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>566900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>520500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>624700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>726600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>661700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>812200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>747600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>745200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>707400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>598500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7186100</v>
+        <v>7512500</v>
       </c>
       <c r="E89" s="3">
-        <v>6532500</v>
+        <v>7075800</v>
       </c>
       <c r="F89" s="3">
-        <v>4805700</v>
+        <v>6432200</v>
       </c>
       <c r="G89" s="3">
-        <v>1318500</v>
+        <v>4731800</v>
       </c>
       <c r="H89" s="3">
-        <v>1450800</v>
+        <v>1298400</v>
       </c>
       <c r="I89" s="3">
-        <v>2099600</v>
+        <v>1428500</v>
       </c>
       <c r="J89" s="3">
+        <v>2067400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3051200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2047500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1546000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2227400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2857700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3016300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1654300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3075400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1940400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2841900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2379500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2108400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-587900</v>
+        <v>100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1469300</v>
+        <v>-578800</v>
       </c>
       <c r="F91" s="3">
-        <v>-880200</v>
+        <v>-1446800</v>
       </c>
       <c r="G91" s="3">
-        <v>-975700</v>
+        <v>-866700</v>
       </c>
       <c r="H91" s="3">
-        <v>-937700</v>
+        <v>-960700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1083500</v>
+        <v>-923300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1066900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-717900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-507300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-431500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-520500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-592700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-674300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-816500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-695500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-731200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-865000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>2329500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2461300</v>
+        <v>-2919800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1965400</v>
+        <v>-2423500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1015500</v>
+        <v>-1935200</v>
       </c>
       <c r="G94" s="3">
-        <v>-678800</v>
+        <v>-999900</v>
       </c>
       <c r="H94" s="3">
-        <v>-886100</v>
+        <v>-668400</v>
       </c>
       <c r="I94" s="3">
-        <v>-983300</v>
+        <v>-872500</v>
       </c>
       <c r="J94" s="3">
+        <v>-968200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-406600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-414400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-508600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-366500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>2166300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-687700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-404900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-949700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-675900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4101600</v>
+        <v>-2045900</v>
       </c>
       <c r="E96" s="3">
-        <v>-30200</v>
+        <v>-4038700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3471500</v>
+        <v>-29700</v>
       </c>
       <c r="G96" s="3">
+        <v>-3418200</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-2200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-2100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-74100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-9000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-44400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-2200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-436800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5151900</v>
+        <v>-4201600</v>
       </c>
       <c r="E100" s="3">
-        <v>-205700</v>
+        <v>-5072800</v>
       </c>
       <c r="F100" s="3">
-        <v>-7228300</v>
+        <v>-202600</v>
       </c>
       <c r="G100" s="3">
-        <v>-172600</v>
+        <v>-7117400</v>
       </c>
       <c r="H100" s="3">
-        <v>4222700</v>
+        <v>-170000</v>
       </c>
       <c r="I100" s="3">
-        <v>-2131900</v>
+        <v>4157800</v>
       </c>
       <c r="J100" s="3">
+        <v>-2099200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-718600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-939400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1051500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>179900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1048500</v>
+        <v>-1337400</v>
       </c>
       <c r="E101" s="3">
-        <v>-573000</v>
+        <v>1032400</v>
       </c>
       <c r="F101" s="3">
-        <v>353600</v>
+        <v>-564200</v>
       </c>
       <c r="G101" s="3">
-        <v>480100</v>
+        <v>348200</v>
       </c>
       <c r="H101" s="3">
-        <v>1150900</v>
+        <v>472700</v>
       </c>
       <c r="I101" s="3">
-        <v>-113100</v>
+        <v>1133200</v>
       </c>
       <c r="J101" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="K101" s="3">
         <v>412800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-45000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-147400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>153200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>453300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>89000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-96000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>57700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-50600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>621400</v>
+        <v>-946400</v>
       </c>
       <c r="E102" s="3">
-        <v>3788400</v>
+        <v>611900</v>
       </c>
       <c r="F102" s="3">
-        <v>-3084500</v>
+        <v>3730200</v>
       </c>
       <c r="G102" s="3">
-        <v>947100</v>
+        <v>-3037200</v>
       </c>
       <c r="H102" s="3">
-        <v>5938200</v>
+        <v>932500</v>
       </c>
       <c r="I102" s="3">
-        <v>-1128700</v>
+        <v>5847100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1111400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2338800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>648600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-542600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-358900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-24600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1568300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>822900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-161900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-604200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1832900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-877500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16225300</v>
+        <v>11828900</v>
       </c>
       <c r="E8" s="3">
-        <v>12799900</v>
+        <v>15682400</v>
       </c>
       <c r="F8" s="3">
-        <v>14579900</v>
+        <v>12371700</v>
       </c>
       <c r="G8" s="3">
-        <v>10695200</v>
+        <v>14092000</v>
       </c>
       <c r="H8" s="3">
-        <v>7468100</v>
+        <v>10337300</v>
       </c>
       <c r="I8" s="3">
-        <v>5772000</v>
+        <v>7218200</v>
       </c>
       <c r="J8" s="3">
+        <v>5578900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7576200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7627900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6375400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5792000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6682000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7005700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7293600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6522800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7647100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7332500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5989800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6634200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7604100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5647100</v>
+        <v>5450900</v>
       </c>
       <c r="E9" s="3">
-        <v>4690900</v>
+        <v>5458200</v>
       </c>
       <c r="F9" s="3">
-        <v>5687400</v>
+        <v>4533900</v>
       </c>
       <c r="G9" s="3">
-        <v>4782500</v>
+        <v>5497100</v>
       </c>
       <c r="H9" s="3">
-        <v>4186600</v>
+        <v>4622400</v>
       </c>
       <c r="I9" s="3">
-        <v>3548900</v>
+        <v>4046500</v>
       </c>
       <c r="J9" s="3">
+        <v>3430200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4280600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4244500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3591400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3321500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3914200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4223700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4544900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3962900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4828000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4383800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4220500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3560000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4062900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10578200</v>
+        <v>6378000</v>
       </c>
       <c r="E10" s="3">
-        <v>8109100</v>
+        <v>10224200</v>
       </c>
       <c r="F10" s="3">
-        <v>8892500</v>
+        <v>7837700</v>
       </c>
       <c r="G10" s="3">
-        <v>5912700</v>
+        <v>8594900</v>
       </c>
       <c r="H10" s="3">
-        <v>3281500</v>
+        <v>5714900</v>
       </c>
       <c r="I10" s="3">
-        <v>2223100</v>
+        <v>3171700</v>
       </c>
       <c r="J10" s="3">
+        <v>2148700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3295500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3383400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2784100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2470400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2767800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2781900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2748700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2559900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2819100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2948600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1769200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3074200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3541300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>579000</v>
+        <v>2404400</v>
       </c>
       <c r="E14" s="3">
-        <v>283300</v>
+        <v>559700</v>
       </c>
       <c r="F14" s="3">
-        <v>6060900</v>
+        <v>273800</v>
       </c>
       <c r="G14" s="3">
-        <v>410500</v>
+        <v>5858200</v>
       </c>
       <c r="H14" s="3">
-        <v>545500</v>
+        <v>396800</v>
       </c>
       <c r="I14" s="3">
-        <v>155800</v>
+        <v>527200</v>
       </c>
       <c r="J14" s="3">
+        <v>150600</v>
+      </c>
+      <c r="K14" s="3">
         <v>4454700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>191800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1048500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3240200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>196900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>130900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>402500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>136300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>186000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>127800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2084300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9800</v>
+        <v>10900</v>
       </c>
       <c r="E15" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8600</v>
+      </c>
+      <c r="H15" s="3">
         <v>8900</v>
       </c>
-      <c r="F15" s="3">
-        <v>8900</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L15" s="3">
         <v>9200</v>
       </c>
-      <c r="H15" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>15100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>9200</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>12400</v>
-      </c>
-      <c r="P15" s="3">
-        <v>13300</v>
       </c>
       <c r="Q15" s="3">
         <v>13300</v>
       </c>
       <c r="R15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="S15" s="3">
         <v>18200</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>18500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>22300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>102600</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7177200</v>
+        <v>8151700</v>
       </c>
       <c r="E17" s="3">
-        <v>5353700</v>
+        <v>6937100</v>
       </c>
       <c r="F17" s="3">
-        <v>12915000</v>
+        <v>5174600</v>
       </c>
       <c r="G17" s="3">
-        <v>5761800</v>
+        <v>12482800</v>
       </c>
       <c r="H17" s="3">
-        <v>5931200</v>
+        <v>5569000</v>
       </c>
       <c r="I17" s="3">
-        <v>4290400</v>
+        <v>5732700</v>
       </c>
       <c r="J17" s="3">
+        <v>4146900</v>
+      </c>
+      <c r="K17" s="3">
         <v>9518900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4836000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5618400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6989800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4666600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4597100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5190500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4285100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5681300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4816100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4773800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3636500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5701000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>9048100</v>
+        <v>3677200</v>
       </c>
       <c r="E18" s="3">
-        <v>7446200</v>
+        <v>8745300</v>
       </c>
       <c r="F18" s="3">
-        <v>1664900</v>
+        <v>7197100</v>
       </c>
       <c r="G18" s="3">
-        <v>4933400</v>
+        <v>1609200</v>
       </c>
       <c r="H18" s="3">
-        <v>1536900</v>
+        <v>4768300</v>
       </c>
       <c r="I18" s="3">
-        <v>1481600</v>
+        <v>1485500</v>
       </c>
       <c r="J18" s="3">
+        <v>1432000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2791900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>757000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2015400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2408500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2103100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2237700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1965800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2516400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1215900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2997700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1903100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>519600</v>
+        <v>-198100</v>
       </c>
       <c r="E20" s="3">
-        <v>178700</v>
+        <v>502200</v>
       </c>
       <c r="F20" s="3">
-        <v>-472400</v>
+        <v>172700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1152300</v>
+        <v>-456600</v>
       </c>
       <c r="H20" s="3">
-        <v>-282300</v>
+        <v>-1113700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1771800</v>
+        <v>-272800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1712500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-491600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-678000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-321500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-333600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>148100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-755700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-210700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-855000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>440700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-741700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-143800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-221800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10394700</v>
+        <v>4131900</v>
       </c>
       <c r="E21" s="3">
-        <v>8365900</v>
+        <v>10046900</v>
       </c>
       <c r="F21" s="3">
-        <v>2024600</v>
+        <v>8086000</v>
       </c>
       <c r="G21" s="3">
-        <v>4549700</v>
+        <v>1956900</v>
       </c>
       <c r="H21" s="3">
-        <v>2055600</v>
+        <v>4397500</v>
       </c>
       <c r="I21" s="3">
-        <v>388800</v>
+        <v>1986800</v>
       </c>
       <c r="J21" s="3">
+        <v>375800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2805900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1106000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-964600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2684000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2277600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>487300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2688700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1923000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3704700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1219400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3561300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2509400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>175800</v>
+        <v>148000</v>
       </c>
       <c r="E22" s="3">
-        <v>211300</v>
+        <v>170000</v>
       </c>
       <c r="F22" s="3">
-        <v>208000</v>
+        <v>204200</v>
       </c>
       <c r="G22" s="3">
-        <v>210900</v>
+        <v>201000</v>
       </c>
       <c r="H22" s="3">
-        <v>196000</v>
+        <v>203900</v>
       </c>
       <c r="I22" s="3">
-        <v>165100</v>
+        <v>189400</v>
       </c>
       <c r="J22" s="3">
+        <v>159600</v>
+      </c>
+      <c r="K22" s="3">
         <v>148300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>176500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>180600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>150800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>165600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>161700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>209900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>209200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>213800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>247700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>370900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>270200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>286300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9391800</v>
+        <v>3331100</v>
       </c>
       <c r="E23" s="3">
-        <v>7413700</v>
+        <v>9077600</v>
       </c>
       <c r="F23" s="3">
-        <v>984500</v>
+        <v>7165600</v>
       </c>
       <c r="G23" s="3">
-        <v>3570200</v>
+        <v>951600</v>
       </c>
       <c r="H23" s="3">
-        <v>1058700</v>
+        <v>3450800</v>
       </c>
       <c r="I23" s="3">
-        <v>-455300</v>
+        <v>1023300</v>
       </c>
       <c r="J23" s="3">
+        <v>-440100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1937400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>254900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1997900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1491200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-449200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1817800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>897000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2709500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>103300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2583700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1395100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2034900</v>
+        <v>-341800</v>
       </c>
       <c r="E24" s="3">
-        <v>1837800</v>
+        <v>1966800</v>
       </c>
       <c r="F24" s="3">
-        <v>187400</v>
+        <v>1776300</v>
       </c>
       <c r="G24" s="3">
-        <v>786400</v>
+        <v>181100</v>
       </c>
       <c r="H24" s="3">
-        <v>157900</v>
+        <v>760100</v>
       </c>
       <c r="I24" s="3">
-        <v>-573000</v>
+        <v>152600</v>
       </c>
       <c r="J24" s="3">
+        <v>-553800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>725400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>329100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-457400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-617700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>453600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-535800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>546300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-132000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>784800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-39800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>549700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7356900</v>
+        <v>3672900</v>
       </c>
       <c r="E26" s="3">
-        <v>5575900</v>
+        <v>7110800</v>
       </c>
       <c r="F26" s="3">
-        <v>797200</v>
+        <v>5389300</v>
       </c>
       <c r="G26" s="3">
-        <v>2783800</v>
+        <v>770500</v>
       </c>
       <c r="H26" s="3">
-        <v>900800</v>
+        <v>2690700</v>
       </c>
       <c r="I26" s="3">
-        <v>117600</v>
+        <v>870700</v>
       </c>
       <c r="J26" s="3">
+        <v>113700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1212000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-74200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2615600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1037600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>86500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1271500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1029000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1924700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>143100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2034000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1356700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7405500</v>
+        <v>3606700</v>
       </c>
       <c r="E27" s="3">
-        <v>5645200</v>
+        <v>7157700</v>
       </c>
       <c r="F27" s="3">
-        <v>891100</v>
+        <v>5456300</v>
       </c>
       <c r="G27" s="3">
-        <v>2884100</v>
+        <v>861300</v>
       </c>
       <c r="H27" s="3">
-        <v>976800</v>
+        <v>2787600</v>
       </c>
       <c r="I27" s="3">
-        <v>181800</v>
+        <v>944100</v>
       </c>
       <c r="J27" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1227100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-68000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2584300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1064500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>80600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1257000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1066000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1917800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>115000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2021400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1383900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2022,8 +2083,8 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2035,37 +2096,40 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-63300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-416600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-86500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-99500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-63800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-993600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-519600</v>
+        <v>198100</v>
       </c>
       <c r="E32" s="3">
-        <v>-178700</v>
+        <v>-502200</v>
       </c>
       <c r="F32" s="3">
-        <v>472400</v>
+        <v>-172700</v>
       </c>
       <c r="G32" s="3">
-        <v>1152300</v>
+        <v>456600</v>
       </c>
       <c r="H32" s="3">
-        <v>282300</v>
+        <v>1113700</v>
       </c>
       <c r="I32" s="3">
-        <v>1771800</v>
+        <v>272800</v>
       </c>
       <c r="J32" s="3">
+        <v>1712500</v>
+      </c>
+      <c r="K32" s="3">
         <v>491600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>678000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>321500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>333600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-148100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>755700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2342400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>210700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>855000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-440700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>741700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>143800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>221800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7405500</v>
+        <v>3606700</v>
       </c>
       <c r="E33" s="3">
-        <v>5645200</v>
+        <v>7157700</v>
       </c>
       <c r="F33" s="3">
-        <v>891100</v>
+        <v>5456300</v>
       </c>
       <c r="G33" s="3">
-        <v>2884100</v>
+        <v>861300</v>
       </c>
       <c r="H33" s="3">
-        <v>976800</v>
+        <v>2787600</v>
       </c>
       <c r="I33" s="3">
-        <v>181800</v>
+        <v>944100</v>
       </c>
       <c r="J33" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1227100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-68000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2584200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1064500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>71500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1193800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>649400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1831300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>15500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1957600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>390300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7405500</v>
+        <v>3606700</v>
       </c>
       <c r="E35" s="3">
-        <v>5645200</v>
+        <v>7157700</v>
       </c>
       <c r="F35" s="3">
-        <v>891100</v>
+        <v>5456300</v>
       </c>
       <c r="G35" s="3">
-        <v>2884100</v>
+        <v>861300</v>
       </c>
       <c r="H35" s="3">
-        <v>976800</v>
+        <v>2787600</v>
       </c>
       <c r="I35" s="3">
-        <v>181800</v>
+        <v>944100</v>
       </c>
       <c r="J35" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1227100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-68000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2584200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1064500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>71500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1193800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>649400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1831300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>15500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1957600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>390300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,99 +2660,103 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12610300</v>
+        <v>10542900</v>
       </c>
       <c r="E41" s="3">
-        <v>13556700</v>
+        <v>12188400</v>
       </c>
       <c r="F41" s="3">
-        <v>12944800</v>
+        <v>13103100</v>
       </c>
       <c r="G41" s="3">
-        <v>9214600</v>
+        <v>12511700</v>
       </c>
       <c r="H41" s="3">
-        <v>12251700</v>
+        <v>8906300</v>
       </c>
       <c r="I41" s="3">
-        <v>11319200</v>
+        <v>11841800</v>
       </c>
       <c r="J41" s="3">
+        <v>10940500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5472100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6686200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4103800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3651500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3998400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4519200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5734600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4166300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3670700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3832600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4851300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5278900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3446000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>879000</v>
+        <v>505900</v>
       </c>
       <c r="E42" s="3">
-        <v>1503600</v>
+        <v>849600</v>
       </c>
       <c r="F42" s="3">
-        <v>739800</v>
+        <v>1453300</v>
       </c>
       <c r="G42" s="3">
-        <v>130700</v>
+        <v>715100</v>
       </c>
       <c r="H42" s="3">
-        <v>93700</v>
+        <v>126300</v>
       </c>
       <c r="I42" s="3">
-        <v>459500</v>
+        <v>90500</v>
       </c>
       <c r="J42" s="3">
+        <v>444100</v>
+      </c>
+      <c r="K42" s="3">
         <v>614800</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2680,8 +2770,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2695,472 +2785,496 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>8</v>
+      <c r="U42" s="3">
+        <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5194500</v>
+        <v>1647900</v>
       </c>
       <c r="E43" s="3">
-        <v>4345300</v>
+        <v>5020700</v>
       </c>
       <c r="F43" s="3">
-        <v>5518900</v>
+        <v>4199900</v>
       </c>
       <c r="G43" s="3">
-        <v>3954000</v>
+        <v>5334200</v>
       </c>
       <c r="H43" s="3">
-        <v>3477200</v>
+        <v>3821700</v>
       </c>
       <c r="I43" s="3">
-        <v>2822900</v>
+        <v>3360800</v>
       </c>
       <c r="J43" s="3">
+        <v>2728400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2807800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2956900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3056800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3287800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3067600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3244000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3929800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3695900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5471000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5103900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4454100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5326500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4461500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4342800</v>
+        <v>4937600</v>
       </c>
       <c r="E44" s="3">
-        <v>4497900</v>
+        <v>4197500</v>
       </c>
       <c r="F44" s="3">
-        <v>3897700</v>
+        <v>4347400</v>
       </c>
       <c r="G44" s="3">
-        <v>4509900</v>
+        <v>3767300</v>
       </c>
       <c r="H44" s="3">
-        <v>4104200</v>
+        <v>4359000</v>
       </c>
       <c r="I44" s="3">
-        <v>3927200</v>
+        <v>3966900</v>
       </c>
       <c r="J44" s="3">
+        <v>3795800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3182100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3616000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3205900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3579800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3071300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3004600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3600300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3078800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3329700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3316000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3277300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2862100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2707400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>442700</v>
+        <v>1777200</v>
       </c>
       <c r="E45" s="3">
-        <v>481400</v>
+        <v>427900</v>
       </c>
       <c r="F45" s="3">
-        <v>319700</v>
+        <v>465300</v>
       </c>
       <c r="G45" s="3">
-        <v>468200</v>
+        <v>309000</v>
       </c>
       <c r="H45" s="3">
-        <v>611000</v>
+        <v>452600</v>
       </c>
       <c r="I45" s="3">
-        <v>621300</v>
+        <v>590500</v>
       </c>
       <c r="J45" s="3">
+        <v>600500</v>
+      </c>
+      <c r="K45" s="3">
         <v>611600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1181900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>432900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>473400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>433900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>442300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>662200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>886800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3603900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3900800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>4262900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4157200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>7630700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23469500</v>
+        <v>19411600</v>
       </c>
       <c r="E46" s="3">
-        <v>24384900</v>
+        <v>22684200</v>
       </c>
       <c r="F46" s="3">
-        <v>23420900</v>
+        <v>23569000</v>
       </c>
       <c r="G46" s="3">
-        <v>18277400</v>
+        <v>22637300</v>
       </c>
       <c r="H46" s="3">
-        <v>20537800</v>
+        <v>17665800</v>
       </c>
       <c r="I46" s="3">
-        <v>19150100</v>
+        <v>19850600</v>
       </c>
       <c r="J46" s="3">
+        <v>18509400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12688400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14441000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10799300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10992400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10571300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11210200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13927000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11827800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16075200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16153400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16845500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17624700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>18245600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3414600</v>
+        <v>3376300</v>
       </c>
       <c r="E47" s="3">
-        <v>2988600</v>
+        <v>3300400</v>
       </c>
       <c r="F47" s="3">
-        <v>2892500</v>
+        <v>2888600</v>
       </c>
       <c r="G47" s="3">
-        <v>5609200</v>
+        <v>2795700</v>
       </c>
       <c r="H47" s="3">
-        <v>5314700</v>
+        <v>5421500</v>
       </c>
       <c r="I47" s="3">
-        <v>3690100</v>
+        <v>5136900</v>
       </c>
       <c r="J47" s="3">
+        <v>3566600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3338800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3661200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3267100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3663100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3448900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3634400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4463000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4230800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5382600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5425000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5465700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5299900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3135400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40545000</v>
+        <v>39897700</v>
       </c>
       <c r="E48" s="3">
-        <v>41104400</v>
+        <v>39188400</v>
       </c>
       <c r="F48" s="3">
-        <v>39495500</v>
+        <v>39729000</v>
       </c>
       <c r="G48" s="3">
-        <v>39577600</v>
+        <v>38174000</v>
       </c>
       <c r="H48" s="3">
-        <v>38648100</v>
+        <v>38253300</v>
       </c>
       <c r="I48" s="3">
-        <v>37612500</v>
+        <v>37355000</v>
       </c>
       <c r="J48" s="3">
+        <v>36354000</v>
+      </c>
+      <c r="K48" s="3">
         <v>34674300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>38174800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34360800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36388200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>33446700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>35140300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>43858900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42028700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46541900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>45711500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>46359000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>44231600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>44807200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10160300</v>
+        <v>8655200</v>
       </c>
       <c r="E49" s="3">
-        <v>9113600</v>
+        <v>9820300</v>
       </c>
       <c r="F49" s="3">
-        <v>8922600</v>
+        <v>8808700</v>
       </c>
       <c r="G49" s="3">
-        <v>6890700</v>
+        <v>8624000</v>
       </c>
       <c r="H49" s="3">
-        <v>6783000</v>
+        <v>6660100</v>
       </c>
       <c r="I49" s="3">
-        <v>6622000</v>
+        <v>6556000</v>
       </c>
       <c r="J49" s="3">
+        <v>6400400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6327300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6490100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5864100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6227400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5503700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5771100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7193600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6669200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7202800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7026100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6116100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5742700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5555600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11766500</v>
+        <v>13023300</v>
       </c>
       <c r="E52" s="3">
-        <v>13940100</v>
+        <v>11372800</v>
       </c>
       <c r="F52" s="3">
-        <v>13579100</v>
+        <v>13473700</v>
       </c>
       <c r="G52" s="3">
-        <v>12970700</v>
+        <v>13124700</v>
       </c>
       <c r="H52" s="3">
-        <v>12810900</v>
+        <v>12536700</v>
       </c>
       <c r="I52" s="3">
-        <v>14139200</v>
+        <v>12382300</v>
       </c>
       <c r="J52" s="3">
+        <v>13666100</v>
+      </c>
+      <c r="K52" s="3">
         <v>11249300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10580700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10670200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11382200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7991400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7575700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9872000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8500200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8915000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8603700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8591300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8068500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8310700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89355900</v>
+        <v>84364000</v>
       </c>
       <c r="E54" s="3">
-        <v>91531600</v>
+        <v>86366100</v>
       </c>
       <c r="F54" s="3">
-        <v>88310500</v>
+        <v>88469000</v>
       </c>
       <c r="G54" s="3">
-        <v>83325500</v>
+        <v>85355700</v>
       </c>
       <c r="H54" s="3">
-        <v>84094600</v>
+        <v>80537400</v>
       </c>
       <c r="I54" s="3">
-        <v>81213900</v>
+        <v>81280800</v>
       </c>
       <c r="J54" s="3">
+        <v>78496500</v>
+      </c>
+      <c r="K54" s="3">
         <v>68278100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73347700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>64961600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68653400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60961900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>63331800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>79314400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73256700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>84117400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>82919700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>83377600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>80967300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>80054500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3663400</v>
+        <v>4106500</v>
       </c>
       <c r="E57" s="3">
-        <v>4041400</v>
+        <v>3540800</v>
       </c>
       <c r="F57" s="3">
-        <v>3925900</v>
+        <v>3906200</v>
       </c>
       <c r="G57" s="3">
-        <v>4006900</v>
+        <v>3794600</v>
       </c>
       <c r="H57" s="3">
-        <v>3720200</v>
+        <v>3872800</v>
       </c>
       <c r="I57" s="3">
-        <v>3711100</v>
+        <v>3595700</v>
       </c>
       <c r="J57" s="3">
+        <v>3586900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3787600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3911300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3192200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3232300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3211600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3364900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3721200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3451600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3656100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3671200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3613400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3632600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3477900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>916600</v>
+        <v>1306400</v>
       </c>
       <c r="E58" s="3">
-        <v>1040500</v>
+        <v>886000</v>
       </c>
       <c r="F58" s="3">
-        <v>1090000</v>
+        <v>1005600</v>
       </c>
       <c r="G58" s="3">
-        <v>1066600</v>
+        <v>1053500</v>
       </c>
       <c r="H58" s="3">
-        <v>1221500</v>
+        <v>1030900</v>
       </c>
       <c r="I58" s="3">
-        <v>1119400</v>
+        <v>1180600</v>
       </c>
       <c r="J58" s="3">
+        <v>1081900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1072100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1224700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1035000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2139900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>693700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1017200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1641000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1525900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1444300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1493200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1749300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1891800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1342000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8662700</v>
+        <v>10197300</v>
       </c>
       <c r="E59" s="3">
-        <v>7363100</v>
+        <v>8372800</v>
       </c>
       <c r="F59" s="3">
-        <v>8991300</v>
+        <v>7116700</v>
       </c>
       <c r="G59" s="3">
-        <v>6056400</v>
+        <v>8690400</v>
       </c>
       <c r="H59" s="3">
-        <v>6338500</v>
+        <v>5853800</v>
       </c>
       <c r="I59" s="3">
-        <v>6285900</v>
+        <v>6126400</v>
       </c>
       <c r="J59" s="3">
+        <v>6075600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5447600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5355300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4480400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3717300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2430900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2411800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2909200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2776400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6015600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3540800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3612600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3770200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4262100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13242700</v>
+        <v>15610200</v>
       </c>
       <c r="E60" s="3">
-        <v>12444900</v>
+        <v>12799600</v>
       </c>
       <c r="F60" s="3">
-        <v>14007200</v>
+        <v>12028500</v>
       </c>
       <c r="G60" s="3">
-        <v>11129900</v>
+        <v>13538500</v>
       </c>
       <c r="H60" s="3">
-        <v>11280200</v>
+        <v>10757500</v>
       </c>
       <c r="I60" s="3">
-        <v>11116400</v>
+        <v>10902800</v>
       </c>
       <c r="J60" s="3">
+        <v>10744500</v>
+      </c>
+      <c r="K60" s="3">
         <v>10307300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10491300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8707600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9089500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6336200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6794000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8271400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7754000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11116000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8705200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8975400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9294600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9082100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11891100</v>
+        <v>11885500</v>
       </c>
       <c r="E61" s="3">
-        <v>13489500</v>
+        <v>11493200</v>
       </c>
       <c r="F61" s="3">
-        <v>13333100</v>
+        <v>13038100</v>
       </c>
       <c r="G61" s="3">
-        <v>14629600</v>
+        <v>12887000</v>
       </c>
       <c r="H61" s="3">
-        <v>17545500</v>
+        <v>14140100</v>
       </c>
       <c r="I61" s="3">
-        <v>16902500</v>
+        <v>16958400</v>
       </c>
       <c r="J61" s="3">
+        <v>16336900</v>
+      </c>
+      <c r="K61" s="3">
         <v>9980800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11740200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10927700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11567200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9997400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11436400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14481900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14211900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17628400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>19453700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>21873800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21350800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>22365300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>25079300</v>
+        <v>23758600</v>
       </c>
       <c r="E62" s="3">
-        <v>28305900</v>
+        <v>24240100</v>
       </c>
       <c r="F62" s="3">
-        <v>27542100</v>
+        <v>27358800</v>
       </c>
       <c r="G62" s="3">
-        <v>22960200</v>
+        <v>26620600</v>
       </c>
       <c r="H62" s="3">
-        <v>21953500</v>
+        <v>22191900</v>
       </c>
       <c r="I62" s="3">
-        <v>21261100</v>
+        <v>21218900</v>
       </c>
       <c r="J62" s="3">
+        <v>20549700</v>
+      </c>
+      <c r="K62" s="3">
         <v>18964500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>17782200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>15935900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16510200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>13643400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14258200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17951400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15742900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17401700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17013600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16990600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16074300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15438300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50857600</v>
+        <v>51999000</v>
       </c>
       <c r="E66" s="3">
-        <v>53208800</v>
+        <v>49155900</v>
       </c>
       <c r="F66" s="3">
-        <v>53996000</v>
+        <v>51428400</v>
       </c>
       <c r="G66" s="3">
-        <v>47375500</v>
+        <v>52189300</v>
       </c>
       <c r="H66" s="3">
-        <v>49563200</v>
+        <v>45790300</v>
       </c>
       <c r="I66" s="3">
-        <v>48179600</v>
+        <v>47904800</v>
       </c>
       <c r="J66" s="3">
+        <v>46567500</v>
+      </c>
+      <c r="K66" s="3">
         <v>38452700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>40540500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36074500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37759800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30562100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33124200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>41550700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38565900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>47260900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>46370100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>49052200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47925500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48488600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14858900</v>
+        <v>9470400</v>
       </c>
       <c r="E72" s="3">
-        <v>10430100</v>
+        <v>14361700</v>
       </c>
       <c r="F72" s="3">
-        <v>6980900</v>
+        <v>10081100</v>
       </c>
       <c r="G72" s="3">
-        <v>7492400</v>
+        <v>6747300</v>
       </c>
       <c r="H72" s="3">
-        <v>6889400</v>
+        <v>7241700</v>
       </c>
       <c r="I72" s="3">
-        <v>5899500</v>
+        <v>6658900</v>
       </c>
       <c r="J72" s="3">
+        <v>5702100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5717700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8104800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6492300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6933100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7755300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5363300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7222100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7146900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6553000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7109800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4470600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4822700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2946700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38498300</v>
+        <v>32365000</v>
       </c>
       <c r="E76" s="3">
-        <v>38322800</v>
+        <v>37210200</v>
       </c>
       <c r="F76" s="3">
-        <v>34314500</v>
+        <v>37040500</v>
       </c>
       <c r="G76" s="3">
-        <v>35950000</v>
+        <v>33166300</v>
       </c>
       <c r="H76" s="3">
-        <v>34531300</v>
+        <v>34747100</v>
       </c>
       <c r="I76" s="3">
-        <v>33034300</v>
+        <v>33375900</v>
       </c>
       <c r="J76" s="3">
+        <v>31929000</v>
+      </c>
+      <c r="K76" s="3">
         <v>29825400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32807200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28887100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30893600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30399800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30207600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37763700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34690800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36856600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36549600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34325300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>33041800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31565800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7405500</v>
+        <v>3606700</v>
       </c>
       <c r="E81" s="3">
-        <v>5645200</v>
+        <v>7157700</v>
       </c>
       <c r="F81" s="3">
-        <v>891100</v>
+        <v>5456300</v>
       </c>
       <c r="G81" s="3">
-        <v>2884100</v>
+        <v>861300</v>
       </c>
       <c r="H81" s="3">
-        <v>976800</v>
+        <v>2787600</v>
       </c>
       <c r="I81" s="3">
-        <v>181800</v>
+        <v>944100</v>
       </c>
       <c r="J81" s="3">
+        <v>175700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1227100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-68000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2584200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1064500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>71500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1193800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>649400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1831300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>15500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1957600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>390300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>827000</v>
+        <v>652800</v>
       </c>
       <c r="E83" s="3">
-        <v>740900</v>
+        <v>799400</v>
       </c>
       <c r="F83" s="3">
-        <v>832100</v>
+        <v>716100</v>
       </c>
       <c r="G83" s="3">
-        <v>768600</v>
+        <v>804300</v>
       </c>
       <c r="H83" s="3">
-        <v>800900</v>
+        <v>742900</v>
       </c>
       <c r="I83" s="3">
-        <v>679000</v>
+        <v>774100</v>
       </c>
       <c r="J83" s="3">
+        <v>656300</v>
+      </c>
+      <c r="K83" s="3">
         <v>784300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>692000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>670400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>566900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>520500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>624700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>726600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>661700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>812200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>747600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>745200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>707400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>598500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>7512500</v>
+        <v>8443800</v>
       </c>
       <c r="E89" s="3">
-        <v>7075800</v>
+        <v>7261100</v>
       </c>
       <c r="F89" s="3">
-        <v>6432200</v>
+        <v>6839000</v>
       </c>
       <c r="G89" s="3">
-        <v>4731800</v>
+        <v>6217000</v>
       </c>
       <c r="H89" s="3">
-        <v>1298400</v>
+        <v>4573400</v>
       </c>
       <c r="I89" s="3">
-        <v>1428500</v>
+        <v>1254900</v>
       </c>
       <c r="J89" s="3">
+        <v>1380700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2067400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3051200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2047500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1546000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2227400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2857700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3016300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1654300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3075400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1940400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2841900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2379500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2108400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-578800</v>
-      </c>
       <c r="F91" s="3">
-        <v>-1446800</v>
+        <v>-559500</v>
       </c>
       <c r="G91" s="3">
-        <v>-866700</v>
+        <v>-1398400</v>
       </c>
       <c r="H91" s="3">
-        <v>-960700</v>
+        <v>-837700</v>
       </c>
       <c r="I91" s="3">
-        <v>-923300</v>
+        <v>-928600</v>
       </c>
       <c r="J91" s="3">
+        <v>-892400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-717900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-507300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-431500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-520500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-592700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-674300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-816500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-695500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-731200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-865000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>2329500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2919800</v>
+        <v>-751900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2423500</v>
+        <v>-2822100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1935200</v>
+        <v>-2342400</v>
       </c>
       <c r="G94" s="3">
-        <v>-999900</v>
+        <v>-1870500</v>
       </c>
       <c r="H94" s="3">
-        <v>-668400</v>
+        <v>-966400</v>
       </c>
       <c r="I94" s="3">
-        <v>-872500</v>
+        <v>-646000</v>
       </c>
       <c r="J94" s="3">
+        <v>-843300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-968200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-406600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-414400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-508600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-366500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>2166300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-687700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-404900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-949700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-675900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2045900</v>
+        <v>-7179300</v>
       </c>
       <c r="E96" s="3">
-        <v>-4038700</v>
+        <v>-1977400</v>
       </c>
       <c r="F96" s="3">
-        <v>-29700</v>
+        <v>-3903500</v>
       </c>
       <c r="G96" s="3">
-        <v>-3418200</v>
+        <v>-28700</v>
       </c>
       <c r="H96" s="3">
-        <v>-5500</v>
+        <v>-3303800</v>
       </c>
       <c r="I96" s="3">
-        <v>-2200</v>
+        <v>-5300</v>
       </c>
       <c r="J96" s="3">
         <v>-2100</v>
       </c>
       <c r="K96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-74100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-9000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-44400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1900</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-2200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-436800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4201600</v>
+        <v>-9986300</v>
       </c>
       <c r="E100" s="3">
-        <v>-5072800</v>
+        <v>-4061000</v>
       </c>
       <c r="F100" s="3">
-        <v>-202600</v>
+        <v>-4903100</v>
       </c>
       <c r="G100" s="3">
-        <v>-7117400</v>
+        <v>-195800</v>
       </c>
       <c r="H100" s="3">
-        <v>-170000</v>
+        <v>-6879200</v>
       </c>
       <c r="I100" s="3">
-        <v>4157800</v>
+        <v>-164300</v>
       </c>
       <c r="J100" s="3">
+        <v>4018700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-718600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-939400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1051500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>179900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1337400</v>
+        <v>648900</v>
       </c>
       <c r="E101" s="3">
-        <v>1032400</v>
+        <v>-1292700</v>
       </c>
       <c r="F101" s="3">
-        <v>-564200</v>
+        <v>997900</v>
       </c>
       <c r="G101" s="3">
-        <v>348200</v>
+        <v>-545300</v>
       </c>
       <c r="H101" s="3">
-        <v>472700</v>
+        <v>336500</v>
       </c>
       <c r="I101" s="3">
-        <v>1133200</v>
+        <v>456900</v>
       </c>
       <c r="J101" s="3">
+        <v>1095300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-111400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>412800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-45000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-147400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>153200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>453300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-75200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>89000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-96000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>57700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-50600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-946400</v>
+        <v>-1645500</v>
       </c>
       <c r="E102" s="3">
-        <v>611900</v>
+        <v>-914700</v>
       </c>
       <c r="F102" s="3">
-        <v>3730200</v>
+        <v>591400</v>
       </c>
       <c r="G102" s="3">
-        <v>-3037200</v>
+        <v>3605400</v>
       </c>
       <c r="H102" s="3">
-        <v>932500</v>
+        <v>-2935500</v>
       </c>
       <c r="I102" s="3">
-        <v>5847100</v>
+        <v>901300</v>
       </c>
       <c r="J102" s="3">
+        <v>5651400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2338800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>648600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-542600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-358900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1568300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>822900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-161900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-604200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1832900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-877500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,307 +666,320 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11828900</v>
+        <v>13816900</v>
       </c>
       <c r="E8" s="3">
-        <v>15682400</v>
+        <v>13057300</v>
       </c>
       <c r="F8" s="3">
-        <v>12371700</v>
+        <v>17311100</v>
       </c>
       <c r="G8" s="3">
-        <v>14092000</v>
+        <v>13656500</v>
       </c>
       <c r="H8" s="3">
-        <v>10337300</v>
+        <v>15076600</v>
       </c>
       <c r="I8" s="3">
-        <v>7218200</v>
+        <v>11410900</v>
       </c>
       <c r="J8" s="3">
+        <v>7967900</v>
+      </c>
+      <c r="K8" s="3">
         <v>5578900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7576200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7627900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6375400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5792000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6682000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7005700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7293600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6522800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7647100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7332500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5989800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6634200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7604100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5450900</v>
+        <v>6061900</v>
       </c>
       <c r="E9" s="3">
-        <v>5458200</v>
+        <v>6016900</v>
       </c>
       <c r="F9" s="3">
-        <v>4533900</v>
+        <v>6025000</v>
       </c>
       <c r="G9" s="3">
-        <v>5497100</v>
+        <v>5004800</v>
       </c>
       <c r="H9" s="3">
-        <v>4622400</v>
+        <v>4566500</v>
       </c>
       <c r="I9" s="3">
-        <v>4046500</v>
+        <v>5102500</v>
       </c>
       <c r="J9" s="3">
+        <v>4466800</v>
+      </c>
+      <c r="K9" s="3">
         <v>3430200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4280600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4244500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3591400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3321500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3914200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4223700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4544900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3962900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4828000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4383800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4220500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3560000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4062900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6378000</v>
+        <v>7755000</v>
       </c>
       <c r="E10" s="3">
-        <v>10224200</v>
+        <v>7040400</v>
       </c>
       <c r="F10" s="3">
-        <v>7837700</v>
+        <v>11286100</v>
       </c>
       <c r="G10" s="3">
-        <v>8594900</v>
+        <v>8651700</v>
       </c>
       <c r="H10" s="3">
-        <v>5714900</v>
+        <v>10510100</v>
       </c>
       <c r="I10" s="3">
-        <v>3171700</v>
+        <v>6308400</v>
       </c>
       <c r="J10" s="3">
+        <v>3501100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2148700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3295500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3383400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2784100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2470400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2767800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2781900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2748700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2559900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2819100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2948600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1769200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3074200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3541300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1144,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2404400</v>
+        <v>-277100</v>
       </c>
       <c r="E14" s="3">
-        <v>559700</v>
+        <v>2654100</v>
       </c>
       <c r="F14" s="3">
-        <v>273800</v>
+        <v>617800</v>
       </c>
       <c r="G14" s="3">
-        <v>5858200</v>
+        <v>302200</v>
       </c>
       <c r="H14" s="3">
-        <v>396800</v>
+        <v>5510700</v>
       </c>
       <c r="I14" s="3">
-        <v>527200</v>
+        <v>438000</v>
       </c>
       <c r="J14" s="3">
+        <v>582000</v>
+      </c>
+      <c r="K14" s="3">
         <v>150600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4454700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>191800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1048500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3240200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>196900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>130900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2500</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>402500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>136300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>186000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>127800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2084300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10900</v>
+        <v>12800</v>
       </c>
       <c r="E15" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G15" s="3">
         <v>9500</v>
       </c>
-      <c r="F15" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8600</v>
-      </c>
       <c r="H15" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="I15" s="3">
-        <v>12700</v>
+        <v>9900</v>
       </c>
       <c r="J15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K15" s="3">
         <v>14600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>12400</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>13300</v>
       </c>
       <c r="R15" s="3">
         <v>13300</v>
       </c>
       <c r="S15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="T15" s="3">
         <v>18200</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>18500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>22300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>102600</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8151700</v>
+        <v>7622700</v>
       </c>
       <c r="E17" s="3">
-        <v>6937100</v>
+        <v>8998200</v>
       </c>
       <c r="F17" s="3">
-        <v>5174600</v>
+        <v>7657500</v>
       </c>
       <c r="G17" s="3">
-        <v>12482800</v>
+        <v>5712000</v>
       </c>
       <c r="H17" s="3">
-        <v>5569000</v>
+        <v>11233200</v>
       </c>
       <c r="I17" s="3">
-        <v>5732700</v>
+        <v>6147400</v>
       </c>
       <c r="J17" s="3">
+        <v>6328100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4146900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9518900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4836000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5618400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6989800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4666600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4597100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5190500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4285100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5681300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4816100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4773800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3636500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5701000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3677200</v>
+        <v>6194300</v>
       </c>
       <c r="E18" s="3">
-        <v>8745300</v>
+        <v>4059100</v>
       </c>
       <c r="F18" s="3">
-        <v>7197100</v>
+        <v>9653600</v>
       </c>
       <c r="G18" s="3">
-        <v>1609200</v>
+        <v>7944500</v>
       </c>
       <c r="H18" s="3">
-        <v>4768300</v>
+        <v>3843400</v>
       </c>
       <c r="I18" s="3">
-        <v>1485500</v>
+        <v>5263500</v>
       </c>
       <c r="J18" s="3">
+        <v>1639800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1432000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2791900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>757000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2015400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2408500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2103100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2237700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1965800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2516400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1215900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2997700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1903100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-198100</v>
+        <v>3702500</v>
       </c>
       <c r="E20" s="3">
-        <v>502200</v>
+        <v>-218700</v>
       </c>
       <c r="F20" s="3">
-        <v>172700</v>
+        <v>554400</v>
       </c>
       <c r="G20" s="3">
-        <v>-456600</v>
+        <v>190700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1113700</v>
+        <v>-589300</v>
       </c>
       <c r="I20" s="3">
-        <v>-272800</v>
+        <v>-1229400</v>
       </c>
       <c r="J20" s="3">
+        <v>-301200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-491600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-678000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-321500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-333600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>148100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-755700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-210700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-855000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>440700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-741700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-143800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-221800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4131900</v>
+        <v>10730900</v>
       </c>
       <c r="E21" s="3">
-        <v>10046900</v>
+        <v>4561100</v>
       </c>
       <c r="F21" s="3">
-        <v>8086000</v>
+        <v>11090300</v>
       </c>
       <c r="G21" s="3">
-        <v>1956900</v>
+        <v>8925700</v>
       </c>
       <c r="H21" s="3">
-        <v>4397500</v>
+        <v>4125800</v>
       </c>
       <c r="I21" s="3">
-        <v>1986800</v>
+        <v>4854200</v>
       </c>
       <c r="J21" s="3">
+        <v>2193200</v>
+      </c>
+      <c r="K21" s="3">
         <v>375800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2805900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1106000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-964600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2684000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2277600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>487300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2688700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1923000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3704700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1219400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3561300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2509400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>148000</v>
+        <v>142500</v>
       </c>
       <c r="E22" s="3">
-        <v>170000</v>
+        <v>163400</v>
       </c>
       <c r="F22" s="3">
-        <v>204200</v>
+        <v>187600</v>
       </c>
       <c r="G22" s="3">
-        <v>201000</v>
+        <v>225400</v>
       </c>
       <c r="H22" s="3">
-        <v>203900</v>
+        <v>138900</v>
       </c>
       <c r="I22" s="3">
-        <v>189400</v>
+        <v>225000</v>
       </c>
       <c r="J22" s="3">
+        <v>209100</v>
+      </c>
+      <c r="K22" s="3">
         <v>159600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>148300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>176500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>150800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>165600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>161700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>209900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>209200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>213800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>247700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>370900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>270200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>286300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3331100</v>
+        <v>9754300</v>
       </c>
       <c r="E23" s="3">
-        <v>9077600</v>
+        <v>3677100</v>
       </c>
       <c r="F23" s="3">
-        <v>7165600</v>
+        <v>10020300</v>
       </c>
       <c r="G23" s="3">
-        <v>951600</v>
+        <v>7909800</v>
       </c>
       <c r="H23" s="3">
-        <v>3450800</v>
+        <v>3115200</v>
       </c>
       <c r="I23" s="3">
-        <v>1023300</v>
+        <v>3809100</v>
       </c>
       <c r="J23" s="3">
+        <v>1129500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-440100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1937400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>254900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1997900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1491200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-449200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1817800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>897000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2709500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>103300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2583700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1395100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-341800</v>
+        <v>1235000</v>
       </c>
       <c r="E24" s="3">
-        <v>1966800</v>
+        <v>-377300</v>
       </c>
       <c r="F24" s="3">
-        <v>1776300</v>
+        <v>2171100</v>
       </c>
       <c r="G24" s="3">
-        <v>181100</v>
+        <v>1960700</v>
       </c>
       <c r="H24" s="3">
-        <v>760100</v>
+        <v>515600</v>
       </c>
       <c r="I24" s="3">
-        <v>152600</v>
+        <v>839000</v>
       </c>
       <c r="J24" s="3">
+        <v>168500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-553800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>725400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>329100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-457400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-617700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>453600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-535800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>546300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-132000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>784800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-39800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>549700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3672900</v>
+        <v>8519300</v>
       </c>
       <c r="E26" s="3">
-        <v>7110800</v>
+        <v>4054300</v>
       </c>
       <c r="F26" s="3">
-        <v>5389300</v>
+        <v>7849300</v>
       </c>
       <c r="G26" s="3">
-        <v>770500</v>
+        <v>5949000</v>
       </c>
       <c r="H26" s="3">
-        <v>2690700</v>
+        <v>2599600</v>
       </c>
       <c r="I26" s="3">
-        <v>870700</v>
+        <v>2970100</v>
       </c>
       <c r="J26" s="3">
+        <v>961100</v>
+      </c>
+      <c r="K26" s="3">
         <v>113700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1212000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-74200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2615600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1037600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>86500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1271500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1029000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1924700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>143100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2034000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1356700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3606700</v>
+        <v>8444000</v>
       </c>
       <c r="E27" s="3">
-        <v>7157700</v>
+        <v>3981300</v>
       </c>
       <c r="F27" s="3">
-        <v>5456300</v>
+        <v>7901100</v>
       </c>
       <c r="G27" s="3">
-        <v>861300</v>
+        <v>6023000</v>
       </c>
       <c r="H27" s="3">
-        <v>2787600</v>
+        <v>2699700</v>
       </c>
       <c r="I27" s="3">
-        <v>944100</v>
+        <v>3077100</v>
       </c>
       <c r="J27" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="K27" s="3">
         <v>175700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1227100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-68000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2584300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1064500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>80600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1257000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1066000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1917800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>115000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2021400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1383900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,13 +2118,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-2460100</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -2077,8 +2138,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-1748900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -2086,8 +2147,8 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2099,37 +2160,40 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-9100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-63300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-416600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-86500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-99500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-63800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-993600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>198100</v>
+        <v>-3702500</v>
       </c>
       <c r="E32" s="3">
-        <v>-502200</v>
+        <v>218700</v>
       </c>
       <c r="F32" s="3">
-        <v>-172700</v>
+        <v>-554400</v>
       </c>
       <c r="G32" s="3">
-        <v>456600</v>
+        <v>-190700</v>
       </c>
       <c r="H32" s="3">
-        <v>1113700</v>
+        <v>589300</v>
       </c>
       <c r="I32" s="3">
-        <v>272800</v>
+        <v>1229400</v>
       </c>
       <c r="J32" s="3">
+        <v>301200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1712500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>491600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>678000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>321500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>333600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-148100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>755700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2342400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>210700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>855000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-440700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>741700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>143800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>221800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3606700</v>
+        <v>5983900</v>
       </c>
       <c r="E33" s="3">
-        <v>7157700</v>
+        <v>3981300</v>
       </c>
       <c r="F33" s="3">
-        <v>5456300</v>
+        <v>7901100</v>
       </c>
       <c r="G33" s="3">
-        <v>861300</v>
+        <v>6023000</v>
       </c>
       <c r="H33" s="3">
-        <v>2787600</v>
+        <v>950800</v>
       </c>
       <c r="I33" s="3">
-        <v>944100</v>
+        <v>3077100</v>
       </c>
       <c r="J33" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="K33" s="3">
         <v>175700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1227100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-68000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2584200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1064500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>71500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1193800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>649400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1831300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>15500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1957600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>390300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3606700</v>
+        <v>5983900</v>
       </c>
       <c r="E35" s="3">
-        <v>7157700</v>
+        <v>3981300</v>
       </c>
       <c r="F35" s="3">
-        <v>5456300</v>
+        <v>7901100</v>
       </c>
       <c r="G35" s="3">
-        <v>861300</v>
+        <v>6023000</v>
       </c>
       <c r="H35" s="3">
-        <v>2787600</v>
+        <v>950800</v>
       </c>
       <c r="I35" s="3">
-        <v>944100</v>
+        <v>3077100</v>
       </c>
       <c r="J35" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="K35" s="3">
         <v>175700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1227100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-68000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2584200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1064500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>71500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1193800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>649400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1831300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>15500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1957600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>390300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,105 +2747,109 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10542900</v>
+        <v>12889500</v>
       </c>
       <c r="E41" s="3">
-        <v>12188400</v>
+        <v>11637800</v>
       </c>
       <c r="F41" s="3">
-        <v>13103100</v>
+        <v>13454200</v>
       </c>
       <c r="G41" s="3">
-        <v>12511700</v>
+        <v>14463900</v>
       </c>
       <c r="H41" s="3">
-        <v>8906300</v>
+        <v>13811100</v>
       </c>
       <c r="I41" s="3">
-        <v>11841800</v>
+        <v>9831200</v>
       </c>
       <c r="J41" s="3">
+        <v>13071600</v>
+      </c>
+      <c r="K41" s="3">
         <v>10940500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5472100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6686200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4103800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3651500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3998400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4519200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5734600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4166300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3670700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3832600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4851300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5278900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3446000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>505900</v>
+        <v>202600</v>
       </c>
       <c r="E42" s="3">
-        <v>849600</v>
+        <v>558500</v>
       </c>
       <c r="F42" s="3">
-        <v>1453300</v>
+        <v>937800</v>
       </c>
       <c r="G42" s="3">
-        <v>715100</v>
+        <v>1604200</v>
       </c>
       <c r="H42" s="3">
-        <v>126300</v>
+        <v>789400</v>
       </c>
       <c r="I42" s="3">
-        <v>90500</v>
+        <v>139400</v>
       </c>
       <c r="J42" s="3">
+        <v>99900</v>
+      </c>
+      <c r="K42" s="3">
         <v>444100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>614800</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2773,8 +2863,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2788,493 +2878,517 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>8</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1647900</v>
+        <v>5251500</v>
       </c>
       <c r="E43" s="3">
-        <v>5020700</v>
+        <v>1819100</v>
       </c>
       <c r="F43" s="3">
-        <v>4199900</v>
+        <v>5542100</v>
       </c>
       <c r="G43" s="3">
-        <v>5334200</v>
+        <v>4636100</v>
       </c>
       <c r="H43" s="3">
-        <v>3821700</v>
+        <v>5888200</v>
       </c>
       <c r="I43" s="3">
-        <v>3360800</v>
+        <v>4218600</v>
       </c>
       <c r="J43" s="3">
+        <v>3709800</v>
+      </c>
+      <c r="K43" s="3">
         <v>2728400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2807800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2956900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3056800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3287800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3067600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3244000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3929800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3695900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5471000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5103900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4454100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5326500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4461500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4937600</v>
+        <v>4814000</v>
       </c>
       <c r="E44" s="3">
-        <v>4197500</v>
+        <v>5450400</v>
       </c>
       <c r="F44" s="3">
-        <v>4347400</v>
+        <v>4633500</v>
       </c>
       <c r="G44" s="3">
-        <v>3767300</v>
+        <v>4798900</v>
       </c>
       <c r="H44" s="3">
-        <v>4359000</v>
+        <v>4158500</v>
       </c>
       <c r="I44" s="3">
-        <v>3966900</v>
+        <v>4811700</v>
       </c>
       <c r="J44" s="3">
+        <v>4378900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3795800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3182100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3616000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3205900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3579800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3071300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3004600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3600300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3078800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3329700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3316000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3277300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2862100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2707400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1777200</v>
+        <v>1435600</v>
       </c>
       <c r="E45" s="3">
-        <v>427900</v>
+        <v>1961800</v>
       </c>
       <c r="F45" s="3">
-        <v>465300</v>
+        <v>472400</v>
       </c>
       <c r="G45" s="3">
-        <v>309000</v>
+        <v>513600</v>
       </c>
       <c r="H45" s="3">
-        <v>452600</v>
+        <v>341100</v>
       </c>
       <c r="I45" s="3">
-        <v>590500</v>
+        <v>499600</v>
       </c>
       <c r="J45" s="3">
+        <v>651900</v>
+      </c>
+      <c r="K45" s="3">
         <v>600500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>611600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1181900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>432900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>473400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>433900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>442300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>662200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>886800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>3603900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3900800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>4262900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4157200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>7630700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19411600</v>
+        <v>24593100</v>
       </c>
       <c r="E46" s="3">
-        <v>22684200</v>
+        <v>21427500</v>
       </c>
       <c r="F46" s="3">
-        <v>23569000</v>
+        <v>25040000</v>
       </c>
       <c r="G46" s="3">
-        <v>22637300</v>
+        <v>26016700</v>
       </c>
       <c r="H46" s="3">
-        <v>17665800</v>
+        <v>24988200</v>
       </c>
       <c r="I46" s="3">
-        <v>19850600</v>
+        <v>19500500</v>
       </c>
       <c r="J46" s="3">
+        <v>21912100</v>
+      </c>
+      <c r="K46" s="3">
         <v>18509400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12688400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14441000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10799300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10992400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10571300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11210200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13927000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11827800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16075200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16153400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16845500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17624700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>18245600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3376300</v>
+        <v>1925500</v>
       </c>
       <c r="E47" s="3">
-        <v>3300400</v>
+        <v>3726900</v>
       </c>
       <c r="F47" s="3">
-        <v>2888600</v>
+        <v>3643100</v>
       </c>
       <c r="G47" s="3">
-        <v>2795700</v>
+        <v>3188600</v>
       </c>
       <c r="H47" s="3">
-        <v>5421500</v>
+        <v>3086000</v>
       </c>
       <c r="I47" s="3">
-        <v>5136900</v>
+        <v>5984500</v>
       </c>
       <c r="J47" s="3">
+        <v>5670400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3566600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3338800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3661200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3267100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3663100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3448900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3634400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4463000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4230800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5382600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5425000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5465700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5299900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3135400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>39897700</v>
+        <v>46111100</v>
       </c>
       <c r="E48" s="3">
-        <v>39188400</v>
+        <v>44041300</v>
       </c>
       <c r="F48" s="3">
-        <v>39729000</v>
+        <v>43258300</v>
       </c>
       <c r="G48" s="3">
-        <v>38174000</v>
+        <v>43855100</v>
       </c>
       <c r="H48" s="3">
-        <v>38253300</v>
+        <v>42138500</v>
       </c>
       <c r="I48" s="3">
-        <v>37355000</v>
+        <v>42226100</v>
       </c>
       <c r="J48" s="3">
+        <v>41234400</v>
+      </c>
+      <c r="K48" s="3">
         <v>36354000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>34674300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>38174800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34360800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36388200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33446700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>35140300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>43858900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>42028700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46541900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>45711500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>46359000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>44231600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>44807200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8655200</v>
+        <v>9909600</v>
       </c>
       <c r="E49" s="3">
-        <v>9820300</v>
+        <v>9554000</v>
       </c>
       <c r="F49" s="3">
-        <v>8808700</v>
+        <v>10840200</v>
       </c>
       <c r="G49" s="3">
-        <v>8624000</v>
+        <v>9723500</v>
       </c>
       <c r="H49" s="3">
-        <v>6660100</v>
+        <v>9519700</v>
       </c>
       <c r="I49" s="3">
-        <v>6556000</v>
+        <v>7351800</v>
       </c>
       <c r="J49" s="3">
+        <v>7236900</v>
+      </c>
+      <c r="K49" s="3">
         <v>6400400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6327300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6490100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5864100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6227400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5503700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5771100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7193600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6669200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7202800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7026100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6116100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5742700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5555600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13023300</v>
+        <v>15819000</v>
       </c>
       <c r="E52" s="3">
-        <v>11372800</v>
+        <v>14375800</v>
       </c>
       <c r="F52" s="3">
-        <v>13473700</v>
+        <v>12553900</v>
       </c>
       <c r="G52" s="3">
-        <v>13124700</v>
+        <v>14873000</v>
       </c>
       <c r="H52" s="3">
-        <v>12536700</v>
+        <v>14487800</v>
       </c>
       <c r="I52" s="3">
-        <v>12382300</v>
+        <v>13838700</v>
       </c>
       <c r="J52" s="3">
+        <v>13668200</v>
+      </c>
+      <c r="K52" s="3">
         <v>13666100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11249300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10580700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10670200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11382200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7991400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7575700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9872000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8500200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8915000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8603700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8591300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8068500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8310700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84364000</v>
+        <v>98358200</v>
       </c>
       <c r="E54" s="3">
-        <v>86366100</v>
+        <v>93125500</v>
       </c>
       <c r="F54" s="3">
-        <v>88469000</v>
+        <v>95335500</v>
       </c>
       <c r="G54" s="3">
-        <v>85355700</v>
+        <v>97656800</v>
       </c>
       <c r="H54" s="3">
-        <v>80537400</v>
+        <v>94220200</v>
       </c>
       <c r="I54" s="3">
-        <v>81280800</v>
+        <v>88901600</v>
       </c>
       <c r="J54" s="3">
+        <v>89722100</v>
+      </c>
+      <c r="K54" s="3">
         <v>78496500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>68278100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73347700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>64961600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68653400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60961900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63331800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>79314400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73256700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>84117400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>82919700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>83377600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>80967300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>80054500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4106500</v>
+        <v>4253500</v>
       </c>
       <c r="E57" s="3">
-        <v>3540800</v>
+        <v>4532900</v>
       </c>
       <c r="F57" s="3">
-        <v>3906200</v>
+        <v>3908500</v>
       </c>
       <c r="G57" s="3">
-        <v>3794600</v>
+        <v>4311900</v>
       </c>
       <c r="H57" s="3">
-        <v>3872800</v>
+        <v>4188600</v>
       </c>
       <c r="I57" s="3">
-        <v>3595700</v>
+        <v>4275100</v>
       </c>
       <c r="J57" s="3">
+        <v>3969100</v>
+      </c>
+      <c r="K57" s="3">
         <v>3586900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3787600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3911300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3192200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3232300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3211600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3364900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3721200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3451600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3656100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3671200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3613400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3632600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3477900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1306400</v>
+        <v>1324200</v>
       </c>
       <c r="E58" s="3">
-        <v>886000</v>
+        <v>1442100</v>
       </c>
       <c r="F58" s="3">
-        <v>1005600</v>
+        <v>978000</v>
       </c>
       <c r="G58" s="3">
-        <v>1053500</v>
+        <v>1110100</v>
       </c>
       <c r="H58" s="3">
-        <v>1030900</v>
+        <v>1162900</v>
       </c>
       <c r="I58" s="3">
-        <v>1180600</v>
+        <v>1138000</v>
       </c>
       <c r="J58" s="3">
+        <v>1303300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1081900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1072100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1224700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1035000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2139900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>693700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1017200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1641000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1525900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1444300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1493200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1749300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1891800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1342000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10197300</v>
+        <v>11135700</v>
       </c>
       <c r="E59" s="3">
-        <v>8372800</v>
+        <v>11256300</v>
       </c>
       <c r="F59" s="3">
-        <v>7116700</v>
+        <v>9242400</v>
       </c>
       <c r="G59" s="3">
-        <v>8690400</v>
+        <v>7855800</v>
       </c>
       <c r="H59" s="3">
-        <v>5853800</v>
+        <v>9593000</v>
       </c>
       <c r="I59" s="3">
-        <v>6126400</v>
+        <v>6461700</v>
       </c>
       <c r="J59" s="3">
+        <v>6762700</v>
+      </c>
+      <c r="K59" s="3">
         <v>6075600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5447600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5355300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4480400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3717300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2430900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2411800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2909200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2776400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6015600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3540800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3612600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3770200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4262100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15610200</v>
+        <v>16713400</v>
       </c>
       <c r="E60" s="3">
-        <v>12799600</v>
+        <v>17231400</v>
       </c>
       <c r="F60" s="3">
-        <v>12028500</v>
+        <v>14128900</v>
       </c>
       <c r="G60" s="3">
-        <v>13538500</v>
+        <v>13277700</v>
       </c>
       <c r="H60" s="3">
-        <v>10757500</v>
+        <v>14944500</v>
       </c>
       <c r="I60" s="3">
-        <v>10902800</v>
+        <v>11874700</v>
       </c>
       <c r="J60" s="3">
+        <v>12035100</v>
+      </c>
+      <c r="K60" s="3">
         <v>10744500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10307300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10491300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8707600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9089500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6336200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6794000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8271400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7754000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11116000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8705200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8975400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9294600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9082100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11885500</v>
+        <v>13831400</v>
       </c>
       <c r="E61" s="3">
-        <v>11493200</v>
+        <v>13119800</v>
       </c>
       <c r="F61" s="3">
-        <v>13038100</v>
+        <v>12686900</v>
       </c>
       <c r="G61" s="3">
-        <v>12887000</v>
+        <v>14392200</v>
       </c>
       <c r="H61" s="3">
-        <v>14140100</v>
+        <v>14225300</v>
       </c>
       <c r="I61" s="3">
-        <v>16958400</v>
+        <v>15608600</v>
       </c>
       <c r="J61" s="3">
+        <v>18719600</v>
+      </c>
+      <c r="K61" s="3">
         <v>16336900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9980800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11740200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10927700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11567200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9997400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11436400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14481900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14211900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17628400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>19453700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>21873800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21350800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>22365300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23758600</v>
+        <v>28981000</v>
       </c>
       <c r="E62" s="3">
-        <v>24240100</v>
+        <v>26226100</v>
       </c>
       <c r="F62" s="3">
-        <v>27358800</v>
+        <v>26757600</v>
       </c>
       <c r="G62" s="3">
-        <v>26620600</v>
+        <v>30200100</v>
       </c>
       <c r="H62" s="3">
-        <v>22191900</v>
+        <v>29385300</v>
       </c>
       <c r="I62" s="3">
-        <v>21218900</v>
+        <v>24496600</v>
       </c>
       <c r="J62" s="3">
+        <v>23422600</v>
+      </c>
+      <c r="K62" s="3">
         <v>20549700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18964500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>17782200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>15935900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>16510200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>13643400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14258200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17951400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15742900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17401700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17013600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16990600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16074300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15438300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51999000</v>
+        <v>60443200</v>
       </c>
       <c r="E66" s="3">
-        <v>49155900</v>
+        <v>57399300</v>
       </c>
       <c r="F66" s="3">
-        <v>51428400</v>
+        <v>54260900</v>
       </c>
       <c r="G66" s="3">
-        <v>52189300</v>
+        <v>56769500</v>
       </c>
       <c r="H66" s="3">
-        <v>45790300</v>
+        <v>57609400</v>
       </c>
       <c r="I66" s="3">
-        <v>47904800</v>
+        <v>50545900</v>
       </c>
       <c r="J66" s="3">
+        <v>52879900</v>
+      </c>
+      <c r="K66" s="3">
         <v>46567500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38452700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>40540500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36074500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37759800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30562100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33124200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>41550700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38565900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>47260900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>46370100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>49052200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47925500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48488600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9470400</v>
+        <v>17021600</v>
       </c>
       <c r="E72" s="3">
-        <v>14361700</v>
+        <v>10454000</v>
       </c>
       <c r="F72" s="3">
-        <v>10081100</v>
+        <v>15853300</v>
       </c>
       <c r="G72" s="3">
-        <v>6747300</v>
+        <v>11128100</v>
       </c>
       <c r="H72" s="3">
-        <v>7241700</v>
+        <v>7448100</v>
       </c>
       <c r="I72" s="3">
-        <v>6658900</v>
+        <v>7993800</v>
       </c>
       <c r="J72" s="3">
+        <v>7350400</v>
+      </c>
+      <c r="K72" s="3">
         <v>5702100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5717700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8104800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6492300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6933100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7755300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5363300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7222100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7146900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6553000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7109800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4470600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4822700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2946700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>32365000</v>
+        <v>37914900</v>
       </c>
       <c r="E76" s="3">
-        <v>37210200</v>
+        <v>35726200</v>
       </c>
       <c r="F76" s="3">
-        <v>37040500</v>
+        <v>41074600</v>
       </c>
       <c r="G76" s="3">
-        <v>33166300</v>
+        <v>40887300</v>
       </c>
       <c r="H76" s="3">
-        <v>34747100</v>
+        <v>36610800</v>
       </c>
       <c r="I76" s="3">
-        <v>33375900</v>
+        <v>38355700</v>
       </c>
       <c r="J76" s="3">
+        <v>36842200</v>
+      </c>
+      <c r="K76" s="3">
         <v>31929000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29825400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32807200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28887100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30893600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30399800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30207600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37763700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34690800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36856600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36549600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34325300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>33041800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31565800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3606700</v>
+        <v>5983900</v>
       </c>
       <c r="E81" s="3">
-        <v>7157700</v>
+        <v>3981300</v>
       </c>
       <c r="F81" s="3">
-        <v>5456300</v>
+        <v>7901100</v>
       </c>
       <c r="G81" s="3">
-        <v>861300</v>
+        <v>6023000</v>
       </c>
       <c r="H81" s="3">
-        <v>2787600</v>
+        <v>950800</v>
       </c>
       <c r="I81" s="3">
-        <v>944100</v>
+        <v>3077100</v>
       </c>
       <c r="J81" s="3">
+        <v>1042100</v>
+      </c>
+      <c r="K81" s="3">
         <v>175700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1227100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-68000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2584200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1064500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>71500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1193800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>649400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1831300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>15500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1957600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>390300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>652800</v>
+        <v>834100</v>
       </c>
       <c r="E83" s="3">
-        <v>799400</v>
+        <v>720600</v>
       </c>
       <c r="F83" s="3">
-        <v>716100</v>
+        <v>882400</v>
       </c>
       <c r="G83" s="3">
-        <v>804300</v>
+        <v>790500</v>
       </c>
       <c r="H83" s="3">
-        <v>742900</v>
+        <v>887800</v>
       </c>
       <c r="I83" s="3">
-        <v>774100</v>
+        <v>820000</v>
       </c>
       <c r="J83" s="3">
+        <v>854500</v>
+      </c>
+      <c r="K83" s="3">
         <v>656300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>784300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>692000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>670400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>566900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>520500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>624700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>726600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>661700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>812200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>747600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>745200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>707400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>598500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8443800</v>
+        <v>2065900</v>
       </c>
       <c r="E89" s="3">
-        <v>7261100</v>
+        <v>9320700</v>
       </c>
       <c r="F89" s="3">
-        <v>6839000</v>
+        <v>8015200</v>
       </c>
       <c r="G89" s="3">
-        <v>6217000</v>
+        <v>7549300</v>
       </c>
       <c r="H89" s="3">
-        <v>4573400</v>
+        <v>6862700</v>
       </c>
       <c r="I89" s="3">
-        <v>1254900</v>
+        <v>5048400</v>
       </c>
       <c r="J89" s="3">
+        <v>1385300</v>
+      </c>
+      <c r="K89" s="3">
         <v>1380700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2067400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3051200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2047500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1546000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2227400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2857700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3016300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1654300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3075400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1940400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2841900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2379500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2108400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4762300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
-        <v>-559500</v>
-      </c>
       <c r="G91" s="3">
-        <v>-1398400</v>
+        <v>-617600</v>
       </c>
       <c r="H91" s="3">
-        <v>-837700</v>
+        <v>-1345400</v>
       </c>
       <c r="I91" s="3">
-        <v>-928600</v>
+        <v>-924700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1025000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-892400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-717900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-507300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-431500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-520500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-592700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-674300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-816500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-695500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-731200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-865000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>2329500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-751900</v>
+        <v>-423000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2822100</v>
+        <v>-830000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2342400</v>
+        <v>-3115200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1870500</v>
+        <v>-2585600</v>
       </c>
       <c r="H94" s="3">
-        <v>-966400</v>
+        <v>-2064700</v>
       </c>
       <c r="I94" s="3">
-        <v>-646000</v>
+        <v>-1066800</v>
       </c>
       <c r="J94" s="3">
+        <v>-713100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-843300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-968200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-406600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-414400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-508600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-366500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>2166300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-687700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-404900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-949700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-675900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6251,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-7179300</v>
+        <v>-25300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1977400</v>
+        <v>-7924900</v>
       </c>
       <c r="F96" s="3">
-        <v>-3903500</v>
+        <v>-2182800</v>
       </c>
       <c r="G96" s="3">
-        <v>-28700</v>
+        <v>-4308900</v>
       </c>
       <c r="H96" s="3">
-        <v>-3303800</v>
+        <v>-31700</v>
       </c>
       <c r="I96" s="3">
-        <v>-5300</v>
+        <v>-3646900</v>
       </c>
       <c r="J96" s="3">
-        <v>-2100</v>
+        <v>-5800</v>
       </c>
       <c r="K96" s="3">
         <v>-2100</v>
       </c>
       <c r="L96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-74100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-9000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-44400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-2200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-436800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6533,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9986300</v>
+        <v>-605600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4061000</v>
+        <v>-11023400</v>
       </c>
       <c r="F100" s="3">
-        <v>-4903100</v>
+        <v>-4482800</v>
       </c>
       <c r="G100" s="3">
-        <v>-195800</v>
+        <v>-5412300</v>
       </c>
       <c r="H100" s="3">
-        <v>-6879200</v>
+        <v>-216100</v>
       </c>
       <c r="I100" s="3">
-        <v>-164300</v>
+        <v>-7593700</v>
       </c>
       <c r="J100" s="3">
+        <v>-181400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4018700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-718600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-939400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1051500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>179900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>648900</v>
+        <v>214300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1292700</v>
+        <v>716300</v>
       </c>
       <c r="F101" s="3">
-        <v>997900</v>
+        <v>-1426900</v>
       </c>
       <c r="G101" s="3">
-        <v>-545300</v>
+        <v>1101500</v>
       </c>
       <c r="H101" s="3">
-        <v>336500</v>
+        <v>-601800</v>
       </c>
       <c r="I101" s="3">
-        <v>456900</v>
+        <v>371500</v>
       </c>
       <c r="J101" s="3">
+        <v>504300</v>
+      </c>
+      <c r="K101" s="3">
         <v>1095300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-111400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>412800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-45000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-147400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>153200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>453300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-75200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>89000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-96000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>57700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-50600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1645500</v>
+        <v>1251600</v>
       </c>
       <c r="E102" s="3">
-        <v>-914700</v>
+        <v>-1816400</v>
       </c>
       <c r="F102" s="3">
-        <v>591400</v>
+        <v>-1009700</v>
       </c>
       <c r="G102" s="3">
-        <v>3605400</v>
+        <v>652900</v>
       </c>
       <c r="H102" s="3">
-        <v>-2935500</v>
+        <v>3980000</v>
       </c>
       <c r="I102" s="3">
-        <v>901300</v>
+        <v>-3240400</v>
       </c>
       <c r="J102" s="3">
+        <v>994900</v>
+      </c>
+      <c r="K102" s="3">
         <v>5651400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2338800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>648600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-542600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-358900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1568300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>822900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-161900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-604200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1832900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-877500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13816900</v>
+        <v>11047700</v>
       </c>
       <c r="E8" s="3">
-        <v>13057300</v>
+        <v>13657100</v>
       </c>
       <c r="F8" s="3">
-        <v>17311100</v>
+        <v>12906300</v>
       </c>
       <c r="G8" s="3">
-        <v>13656500</v>
+        <v>17110800</v>
       </c>
       <c r="H8" s="3">
-        <v>15076600</v>
+        <v>13399300</v>
       </c>
       <c r="I8" s="3">
-        <v>11410900</v>
+        <v>14902100</v>
       </c>
       <c r="J8" s="3">
+        <v>11278900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7967900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5578900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7576200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7627900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6375400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5792000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6682000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7005700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7293600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6522800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7647100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7332500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5989800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6634200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7604100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6061900</v>
+        <v>4708600</v>
       </c>
       <c r="E9" s="3">
-        <v>6016900</v>
+        <v>5991700</v>
       </c>
       <c r="F9" s="3">
-        <v>6025000</v>
+        <v>5947300</v>
       </c>
       <c r="G9" s="3">
-        <v>5004800</v>
+        <v>5955300</v>
       </c>
       <c r="H9" s="3">
-        <v>4566500</v>
+        <v>4594300</v>
       </c>
       <c r="I9" s="3">
-        <v>5102500</v>
+        <v>4513700</v>
       </c>
       <c r="J9" s="3">
+        <v>5043500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4466800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3430200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4280600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4244500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3591400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3321500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3914200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4223700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4544900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3962900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4828000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4383800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4220500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3560000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4062900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7755000</v>
+        <v>6339100</v>
       </c>
       <c r="E10" s="3">
-        <v>7040400</v>
+        <v>7665300</v>
       </c>
       <c r="F10" s="3">
-        <v>11286100</v>
+        <v>6958900</v>
       </c>
       <c r="G10" s="3">
-        <v>8651700</v>
+        <v>11155500</v>
       </c>
       <c r="H10" s="3">
-        <v>10510100</v>
+        <v>8805000</v>
       </c>
       <c r="I10" s="3">
-        <v>6308400</v>
+        <v>10388500</v>
       </c>
       <c r="J10" s="3">
+        <v>6235400</v>
+      </c>
+      <c r="K10" s="3">
         <v>3501100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2148700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3295500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3383400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2784100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2470400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2767800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2781900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2748700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2559900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2819100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2948600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1769200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3074200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3541300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,150 +1164,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-277100</v>
+        <v>-875700</v>
       </c>
       <c r="E14" s="3">
-        <v>2654100</v>
+        <v>-273900</v>
       </c>
       <c r="F14" s="3">
-        <v>617800</v>
+        <v>2623400</v>
       </c>
       <c r="G14" s="3">
-        <v>302200</v>
+        <v>610600</v>
       </c>
       <c r="H14" s="3">
-        <v>5510700</v>
+        <v>251500</v>
       </c>
       <c r="I14" s="3">
-        <v>438000</v>
+        <v>5447000</v>
       </c>
       <c r="J14" s="3">
+        <v>432900</v>
+      </c>
+      <c r="K14" s="3">
         <v>582000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>150600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4454700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>191800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1048500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3240200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>196900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>130900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2500</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>402500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>136300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>186000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>127800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2084300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12800</v>
+        <v>11700</v>
       </c>
       <c r="E15" s="3">
-        <v>12000</v>
+        <v>12700</v>
       </c>
       <c r="F15" s="3">
-        <v>10400</v>
+        <v>11900</v>
       </c>
       <c r="G15" s="3">
-        <v>9500</v>
+        <v>10300</v>
       </c>
       <c r="H15" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="I15" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="J15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K15" s="3">
         <v>14000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>14600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>12400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>13300</v>
       </c>
       <c r="S15" s="3">
         <v>13300</v>
       </c>
       <c r="T15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="U15" s="3">
         <v>18200</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>18500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>22300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>102600</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7622700</v>
+        <v>4129300</v>
       </c>
       <c r="E17" s="3">
-        <v>8998200</v>
+        <v>7534500</v>
       </c>
       <c r="F17" s="3">
-        <v>7657500</v>
+        <v>8894100</v>
       </c>
       <c r="G17" s="3">
-        <v>5712000</v>
+        <v>7568900</v>
       </c>
       <c r="H17" s="3">
-        <v>11233200</v>
+        <v>5229600</v>
       </c>
       <c r="I17" s="3">
-        <v>6147400</v>
+        <v>11103200</v>
       </c>
       <c r="J17" s="3">
+        <v>6076200</v>
+      </c>
+      <c r="K17" s="3">
         <v>6328100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4146900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9518900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4836000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5618400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6989800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4666600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4597100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5190500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4285100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5681300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4816100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4773800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3636500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5701000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6194300</v>
+        <v>6918400</v>
       </c>
       <c r="E18" s="3">
-        <v>4059100</v>
+        <v>6122600</v>
       </c>
       <c r="F18" s="3">
-        <v>9653600</v>
+        <v>4012100</v>
       </c>
       <c r="G18" s="3">
-        <v>7944500</v>
+        <v>9541900</v>
       </c>
       <c r="H18" s="3">
-        <v>3843400</v>
+        <v>8169700</v>
       </c>
       <c r="I18" s="3">
-        <v>5263500</v>
+        <v>3798900</v>
       </c>
       <c r="J18" s="3">
+        <v>5202600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1639800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1432000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2791900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>757000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2015400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2408500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2103100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2237700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1965800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2516400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1215900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2997700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1903100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,363 +1515,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3702500</v>
+        <v>-102300</v>
       </c>
       <c r="E20" s="3">
-        <v>-218700</v>
+        <v>3659700</v>
       </c>
       <c r="F20" s="3">
-        <v>554400</v>
+        <v>-216100</v>
       </c>
       <c r="G20" s="3">
-        <v>190700</v>
+        <v>547900</v>
       </c>
       <c r="H20" s="3">
-        <v>-589300</v>
+        <v>-17900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1229400</v>
+        <v>-582400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1215100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-301200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-491600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-678000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-321500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-333600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>148100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-755700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-210700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-855000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>440700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-741700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-143800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-221800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10730900</v>
+        <v>7515600</v>
       </c>
       <c r="E21" s="3">
-        <v>4561100</v>
+        <v>10606800</v>
       </c>
       <c r="F21" s="3">
-        <v>11090300</v>
+        <v>4508300</v>
       </c>
       <c r="G21" s="3">
-        <v>8925700</v>
+        <v>10962000</v>
       </c>
       <c r="H21" s="3">
-        <v>4125800</v>
+        <v>8933100</v>
       </c>
       <c r="I21" s="3">
-        <v>4854200</v>
+        <v>4078000</v>
       </c>
       <c r="J21" s="3">
+        <v>4798000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2193200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>375800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2805900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1106000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-964600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2684000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2277600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>487300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2688700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1923000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3704700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1219400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3561300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2509400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>142500</v>
+        <v>165800</v>
       </c>
       <c r="E22" s="3">
-        <v>163400</v>
+        <v>140800</v>
       </c>
       <c r="F22" s="3">
-        <v>187600</v>
+        <v>161500</v>
       </c>
       <c r="G22" s="3">
-        <v>225400</v>
+        <v>185400</v>
       </c>
       <c r="H22" s="3">
-        <v>138900</v>
+        <v>18100</v>
       </c>
       <c r="I22" s="3">
-        <v>225000</v>
+        <v>137300</v>
       </c>
       <c r="J22" s="3">
+        <v>222400</v>
+      </c>
+      <c r="K22" s="3">
         <v>209100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>159600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>148300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>176500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>180600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>150800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>165600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>161700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>209900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>209200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>213800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>247700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>370900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>270200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>286300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9754300</v>
+        <v>6650400</v>
       </c>
       <c r="E23" s="3">
-        <v>3677100</v>
+        <v>9641500</v>
       </c>
       <c r="F23" s="3">
-        <v>10020300</v>
+        <v>3634500</v>
       </c>
       <c r="G23" s="3">
-        <v>7909800</v>
+        <v>9904400</v>
       </c>
       <c r="H23" s="3">
-        <v>3115200</v>
+        <v>8133600</v>
       </c>
       <c r="I23" s="3">
-        <v>3809100</v>
+        <v>3079200</v>
       </c>
       <c r="J23" s="3">
+        <v>3765100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1129500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-440100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1937400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>254900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1997900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1491200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-449200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1817800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>897000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2709500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>103300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2583700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1395100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1235000</v>
+        <v>2139900</v>
       </c>
       <c r="E24" s="3">
-        <v>-377300</v>
+        <v>1220700</v>
       </c>
       <c r="F24" s="3">
-        <v>2171100</v>
+        <v>-372900</v>
       </c>
       <c r="G24" s="3">
-        <v>1960700</v>
+        <v>2145900</v>
       </c>
       <c r="H24" s="3">
-        <v>515600</v>
+        <v>1938100</v>
       </c>
       <c r="I24" s="3">
-        <v>839000</v>
+        <v>509700</v>
       </c>
       <c r="J24" s="3">
+        <v>829300</v>
+      </c>
+      <c r="K24" s="3">
         <v>168500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-553800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>725400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>329100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-457400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-617700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>453600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-535800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>546300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-132000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>784800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-39800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>549700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>38400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8519300</v>
+        <v>4510500</v>
       </c>
       <c r="E26" s="3">
-        <v>4054300</v>
+        <v>8420700</v>
       </c>
       <c r="F26" s="3">
-        <v>7849300</v>
+        <v>4007400</v>
       </c>
       <c r="G26" s="3">
-        <v>5949000</v>
+        <v>7758500</v>
       </c>
       <c r="H26" s="3">
-        <v>2599600</v>
+        <v>6195600</v>
       </c>
       <c r="I26" s="3">
-        <v>2970100</v>
+        <v>2569500</v>
       </c>
       <c r="J26" s="3">
+        <v>2935800</v>
+      </c>
+      <c r="K26" s="3">
         <v>961100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>113700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1212000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2615600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1037600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>86500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1271500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1029000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1924700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>143100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2034000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1356700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8444000</v>
+        <v>4487700</v>
       </c>
       <c r="E27" s="3">
-        <v>3981300</v>
+        <v>8346300</v>
       </c>
       <c r="F27" s="3">
-        <v>7901100</v>
+        <v>3935200</v>
       </c>
       <c r="G27" s="3">
-        <v>6023000</v>
+        <v>7809600</v>
       </c>
       <c r="H27" s="3">
-        <v>2699700</v>
+        <v>6181300</v>
       </c>
       <c r="I27" s="3">
-        <v>3077100</v>
+        <v>2668500</v>
       </c>
       <c r="J27" s="3">
+        <v>3041500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1042100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>175700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1227100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-68000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2584300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1064500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>80600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1257000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1066000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1917800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>115000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2021400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1383900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,16 +2179,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-2460100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+        <v>1200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-2431600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -2139,10 +2200,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-1748900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-228100</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1728700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -2150,8 +2211,8 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2163,37 +2224,40 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-9100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-63300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-416600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-86500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-99500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-63800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-993600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3702500</v>
+        <v>102300</v>
       </c>
       <c r="E32" s="3">
-        <v>218700</v>
+        <v>-3659700</v>
       </c>
       <c r="F32" s="3">
-        <v>-554400</v>
+        <v>216100</v>
       </c>
       <c r="G32" s="3">
-        <v>-190700</v>
+        <v>-547900</v>
       </c>
       <c r="H32" s="3">
-        <v>589300</v>
+        <v>17900</v>
       </c>
       <c r="I32" s="3">
-        <v>1229400</v>
+        <v>582400</v>
       </c>
       <c r="J32" s="3">
+        <v>1215100</v>
+      </c>
+      <c r="K32" s="3">
         <v>301200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1712500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>491600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>678000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>321500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>333600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-148100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>755700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2342400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>210700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>855000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-440700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>741700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>143800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>221800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5983900</v>
+        <v>4488900</v>
       </c>
       <c r="E33" s="3">
-        <v>3981300</v>
+        <v>5914700</v>
       </c>
       <c r="F33" s="3">
-        <v>7901100</v>
+        <v>3935200</v>
       </c>
       <c r="G33" s="3">
-        <v>6023000</v>
+        <v>7809600</v>
       </c>
       <c r="H33" s="3">
-        <v>950800</v>
+        <v>5953300</v>
       </c>
       <c r="I33" s="3">
-        <v>3077100</v>
+        <v>939800</v>
       </c>
       <c r="J33" s="3">
+        <v>3041500</v>
+      </c>
+      <c r="K33" s="3">
         <v>1042100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>175700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1227100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-68000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2584200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1064500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>71500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1193800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>649400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1831300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>15500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1957600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>390300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5983900</v>
+        <v>4488900</v>
       </c>
       <c r="E35" s="3">
-        <v>3981300</v>
+        <v>5914700</v>
       </c>
       <c r="F35" s="3">
-        <v>7901100</v>
+        <v>3935200</v>
       </c>
       <c r="G35" s="3">
-        <v>6023000</v>
+        <v>7809600</v>
       </c>
       <c r="H35" s="3">
-        <v>950800</v>
+        <v>5953300</v>
       </c>
       <c r="I35" s="3">
-        <v>3077100</v>
+        <v>939800</v>
       </c>
       <c r="J35" s="3">
+        <v>3041500</v>
+      </c>
+      <c r="K35" s="3">
         <v>1042100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>175700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1227100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-68000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2584200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1064500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>71500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1193800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>649400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1831300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>15500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1957600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>390300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,111 +2834,115 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12889500</v>
+        <v>8362100</v>
       </c>
       <c r="E41" s="3">
-        <v>11637800</v>
+        <v>12740400</v>
       </c>
       <c r="F41" s="3">
-        <v>13454200</v>
+        <v>11503200</v>
       </c>
       <c r="G41" s="3">
-        <v>14463900</v>
+        <v>13298500</v>
       </c>
       <c r="H41" s="3">
-        <v>13811100</v>
+        <v>14296600</v>
       </c>
       <c r="I41" s="3">
-        <v>9831200</v>
+        <v>13651300</v>
       </c>
       <c r="J41" s="3">
+        <v>9717500</v>
+      </c>
+      <c r="K41" s="3">
         <v>13071600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10940500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5472100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6686200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4103800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3651500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3998400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4519200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5734600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4166300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3670700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3832600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4851300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5278900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3446000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>202600</v>
+        <v>39700</v>
       </c>
       <c r="E42" s="3">
-        <v>558500</v>
+        <v>200200</v>
       </c>
       <c r="F42" s="3">
-        <v>937800</v>
+        <v>552000</v>
       </c>
       <c r="G42" s="3">
-        <v>1604200</v>
+        <v>927000</v>
       </c>
       <c r="H42" s="3">
-        <v>789400</v>
+        <v>1585700</v>
       </c>
       <c r="I42" s="3">
-        <v>139400</v>
+        <v>780200</v>
       </c>
       <c r="J42" s="3">
+        <v>137800</v>
+      </c>
+      <c r="K42" s="3">
         <v>99900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>444100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>614800</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -2866,8 +2956,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2881,514 +2971,538 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>8</v>
+      <c r="W42" s="3">
+        <v>0</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5251500</v>
+        <v>3650200</v>
       </c>
       <c r="E43" s="3">
-        <v>1819100</v>
+        <v>5190700</v>
       </c>
       <c r="F43" s="3">
-        <v>5542100</v>
+        <v>1798000</v>
       </c>
       <c r="G43" s="3">
-        <v>4636100</v>
+        <v>5478000</v>
       </c>
       <c r="H43" s="3">
-        <v>5888200</v>
+        <v>4582400</v>
       </c>
       <c r="I43" s="3">
-        <v>4218600</v>
+        <v>5820100</v>
       </c>
       <c r="J43" s="3">
+        <v>4169800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3709800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2728400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2807800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2956900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3056800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3287800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3067600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3244000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3929800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3695900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5471000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5103900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4454100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5326500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4461500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4814000</v>
+        <v>4649600</v>
       </c>
       <c r="E44" s="3">
-        <v>5450400</v>
+        <v>4758300</v>
       </c>
       <c r="F44" s="3">
-        <v>4633500</v>
+        <v>5387400</v>
       </c>
       <c r="G44" s="3">
-        <v>4798900</v>
+        <v>4579900</v>
       </c>
       <c r="H44" s="3">
-        <v>4158500</v>
+        <v>4743400</v>
       </c>
       <c r="I44" s="3">
-        <v>4811700</v>
+        <v>4110400</v>
       </c>
       <c r="J44" s="3">
+        <v>4756100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4378900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3795800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3182100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3616000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3205900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3579800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3071300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3004600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3600300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3078800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3329700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3316000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3277300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2862100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2707400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1435600</v>
+        <v>1260800</v>
       </c>
       <c r="E45" s="3">
-        <v>1961800</v>
+        <v>1419000</v>
       </c>
       <c r="F45" s="3">
-        <v>472400</v>
+        <v>1939100</v>
       </c>
       <c r="G45" s="3">
-        <v>513600</v>
+        <v>466900</v>
       </c>
       <c r="H45" s="3">
-        <v>341100</v>
+        <v>507700</v>
       </c>
       <c r="I45" s="3">
-        <v>499600</v>
+        <v>337200</v>
       </c>
       <c r="J45" s="3">
+        <v>493800</v>
+      </c>
+      <c r="K45" s="3">
         <v>651900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>611600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1181900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>432900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>473400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>433900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>442300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>662200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>886800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3603900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3900800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>4262900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4157200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>7630700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24593100</v>
+        <v>17962400</v>
       </c>
       <c r="E46" s="3">
-        <v>21427500</v>
+        <v>24308500</v>
       </c>
       <c r="F46" s="3">
-        <v>25040000</v>
+        <v>21179600</v>
       </c>
       <c r="G46" s="3">
-        <v>26016700</v>
+        <v>24750300</v>
       </c>
       <c r="H46" s="3">
-        <v>24988200</v>
+        <v>25715700</v>
       </c>
       <c r="I46" s="3">
-        <v>19500500</v>
+        <v>24699100</v>
       </c>
       <c r="J46" s="3">
+        <v>19274900</v>
+      </c>
+      <c r="K46" s="3">
         <v>21912100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18509400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12688400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14441000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10799300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10992400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10571300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11210200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13927000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11827800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16075200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16153400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16845500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17624700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>18245600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1925500</v>
+        <v>1778300</v>
       </c>
       <c r="E47" s="3">
-        <v>3726900</v>
+        <v>1903200</v>
       </c>
       <c r="F47" s="3">
-        <v>3643100</v>
+        <v>3683800</v>
       </c>
       <c r="G47" s="3">
-        <v>3188600</v>
+        <v>3601000</v>
       </c>
       <c r="H47" s="3">
-        <v>3086000</v>
+        <v>3151700</v>
       </c>
       <c r="I47" s="3">
-        <v>5984500</v>
+        <v>3050300</v>
       </c>
       <c r="J47" s="3">
+        <v>5915300</v>
+      </c>
+      <c r="K47" s="3">
         <v>5670400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3566600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3338800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3661200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3267100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3663100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3448900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3634400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4463000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4230800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5382600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5425000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5465700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5299900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>3135400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>46111100</v>
+        <v>42734700</v>
       </c>
       <c r="E48" s="3">
-        <v>44041300</v>
+        <v>45577500</v>
       </c>
       <c r="F48" s="3">
-        <v>43258300</v>
+        <v>43531700</v>
       </c>
       <c r="G48" s="3">
-        <v>43855100</v>
+        <v>42757800</v>
       </c>
       <c r="H48" s="3">
-        <v>42138500</v>
+        <v>43347700</v>
       </c>
       <c r="I48" s="3">
-        <v>42226100</v>
+        <v>41650900</v>
       </c>
       <c r="J48" s="3">
+        <v>41737500</v>
+      </c>
+      <c r="K48" s="3">
         <v>41234400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>36354000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>34674300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>38174800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34360800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36388200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33446700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35140300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>43858900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>42028700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>46541900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>45711500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46359000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>44231600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>44807200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9909600</v>
+        <v>9474300</v>
       </c>
       <c r="E49" s="3">
-        <v>9554000</v>
+        <v>9794900</v>
       </c>
       <c r="F49" s="3">
-        <v>10840200</v>
+        <v>9443500</v>
       </c>
       <c r="G49" s="3">
-        <v>9723500</v>
+        <v>10714800</v>
       </c>
       <c r="H49" s="3">
-        <v>9519700</v>
+        <v>9611000</v>
       </c>
       <c r="I49" s="3">
-        <v>7351800</v>
+        <v>9409500</v>
       </c>
       <c r="J49" s="3">
+        <v>7266700</v>
+      </c>
+      <c r="K49" s="3">
         <v>7236900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6400400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6327300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6490100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5864100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6227400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5503700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5771100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7193600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6669200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7202800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7026100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6116100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5742700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5555600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15819000</v>
+        <v>14009700</v>
       </c>
       <c r="E52" s="3">
-        <v>14375800</v>
+        <v>15636000</v>
       </c>
       <c r="F52" s="3">
-        <v>12553900</v>
+        <v>14209400</v>
       </c>
       <c r="G52" s="3">
-        <v>14873000</v>
+        <v>12408700</v>
       </c>
       <c r="H52" s="3">
-        <v>14487800</v>
+        <v>14700900</v>
       </c>
       <c r="I52" s="3">
-        <v>13838700</v>
+        <v>14320200</v>
       </c>
       <c r="J52" s="3">
+        <v>13678600</v>
+      </c>
+      <c r="K52" s="3">
         <v>13668200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13666100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11249300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10580700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10670200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11382200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7991400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7575700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9872000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8500200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8915000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8603700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8591300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8068500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8310700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>98358200</v>
+        <v>85959500</v>
       </c>
       <c r="E54" s="3">
-        <v>93125500</v>
+        <v>97220200</v>
       </c>
       <c r="F54" s="3">
-        <v>95335500</v>
+        <v>92048000</v>
       </c>
       <c r="G54" s="3">
-        <v>97656800</v>
+        <v>94232500</v>
       </c>
       <c r="H54" s="3">
-        <v>94220200</v>
+        <v>96526900</v>
       </c>
       <c r="I54" s="3">
-        <v>88901600</v>
+        <v>93130100</v>
       </c>
       <c r="J54" s="3">
+        <v>87873000</v>
+      </c>
+      <c r="K54" s="3">
         <v>89722100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78496500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>68278100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73347700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>64961600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68653400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60961900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63331800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>79314400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73256700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>84117400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>82919700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>83377600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>80967300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>80054500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4253500</v>
+        <v>3530800</v>
       </c>
       <c r="E57" s="3">
-        <v>4532900</v>
+        <v>4204300</v>
       </c>
       <c r="F57" s="3">
-        <v>3908500</v>
+        <v>4480500</v>
       </c>
       <c r="G57" s="3">
-        <v>4311900</v>
+        <v>3863300</v>
       </c>
       <c r="H57" s="3">
-        <v>4188600</v>
+        <v>4262000</v>
       </c>
       <c r="I57" s="3">
-        <v>4275100</v>
+        <v>4140200</v>
       </c>
       <c r="J57" s="3">
+        <v>4225600</v>
+      </c>
+      <c r="K57" s="3">
         <v>3969100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3586900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3787600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3911300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3192200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3232300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3211600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3364900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3721200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3451600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3656100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3671200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3613400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3632600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3477900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1324200</v>
+        <v>1018300</v>
       </c>
       <c r="E58" s="3">
-        <v>1442100</v>
+        <v>1308900</v>
       </c>
       <c r="F58" s="3">
-        <v>978000</v>
+        <v>1425400</v>
       </c>
       <c r="G58" s="3">
-        <v>1110100</v>
+        <v>966700</v>
       </c>
       <c r="H58" s="3">
-        <v>1162900</v>
+        <v>1097200</v>
       </c>
       <c r="I58" s="3">
-        <v>1138000</v>
+        <v>1149500</v>
       </c>
       <c r="J58" s="3">
+        <v>1124800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1303300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1081900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1072100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1224700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1035000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2139900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>693700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1017200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1641000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1525900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1444300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1493200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1749300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1891800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1342000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11135700</v>
+        <v>8986600</v>
       </c>
       <c r="E59" s="3">
-        <v>11256300</v>
+        <v>11006800</v>
       </c>
       <c r="F59" s="3">
-        <v>9242400</v>
+        <v>11126100</v>
       </c>
       <c r="G59" s="3">
-        <v>7855800</v>
+        <v>9135400</v>
       </c>
       <c r="H59" s="3">
-        <v>9593000</v>
+        <v>7764900</v>
       </c>
       <c r="I59" s="3">
-        <v>6461700</v>
+        <v>9482000</v>
       </c>
       <c r="J59" s="3">
+        <v>6386900</v>
+      </c>
+      <c r="K59" s="3">
         <v>6762700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6075600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5447600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5355300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4480400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3717300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2430900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2411800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2909200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2776400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6015600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3540800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3612600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3770200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4262100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16713400</v>
+        <v>13535700</v>
       </c>
       <c r="E60" s="3">
-        <v>17231400</v>
+        <v>16520100</v>
       </c>
       <c r="F60" s="3">
-        <v>14128900</v>
+        <v>17032000</v>
       </c>
       <c r="G60" s="3">
-        <v>13277700</v>
+        <v>13965400</v>
       </c>
       <c r="H60" s="3">
-        <v>14944500</v>
+        <v>13124100</v>
       </c>
       <c r="I60" s="3">
-        <v>11874700</v>
+        <v>14771600</v>
       </c>
       <c r="J60" s="3">
+        <v>11737400</v>
+      </c>
+      <c r="K60" s="3">
         <v>12035100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10744500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10307300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10491300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8707600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9089500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6336200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6794000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8271400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7754000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11116000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8705200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8975400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9294600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9082100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13831400</v>
+        <v>11915700</v>
       </c>
       <c r="E61" s="3">
-        <v>13119800</v>
+        <v>13671400</v>
       </c>
       <c r="F61" s="3">
-        <v>12686900</v>
+        <v>12968000</v>
       </c>
       <c r="G61" s="3">
-        <v>14392200</v>
+        <v>12540100</v>
       </c>
       <c r="H61" s="3">
-        <v>14225300</v>
+        <v>14225700</v>
       </c>
       <c r="I61" s="3">
-        <v>15608600</v>
+        <v>14060700</v>
       </c>
       <c r="J61" s="3">
+        <v>15428000</v>
+      </c>
+      <c r="K61" s="3">
         <v>18719600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16336900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9980800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11740200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10927700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11567200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9997400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11436400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>14481900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14211900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17628400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>19453700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>21873800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21350800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>22365300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>28981000</v>
+        <v>24987900</v>
       </c>
       <c r="E62" s="3">
-        <v>26226100</v>
+        <v>28645700</v>
       </c>
       <c r="F62" s="3">
-        <v>26757600</v>
+        <v>25922600</v>
       </c>
       <c r="G62" s="3">
-        <v>30200100</v>
+        <v>26448000</v>
       </c>
       <c r="H62" s="3">
-        <v>29385300</v>
+        <v>29850700</v>
       </c>
       <c r="I62" s="3">
-        <v>24496600</v>
+        <v>29045300</v>
       </c>
       <c r="J62" s="3">
+        <v>24213200</v>
+      </c>
+      <c r="K62" s="3">
         <v>23422600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20549700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18964500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>17782200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15935900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>16510200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>13643400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14258200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17951400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15742900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17401700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17013600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>16990600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16074300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15438300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>60443200</v>
+        <v>51227500</v>
       </c>
       <c r="E66" s="3">
-        <v>57399300</v>
+        <v>59743900</v>
       </c>
       <c r="F66" s="3">
-        <v>54260900</v>
+        <v>56735200</v>
       </c>
       <c r="G66" s="3">
-        <v>56769500</v>
+        <v>53633100</v>
       </c>
       <c r="H66" s="3">
-        <v>57609400</v>
+        <v>56112600</v>
       </c>
       <c r="I66" s="3">
-        <v>50545900</v>
+        <v>56942900</v>
       </c>
       <c r="J66" s="3">
+        <v>49961000</v>
+      </c>
+      <c r="K66" s="3">
         <v>52879900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46567500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38452700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>40540500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36074500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37759800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30562100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33124200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>41550700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>38565900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>47260900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>46370100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>49052200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>47925500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48488600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17021600</v>
+        <v>14981300</v>
       </c>
       <c r="E72" s="3">
-        <v>10454000</v>
+        <v>16824700</v>
       </c>
       <c r="F72" s="3">
-        <v>15853300</v>
+        <v>10333000</v>
       </c>
       <c r="G72" s="3">
-        <v>11128100</v>
+        <v>15669800</v>
       </c>
       <c r="H72" s="3">
-        <v>7448100</v>
+        <v>10999300</v>
       </c>
       <c r="I72" s="3">
-        <v>7993800</v>
+        <v>7361900</v>
       </c>
       <c r="J72" s="3">
+        <v>7901300</v>
+      </c>
+      <c r="K72" s="3">
         <v>7350400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5702100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5717700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8104800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6492300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6933100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7755300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5363300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7222100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7146900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6553000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7109800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4470600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4822700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2946700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37914900</v>
+        <v>34732000</v>
       </c>
       <c r="E76" s="3">
-        <v>35726200</v>
+        <v>37476300</v>
       </c>
       <c r="F76" s="3">
-        <v>41074600</v>
+        <v>35312900</v>
       </c>
       <c r="G76" s="3">
-        <v>40887300</v>
+        <v>40599300</v>
       </c>
       <c r="H76" s="3">
-        <v>36610800</v>
+        <v>40414300</v>
       </c>
       <c r="I76" s="3">
-        <v>38355700</v>
+        <v>36187200</v>
       </c>
       <c r="J76" s="3">
+        <v>37911900</v>
+      </c>
+      <c r="K76" s="3">
         <v>36842200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31929000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29825400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32807200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28887100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30893600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30399800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30207600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37763700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34690800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36856600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36549600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34325300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>33041800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31565800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5983900</v>
+        <v>4488900</v>
       </c>
       <c r="E81" s="3">
-        <v>3981300</v>
+        <v>5914700</v>
       </c>
       <c r="F81" s="3">
-        <v>7901100</v>
+        <v>3935200</v>
       </c>
       <c r="G81" s="3">
-        <v>6023000</v>
+        <v>7809600</v>
       </c>
       <c r="H81" s="3">
-        <v>950800</v>
+        <v>5953300</v>
       </c>
       <c r="I81" s="3">
-        <v>3077100</v>
+        <v>939800</v>
       </c>
       <c r="J81" s="3">
+        <v>3041500</v>
+      </c>
+      <c r="K81" s="3">
         <v>1042100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>175700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1227100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-68000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2584200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1064500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>71500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1193800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>649400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1831300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>15500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1957600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>390300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>834100</v>
+        <v>699500</v>
       </c>
       <c r="E83" s="3">
-        <v>720600</v>
+        <v>824500</v>
       </c>
       <c r="F83" s="3">
-        <v>882400</v>
+        <v>712300</v>
       </c>
       <c r="G83" s="3">
-        <v>790500</v>
+        <v>872200</v>
       </c>
       <c r="H83" s="3">
-        <v>887800</v>
+        <v>781400</v>
       </c>
       <c r="I83" s="3">
-        <v>820000</v>
+        <v>877500</v>
       </c>
       <c r="J83" s="3">
+        <v>810500</v>
+      </c>
+      <c r="K83" s="3">
         <v>854500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>656300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>784300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>692000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>670400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>566900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>520500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>624700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>726600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>661700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>812200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>747600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>745200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>707400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>598500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2065900</v>
+        <v>2683100</v>
       </c>
       <c r="E89" s="3">
-        <v>9320700</v>
+        <v>2042000</v>
       </c>
       <c r="F89" s="3">
-        <v>8015200</v>
+        <v>9212900</v>
       </c>
       <c r="G89" s="3">
-        <v>7549300</v>
+        <v>7922500</v>
       </c>
       <c r="H89" s="3">
-        <v>6862700</v>
+        <v>7461900</v>
       </c>
       <c r="I89" s="3">
-        <v>5048400</v>
+        <v>6783300</v>
       </c>
       <c r="J89" s="3">
+        <v>4990000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1385300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1380700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2067400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3051200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2047500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1546000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2227400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2857700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3016300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1654300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3075400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1940400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2841900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2379500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2108400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4762300</v>
+        <v>-1161700</v>
       </c>
       <c r="E91" s="3">
+        <v>-4707200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-617600</v>
-      </c>
       <c r="H91" s="3">
-        <v>-1345400</v>
+        <v>-610400</v>
       </c>
       <c r="I91" s="3">
-        <v>-924700</v>
+        <v>-1329900</v>
       </c>
       <c r="J91" s="3">
+        <v>-914000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-892400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-717900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-507300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-431500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-520500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-592700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-674300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-816500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-695500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-731200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-865000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>2329500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-423000</v>
+        <v>-692100</v>
       </c>
       <c r="E94" s="3">
-        <v>-830000</v>
+        <v>-418100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3115200</v>
+        <v>-820400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2585600</v>
+        <v>-3079200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2064700</v>
+        <v>-2555700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1066800</v>
+        <v>-2040800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1054400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-713100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-843300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-968200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-406600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-414400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-508600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-366500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>2166300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-687700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-404900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-949700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-675900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,79 +6485,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-25300</v>
+        <v>-3476600</v>
       </c>
       <c r="E96" s="3">
-        <v>-7924900</v>
+        <v>-25000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2182800</v>
+        <v>-7833200</v>
       </c>
       <c r="G96" s="3">
-        <v>-4308900</v>
+        <v>-2157500</v>
       </c>
       <c r="H96" s="3">
-        <v>-31700</v>
+        <v>-4259100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3646900</v>
+        <v>-31400</v>
       </c>
       <c r="J96" s="3">
+        <v>-3604700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2100</v>
       </c>
       <c r="L96" s="3">
         <v>-2100</v>
       </c>
       <c r="M96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-74100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-9000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-44400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-2200</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-436800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,217 +6779,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-605600</v>
+        <v>-5282400</v>
       </c>
       <c r="E100" s="3">
-        <v>-11023400</v>
+        <v>-598600</v>
       </c>
       <c r="F100" s="3">
-        <v>-4482800</v>
+        <v>-10895900</v>
       </c>
       <c r="G100" s="3">
-        <v>-5412300</v>
+        <v>-4430900</v>
       </c>
       <c r="H100" s="3">
-        <v>-216100</v>
+        <v>-5349700</v>
       </c>
       <c r="I100" s="3">
-        <v>-7593700</v>
+        <v>-213600</v>
       </c>
       <c r="J100" s="3">
+        <v>-7505800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-181400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4018700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-718600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-939400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1051500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>179900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>214300</v>
+        <v>-1086900</v>
       </c>
       <c r="E101" s="3">
-        <v>716300</v>
+        <v>211800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1426900</v>
+        <v>708000</v>
       </c>
       <c r="G101" s="3">
-        <v>1101500</v>
+        <v>-1410400</v>
       </c>
       <c r="H101" s="3">
-        <v>-601800</v>
+        <v>1088700</v>
       </c>
       <c r="I101" s="3">
-        <v>371500</v>
+        <v>-594800</v>
       </c>
       <c r="J101" s="3">
+        <v>367200</v>
+      </c>
+      <c r="K101" s="3">
         <v>504300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1095300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-111400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>412800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-45000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-147400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>153200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>453300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-75200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>89000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-96000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>57700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-50600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1251600</v>
+        <v>-4378300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1816400</v>
+        <v>1237100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1009700</v>
+        <v>-1795400</v>
       </c>
       <c r="G102" s="3">
-        <v>652900</v>
+        <v>-998000</v>
       </c>
       <c r="H102" s="3">
-        <v>3980000</v>
+        <v>645300</v>
       </c>
       <c r="I102" s="3">
-        <v>-3240400</v>
+        <v>3933900</v>
       </c>
       <c r="J102" s="3">
+        <v>-3202900</v>
+      </c>
+      <c r="K102" s="3">
         <v>994900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5651400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2338800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>648600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-542600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-358900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1568300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>822900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-161900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-604200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1832900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-877500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11047700</v>
+        <v>10758400</v>
       </c>
       <c r="E8" s="3">
-        <v>13657100</v>
+        <v>11099900</v>
       </c>
       <c r="F8" s="3">
-        <v>12906300</v>
+        <v>13721600</v>
       </c>
       <c r="G8" s="3">
-        <v>17110800</v>
+        <v>12967200</v>
       </c>
       <c r="H8" s="3">
-        <v>13399300</v>
+        <v>17191600</v>
       </c>
       <c r="I8" s="3">
-        <v>14902100</v>
+        <v>13462600</v>
       </c>
       <c r="J8" s="3">
+        <v>14972500</v>
+      </c>
+      <c r="K8" s="3">
         <v>11278900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7967900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5578900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7576200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7627900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6375400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5792000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6682000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7005700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7293600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6522800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7647100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7332500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5989800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6634200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7604100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4708600</v>
+        <v>5749100</v>
       </c>
       <c r="E9" s="3">
-        <v>5991700</v>
+        <v>4730900</v>
       </c>
       <c r="F9" s="3">
-        <v>5947300</v>
+        <v>6020000</v>
       </c>
       <c r="G9" s="3">
-        <v>5955300</v>
+        <v>5975400</v>
       </c>
       <c r="H9" s="3">
-        <v>4594300</v>
+        <v>5983500</v>
       </c>
       <c r="I9" s="3">
-        <v>4513700</v>
+        <v>4616000</v>
       </c>
       <c r="J9" s="3">
+        <v>4535000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5043500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4466800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3430200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4280600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4244500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3591400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3321500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3914200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4223700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4544900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3962900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4828000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4383800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4220500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3560000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4062900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6339100</v>
+        <v>5009300</v>
       </c>
       <c r="E10" s="3">
-        <v>7665300</v>
+        <v>6369100</v>
       </c>
       <c r="F10" s="3">
-        <v>6958900</v>
+        <v>7701500</v>
       </c>
       <c r="G10" s="3">
-        <v>11155500</v>
+        <v>6991800</v>
       </c>
       <c r="H10" s="3">
-        <v>8805000</v>
+        <v>11208200</v>
       </c>
       <c r="I10" s="3">
-        <v>10388500</v>
+        <v>8846600</v>
       </c>
       <c r="J10" s="3">
+        <v>10437500</v>
+      </c>
+      <c r="K10" s="3">
         <v>6235400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3501100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2148700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3295500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3383400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2784100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2470400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2767800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2781900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2748700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2559900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2819100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2948600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1769200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>3074200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3541300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,156 +1184,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-875700</v>
+        <v>337800</v>
       </c>
       <c r="E14" s="3">
-        <v>-273900</v>
+        <v>-879900</v>
       </c>
       <c r="F14" s="3">
-        <v>2623400</v>
+        <v>-275200</v>
       </c>
       <c r="G14" s="3">
-        <v>610600</v>
+        <v>2635800</v>
       </c>
       <c r="H14" s="3">
-        <v>251500</v>
+        <v>613500</v>
       </c>
       <c r="I14" s="3">
-        <v>5447000</v>
+        <v>252600</v>
       </c>
       <c r="J14" s="3">
+        <v>5472700</v>
+      </c>
+      <c r="K14" s="3">
         <v>432900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>582000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>150600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4454700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>191800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1048500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3240200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>196900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>130900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2500</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>402500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>136300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>186000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>127800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2084300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E15" s="3">
         <v>11700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>12700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>11900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K15" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>14000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>14600</v>
+      </c>
+      <c r="N15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="O15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="P15" s="3">
         <v>10300</v>
       </c>
-      <c r="H15" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>14000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>14600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>9200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>10300</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>12400</v>
-      </c>
-      <c r="S15" s="3">
-        <v>13300</v>
       </c>
       <c r="T15" s="3">
         <v>13300</v>
       </c>
       <c r="U15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="V15" s="3">
         <v>18200</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>18500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>22300</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>102600</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4129300</v>
+        <v>6679000</v>
       </c>
       <c r="E17" s="3">
-        <v>7534500</v>
+        <v>4148800</v>
       </c>
       <c r="F17" s="3">
-        <v>8894100</v>
+        <v>7570000</v>
       </c>
       <c r="G17" s="3">
-        <v>7568900</v>
+        <v>8936100</v>
       </c>
       <c r="H17" s="3">
-        <v>5229600</v>
+        <v>7604700</v>
       </c>
       <c r="I17" s="3">
-        <v>11103200</v>
+        <v>5254300</v>
       </c>
       <c r="J17" s="3">
+        <v>11155700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6076200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6328100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4146900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9518900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4836000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5618400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6989800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4666600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4597100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5190500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4285100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5681300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4816100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4773800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3636500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5701000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6918400</v>
+        <v>4079400</v>
       </c>
       <c r="E18" s="3">
-        <v>6122600</v>
+        <v>6951100</v>
       </c>
       <c r="F18" s="3">
-        <v>4012100</v>
+        <v>6151500</v>
       </c>
       <c r="G18" s="3">
-        <v>9541900</v>
+        <v>4031100</v>
       </c>
       <c r="H18" s="3">
-        <v>8169700</v>
+        <v>9587000</v>
       </c>
       <c r="I18" s="3">
-        <v>3798900</v>
+        <v>8208200</v>
       </c>
       <c r="J18" s="3">
+        <v>3816900</v>
+      </c>
+      <c r="K18" s="3">
         <v>5202600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1639800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1432000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2791900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>757000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2015400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2408500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2103100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2237700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1965800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2516400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1215900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2997700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1903100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-102300</v>
+        <v>942700</v>
       </c>
       <c r="E20" s="3">
-        <v>3659700</v>
+        <v>-102700</v>
       </c>
       <c r="F20" s="3">
-        <v>-216100</v>
+        <v>3677000</v>
       </c>
       <c r="G20" s="3">
-        <v>547900</v>
+        <v>-217200</v>
       </c>
       <c r="H20" s="3">
-        <v>-17900</v>
+        <v>550500</v>
       </c>
       <c r="I20" s="3">
-        <v>-582400</v>
+        <v>-18000</v>
       </c>
       <c r="J20" s="3">
+        <v>-585200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1215100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-301200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-491600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-678000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-321500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-333600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>148100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-755700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-210700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-855000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>440700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-741700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-143800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-221800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7515600</v>
+        <v>5803300</v>
       </c>
       <c r="E21" s="3">
-        <v>10606800</v>
+        <v>7551100</v>
       </c>
       <c r="F21" s="3">
-        <v>4508300</v>
+        <v>10656900</v>
       </c>
       <c r="G21" s="3">
-        <v>10962000</v>
+        <v>4529600</v>
       </c>
       <c r="H21" s="3">
-        <v>8933100</v>
+        <v>11013800</v>
       </c>
       <c r="I21" s="3">
-        <v>4078000</v>
+        <v>8975300</v>
       </c>
       <c r="J21" s="3">
+        <v>4097300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4798000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2193200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>375800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2805900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1106000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-964600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2684000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2277600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>487300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2688700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1923000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3704700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1219400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3561300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2509400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>165800</v>
+        <v>154600</v>
       </c>
       <c r="E22" s="3">
-        <v>140800</v>
+        <v>166500</v>
       </c>
       <c r="F22" s="3">
-        <v>161500</v>
+        <v>141500</v>
       </c>
       <c r="G22" s="3">
-        <v>185400</v>
+        <v>162200</v>
       </c>
       <c r="H22" s="3">
-        <v>18100</v>
+        <v>186300</v>
       </c>
       <c r="I22" s="3">
-        <v>137300</v>
+        <v>18200</v>
       </c>
       <c r="J22" s="3">
+        <v>138000</v>
+      </c>
+      <c r="K22" s="3">
         <v>222400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>209100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>159600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>148300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>176500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>180600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>150800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>165600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>161700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>209900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>209200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>213800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>247700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>370900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>270200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>286300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6650400</v>
+        <v>4867500</v>
       </c>
       <c r="E23" s="3">
-        <v>9641500</v>
+        <v>6681800</v>
       </c>
       <c r="F23" s="3">
-        <v>3634500</v>
+        <v>9687000</v>
       </c>
       <c r="G23" s="3">
-        <v>9904400</v>
+        <v>3651700</v>
       </c>
       <c r="H23" s="3">
-        <v>8133600</v>
+        <v>9951200</v>
       </c>
       <c r="I23" s="3">
-        <v>3079200</v>
+        <v>8172000</v>
       </c>
       <c r="J23" s="3">
+        <v>3093700</v>
+      </c>
+      <c r="K23" s="3">
         <v>3765100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1129500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-440100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1937400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>254900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1997900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1491200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-449200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1817800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>897000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2709500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>103300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2583700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1395100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2139900</v>
+        <v>860900</v>
       </c>
       <c r="E24" s="3">
-        <v>1220700</v>
+        <v>2150000</v>
       </c>
       <c r="F24" s="3">
-        <v>-372900</v>
+        <v>1226500</v>
       </c>
       <c r="G24" s="3">
-        <v>2145900</v>
+        <v>-374700</v>
       </c>
       <c r="H24" s="3">
-        <v>1938100</v>
+        <v>2156100</v>
       </c>
       <c r="I24" s="3">
-        <v>509700</v>
+        <v>1947200</v>
       </c>
       <c r="J24" s="3">
+        <v>512100</v>
+      </c>
+      <c r="K24" s="3">
         <v>829300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>168500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-553800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>725400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>329100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-457400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-617700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>453600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-535800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>546300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-132000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>784800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-39800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>549700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4510500</v>
+        <v>4006600</v>
       </c>
       <c r="E26" s="3">
-        <v>8420700</v>
+        <v>4531800</v>
       </c>
       <c r="F26" s="3">
-        <v>4007400</v>
+        <v>8460500</v>
       </c>
       <c r="G26" s="3">
-        <v>7758500</v>
+        <v>4026400</v>
       </c>
       <c r="H26" s="3">
-        <v>6195600</v>
+        <v>7795100</v>
       </c>
       <c r="I26" s="3">
-        <v>2569500</v>
+        <v>6224800</v>
       </c>
       <c r="J26" s="3">
+        <v>2581600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2935800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>961100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>113700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1212000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-74200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2615600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1037600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>86500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1271500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1029000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1924700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>143100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2034000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1356700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4487700</v>
+        <v>3957200</v>
       </c>
       <c r="E27" s="3">
-        <v>8346300</v>
+        <v>4508900</v>
       </c>
       <c r="F27" s="3">
-        <v>3935200</v>
+        <v>8385700</v>
       </c>
       <c r="G27" s="3">
-        <v>7809600</v>
+        <v>3953800</v>
       </c>
       <c r="H27" s="3">
-        <v>6181300</v>
+        <v>7846500</v>
       </c>
       <c r="I27" s="3">
-        <v>2668500</v>
+        <v>6210500</v>
       </c>
       <c r="J27" s="3">
+        <v>2681100</v>
+      </c>
+      <c r="K27" s="3">
         <v>3041500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1042100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>175700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1227100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-68000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2584300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1064500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>80600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1257000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1066000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1917800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>115000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2021400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1383900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,31 +2240,34 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1920200</v>
+      </c>
+      <c r="E29" s="3">
         <v>1200</v>
       </c>
-      <c r="E29" s="3">
-        <v>-2431600</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+      <c r="F29" s="3">
+        <v>-2443100</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>-228100</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-1728700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>-229200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-1736800</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2214,8 +2275,8 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2227,37 +2288,40 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-9100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-63300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-416600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-86500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-99500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-63800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-993600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>102300</v>
+        <v>-942700</v>
       </c>
       <c r="E32" s="3">
-        <v>-3659700</v>
+        <v>102700</v>
       </c>
       <c r="F32" s="3">
-        <v>216100</v>
+        <v>-3677000</v>
       </c>
       <c r="G32" s="3">
-        <v>-547900</v>
+        <v>217200</v>
       </c>
       <c r="H32" s="3">
-        <v>17900</v>
+        <v>-550500</v>
       </c>
       <c r="I32" s="3">
-        <v>582400</v>
+        <v>18000</v>
       </c>
       <c r="J32" s="3">
+        <v>585200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1215100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>301200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1712500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>491600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>678000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>321500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>333600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-148100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>755700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2342400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>210700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>855000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-440700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>741700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>143800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>221800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4488900</v>
+        <v>5877500</v>
       </c>
       <c r="E33" s="3">
-        <v>5914700</v>
+        <v>4510100</v>
       </c>
       <c r="F33" s="3">
-        <v>3935200</v>
+        <v>5942600</v>
       </c>
       <c r="G33" s="3">
-        <v>7809600</v>
+        <v>3953800</v>
       </c>
       <c r="H33" s="3">
-        <v>5953300</v>
+        <v>7846500</v>
       </c>
       <c r="I33" s="3">
-        <v>939800</v>
+        <v>5981400</v>
       </c>
       <c r="J33" s="3">
+        <v>944300</v>
+      </c>
+      <c r="K33" s="3">
         <v>3041500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1042100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>175700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1227100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-68000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2584200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1064500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>71500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1193800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>649400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1831300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>15500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1957600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>390300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4488900</v>
+        <v>5877500</v>
       </c>
       <c r="E35" s="3">
-        <v>5914700</v>
+        <v>4510100</v>
       </c>
       <c r="F35" s="3">
-        <v>3935200</v>
+        <v>5942600</v>
       </c>
       <c r="G35" s="3">
-        <v>7809600</v>
+        <v>3953800</v>
       </c>
       <c r="H35" s="3">
-        <v>5953300</v>
+        <v>7846500</v>
       </c>
       <c r="I35" s="3">
-        <v>939800</v>
+        <v>5981400</v>
       </c>
       <c r="J35" s="3">
+        <v>944300</v>
+      </c>
+      <c r="K35" s="3">
         <v>3041500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1042100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>175700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1227100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-68000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2584200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1064500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>71500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1193800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>649400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1831300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>15500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1957600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>390300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,117 +2921,121 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8362100</v>
+        <v>7364800</v>
       </c>
       <c r="E41" s="3">
-        <v>12740400</v>
+        <v>8401600</v>
       </c>
       <c r="F41" s="3">
-        <v>11503200</v>
+        <v>12800500</v>
       </c>
       <c r="G41" s="3">
-        <v>13298500</v>
+        <v>11557500</v>
       </c>
       <c r="H41" s="3">
-        <v>14296600</v>
+        <v>13361400</v>
       </c>
       <c r="I41" s="3">
-        <v>13651300</v>
+        <v>14364100</v>
       </c>
       <c r="J41" s="3">
+        <v>13715700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9717500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13071600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10940500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5472100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6686200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4103800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3651500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3998400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4519200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5734600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4166300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3670700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3832600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4851300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5278900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3446000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39700</v>
+        <v>49500</v>
       </c>
       <c r="E42" s="3">
-        <v>200200</v>
+        <v>39900</v>
       </c>
       <c r="F42" s="3">
-        <v>552000</v>
+        <v>201200</v>
       </c>
       <c r="G42" s="3">
-        <v>927000</v>
+        <v>554600</v>
       </c>
       <c r="H42" s="3">
-        <v>1585700</v>
+        <v>931400</v>
       </c>
       <c r="I42" s="3">
-        <v>780200</v>
+        <v>1593100</v>
       </c>
       <c r="J42" s="3">
+        <v>783900</v>
+      </c>
+      <c r="K42" s="3">
         <v>137800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>99900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>444100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>614800</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -2959,8 +3049,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2974,535 +3064,559 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>8</v>
+      <c r="X42" s="3">
+        <v>0</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3650200</v>
+        <v>2963900</v>
       </c>
       <c r="E43" s="3">
-        <v>5190700</v>
+        <v>3667400</v>
       </c>
       <c r="F43" s="3">
-        <v>1798000</v>
+        <v>5215200</v>
       </c>
       <c r="G43" s="3">
-        <v>5478000</v>
+        <v>1806500</v>
       </c>
       <c r="H43" s="3">
-        <v>4582400</v>
+        <v>5503900</v>
       </c>
       <c r="I43" s="3">
-        <v>5820100</v>
+        <v>4604100</v>
       </c>
       <c r="J43" s="3">
+        <v>5847600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4169800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3709800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2728400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2807800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2956900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3056800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3287800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3067600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3244000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3929800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3695900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5471000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5103900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4454100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5326500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4461500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4649600</v>
+        <v>5283300</v>
       </c>
       <c r="E44" s="3">
-        <v>4758300</v>
+        <v>4671600</v>
       </c>
       <c r="F44" s="3">
-        <v>5387400</v>
+        <v>4780800</v>
       </c>
       <c r="G44" s="3">
-        <v>4579900</v>
+        <v>5412800</v>
       </c>
       <c r="H44" s="3">
-        <v>4743400</v>
+        <v>4601500</v>
       </c>
       <c r="I44" s="3">
-        <v>4110400</v>
+        <v>4765800</v>
       </c>
       <c r="J44" s="3">
+        <v>4129800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4756100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4378900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3795800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3182100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3616000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3205900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3579800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3071300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3004600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3600300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3078800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3329700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3316000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3277300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2862100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2707400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1260800</v>
+        <v>762400</v>
       </c>
       <c r="E45" s="3">
-        <v>1419000</v>
+        <v>1266800</v>
       </c>
       <c r="F45" s="3">
-        <v>1939100</v>
+        <v>1425700</v>
       </c>
       <c r="G45" s="3">
-        <v>466900</v>
+        <v>1948200</v>
       </c>
       <c r="H45" s="3">
-        <v>507700</v>
+        <v>469100</v>
       </c>
       <c r="I45" s="3">
-        <v>337200</v>
+        <v>510100</v>
       </c>
       <c r="J45" s="3">
+        <v>338800</v>
+      </c>
+      <c r="K45" s="3">
         <v>493800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>651900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>611600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1181900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>432900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>473400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>433900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>442300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>662200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>886800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3603900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3900800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>4262900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4157200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>7630700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17962400</v>
+        <v>16423900</v>
       </c>
       <c r="E46" s="3">
-        <v>24308500</v>
+        <v>18047300</v>
       </c>
       <c r="F46" s="3">
-        <v>21179600</v>
+        <v>24423400</v>
       </c>
       <c r="G46" s="3">
-        <v>24750300</v>
+        <v>21279700</v>
       </c>
       <c r="H46" s="3">
-        <v>25715700</v>
+        <v>24867200</v>
       </c>
       <c r="I46" s="3">
-        <v>24699100</v>
+        <v>25837100</v>
       </c>
       <c r="J46" s="3">
+        <v>24815800</v>
+      </c>
+      <c r="K46" s="3">
         <v>19274900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21912100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>18509400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12688400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14441000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10799300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10992400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10571300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11210200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13927000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11827800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16075200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16153400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16845500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17624700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>18245600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1778300</v>
+        <v>1835300</v>
       </c>
       <c r="E47" s="3">
-        <v>1903200</v>
+        <v>1786700</v>
       </c>
       <c r="F47" s="3">
-        <v>3683800</v>
+        <v>1912200</v>
       </c>
       <c r="G47" s="3">
-        <v>3601000</v>
+        <v>3701200</v>
       </c>
       <c r="H47" s="3">
-        <v>3151700</v>
+        <v>3618000</v>
       </c>
       <c r="I47" s="3">
-        <v>3050300</v>
+        <v>3166600</v>
       </c>
       <c r="J47" s="3">
+        <v>3064700</v>
+      </c>
+      <c r="K47" s="3">
         <v>5915300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5670400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3566600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3338800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3661200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3267100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3663100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3448900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3634400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4463000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4230800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5382600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5425000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5465700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5299900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>3135400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42734700</v>
+        <v>44249100</v>
       </c>
       <c r="E48" s="3">
-        <v>45577500</v>
+        <v>42936600</v>
       </c>
       <c r="F48" s="3">
-        <v>43531700</v>
+        <v>45792800</v>
       </c>
       <c r="G48" s="3">
-        <v>42757800</v>
+        <v>43737300</v>
       </c>
       <c r="H48" s="3">
-        <v>43347700</v>
+        <v>42959700</v>
       </c>
       <c r="I48" s="3">
-        <v>41650900</v>
+        <v>43552400</v>
       </c>
       <c r="J48" s="3">
+        <v>41847700</v>
+      </c>
+      <c r="K48" s="3">
         <v>41737500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41234400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36354000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>34674300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>38174800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34360800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36388200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>33446700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35140300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>43858900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>42028700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>46541900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>45711500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46359000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>44231600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>44807200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9474300</v>
+        <v>9684600</v>
       </c>
       <c r="E49" s="3">
-        <v>9794900</v>
+        <v>9519000</v>
       </c>
       <c r="F49" s="3">
-        <v>9443500</v>
+        <v>9841200</v>
       </c>
       <c r="G49" s="3">
-        <v>10714800</v>
+        <v>9488100</v>
       </c>
       <c r="H49" s="3">
-        <v>9611000</v>
+        <v>10765400</v>
       </c>
       <c r="I49" s="3">
-        <v>9409500</v>
+        <v>9656400</v>
       </c>
       <c r="J49" s="3">
+        <v>9454000</v>
+      </c>
+      <c r="K49" s="3">
         <v>7266700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7236900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6400400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6327300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6490100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5864100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6227400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5503700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5771100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7193600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6669200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7202800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7026100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6116100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5742700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5555600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14009700</v>
+        <v>14280400</v>
       </c>
       <c r="E52" s="3">
-        <v>15636000</v>
+        <v>14075900</v>
       </c>
       <c r="F52" s="3">
-        <v>14209400</v>
+        <v>15709800</v>
       </c>
       <c r="G52" s="3">
-        <v>12408700</v>
+        <v>14276600</v>
       </c>
       <c r="H52" s="3">
-        <v>14700900</v>
+        <v>12467300</v>
       </c>
       <c r="I52" s="3">
-        <v>14320200</v>
+        <v>14770300</v>
       </c>
       <c r="J52" s="3">
+        <v>14387800</v>
+      </c>
+      <c r="K52" s="3">
         <v>13678600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13668200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13666100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11249300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10580700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10670200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11382200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7991400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7575700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9872000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8500200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8915000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8603700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8591300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8068500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8310700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>85959500</v>
+        <v>86473400</v>
       </c>
       <c r="E54" s="3">
-        <v>97220200</v>
+        <v>86365500</v>
       </c>
       <c r="F54" s="3">
-        <v>92048000</v>
+        <v>97679300</v>
       </c>
       <c r="G54" s="3">
-        <v>94232500</v>
+        <v>92482800</v>
       </c>
       <c r="H54" s="3">
-        <v>96526900</v>
+        <v>94677600</v>
       </c>
       <c r="I54" s="3">
-        <v>93130100</v>
+        <v>96982800</v>
       </c>
       <c r="J54" s="3">
+        <v>93569900</v>
+      </c>
+      <c r="K54" s="3">
         <v>87873000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89722100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>78496500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>68278100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73347700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>64961600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68653400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60961900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63331800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>79314400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>73256700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>84117400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>82919700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>83377600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>80967300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>80054500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4057,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3530800</v>
+        <v>3931200</v>
       </c>
       <c r="E57" s="3">
-        <v>4204300</v>
+        <v>3547500</v>
       </c>
       <c r="F57" s="3">
-        <v>4480500</v>
+        <v>4224200</v>
       </c>
       <c r="G57" s="3">
-        <v>3863300</v>
+        <v>4501700</v>
       </c>
       <c r="H57" s="3">
-        <v>4262000</v>
+        <v>3881500</v>
       </c>
       <c r="I57" s="3">
-        <v>4140200</v>
+        <v>4282100</v>
       </c>
       <c r="J57" s="3">
+        <v>4159700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4225600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3969100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3586900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3787600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3911300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3192200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3232300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3211600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3364900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3721200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3451600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3656100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3671200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3613400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3632600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3477900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1018300</v>
+        <v>958700</v>
       </c>
       <c r="E58" s="3">
-        <v>1308900</v>
+        <v>1023100</v>
       </c>
       <c r="F58" s="3">
-        <v>1425400</v>
+        <v>1315100</v>
       </c>
       <c r="G58" s="3">
-        <v>966700</v>
+        <v>1432100</v>
       </c>
       <c r="H58" s="3">
-        <v>1097200</v>
+        <v>971200</v>
       </c>
       <c r="I58" s="3">
-        <v>1149500</v>
+        <v>1102400</v>
       </c>
       <c r="J58" s="3">
+        <v>1154900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1124800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1303300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1081900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1072100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1224700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1035000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2139900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>693700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1017200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1641000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1525900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1444300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1493200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1749300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1891800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1342000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8986600</v>
+        <v>7530700</v>
       </c>
       <c r="E59" s="3">
-        <v>11006800</v>
+        <v>9029000</v>
       </c>
       <c r="F59" s="3">
-        <v>11126100</v>
+        <v>11058800</v>
       </c>
       <c r="G59" s="3">
-        <v>9135400</v>
+        <v>11178700</v>
       </c>
       <c r="H59" s="3">
-        <v>7764900</v>
+        <v>9178600</v>
       </c>
       <c r="I59" s="3">
-        <v>9482000</v>
+        <v>7801600</v>
       </c>
       <c r="J59" s="3">
+        <v>9526800</v>
+      </c>
+      <c r="K59" s="3">
         <v>6386900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6762700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6075600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5447600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5355300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4480400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3717300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2430900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2411800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2909200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2776400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>6015600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3540800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3612600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3770200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4262100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13535700</v>
+        <v>12420700</v>
       </c>
       <c r="E60" s="3">
-        <v>16520100</v>
+        <v>13599600</v>
       </c>
       <c r="F60" s="3">
-        <v>17032000</v>
+        <v>16598100</v>
       </c>
       <c r="G60" s="3">
-        <v>13965400</v>
+        <v>17112400</v>
       </c>
       <c r="H60" s="3">
-        <v>13124100</v>
+        <v>14031300</v>
       </c>
       <c r="I60" s="3">
-        <v>14771600</v>
+        <v>13186100</v>
       </c>
       <c r="J60" s="3">
+        <v>14841400</v>
+      </c>
+      <c r="K60" s="3">
         <v>11737400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12035100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10744500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10307300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10491300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8707600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9089500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6336200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6794000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8271400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7754000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11116000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8705200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8975400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9294600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9082100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11915700</v>
+        <v>11965700</v>
       </c>
       <c r="E61" s="3">
-        <v>13671400</v>
+        <v>11971900</v>
       </c>
       <c r="F61" s="3">
-        <v>12968000</v>
+        <v>13736000</v>
       </c>
       <c r="G61" s="3">
-        <v>12540100</v>
+        <v>13029300</v>
       </c>
       <c r="H61" s="3">
-        <v>14225700</v>
+        <v>12599300</v>
       </c>
       <c r="I61" s="3">
-        <v>14060700</v>
+        <v>14292900</v>
       </c>
       <c r="J61" s="3">
+        <v>14127100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15428000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>18719600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16336900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9980800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11740200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>10927700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11567200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9997400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11436400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>14481900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14211900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17628400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>19453700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>21873800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21350800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>22365300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24987900</v>
+        <v>24176800</v>
       </c>
       <c r="E62" s="3">
-        <v>28645700</v>
+        <v>25106000</v>
       </c>
       <c r="F62" s="3">
-        <v>25922600</v>
+        <v>28781000</v>
       </c>
       <c r="G62" s="3">
-        <v>26448000</v>
+        <v>26045100</v>
       </c>
       <c r="H62" s="3">
-        <v>29850700</v>
+        <v>26572900</v>
       </c>
       <c r="I62" s="3">
-        <v>29045300</v>
+        <v>29991700</v>
       </c>
       <c r="J62" s="3">
+        <v>29182500</v>
+      </c>
+      <c r="K62" s="3">
         <v>24213200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>23422600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20549700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18964500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>17782200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>15935900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>16510200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>13643400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14258200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17951400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15742900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17401700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17013600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>16990600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16074300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15438300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51227500</v>
+        <v>50082800</v>
       </c>
       <c r="E66" s="3">
-        <v>59743900</v>
+        <v>51469500</v>
       </c>
       <c r="F66" s="3">
-        <v>56735200</v>
+        <v>60026100</v>
       </c>
       <c r="G66" s="3">
-        <v>53633100</v>
+        <v>57003100</v>
       </c>
       <c r="H66" s="3">
-        <v>56112600</v>
+        <v>53886500</v>
       </c>
       <c r="I66" s="3">
-        <v>56942900</v>
+        <v>56377700</v>
       </c>
       <c r="J66" s="3">
+        <v>57211800</v>
+      </c>
+      <c r="K66" s="3">
         <v>49961000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>52879900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46567500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38452700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>40540500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36074500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37759800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>30562100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33124200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>41550700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>38565900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>47260900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>46370100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>49052200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>47925500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48488600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14981300</v>
+        <v>20939500</v>
       </c>
       <c r="E72" s="3">
-        <v>16824700</v>
+        <v>15052100</v>
       </c>
       <c r="F72" s="3">
-        <v>10333000</v>
+        <v>16904200</v>
       </c>
       <c r="G72" s="3">
-        <v>15669800</v>
+        <v>10381800</v>
       </c>
       <c r="H72" s="3">
-        <v>10999300</v>
+        <v>15743900</v>
       </c>
       <c r="I72" s="3">
-        <v>7361900</v>
+        <v>11051300</v>
       </c>
       <c r="J72" s="3">
+        <v>7396700</v>
+      </c>
+      <c r="K72" s="3">
         <v>7901300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7350400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5702100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5717700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8104800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6492300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6933100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7755300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5363300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7222100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7146900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6553000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7109800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4470600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4822700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2946700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34732000</v>
+        <v>36390600</v>
       </c>
       <c r="E76" s="3">
-        <v>37476300</v>
+        <v>34896000</v>
       </c>
       <c r="F76" s="3">
-        <v>35312900</v>
+        <v>37653300</v>
       </c>
       <c r="G76" s="3">
-        <v>40599300</v>
+        <v>35479700</v>
       </c>
       <c r="H76" s="3">
-        <v>40414300</v>
+        <v>40791100</v>
       </c>
       <c r="I76" s="3">
-        <v>36187200</v>
+        <v>40605200</v>
       </c>
       <c r="J76" s="3">
+        <v>36358100</v>
+      </c>
+      <c r="K76" s="3">
         <v>37911900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36842200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31929000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29825400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32807200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28887100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30893600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30399800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30207600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37763700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34690800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36856600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36549600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34325300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>33041800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31565800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4488900</v>
+        <v>5877500</v>
       </c>
       <c r="E81" s="3">
-        <v>5914700</v>
+        <v>4510100</v>
       </c>
       <c r="F81" s="3">
-        <v>3935200</v>
+        <v>5942600</v>
       </c>
       <c r="G81" s="3">
-        <v>7809600</v>
+        <v>3953800</v>
       </c>
       <c r="H81" s="3">
-        <v>5953300</v>
+        <v>7846500</v>
       </c>
       <c r="I81" s="3">
-        <v>939800</v>
+        <v>5981400</v>
       </c>
       <c r="J81" s="3">
+        <v>944300</v>
+      </c>
+      <c r="K81" s="3">
         <v>3041500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1042100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>175700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1227100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-68000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2584200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1064500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>71500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1193800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>649400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1831300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>15500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1957600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>390300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>699500</v>
+        <v>781200</v>
       </c>
       <c r="E83" s="3">
-        <v>824500</v>
+        <v>702800</v>
       </c>
       <c r="F83" s="3">
-        <v>712300</v>
+        <v>828400</v>
       </c>
       <c r="G83" s="3">
-        <v>872200</v>
+        <v>715700</v>
       </c>
       <c r="H83" s="3">
-        <v>781400</v>
+        <v>876300</v>
       </c>
       <c r="I83" s="3">
-        <v>877500</v>
+        <v>785100</v>
       </c>
       <c r="J83" s="3">
+        <v>881700</v>
+      </c>
+      <c r="K83" s="3">
         <v>810500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>854500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>656300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>784300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>692000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>670400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>566900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>520500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>624700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>726600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>661700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>812200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>747600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>745200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>707400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>598500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2683100</v>
+        <v>3446500</v>
       </c>
       <c r="E89" s="3">
-        <v>2042000</v>
+        <v>2695800</v>
       </c>
       <c r="F89" s="3">
-        <v>9212900</v>
+        <v>2051600</v>
       </c>
       <c r="G89" s="3">
-        <v>7922500</v>
+        <v>9256400</v>
       </c>
       <c r="H89" s="3">
-        <v>7461900</v>
+        <v>7959900</v>
       </c>
       <c r="I89" s="3">
-        <v>6783300</v>
+        <v>7497200</v>
       </c>
       <c r="J89" s="3">
+        <v>6815300</v>
+      </c>
+      <c r="K89" s="3">
         <v>4990000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1385300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1380700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2067400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3051200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2047500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2227400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2857700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3016300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1654300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3075400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1940400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2841900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2379500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2108400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1161700</v>
+        <v>-1247200</v>
       </c>
       <c r="E91" s="3">
-        <v>-4707200</v>
+        <v>-1167200</v>
       </c>
       <c r="F91" s="3">
+        <v>-4729500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-610400</v>
-      </c>
       <c r="I91" s="3">
-        <v>-1329900</v>
+        <v>-613300</v>
       </c>
       <c r="J91" s="3">
+        <v>-1336100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-914000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-892400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-717900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-507300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-431500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-520500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-592700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-674300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-816500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-695500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-731200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-865000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>2329500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-692100</v>
+        <v>-1092200</v>
       </c>
       <c r="E94" s="3">
-        <v>-418100</v>
+        <v>-695300</v>
       </c>
       <c r="F94" s="3">
-        <v>-820400</v>
+        <v>-420100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3079200</v>
+        <v>-824200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2555700</v>
+        <v>-3093700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2040800</v>
+        <v>-2567800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2050500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1054400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-713100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-843300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-968200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-406600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-414400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-508600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-366500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>2166300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-687700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-404900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-949700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-675900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6719,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3476600</v>
+        <v>-6800</v>
       </c>
       <c r="E96" s="3">
-        <v>-25000</v>
+        <v>-3493000</v>
       </c>
       <c r="F96" s="3">
-        <v>-7833200</v>
+        <v>-25100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2157500</v>
+        <v>-7870200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4259100</v>
+        <v>-2167700</v>
       </c>
       <c r="I96" s="3">
-        <v>-31400</v>
+        <v>-4279200</v>
       </c>
       <c r="J96" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3604700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2100</v>
       </c>
       <c r="M96" s="3">
         <v>-2100</v>
       </c>
       <c r="N96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-74100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-9000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-44400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-436800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5282400</v>
+        <v>-3771500</v>
       </c>
       <c r="E100" s="3">
-        <v>-598600</v>
+        <v>-5307400</v>
       </c>
       <c r="F100" s="3">
-        <v>-10895900</v>
+        <v>-601400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4430900</v>
+        <v>-10947400</v>
       </c>
       <c r="H100" s="3">
-        <v>-5349700</v>
+        <v>-4451900</v>
       </c>
       <c r="I100" s="3">
-        <v>-213600</v>
+        <v>-5374900</v>
       </c>
       <c r="J100" s="3">
+        <v>-214600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-7505800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-181400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4018700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-718600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-939400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1051500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>179900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1086900</v>
+        <v>380400</v>
       </c>
       <c r="E101" s="3">
-        <v>211800</v>
+        <v>-1092000</v>
       </c>
       <c r="F101" s="3">
-        <v>708000</v>
+        <v>212800</v>
       </c>
       <c r="G101" s="3">
-        <v>-1410400</v>
+        <v>711300</v>
       </c>
       <c r="H101" s="3">
-        <v>1088700</v>
+        <v>-1417100</v>
       </c>
       <c r="I101" s="3">
-        <v>-594800</v>
+        <v>1093900</v>
       </c>
       <c r="J101" s="3">
+        <v>-597600</v>
+      </c>
+      <c r="K101" s="3">
         <v>367200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>504300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1095300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-111400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>412800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-45000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-147400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>153200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>453300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-75200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>89000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-96000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>57700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-50600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4378300</v>
+        <v>-1036800</v>
       </c>
       <c r="E102" s="3">
-        <v>1237100</v>
+        <v>-4398900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1795400</v>
+        <v>1243000</v>
       </c>
       <c r="G102" s="3">
-        <v>-998000</v>
+        <v>-1803900</v>
       </c>
       <c r="H102" s="3">
-        <v>645300</v>
+        <v>-1002700</v>
       </c>
       <c r="I102" s="3">
-        <v>3933900</v>
+        <v>648300</v>
       </c>
       <c r="J102" s="3">
+        <v>3952500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3202900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>994900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5651400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2338800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>648600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-542600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-358900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1568300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>822900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-161900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-604200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1832900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-877500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,347 +665,360 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10758400</v>
+        <v>9743600</v>
       </c>
       <c r="E8" s="3">
-        <v>11099900</v>
+        <v>10285100</v>
       </c>
       <c r="F8" s="3">
-        <v>13721600</v>
+        <v>10611600</v>
       </c>
       <c r="G8" s="3">
-        <v>12967200</v>
+        <v>13117900</v>
       </c>
       <c r="H8" s="3">
-        <v>17191600</v>
+        <v>12052000</v>
       </c>
       <c r="I8" s="3">
-        <v>13462600</v>
+        <v>29145600</v>
       </c>
       <c r="J8" s="3">
+        <v>12870300</v>
+      </c>
+      <c r="K8" s="3">
         <v>14972500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11278900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7967900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5578900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7576200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7627900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6375400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5792000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6682000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7005700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7293600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6522800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7647100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7332500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5989800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6634200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7604100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5749100</v>
+        <v>6182000</v>
       </c>
       <c r="E9" s="3">
-        <v>4730900</v>
+        <v>5496100</v>
       </c>
       <c r="F9" s="3">
-        <v>6020000</v>
+        <v>4522700</v>
       </c>
       <c r="G9" s="3">
-        <v>5975400</v>
+        <v>5755200</v>
       </c>
       <c r="H9" s="3">
-        <v>5983500</v>
+        <v>5356700</v>
       </c>
       <c r="I9" s="3">
-        <v>4616000</v>
+        <v>9793200</v>
       </c>
       <c r="J9" s="3">
+        <v>4412900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4535000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5043500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4466800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3430200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4280600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4244500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3591400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3321500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3914200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4223700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4544900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3962900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4828000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4383800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4220500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3560000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4062900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5009300</v>
+        <v>3561600</v>
       </c>
       <c r="E10" s="3">
-        <v>6369100</v>
+        <v>4788900</v>
       </c>
       <c r="F10" s="3">
-        <v>7701500</v>
+        <v>6088800</v>
       </c>
       <c r="G10" s="3">
-        <v>6991800</v>
+        <v>7362700</v>
       </c>
       <c r="H10" s="3">
-        <v>11208200</v>
+        <v>6695300</v>
       </c>
       <c r="I10" s="3">
-        <v>8846600</v>
+        <v>19352500</v>
       </c>
       <c r="J10" s="3">
+        <v>8457400</v>
+      </c>
+      <c r="K10" s="3">
         <v>10437500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6235400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3501100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2148700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3295500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3383400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2784100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2470400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2767800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2781900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2748700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2559900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2819100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2948600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1769200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3074200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3541300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,8 +1046,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,162 +1204,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>337800</v>
+        <v>371400</v>
       </c>
       <c r="E14" s="3">
-        <v>-879900</v>
+        <v>322900</v>
       </c>
       <c r="F14" s="3">
-        <v>-275200</v>
+        <v>-841200</v>
       </c>
       <c r="G14" s="3">
-        <v>2635800</v>
+        <v>-263000</v>
       </c>
       <c r="H14" s="3">
-        <v>613500</v>
+        <v>221300</v>
       </c>
       <c r="I14" s="3">
-        <v>252600</v>
+        <v>458400</v>
       </c>
       <c r="J14" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K14" s="3">
         <v>5472700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>432900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>582000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>150600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4454700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>191800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1048500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3240200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>196900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>130900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2500</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>402500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>136300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>186000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>127800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2084300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H15" s="3">
         <v>11400</v>
       </c>
-      <c r="E15" s="3">
-        <v>11700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H15" s="3">
-        <v>10400</v>
-      </c>
       <c r="I15" s="3">
+        <v>18900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K15" s="3">
         <v>9400</v>
       </c>
-      <c r="J15" s="3">
-        <v>9400</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>14000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>12400</v>
-      </c>
-      <c r="T15" s="3">
-        <v>13300</v>
       </c>
       <c r="U15" s="3">
         <v>13300</v>
       </c>
       <c r="V15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="W15" s="3">
         <v>18200</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>18500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>22300</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>102600</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6679000</v>
+        <v>6892000</v>
       </c>
       <c r="E17" s="3">
-        <v>4148800</v>
+        <v>6385200</v>
       </c>
       <c r="F17" s="3">
-        <v>7570000</v>
+        <v>3966300</v>
       </c>
       <c r="G17" s="3">
-        <v>8936100</v>
+        <v>7237000</v>
       </c>
       <c r="H17" s="3">
-        <v>7604700</v>
+        <v>5881900</v>
       </c>
       <c r="I17" s="3">
-        <v>5254300</v>
+        <v>11570400</v>
       </c>
       <c r="J17" s="3">
+        <v>5023200</v>
+      </c>
+      <c r="K17" s="3">
         <v>11155700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6076200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6328100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4146900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9518900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4836000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5618400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6989800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4666600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4597100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5190500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4285100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5681300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4816100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4773800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3636500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5701000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>4079400</v>
+        <v>2851600</v>
       </c>
       <c r="E18" s="3">
-        <v>6951100</v>
+        <v>3899900</v>
       </c>
       <c r="F18" s="3">
-        <v>6151500</v>
+        <v>6645200</v>
       </c>
       <c r="G18" s="3">
-        <v>4031100</v>
+        <v>5880900</v>
       </c>
       <c r="H18" s="3">
-        <v>9587000</v>
+        <v>6170000</v>
       </c>
       <c r="I18" s="3">
-        <v>8208200</v>
+        <v>17575200</v>
       </c>
       <c r="J18" s="3">
+        <v>7847100</v>
+      </c>
+      <c r="K18" s="3">
         <v>3816900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5202600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1639800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1432000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2791900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>757000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2015400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2408500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2103100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2237700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1965800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2516400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1215900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2997700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1903100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,393 +1583,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>942700</v>
+        <v>2420200</v>
       </c>
       <c r="E20" s="3">
-        <v>-102700</v>
+        <v>901200</v>
       </c>
       <c r="F20" s="3">
-        <v>3677000</v>
+        <v>-98200</v>
       </c>
       <c r="G20" s="3">
-        <v>-217200</v>
+        <v>3515200</v>
       </c>
       <c r="H20" s="3">
-        <v>550500</v>
+        <v>-187100</v>
       </c>
       <c r="I20" s="3">
-        <v>-18000</v>
+        <v>704000</v>
       </c>
       <c r="J20" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-585200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1215100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-301200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-491600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-678000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-321500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-333600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>148100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-755700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-210700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-855000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>440700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-741700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-143800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-221800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5803300</v>
+        <v>6033100</v>
       </c>
       <c r="E21" s="3">
-        <v>7551100</v>
+        <v>5548000</v>
       </c>
       <c r="F21" s="3">
-        <v>10656900</v>
+        <v>7218900</v>
       </c>
       <c r="G21" s="3">
-        <v>4529600</v>
+        <v>10188000</v>
       </c>
       <c r="H21" s="3">
-        <v>11013800</v>
+        <v>6667100</v>
       </c>
       <c r="I21" s="3">
-        <v>8975300</v>
+        <v>19867500</v>
       </c>
       <c r="J21" s="3">
+        <v>8580400</v>
+      </c>
+      <c r="K21" s="3">
         <v>4097300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4798000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2193200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>375800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2805900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-964600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2684000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2277600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>487300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2688700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1923000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3704700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1219400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3561300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2509400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>154600</v>
+        <v>143900</v>
       </c>
       <c r="E22" s="3">
-        <v>166500</v>
+        <v>147800</v>
       </c>
       <c r="F22" s="3">
-        <v>141500</v>
+        <v>159200</v>
       </c>
       <c r="G22" s="3">
-        <v>162200</v>
+        <v>135300</v>
       </c>
       <c r="H22" s="3">
-        <v>186300</v>
+        <v>152700</v>
       </c>
       <c r="I22" s="3">
-        <v>18200</v>
+        <v>353400</v>
       </c>
       <c r="J22" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K22" s="3">
         <v>138000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>222400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>209100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>159600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>148300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>176500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>180600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>150800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>165600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>161700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>209900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>209200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>213800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>247700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>370900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>270200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>286300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4867500</v>
+        <v>5127900</v>
       </c>
       <c r="E23" s="3">
-        <v>6681800</v>
+        <v>4653300</v>
       </c>
       <c r="F23" s="3">
-        <v>9687000</v>
+        <v>6387800</v>
       </c>
       <c r="G23" s="3">
-        <v>3651700</v>
+        <v>9260800</v>
       </c>
       <c r="H23" s="3">
-        <v>9951200</v>
+        <v>5830300</v>
       </c>
       <c r="I23" s="3">
-        <v>8172000</v>
+        <v>17925800</v>
       </c>
       <c r="J23" s="3">
+        <v>7812500</v>
+      </c>
+      <c r="K23" s="3">
         <v>3093700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3765100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1129500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-440100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1937400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>254900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1997900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1491200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-449200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1817800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>897000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2709500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>103300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2583700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1395100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>860900</v>
+        <v>782200</v>
       </c>
       <c r="E24" s="3">
-        <v>2150000</v>
+        <v>823000</v>
       </c>
       <c r="F24" s="3">
-        <v>1226500</v>
+        <v>2055400</v>
       </c>
       <c r="G24" s="3">
-        <v>-374700</v>
+        <v>1172600</v>
       </c>
       <c r="H24" s="3">
-        <v>2156100</v>
+        <v>452900</v>
       </c>
       <c r="I24" s="3">
-        <v>1947200</v>
+        <v>3922900</v>
       </c>
       <c r="J24" s="3">
+        <v>1861500</v>
+      </c>
+      <c r="K24" s="3">
         <v>512100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>829300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>168500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-553800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>725400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>329100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-457400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-617700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>453600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-535800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>546300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-132000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>784800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-39800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>549700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>38400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4006600</v>
+        <v>4345700</v>
       </c>
       <c r="E26" s="3">
-        <v>4531800</v>
+        <v>3830300</v>
       </c>
       <c r="F26" s="3">
-        <v>8460500</v>
+        <v>4332400</v>
       </c>
       <c r="G26" s="3">
-        <v>4026400</v>
+        <v>8088300</v>
       </c>
       <c r="H26" s="3">
-        <v>7795100</v>
+        <v>5377300</v>
       </c>
       <c r="I26" s="3">
-        <v>6224800</v>
+        <v>14002900</v>
       </c>
       <c r="J26" s="3">
+        <v>5951000</v>
+      </c>
+      <c r="K26" s="3">
         <v>2581600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2935800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>961100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>113700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1212000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2615600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1037600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>86500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1271500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1029000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1924700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>143100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2034000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1356700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3957200</v>
+        <v>4356600</v>
       </c>
       <c r="E27" s="3">
-        <v>4508900</v>
+        <v>3783100</v>
       </c>
       <c r="F27" s="3">
-        <v>8385700</v>
+        <v>4310600</v>
       </c>
       <c r="G27" s="3">
-        <v>3953800</v>
+        <v>8016800</v>
       </c>
       <c r="H27" s="3">
-        <v>7846500</v>
+        <v>5348300</v>
       </c>
       <c r="I27" s="3">
-        <v>6210500</v>
+        <v>13977900</v>
       </c>
       <c r="J27" s="3">
+        <v>5937300</v>
+      </c>
+      <c r="K27" s="3">
         <v>2681100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3041500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1042100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>175700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1227100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2584300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1064500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>80600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1257000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1066000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1917800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>115000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2021400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1383900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,34 +2301,37 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>1920200</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1200</v>
+        <v>1835700</v>
       </c>
       <c r="F29" s="3">
-        <v>-2443100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>1100</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-2335600</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-1568600</v>
       </c>
       <c r="I29" s="3">
-        <v>-229200</v>
+        <v>-758300</v>
       </c>
       <c r="J29" s="3">
+        <v>-219100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1736800</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2278,8 +2339,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2291,37 +2352,40 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-9100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-63300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-416600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-86500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-99500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-63800</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-993600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-942700</v>
+        <v>-2420200</v>
       </c>
       <c r="E32" s="3">
-        <v>102700</v>
+        <v>-901200</v>
       </c>
       <c r="F32" s="3">
-        <v>-3677000</v>
+        <v>98200</v>
       </c>
       <c r="G32" s="3">
-        <v>217200</v>
+        <v>-3515200</v>
       </c>
       <c r="H32" s="3">
-        <v>-550500</v>
+        <v>187100</v>
       </c>
       <c r="I32" s="3">
-        <v>18000</v>
+        <v>-704000</v>
       </c>
       <c r="J32" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K32" s="3">
         <v>585200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1215100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>301200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1712500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>491600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>678000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>321500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>333600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-148100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>755700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2342400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>210700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>855000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-440700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>741700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>143800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>221800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5877500</v>
+        <v>4356600</v>
       </c>
       <c r="E33" s="3">
-        <v>4510100</v>
+        <v>5618900</v>
       </c>
       <c r="F33" s="3">
-        <v>5942600</v>
+        <v>4311700</v>
       </c>
       <c r="G33" s="3">
-        <v>3953800</v>
+        <v>5681100</v>
       </c>
       <c r="H33" s="3">
-        <v>7846500</v>
+        <v>3779800</v>
       </c>
       <c r="I33" s="3">
-        <v>5981400</v>
+        <v>13219600</v>
       </c>
       <c r="J33" s="3">
+        <v>5718200</v>
+      </c>
+      <c r="K33" s="3">
         <v>944300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3041500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1042100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>175700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1227100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2584200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1064500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>71500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1193800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>649400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1831300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>15500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1957600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>390300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5877500</v>
+        <v>4356600</v>
       </c>
       <c r="E35" s="3">
-        <v>4510100</v>
+        <v>5618900</v>
       </c>
       <c r="F35" s="3">
-        <v>5942600</v>
+        <v>4311700</v>
       </c>
       <c r="G35" s="3">
-        <v>3953800</v>
+        <v>5681100</v>
       </c>
       <c r="H35" s="3">
-        <v>7846500</v>
+        <v>3779800</v>
       </c>
       <c r="I35" s="3">
-        <v>5981400</v>
+        <v>13219600</v>
       </c>
       <c r="J35" s="3">
+        <v>5718200</v>
+      </c>
+      <c r="K35" s="3">
         <v>944300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3041500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1042100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>175700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1227100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2584200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1064500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>71500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1193800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>649400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1831300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>15500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1957600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>390300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,123 +3008,127 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7364800</v>
+        <v>5241300</v>
       </c>
       <c r="E41" s="3">
-        <v>8401600</v>
+        <v>7040800</v>
       </c>
       <c r="F41" s="3">
-        <v>12800500</v>
+        <v>8032000</v>
       </c>
       <c r="G41" s="3">
-        <v>11557500</v>
+        <v>12237400</v>
       </c>
       <c r="H41" s="3">
-        <v>13361400</v>
+        <v>11049000</v>
       </c>
       <c r="I41" s="3">
-        <v>14364100</v>
+        <v>12773500</v>
       </c>
       <c r="J41" s="3">
+        <v>13732100</v>
+      </c>
+      <c r="K41" s="3">
         <v>13715700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9717500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13071600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10940500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5472100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6686200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4103800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3651500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3998400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4519200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5734600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4166300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3670700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3832600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4851300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5278900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3446000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>49500</v>
+        <v>42100</v>
       </c>
       <c r="E42" s="3">
-        <v>39900</v>
+        <v>47300</v>
       </c>
       <c r="F42" s="3">
-        <v>201200</v>
+        <v>38200</v>
       </c>
       <c r="G42" s="3">
-        <v>554600</v>
+        <v>192300</v>
       </c>
       <c r="H42" s="3">
-        <v>931400</v>
+        <v>530200</v>
       </c>
       <c r="I42" s="3">
-        <v>1593100</v>
+        <v>890400</v>
       </c>
       <c r="J42" s="3">
+        <v>1523100</v>
+      </c>
+      <c r="K42" s="3">
         <v>783900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>137800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>99900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>444100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>614800</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>8</v>
@@ -3052,8 +3142,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3067,556 +3157,580 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>8</v>
+      <c r="Y42" s="3">
+        <v>0</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AA42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2963900</v>
+        <v>3042600</v>
       </c>
       <c r="E43" s="3">
-        <v>3667400</v>
+        <v>2833500</v>
       </c>
       <c r="F43" s="3">
-        <v>5215200</v>
+        <v>3506100</v>
       </c>
       <c r="G43" s="3">
-        <v>1806500</v>
+        <v>4985800</v>
       </c>
       <c r="H43" s="3">
-        <v>5503900</v>
+        <v>1727000</v>
       </c>
       <c r="I43" s="3">
-        <v>4604100</v>
+        <v>5261800</v>
       </c>
       <c r="J43" s="3">
+        <v>4401500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5847600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4169800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3709800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2728400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2807800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2956900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3056800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3287800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3067600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3244000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3929800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3695900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5471000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5103900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4454100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5326500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4461500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5283300</v>
+        <v>5328300</v>
       </c>
       <c r="E44" s="3">
-        <v>4671600</v>
+        <v>5050900</v>
       </c>
       <c r="F44" s="3">
-        <v>4780800</v>
+        <v>4466000</v>
       </c>
       <c r="G44" s="3">
-        <v>5412800</v>
+        <v>4570400</v>
       </c>
       <c r="H44" s="3">
-        <v>4601500</v>
+        <v>5174700</v>
       </c>
       <c r="I44" s="3">
-        <v>4765800</v>
+        <v>4399000</v>
       </c>
       <c r="J44" s="3">
+        <v>4556100</v>
+      </c>
+      <c r="K44" s="3">
         <v>4129800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4756100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4378900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3795800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3182100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3616000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3205900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3579800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3071300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3004600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3600300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3078800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3329700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3316000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3277300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2862100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2707400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>762400</v>
+        <v>427900</v>
       </c>
       <c r="E45" s="3">
-        <v>1266800</v>
+        <v>728900</v>
       </c>
       <c r="F45" s="3">
-        <v>1425700</v>
+        <v>1211000</v>
       </c>
       <c r="G45" s="3">
-        <v>1948200</v>
+        <v>1363000</v>
       </c>
       <c r="H45" s="3">
-        <v>469100</v>
+        <v>1862500</v>
       </c>
       <c r="I45" s="3">
-        <v>510100</v>
+        <v>448500</v>
       </c>
       <c r="J45" s="3">
+        <v>487600</v>
+      </c>
+      <c r="K45" s="3">
         <v>338800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>493800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>651900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>611600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1181900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>432900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>473400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>433900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>442300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>662200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>886800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3603900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3900800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>4262900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4157200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>7630700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16423900</v>
+        <v>14082300</v>
       </c>
       <c r="E46" s="3">
-        <v>18047300</v>
+        <v>15701300</v>
       </c>
       <c r="F46" s="3">
-        <v>24423400</v>
+        <v>17253300</v>
       </c>
       <c r="G46" s="3">
-        <v>21279700</v>
+        <v>23348800</v>
       </c>
       <c r="H46" s="3">
-        <v>24867200</v>
+        <v>20343400</v>
       </c>
       <c r="I46" s="3">
-        <v>25837100</v>
+        <v>23773200</v>
       </c>
       <c r="J46" s="3">
+        <v>24700400</v>
+      </c>
+      <c r="K46" s="3">
         <v>24815800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19274900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21912100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18509400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12688400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14441000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10799300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10992400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10571300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>11210200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13927000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11827800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16075200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16153400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16845500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17624700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>18245600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1835300</v>
+        <v>1815900</v>
       </c>
       <c r="E47" s="3">
-        <v>1786700</v>
+        <v>1754500</v>
       </c>
       <c r="F47" s="3">
-        <v>1912200</v>
+        <v>1708100</v>
       </c>
       <c r="G47" s="3">
-        <v>3701200</v>
+        <v>1828100</v>
       </c>
       <c r="H47" s="3">
-        <v>3618000</v>
+        <v>3538300</v>
       </c>
       <c r="I47" s="3">
-        <v>3166600</v>
+        <v>3458800</v>
       </c>
       <c r="J47" s="3">
+        <v>3027300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3064700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5915300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5670400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3566600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3338800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3661200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3267100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3663100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3448900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3634400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4463000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4230800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5382600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5425000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5465700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5299900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3135400</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>44249100</v>
+        <v>42681800</v>
       </c>
       <c r="E48" s="3">
-        <v>42936600</v>
+        <v>42302400</v>
       </c>
       <c r="F48" s="3">
-        <v>45792800</v>
+        <v>41047500</v>
       </c>
       <c r="G48" s="3">
-        <v>43737300</v>
+        <v>43778100</v>
       </c>
       <c r="H48" s="3">
-        <v>42959700</v>
+        <v>41813100</v>
       </c>
       <c r="I48" s="3">
-        <v>43552400</v>
+        <v>41069700</v>
       </c>
       <c r="J48" s="3">
+        <v>41636300</v>
+      </c>
+      <c r="K48" s="3">
         <v>41847700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41737500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41234400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36354000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>34674300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>38174800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34360800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36388200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33446700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35140300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>43858900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>42028700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>46541900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>45711500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46359000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>44231600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>44807200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9684600</v>
+        <v>9451800</v>
       </c>
       <c r="E49" s="3">
-        <v>9519000</v>
+        <v>9258500</v>
       </c>
       <c r="F49" s="3">
-        <v>9841200</v>
+        <v>9100200</v>
       </c>
       <c r="G49" s="3">
-        <v>9488100</v>
+        <v>9408200</v>
       </c>
       <c r="H49" s="3">
-        <v>10765400</v>
+        <v>9070700</v>
       </c>
       <c r="I49" s="3">
-        <v>9656400</v>
+        <v>10291700</v>
       </c>
       <c r="J49" s="3">
+        <v>9231500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9454000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7266700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7236900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6400400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6327300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6490100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5864100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6227400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5503700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5771100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>7193600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6669200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7202800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7026100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6116100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5742700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5555600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,85 +3886,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14280400</v>
+        <v>13508300</v>
       </c>
       <c r="E52" s="3">
-        <v>14075900</v>
+        <v>13652100</v>
       </c>
       <c r="F52" s="3">
-        <v>15709800</v>
+        <v>13456600</v>
       </c>
       <c r="G52" s="3">
-        <v>14276600</v>
+        <v>15018600</v>
       </c>
       <c r="H52" s="3">
-        <v>12467300</v>
+        <v>13648400</v>
       </c>
       <c r="I52" s="3">
-        <v>14770300</v>
+        <v>11918800</v>
       </c>
       <c r="J52" s="3">
+        <v>14120500</v>
+      </c>
+      <c r="K52" s="3">
         <v>14387800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13678600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13668200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13666100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11249300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10580700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10670200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11382200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7991400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7575700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9872000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8500200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8915000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8603700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8591300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8068500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8310700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4046,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>86473400</v>
+        <v>81540000</v>
       </c>
       <c r="E54" s="3">
-        <v>86365500</v>
+        <v>82668900</v>
       </c>
       <c r="F54" s="3">
-        <v>97679300</v>
+        <v>82565800</v>
       </c>
       <c r="G54" s="3">
-        <v>92482800</v>
+        <v>93381900</v>
       </c>
       <c r="H54" s="3">
-        <v>94677600</v>
+        <v>88413900</v>
       </c>
       <c r="I54" s="3">
-        <v>96982800</v>
+        <v>90512100</v>
       </c>
       <c r="J54" s="3">
+        <v>92716000</v>
+      </c>
+      <c r="K54" s="3">
         <v>93569900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>87873000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89722100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78496500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>68278100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73347700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>64961600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68653400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60961900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63331800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>79314400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>73256700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>84117400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>82919700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>83377600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>80967300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>80054500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,470 +4188,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3931200</v>
+        <v>4926800</v>
       </c>
       <c r="E57" s="3">
-        <v>3547500</v>
+        <v>3758300</v>
       </c>
       <c r="F57" s="3">
-        <v>4224200</v>
+        <v>3391400</v>
       </c>
       <c r="G57" s="3">
-        <v>4501700</v>
+        <v>4038300</v>
       </c>
       <c r="H57" s="3">
-        <v>3881500</v>
+        <v>4303600</v>
       </c>
       <c r="I57" s="3">
-        <v>4282100</v>
+        <v>3710800</v>
       </c>
       <c r="J57" s="3">
+        <v>4093700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4159700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4225600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3969100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3586900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3787600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3911300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3192200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3232300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3211600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3364900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3721200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3451600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3656100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3671200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3613400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3632600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3477900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>958700</v>
+        <v>451300</v>
       </c>
       <c r="E58" s="3">
-        <v>1023100</v>
+        <v>916600</v>
       </c>
       <c r="F58" s="3">
-        <v>1315100</v>
+        <v>978100</v>
       </c>
       <c r="G58" s="3">
-        <v>1432100</v>
+        <v>1257200</v>
       </c>
       <c r="H58" s="3">
-        <v>971200</v>
+        <v>1369100</v>
       </c>
       <c r="I58" s="3">
-        <v>1102400</v>
+        <v>928500</v>
       </c>
       <c r="J58" s="3">
+        <v>1053900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1154900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1124800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1303300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1081900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1072100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1224700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1035000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2139900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>693700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1017200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1641000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1525900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1444300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1493200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1749300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1891800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1342000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7530700</v>
+        <v>7765500</v>
       </c>
       <c r="E59" s="3">
-        <v>9029000</v>
+        <v>7199400</v>
       </c>
       <c r="F59" s="3">
-        <v>11058800</v>
+        <v>8631800</v>
       </c>
       <c r="G59" s="3">
-        <v>11178700</v>
+        <v>10572300</v>
       </c>
       <c r="H59" s="3">
-        <v>9178600</v>
+        <v>10686800</v>
       </c>
       <c r="I59" s="3">
-        <v>7801600</v>
+        <v>8774800</v>
       </c>
       <c r="J59" s="3">
+        <v>7458300</v>
+      </c>
+      <c r="K59" s="3">
         <v>9526800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6386900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6762700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6075600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5447600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5355300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4480400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3717300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2430900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2411800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2909200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2776400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6015600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3540800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3612600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3770200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4262100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12420700</v>
+        <v>13143600</v>
       </c>
       <c r="E60" s="3">
-        <v>13599600</v>
+        <v>11874200</v>
       </c>
       <c r="F60" s="3">
-        <v>16598100</v>
+        <v>13001300</v>
       </c>
       <c r="G60" s="3">
-        <v>17112400</v>
+        <v>15867900</v>
       </c>
       <c r="H60" s="3">
-        <v>14031300</v>
+        <v>16359600</v>
       </c>
       <c r="I60" s="3">
-        <v>13186100</v>
+        <v>13414000</v>
       </c>
       <c r="J60" s="3">
+        <v>12606000</v>
+      </c>
+      <c r="K60" s="3">
         <v>14841400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11737400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12035100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10744500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10307300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10491300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8707600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9089500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6336200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6794000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8271400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7754000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11116000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8705200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8975400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>9294600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9082100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11965700</v>
+        <v>11892400</v>
       </c>
       <c r="E61" s="3">
-        <v>11971900</v>
+        <v>11439200</v>
       </c>
       <c r="F61" s="3">
-        <v>13736000</v>
+        <v>11445200</v>
       </c>
       <c r="G61" s="3">
-        <v>13029300</v>
+        <v>13131700</v>
       </c>
       <c r="H61" s="3">
-        <v>12599300</v>
+        <v>12456000</v>
       </c>
       <c r="I61" s="3">
-        <v>14292900</v>
+        <v>12045000</v>
       </c>
       <c r="J61" s="3">
+        <v>13664000</v>
+      </c>
+      <c r="K61" s="3">
         <v>14127100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15428000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>18719600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16336900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9980800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11740200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>10927700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11567200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9997400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11436400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>14481900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14211900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>17628400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>19453700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>21873800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21350800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>22365300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>24176800</v>
+        <v>21427200</v>
       </c>
       <c r="E62" s="3">
-        <v>25106000</v>
+        <v>23113100</v>
       </c>
       <c r="F62" s="3">
-        <v>28781000</v>
+        <v>24001400</v>
       </c>
       <c r="G62" s="3">
-        <v>26045100</v>
+        <v>27514800</v>
       </c>
       <c r="H62" s="3">
-        <v>26572900</v>
+        <v>24899200</v>
       </c>
       <c r="I62" s="3">
-        <v>29991700</v>
+        <v>25403800</v>
       </c>
       <c r="J62" s="3">
+        <v>28672100</v>
+      </c>
+      <c r="K62" s="3">
         <v>29182500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24213200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>23422600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20549700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18964500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>17782200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>15935900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>16510200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>13643400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14258200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>17951400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>15742900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17401700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17013600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>16990600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16074300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>15438300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +4906,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50082800</v>
+        <v>47950200</v>
       </c>
       <c r="E66" s="3">
-        <v>51469500</v>
+        <v>47879300</v>
       </c>
       <c r="F66" s="3">
-        <v>60026100</v>
+        <v>49205000</v>
       </c>
       <c r="G66" s="3">
-        <v>57003100</v>
+        <v>57385200</v>
       </c>
       <c r="H66" s="3">
-        <v>53886500</v>
+        <v>54495200</v>
       </c>
       <c r="I66" s="3">
-        <v>56377700</v>
+        <v>51515700</v>
       </c>
       <c r="J66" s="3">
+        <v>53897300</v>
+      </c>
+      <c r="K66" s="3">
         <v>57211800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>49961000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>52879900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>46567500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38452700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>40540500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36074500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37759800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>30562100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33124200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>41550700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>38565900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>47260900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>46370100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>49052200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>47925500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>48488600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5336,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20939500</v>
+        <v>17703400</v>
       </c>
       <c r="E72" s="3">
-        <v>15052100</v>
+        <v>20018300</v>
       </c>
       <c r="F72" s="3">
-        <v>16904200</v>
+        <v>14389800</v>
       </c>
       <c r="G72" s="3">
-        <v>10381800</v>
+        <v>16160500</v>
       </c>
       <c r="H72" s="3">
-        <v>15743900</v>
+        <v>9925100</v>
       </c>
       <c r="I72" s="3">
-        <v>11051300</v>
+        <v>15051200</v>
       </c>
       <c r="J72" s="3">
+        <v>10565000</v>
+      </c>
+      <c r="K72" s="3">
         <v>7396700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7901300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7350400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5702100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5717700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8104800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6492300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6933100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7755300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5363300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7222100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7146900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6553000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7109800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4470600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4822700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2946700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5656,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36390600</v>
+        <v>33589800</v>
       </c>
       <c r="E76" s="3">
-        <v>34896000</v>
+        <v>34789600</v>
       </c>
       <c r="F76" s="3">
-        <v>37653300</v>
+        <v>33360800</v>
       </c>
       <c r="G76" s="3">
-        <v>35479700</v>
+        <v>35996700</v>
       </c>
       <c r="H76" s="3">
-        <v>40791100</v>
+        <v>33918700</v>
       </c>
       <c r="I76" s="3">
-        <v>40605200</v>
+        <v>38996500</v>
       </c>
       <c r="J76" s="3">
+        <v>38818700</v>
+      </c>
+      <c r="K76" s="3">
         <v>36358100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37911900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36842200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31929000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29825400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32807200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28887100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30893600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30399800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30207600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37763700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34690800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36856600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36549600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>34325300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>33041800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31565800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5877500</v>
+        <v>4356600</v>
       </c>
       <c r="E81" s="3">
-        <v>4510100</v>
+        <v>5618900</v>
       </c>
       <c r="F81" s="3">
-        <v>5942600</v>
+        <v>4311700</v>
       </c>
       <c r="G81" s="3">
-        <v>3953800</v>
+        <v>5681100</v>
       </c>
       <c r="H81" s="3">
-        <v>7846500</v>
+        <v>3779800</v>
       </c>
       <c r="I81" s="3">
-        <v>5981400</v>
+        <v>13219600</v>
       </c>
       <c r="J81" s="3">
+        <v>5718200</v>
+      </c>
+      <c r="K81" s="3">
         <v>944300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3041500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1042100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>175700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1227100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2584200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1064500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>71500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1193800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>649400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1831300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>15500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1957600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>390300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>781200</v>
+        <v>761300</v>
       </c>
       <c r="E83" s="3">
-        <v>702800</v>
+        <v>746900</v>
       </c>
       <c r="F83" s="3">
-        <v>828400</v>
+        <v>671800</v>
       </c>
       <c r="G83" s="3">
-        <v>715700</v>
+        <v>791900</v>
       </c>
       <c r="H83" s="3">
-        <v>876300</v>
+        <v>684200</v>
       </c>
       <c r="I83" s="3">
-        <v>785100</v>
+        <v>1588200</v>
       </c>
       <c r="J83" s="3">
+        <v>750500</v>
+      </c>
+      <c r="K83" s="3">
         <v>881700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>810500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>854500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>656300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>784300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>692000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>670400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>566900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>520500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>624700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>726600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>661700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>812200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>747600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>745200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>707400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>598500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3446500</v>
+        <v>3148400</v>
       </c>
       <c r="E89" s="3">
-        <v>2695800</v>
+        <v>3294800</v>
       </c>
       <c r="F89" s="3">
-        <v>2051600</v>
+        <v>2577200</v>
       </c>
       <c r="G89" s="3">
-        <v>9256400</v>
+        <v>1961400</v>
       </c>
       <c r="H89" s="3">
-        <v>7959900</v>
+        <v>8849200</v>
       </c>
       <c r="I89" s="3">
-        <v>7497200</v>
+        <v>14777000</v>
       </c>
       <c r="J89" s="3">
+        <v>7167300</v>
+      </c>
+      <c r="K89" s="3">
         <v>6815300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4990000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1385300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1380700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2067400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3051200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2047500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1546000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2227400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2857700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3016300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1654300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3075400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1940400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2841900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2379500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2108400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1247200</v>
+        <v>-1207700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1167200</v>
+        <v>-1192300</v>
       </c>
       <c r="F91" s="3">
-        <v>-4729500</v>
+        <v>-1115800</v>
       </c>
       <c r="G91" s="3">
+        <v>-4521400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>100</v>
-      </c>
       <c r="I91" s="3">
-        <v>-613300</v>
+        <v>-586300</v>
       </c>
       <c r="J91" s="3">
+        <v>-586300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1336100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-914000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-892400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-717900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-507300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-431500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-520500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-592700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-674300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-816500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-695500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-731200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-865000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>2329500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1092200</v>
+        <v>-994400</v>
       </c>
       <c r="E94" s="3">
-        <v>-695300</v>
+        <v>-1044100</v>
       </c>
       <c r="F94" s="3">
-        <v>-420100</v>
+        <v>-664700</v>
       </c>
       <c r="G94" s="3">
-        <v>-824200</v>
+        <v>-401600</v>
       </c>
       <c r="H94" s="3">
-        <v>-3093700</v>
+        <v>-788000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2567800</v>
+        <v>-5412400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2454800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2050500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1054400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-713100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-843300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-968200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-406600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-414400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-508600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-366500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>2166300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-687700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-404900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-949700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-675900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,85 +6953,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-6800</v>
+        <v>-3041900</v>
       </c>
       <c r="E96" s="3">
-        <v>-3493000</v>
+        <v>-6500</v>
       </c>
       <c r="F96" s="3">
-        <v>-25100</v>
+        <v>-3339400</v>
       </c>
       <c r="G96" s="3">
-        <v>-7870200</v>
+        <v>-24000</v>
       </c>
       <c r="H96" s="3">
-        <v>-2167700</v>
+        <v>-7524000</v>
       </c>
       <c r="I96" s="3">
-        <v>-4279200</v>
+        <v>-6163300</v>
       </c>
       <c r="J96" s="3">
+        <v>-4090900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-31500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3604700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2100</v>
       </c>
       <c r="N96" s="3">
         <v>-2100</v>
       </c>
       <c r="O96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-74100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-44400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1900</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-436800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,235 +7271,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3771500</v>
+        <v>-4044300</v>
       </c>
       <c r="E100" s="3">
-        <v>-5307400</v>
+        <v>-3605600</v>
       </c>
       <c r="F100" s="3">
-        <v>-601400</v>
+        <v>-5073900</v>
       </c>
       <c r="G100" s="3">
-        <v>-10947400</v>
+        <v>-574900</v>
       </c>
       <c r="H100" s="3">
-        <v>-4451900</v>
+        <v>-10465700</v>
       </c>
       <c r="I100" s="3">
-        <v>-5374900</v>
+        <v>-9394400</v>
       </c>
       <c r="J100" s="3">
+        <v>-5138400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-214600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7505800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-181400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4018700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-718600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-939400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1051500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>179900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>380400</v>
+        <v>90900</v>
       </c>
       <c r="E101" s="3">
-        <v>-1092000</v>
+        <v>363700</v>
       </c>
       <c r="F101" s="3">
-        <v>212800</v>
+        <v>-1044000</v>
       </c>
       <c r="G101" s="3">
-        <v>711300</v>
+        <v>203500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1417100</v>
+        <v>680000</v>
       </c>
       <c r="I101" s="3">
-        <v>1093900</v>
+        <v>-308900</v>
       </c>
       <c r="J101" s="3">
+        <v>1045800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-597600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>367200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>504300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1095300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-111400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>412800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-147400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>153200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>453300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-75200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>89000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-96000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>57700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-50600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1036800</v>
+        <v>-1799400</v>
       </c>
       <c r="E102" s="3">
-        <v>-4398900</v>
+        <v>-991200</v>
       </c>
       <c r="F102" s="3">
-        <v>1243000</v>
+        <v>-4205400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1803900</v>
+        <v>1188300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1002700</v>
+        <v>-1724500</v>
       </c>
       <c r="I102" s="3">
-        <v>648300</v>
+        <v>-338800</v>
       </c>
       <c r="J102" s="3">
+        <v>619800</v>
+      </c>
+      <c r="K102" s="3">
         <v>3952500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3202900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>994900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5651400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2338800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>648600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-542600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-358900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1568300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>822900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-161900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-604200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1832900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-877500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,360 +665,372 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9743600</v>
+        <v>12147400</v>
       </c>
       <c r="E8" s="3">
-        <v>10285100</v>
+        <v>10084300</v>
       </c>
       <c r="F8" s="3">
-        <v>10611600</v>
+        <v>10644600</v>
       </c>
       <c r="G8" s="3">
-        <v>13117900</v>
+        <v>10982500</v>
       </c>
       <c r="H8" s="3">
-        <v>12052000</v>
+        <v>13576400</v>
       </c>
       <c r="I8" s="3">
-        <v>29145600</v>
+        <v>12473300</v>
       </c>
       <c r="J8" s="3">
+        <v>30164500</v>
+      </c>
+      <c r="K8" s="3">
         <v>12870300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14972500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11278900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7967900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5578900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7576200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7627900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6375400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5792000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6682000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7005700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7293600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6522800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7647100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7332500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5989800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6634200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7604100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6182000</v>
+        <v>7280700</v>
       </c>
       <c r="E9" s="3">
-        <v>5496100</v>
+        <v>6398100</v>
       </c>
       <c r="F9" s="3">
-        <v>4522700</v>
+        <v>5688300</v>
       </c>
       <c r="G9" s="3">
-        <v>5755200</v>
+        <v>4680800</v>
       </c>
       <c r="H9" s="3">
-        <v>5356700</v>
+        <v>5956400</v>
       </c>
       <c r="I9" s="3">
-        <v>9793200</v>
+        <v>5543900</v>
       </c>
       <c r="J9" s="3">
+        <v>10135500</v>
+      </c>
+      <c r="K9" s="3">
         <v>4412900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4535000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5043500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4466800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3430200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4280600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4244500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3591400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3321500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3914200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4223700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4544900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3962900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4828000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4383800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4220500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3560000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4062900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3561600</v>
+        <v>4866700</v>
       </c>
       <c r="E10" s="3">
-        <v>4788900</v>
+        <v>3686100</v>
       </c>
       <c r="F10" s="3">
-        <v>6088800</v>
+        <v>4956300</v>
       </c>
       <c r="G10" s="3">
-        <v>7362700</v>
+        <v>6301700</v>
       </c>
       <c r="H10" s="3">
-        <v>6695300</v>
+        <v>7620100</v>
       </c>
       <c r="I10" s="3">
-        <v>19352500</v>
+        <v>6929300</v>
       </c>
       <c r="J10" s="3">
+        <v>20029000</v>
+      </c>
+      <c r="K10" s="3">
         <v>8457400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10437500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6235400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3501100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2148700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3295500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3383400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2784100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2470400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2767800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2781900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2748700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2559900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2819100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2948600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1769200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>3074200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3541300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1047,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,168 +1223,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>371400</v>
+        <v>565000</v>
       </c>
       <c r="E14" s="3">
-        <v>322900</v>
+        <v>384400</v>
       </c>
       <c r="F14" s="3">
-        <v>-841200</v>
+        <v>334200</v>
       </c>
       <c r="G14" s="3">
-        <v>-263000</v>
+        <v>-870600</v>
       </c>
       <c r="H14" s="3">
-        <v>221300</v>
+        <v>-272200</v>
       </c>
       <c r="I14" s="3">
-        <v>458400</v>
+        <v>229100</v>
       </c>
       <c r="J14" s="3">
+        <v>474400</v>
+      </c>
+      <c r="K14" s="3">
         <v>241500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5472700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>432900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>582000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>150600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>4454700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>191800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1048500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3240200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>196900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>130900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2500</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>402500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>136300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>186000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>127800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2084300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="E15" s="3">
-        <v>10900</v>
+        <v>9300</v>
       </c>
       <c r="F15" s="3">
         <v>11200</v>
       </c>
       <c r="G15" s="3">
-        <v>12200</v>
+        <v>11600</v>
       </c>
       <c r="H15" s="3">
-        <v>11400</v>
+        <v>12600</v>
       </c>
       <c r="I15" s="3">
-        <v>18900</v>
+        <v>11800</v>
       </c>
       <c r="J15" s="3">
+        <v>19600</v>
+      </c>
+      <c r="K15" s="3">
         <v>9000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>14000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>14600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>12400</v>
-      </c>
-      <c r="U15" s="3">
-        <v>13300</v>
       </c>
       <c r="V15" s="3">
         <v>13300</v>
       </c>
       <c r="W15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="X15" s="3">
         <v>18200</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
         <v>18500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>22300</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>102600</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6892000</v>
+        <v>8522600</v>
       </c>
       <c r="E17" s="3">
-        <v>6385200</v>
+        <v>7132900</v>
       </c>
       <c r="F17" s="3">
-        <v>3966300</v>
+        <v>6608400</v>
       </c>
       <c r="G17" s="3">
-        <v>7237000</v>
+        <v>4105000</v>
       </c>
       <c r="H17" s="3">
-        <v>5881900</v>
+        <v>7490000</v>
       </c>
       <c r="I17" s="3">
-        <v>11570400</v>
+        <v>6087500</v>
       </c>
       <c r="J17" s="3">
+        <v>11974900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5023200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11155700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6076200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6328100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4146900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9518900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4836000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5618400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6989800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4666600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4597100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5190500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4285100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5681300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4816100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4773800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3636500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5701000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2851600</v>
+        <v>3624800</v>
       </c>
       <c r="E18" s="3">
-        <v>3899900</v>
+        <v>2951300</v>
       </c>
       <c r="F18" s="3">
-        <v>6645200</v>
+        <v>4036200</v>
       </c>
       <c r="G18" s="3">
-        <v>5880900</v>
+        <v>6877500</v>
       </c>
       <c r="H18" s="3">
-        <v>6170000</v>
+        <v>6086400</v>
       </c>
       <c r="I18" s="3">
-        <v>17575200</v>
+        <v>6385700</v>
       </c>
       <c r="J18" s="3">
+        <v>18189600</v>
+      </c>
+      <c r="K18" s="3">
         <v>7847100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3816900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5202600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1639800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1432000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2791900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>757000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2015400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2408500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2103100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2237700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1965800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2516400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1215900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2997700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1903100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,408 +1616,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2420200</v>
+        <v>-504800</v>
       </c>
       <c r="E20" s="3">
-        <v>901200</v>
+        <v>2504800</v>
       </c>
       <c r="F20" s="3">
-        <v>-98200</v>
+        <v>932700</v>
       </c>
       <c r="G20" s="3">
-        <v>3515200</v>
+        <v>-101700</v>
       </c>
       <c r="H20" s="3">
-        <v>-187100</v>
+        <v>3638100</v>
       </c>
       <c r="I20" s="3">
-        <v>704000</v>
+        <v>-193600</v>
       </c>
       <c r="J20" s="3">
+        <v>728600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-585200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1215100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-301200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-491600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-678000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-321500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-333600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>148100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-755700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-210700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-855000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>440700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-741700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-143800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-221800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6033100</v>
+        <v>4036600</v>
       </c>
       <c r="E21" s="3">
-        <v>5548000</v>
+        <v>6244000</v>
       </c>
       <c r="F21" s="3">
-        <v>7218900</v>
+        <v>5741900</v>
       </c>
       <c r="G21" s="3">
-        <v>10188000</v>
+        <v>7471200</v>
       </c>
       <c r="H21" s="3">
-        <v>6667100</v>
+        <v>10544200</v>
       </c>
       <c r="I21" s="3">
-        <v>19867500</v>
+        <v>6900200</v>
       </c>
       <c r="J21" s="3">
+        <v>20562000</v>
+      </c>
+      <c r="K21" s="3">
         <v>8580400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4097300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4798000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2193200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>375800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2805900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1106000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-964600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2684000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2277600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>487300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2688700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1923000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3704700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1219400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3561300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2509400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>143900</v>
+        <v>161300</v>
       </c>
       <c r="E22" s="3">
-        <v>147800</v>
+        <v>148900</v>
       </c>
       <c r="F22" s="3">
-        <v>159200</v>
+        <v>153000</v>
       </c>
       <c r="G22" s="3">
-        <v>135300</v>
+        <v>164800</v>
       </c>
       <c r="H22" s="3">
-        <v>152700</v>
+        <v>140000</v>
       </c>
       <c r="I22" s="3">
-        <v>353400</v>
+        <v>158000</v>
       </c>
       <c r="J22" s="3">
+        <v>365800</v>
+      </c>
+      <c r="K22" s="3">
         <v>17400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>138000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>222400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>209100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>159600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>148300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>176500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>180600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>150800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>165600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>161700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>209900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>209200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>213800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>247700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>370900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>270200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>286300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5127900</v>
+        <v>2958700</v>
       </c>
       <c r="E23" s="3">
-        <v>4653300</v>
+        <v>5307200</v>
       </c>
       <c r="F23" s="3">
-        <v>6387800</v>
+        <v>4816000</v>
       </c>
       <c r="G23" s="3">
-        <v>9260800</v>
+        <v>6611100</v>
       </c>
       <c r="H23" s="3">
-        <v>5830300</v>
+        <v>9584500</v>
       </c>
       <c r="I23" s="3">
-        <v>17925800</v>
+        <v>6034100</v>
       </c>
       <c r="J23" s="3">
+        <v>18552500</v>
+      </c>
+      <c r="K23" s="3">
         <v>7812500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3093700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3765100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1129500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-440100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1937400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>254900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1997900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1491200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-449200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1817800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>897000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2709500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>103300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2583700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1395100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>782200</v>
+        <v>-848300</v>
       </c>
       <c r="E24" s="3">
-        <v>823000</v>
+        <v>809600</v>
       </c>
       <c r="F24" s="3">
-        <v>2055400</v>
+        <v>851800</v>
       </c>
       <c r="G24" s="3">
-        <v>1172600</v>
+        <v>2127200</v>
       </c>
       <c r="H24" s="3">
-        <v>452900</v>
+        <v>1213500</v>
       </c>
       <c r="I24" s="3">
-        <v>3922900</v>
+        <v>468800</v>
       </c>
       <c r="J24" s="3">
+        <v>4060000</v>
+      </c>
+      <c r="K24" s="3">
         <v>1861500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>512100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>829300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>168500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-553800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>725400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>329100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-457400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-617700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>453600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-535800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>546300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-132000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>784800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-39800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>549700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>38400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4345700</v>
+        <v>3807000</v>
       </c>
       <c r="E26" s="3">
-        <v>3830300</v>
+        <v>4497600</v>
       </c>
       <c r="F26" s="3">
-        <v>4332400</v>
+        <v>3964200</v>
       </c>
       <c r="G26" s="3">
-        <v>8088300</v>
+        <v>4483900</v>
       </c>
       <c r="H26" s="3">
-        <v>5377300</v>
+        <v>8371000</v>
       </c>
       <c r="I26" s="3">
-        <v>14002900</v>
+        <v>5565300</v>
       </c>
       <c r="J26" s="3">
+        <v>14492400</v>
+      </c>
+      <c r="K26" s="3">
         <v>5951000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2581600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2935800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>961100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>113700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2615600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1037600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>86500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1271500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1029000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1924700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>143100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2034000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1356700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4356600</v>
+        <v>3787200</v>
       </c>
       <c r="E27" s="3">
-        <v>3783100</v>
+        <v>4508900</v>
       </c>
       <c r="F27" s="3">
-        <v>4310600</v>
+        <v>3915400</v>
       </c>
       <c r="G27" s="3">
-        <v>8016800</v>
+        <v>4461200</v>
       </c>
       <c r="H27" s="3">
-        <v>5348300</v>
+        <v>8297000</v>
       </c>
       <c r="I27" s="3">
-        <v>13977900</v>
+        <v>5535300</v>
       </c>
       <c r="J27" s="3">
+        <v>14466500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5937300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2681100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3041500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1042100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>175700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1227100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-68000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2584300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1064500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>80600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1257000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1066000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1917800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>115000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2021400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1383900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2313,28 +2373,28 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1835700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1100</v>
+        <v>1899900</v>
       </c>
       <c r="G29" s="3">
-        <v>-2335600</v>
+        <v>1200</v>
       </c>
       <c r="H29" s="3">
-        <v>-1568600</v>
+        <v>-2417300</v>
       </c>
       <c r="I29" s="3">
-        <v>-758300</v>
+        <v>-1623400</v>
       </c>
       <c r="J29" s="3">
+        <v>-784800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-219100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1736800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2342,8 +2402,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2355,37 +2415,40 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-9100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-63300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-416600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-86500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-99500</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-63800</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-993600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2420200</v>
+        <v>504800</v>
       </c>
       <c r="E32" s="3">
-        <v>-901200</v>
+        <v>-2504800</v>
       </c>
       <c r="F32" s="3">
-        <v>98200</v>
+        <v>-932700</v>
       </c>
       <c r="G32" s="3">
-        <v>-3515200</v>
+        <v>101700</v>
       </c>
       <c r="H32" s="3">
-        <v>187100</v>
+        <v>-3638100</v>
       </c>
       <c r="I32" s="3">
-        <v>-704000</v>
+        <v>193600</v>
       </c>
       <c r="J32" s="3">
+        <v>-728600</v>
+      </c>
+      <c r="K32" s="3">
         <v>17200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>585200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1215100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>301200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1712500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>491600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>678000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>321500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>333600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-148100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>755700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2342400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>210700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>855000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-440700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>741700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>143800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>221800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4356600</v>
+        <v>3787200</v>
       </c>
       <c r="E33" s="3">
-        <v>5618900</v>
+        <v>4508900</v>
       </c>
       <c r="F33" s="3">
-        <v>4311700</v>
+        <v>5815300</v>
       </c>
       <c r="G33" s="3">
-        <v>5681100</v>
+        <v>4462400</v>
       </c>
       <c r="H33" s="3">
-        <v>3779800</v>
+        <v>5879700</v>
       </c>
       <c r="I33" s="3">
-        <v>13219600</v>
+        <v>3911900</v>
       </c>
       <c r="J33" s="3">
+        <v>13681700</v>
+      </c>
+      <c r="K33" s="3">
         <v>5718200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>944300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3041500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1042100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>175700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1227100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-68000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2584200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1064500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>71500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1193800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>649400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1831300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>15500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1957600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>390300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4356600</v>
+        <v>3787200</v>
       </c>
       <c r="E35" s="3">
-        <v>5618900</v>
+        <v>4508900</v>
       </c>
       <c r="F35" s="3">
-        <v>4311700</v>
+        <v>5815300</v>
       </c>
       <c r="G35" s="3">
-        <v>5681100</v>
+        <v>4462400</v>
       </c>
       <c r="H35" s="3">
-        <v>3779800</v>
+        <v>5879700</v>
       </c>
       <c r="I35" s="3">
-        <v>13219600</v>
+        <v>3911900</v>
       </c>
       <c r="J35" s="3">
+        <v>13681700</v>
+      </c>
+      <c r="K35" s="3">
         <v>5718200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>944300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3041500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1042100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>175700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1227100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-68000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2584200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1064500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>71500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1193800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>649400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1831300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>15500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1957600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>390300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,129 +3094,133 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5241300</v>
+        <v>4784800</v>
       </c>
       <c r="E41" s="3">
-        <v>7040800</v>
+        <v>5424500</v>
       </c>
       <c r="F41" s="3">
-        <v>8032000</v>
+        <v>7286900</v>
       </c>
       <c r="G41" s="3">
-        <v>12237400</v>
+        <v>8312700</v>
       </c>
       <c r="H41" s="3">
-        <v>11049000</v>
+        <v>12665100</v>
       </c>
       <c r="I41" s="3">
-        <v>12773500</v>
+        <v>11435200</v>
       </c>
       <c r="J41" s="3">
+        <v>13220000</v>
+      </c>
+      <c r="K41" s="3">
         <v>13732100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13715700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9717500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13071600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10940500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5472100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6686200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4103800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3651500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3998400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4519200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5734600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4166300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3670700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3832600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4851300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5278900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3446000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42100</v>
+        <v>62000</v>
       </c>
       <c r="E42" s="3">
-        <v>47300</v>
+        <v>43600</v>
       </c>
       <c r="F42" s="3">
-        <v>38200</v>
+        <v>49000</v>
       </c>
       <c r="G42" s="3">
-        <v>192300</v>
+        <v>39500</v>
       </c>
       <c r="H42" s="3">
-        <v>530200</v>
+        <v>199100</v>
       </c>
       <c r="I42" s="3">
-        <v>890400</v>
+        <v>548700</v>
       </c>
       <c r="J42" s="3">
+        <v>921500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1523100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>783900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>137800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>99900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>444100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>614800</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -3145,8 +3234,8 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -3160,577 +3249,601 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>8</v>
+      <c r="Z42" s="3">
+        <v>0</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3042600</v>
+        <v>5649300</v>
       </c>
       <c r="E43" s="3">
-        <v>2833500</v>
+        <v>3149000</v>
       </c>
       <c r="F43" s="3">
-        <v>3506100</v>
+        <v>2932500</v>
       </c>
       <c r="G43" s="3">
-        <v>4985800</v>
+        <v>3628600</v>
       </c>
       <c r="H43" s="3">
-        <v>1727000</v>
+        <v>5160000</v>
       </c>
       <c r="I43" s="3">
-        <v>5261800</v>
+        <v>1787400</v>
       </c>
       <c r="J43" s="3">
+        <v>5445700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4401500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5847600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4169800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3709800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2728400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2807800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2956900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3056800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3287800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3067600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3244000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3929800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3695900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5471000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5103900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4454100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5326500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4461500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5328300</v>
+        <v>4528200</v>
       </c>
       <c r="E44" s="3">
-        <v>5050900</v>
+        <v>5514600</v>
       </c>
       <c r="F44" s="3">
-        <v>4466000</v>
+        <v>5227400</v>
       </c>
       <c r="G44" s="3">
-        <v>4570400</v>
+        <v>4622100</v>
       </c>
       <c r="H44" s="3">
-        <v>5174700</v>
+        <v>4730200</v>
       </c>
       <c r="I44" s="3">
-        <v>4399000</v>
+        <v>5355600</v>
       </c>
       <c r="J44" s="3">
+        <v>4552800</v>
+      </c>
+      <c r="K44" s="3">
         <v>4556100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4129800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4756100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4378900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>3795800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3182100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3616000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3205900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3579800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3071300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3004600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3600300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3078800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3329700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3316000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3277300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2862100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2707400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>427900</v>
+        <v>661400</v>
       </c>
       <c r="E45" s="3">
-        <v>728900</v>
+        <v>442800</v>
       </c>
       <c r="F45" s="3">
-        <v>1211000</v>
+        <v>754400</v>
       </c>
       <c r="G45" s="3">
-        <v>1363000</v>
+        <v>1253400</v>
       </c>
       <c r="H45" s="3">
-        <v>1862500</v>
+        <v>1410600</v>
       </c>
       <c r="I45" s="3">
-        <v>448500</v>
+        <v>1927600</v>
       </c>
       <c r="J45" s="3">
+        <v>464200</v>
+      </c>
+      <c r="K45" s="3">
         <v>487600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>338800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>493800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>651900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>611600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1181900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>432900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>473400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>433900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>442300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>662200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>886800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>3603900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3900800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>4262900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4157200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>7630700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14082300</v>
+        <v>15685800</v>
       </c>
       <c r="E46" s="3">
-        <v>15701300</v>
+        <v>14574500</v>
       </c>
       <c r="F46" s="3">
-        <v>17253300</v>
+        <v>16250200</v>
       </c>
       <c r="G46" s="3">
-        <v>23348800</v>
+        <v>17856400</v>
       </c>
       <c r="H46" s="3">
-        <v>20343400</v>
+        <v>24165000</v>
       </c>
       <c r="I46" s="3">
-        <v>23773200</v>
+        <v>21054600</v>
       </c>
       <c r="J46" s="3">
+        <v>24604200</v>
+      </c>
+      <c r="K46" s="3">
         <v>24700400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24815800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19274900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21912100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18509400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12688400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14441000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10799300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10992400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10571300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11210200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13927000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11827800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16075200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16153400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16845500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17624700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>18245600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1816400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1879400</v>
+      </c>
+      <c r="F47" s="3">
         <v>1815900</v>
       </c>
-      <c r="E47" s="3">
-        <v>1754500</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1708100</v>
-      </c>
       <c r="G47" s="3">
-        <v>1828100</v>
+        <v>1767800</v>
       </c>
       <c r="H47" s="3">
-        <v>3538300</v>
+        <v>1892000</v>
       </c>
       <c r="I47" s="3">
-        <v>3458800</v>
+        <v>3662000</v>
       </c>
       <c r="J47" s="3">
+        <v>3579700</v>
+      </c>
+      <c r="K47" s="3">
         <v>3027300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3064700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5915300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5670400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3566600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3338800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3661200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3267100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3663100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3448900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3634400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4463000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4230800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5382600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5425000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5465700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5299900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>3135400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42681800</v>
+        <v>45400800</v>
       </c>
       <c r="E48" s="3">
-        <v>42302400</v>
+        <v>44173800</v>
       </c>
       <c r="F48" s="3">
-        <v>41047500</v>
+        <v>43781100</v>
       </c>
       <c r="G48" s="3">
-        <v>43778100</v>
+        <v>42482400</v>
       </c>
       <c r="H48" s="3">
-        <v>41813100</v>
+        <v>45308500</v>
       </c>
       <c r="I48" s="3">
-        <v>41069700</v>
+        <v>43274700</v>
       </c>
       <c r="J48" s="3">
+        <v>42505300</v>
+      </c>
+      <c r="K48" s="3">
         <v>41636300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41847700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41737500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41234400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>36354000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>34674300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>38174800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34360800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>36388200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33446700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35140300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>43858900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>42028700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>46541900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>45711500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>46359000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>44231600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>44807200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9451800</v>
+        <v>10343900</v>
       </c>
       <c r="E49" s="3">
-        <v>9258500</v>
+        <v>9782200</v>
       </c>
       <c r="F49" s="3">
-        <v>9100200</v>
+        <v>9582200</v>
       </c>
       <c r="G49" s="3">
-        <v>9408200</v>
+        <v>9418400</v>
       </c>
       <c r="H49" s="3">
-        <v>9070700</v>
+        <v>9737100</v>
       </c>
       <c r="I49" s="3">
-        <v>10291700</v>
+        <v>9387700</v>
       </c>
       <c r="J49" s="3">
+        <v>10651500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9231500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9454000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7266700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7236900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6400400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6327300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6490100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5864100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6227400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5503700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5771100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7193600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6669200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7202800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7026100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6116100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5742700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5555600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13508300</v>
+        <v>14542400</v>
       </c>
       <c r="E52" s="3">
-        <v>13652100</v>
+        <v>13980500</v>
       </c>
       <c r="F52" s="3">
-        <v>13456600</v>
+        <v>14129400</v>
       </c>
       <c r="G52" s="3">
-        <v>15018600</v>
+        <v>13927000</v>
       </c>
       <c r="H52" s="3">
-        <v>13648400</v>
+        <v>15543600</v>
       </c>
       <c r="I52" s="3">
-        <v>11918800</v>
+        <v>14125500</v>
       </c>
       <c r="J52" s="3">
+        <v>12335400</v>
+      </c>
+      <c r="K52" s="3">
         <v>14120500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14387800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13678600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13668200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13666100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>11249300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10580700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10670200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11382200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7991400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7575700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9872000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>8500200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8915000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8603700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8591300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8068500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8310700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81540000</v>
+        <v>87789300</v>
       </c>
       <c r="E54" s="3">
-        <v>82668900</v>
+        <v>84390300</v>
       </c>
       <c r="F54" s="3">
-        <v>82565800</v>
+        <v>85558700</v>
       </c>
       <c r="G54" s="3">
-        <v>93381900</v>
+        <v>85452000</v>
       </c>
       <c r="H54" s="3">
-        <v>88413900</v>
+        <v>96646200</v>
       </c>
       <c r="I54" s="3">
-        <v>90512100</v>
+        <v>91504600</v>
       </c>
       <c r="J54" s="3">
+        <v>93676100</v>
+      </c>
+      <c r="K54" s="3">
         <v>92716000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93569900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>87873000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>89722100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>78496500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>68278100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73347700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>64961600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68653400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60961900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>63331800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>79314400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>73256700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>84117400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>82919700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>83377600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>80967300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>80054500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4926800</v>
+        <v>4911200</v>
       </c>
       <c r="E57" s="3">
-        <v>3758300</v>
+        <v>5099100</v>
       </c>
       <c r="F57" s="3">
-        <v>3391400</v>
+        <v>3889600</v>
       </c>
       <c r="G57" s="3">
-        <v>4038300</v>
+        <v>3509900</v>
       </c>
       <c r="H57" s="3">
-        <v>4303600</v>
+        <v>4179500</v>
       </c>
       <c r="I57" s="3">
-        <v>3710800</v>
+        <v>4454000</v>
       </c>
       <c r="J57" s="3">
+        <v>3840500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4093700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4159700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4225600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3969100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3586900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3787600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3911300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3192200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3232300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3211600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3364900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3721200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3451600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3656100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3671200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3613400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3632600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3477900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>451300</v>
+        <v>494100</v>
       </c>
       <c r="E58" s="3">
-        <v>916600</v>
+        <v>467000</v>
       </c>
       <c r="F58" s="3">
-        <v>978100</v>
+        <v>948600</v>
       </c>
       <c r="G58" s="3">
-        <v>1257200</v>
+        <v>1012300</v>
       </c>
       <c r="H58" s="3">
-        <v>1369100</v>
+        <v>1301200</v>
       </c>
       <c r="I58" s="3">
-        <v>928500</v>
+        <v>1417000</v>
       </c>
       <c r="J58" s="3">
+        <v>960900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1053900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1154900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1124800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1303300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1081900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1072100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1224700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1035000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2139900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>693700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1017200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1641000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1525900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1444300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1493200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1749300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1891800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1342000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7765500</v>
+        <v>8628500</v>
       </c>
       <c r="E59" s="3">
-        <v>7199400</v>
+        <v>8037000</v>
       </c>
       <c r="F59" s="3">
-        <v>8631800</v>
+        <v>7451100</v>
       </c>
       <c r="G59" s="3">
-        <v>10572300</v>
+        <v>8933500</v>
       </c>
       <c r="H59" s="3">
-        <v>10686800</v>
+        <v>10941800</v>
       </c>
       <c r="I59" s="3">
-        <v>8774800</v>
+        <v>11060400</v>
       </c>
       <c r="J59" s="3">
+        <v>9081500</v>
+      </c>
+      <c r="K59" s="3">
         <v>7458300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9526800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6386900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6762700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6075600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5447600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5355300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4480400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3717300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2430900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2411800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2909200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2776400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6015600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3540800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3612600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3770200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>4262100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13143600</v>
+        <v>14033900</v>
       </c>
       <c r="E60" s="3">
-        <v>11874200</v>
+        <v>13603100</v>
       </c>
       <c r="F60" s="3">
-        <v>13001300</v>
+        <v>12289300</v>
       </c>
       <c r="G60" s="3">
-        <v>15867900</v>
+        <v>13455700</v>
       </c>
       <c r="H60" s="3">
-        <v>16359600</v>
+        <v>16422500</v>
       </c>
       <c r="I60" s="3">
-        <v>13414000</v>
+        <v>16931400</v>
       </c>
       <c r="J60" s="3">
+        <v>13882900</v>
+      </c>
+      <c r="K60" s="3">
         <v>12606000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14841400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11737400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12035100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10744500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10307300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10491300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8707600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9089500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6336200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6794000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8271400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7754000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11116000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8705200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8975400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>9294600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9082100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11892400</v>
+        <v>12349300</v>
       </c>
       <c r="E61" s="3">
-        <v>11439200</v>
+        <v>12308100</v>
       </c>
       <c r="F61" s="3">
-        <v>11445200</v>
+        <v>11839100</v>
       </c>
       <c r="G61" s="3">
-        <v>13131700</v>
+        <v>11845300</v>
       </c>
       <c r="H61" s="3">
-        <v>12456000</v>
+        <v>13590700</v>
       </c>
       <c r="I61" s="3">
-        <v>12045000</v>
+        <v>12891400</v>
       </c>
       <c r="J61" s="3">
+        <v>12466000</v>
+      </c>
+      <c r="K61" s="3">
         <v>13664000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14127100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15428000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>18719600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16336900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9980800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11740200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>10927700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11567200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>9997400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11436400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>14481900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14211900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>17628400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>19453700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>21873800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21350800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>22365300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>21427200</v>
+        <v>23668800</v>
       </c>
       <c r="E62" s="3">
-        <v>23113100</v>
+        <v>22176300</v>
       </c>
       <c r="F62" s="3">
-        <v>24001400</v>
+        <v>23921100</v>
       </c>
       <c r="G62" s="3">
-        <v>27514800</v>
+        <v>24840400</v>
       </c>
       <c r="H62" s="3">
-        <v>24899200</v>
+        <v>28476600</v>
       </c>
       <c r="I62" s="3">
-        <v>25403800</v>
+        <v>25769600</v>
       </c>
       <c r="J62" s="3">
+        <v>26291800</v>
+      </c>
+      <c r="K62" s="3">
         <v>28672100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>29182500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24213200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23422600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>20549700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18964500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>17782200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15935900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>16510200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>13643400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14258200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>17951400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>15742900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17401700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17013600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>16990600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16074300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>15438300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47950200</v>
+        <v>51558800</v>
       </c>
       <c r="E66" s="3">
-        <v>47879300</v>
+        <v>49626400</v>
       </c>
       <c r="F66" s="3">
-        <v>49205000</v>
+        <v>49553000</v>
       </c>
       <c r="G66" s="3">
-        <v>57385200</v>
+        <v>50925100</v>
       </c>
       <c r="H66" s="3">
-        <v>54495200</v>
+        <v>59391200</v>
       </c>
       <c r="I66" s="3">
-        <v>51515700</v>
+        <v>56400200</v>
       </c>
       <c r="J66" s="3">
+        <v>53316500</v>
+      </c>
+      <c r="K66" s="3">
         <v>53897300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57211800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>49961000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>52879900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46567500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>38452700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>40540500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36074500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37759800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30562100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>33124200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>41550700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>38565900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>47260900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>46370100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>49052200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>47925500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>48488600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17703400</v>
+        <v>20728700</v>
       </c>
       <c r="E72" s="3">
-        <v>20018300</v>
+        <v>18322200</v>
       </c>
       <c r="F72" s="3">
-        <v>14389800</v>
+        <v>20718000</v>
       </c>
       <c r="G72" s="3">
-        <v>16160500</v>
+        <v>14892900</v>
       </c>
       <c r="H72" s="3">
-        <v>9925100</v>
+        <v>16725400</v>
       </c>
       <c r="I72" s="3">
-        <v>15051200</v>
+        <v>10272000</v>
       </c>
       <c r="J72" s="3">
+        <v>15577300</v>
+      </c>
+      <c r="K72" s="3">
         <v>10565000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7396700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7901300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7350400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5702100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5717700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8104800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6492300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6933100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7755300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5363300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7222100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7146900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6553000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7109800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4470600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4822700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2946700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33589800</v>
+        <v>36230500</v>
       </c>
       <c r="E76" s="3">
-        <v>34789600</v>
+        <v>34763900</v>
       </c>
       <c r="F76" s="3">
-        <v>33360800</v>
+        <v>36005700</v>
       </c>
       <c r="G76" s="3">
-        <v>35996700</v>
+        <v>34526900</v>
       </c>
       <c r="H76" s="3">
-        <v>33918700</v>
+        <v>37255000</v>
       </c>
       <c r="I76" s="3">
-        <v>38996500</v>
+        <v>35104400</v>
       </c>
       <c r="J76" s="3">
+        <v>40359600</v>
+      </c>
+      <c r="K76" s="3">
         <v>38818700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36358100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37911900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36842200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31929000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29825400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32807200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28887100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30893600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30399800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30207600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>37763700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34690800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>36856600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36549600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>34325300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>33041800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31565800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4356600</v>
+        <v>3787200</v>
       </c>
       <c r="E81" s="3">
-        <v>5618900</v>
+        <v>4508900</v>
       </c>
       <c r="F81" s="3">
-        <v>4311700</v>
+        <v>5815300</v>
       </c>
       <c r="G81" s="3">
-        <v>5681100</v>
+        <v>4462400</v>
       </c>
       <c r="H81" s="3">
-        <v>3779800</v>
+        <v>5879700</v>
       </c>
       <c r="I81" s="3">
-        <v>13219600</v>
+        <v>3911900</v>
       </c>
       <c r="J81" s="3">
+        <v>13681700</v>
+      </c>
+      <c r="K81" s="3">
         <v>5718200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>944300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3041500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1042100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>175700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1227100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-68000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2584200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1064500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>71500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1193800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>649400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1831300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>15500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1957600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>390300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>761300</v>
+        <v>916600</v>
       </c>
       <c r="E83" s="3">
-        <v>746900</v>
+        <v>787900</v>
       </c>
       <c r="F83" s="3">
-        <v>671800</v>
+        <v>773000</v>
       </c>
       <c r="G83" s="3">
-        <v>791900</v>
+        <v>695300</v>
       </c>
       <c r="H83" s="3">
-        <v>684200</v>
+        <v>819600</v>
       </c>
       <c r="I83" s="3">
-        <v>1588200</v>
+        <v>708100</v>
       </c>
       <c r="J83" s="3">
+        <v>1643800</v>
+      </c>
+      <c r="K83" s="3">
         <v>750500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>881700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>810500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>854500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>656300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>784300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>692000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>670400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>566900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>520500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>624700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>726600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>661700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>812200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>747600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>745200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>707400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>598500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3148400</v>
+        <v>1933800</v>
       </c>
       <c r="E89" s="3">
-        <v>3294800</v>
+        <v>3258400</v>
       </c>
       <c r="F89" s="3">
-        <v>2577200</v>
+        <v>3410000</v>
       </c>
       <c r="G89" s="3">
-        <v>1961400</v>
+        <v>2667300</v>
       </c>
       <c r="H89" s="3">
-        <v>8849200</v>
+        <v>2029900</v>
       </c>
       <c r="I89" s="3">
-        <v>14777000</v>
+        <v>9158500</v>
       </c>
       <c r="J89" s="3">
+        <v>15293600</v>
+      </c>
+      <c r="K89" s="3">
         <v>7167300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6815300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4990000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1385300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1380700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2067400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3051200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2047500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1546000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2227400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2857700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3016300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1654300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3075400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1940400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2841900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2379500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2108400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1207700</v>
+        <v>-1818600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1192300</v>
+        <v>-1249900</v>
       </c>
       <c r="F91" s="3">
-        <v>-1115800</v>
+        <v>-1234000</v>
       </c>
       <c r="G91" s="3">
-        <v>-4521400</v>
+        <v>-1154800</v>
       </c>
       <c r="H91" s="3">
+        <v>-4679500</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-606800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-586300</v>
       </c>
-      <c r="J91" s="3">
-        <v>-586300</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1336100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-914000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-892400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-717900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-507300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-431500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-520500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-592700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-674300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-816500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-695500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-731200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-865000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>2329500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-994400</v>
+        <v>-1883400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1044100</v>
+        <v>-1029100</v>
       </c>
       <c r="F94" s="3">
-        <v>-664700</v>
+        <v>-1080600</v>
       </c>
       <c r="G94" s="3">
-        <v>-401600</v>
+        <v>-688000</v>
       </c>
       <c r="H94" s="3">
-        <v>-788000</v>
+        <v>-415700</v>
       </c>
       <c r="I94" s="3">
-        <v>-5412400</v>
+        <v>-815500</v>
       </c>
       <c r="J94" s="3">
+        <v>-5601600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2454800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2050500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1054400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-713100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-843300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-968200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-406600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-414400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-508600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-366500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>2166300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-687700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-404900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-949700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-675900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,88 +7186,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3041900</v>
+        <v>-2700</v>
       </c>
       <c r="E96" s="3">
-        <v>-6500</v>
+        <v>-3148200</v>
       </c>
       <c r="F96" s="3">
-        <v>-3339400</v>
+        <v>-6800</v>
       </c>
       <c r="G96" s="3">
-        <v>-24000</v>
+        <v>-3456100</v>
       </c>
       <c r="H96" s="3">
-        <v>-7524000</v>
+        <v>-24900</v>
       </c>
       <c r="I96" s="3">
-        <v>-6163300</v>
+        <v>-7787000</v>
       </c>
       <c r="J96" s="3">
+        <v>-6378700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4090900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3604700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2100</v>
       </c>
       <c r="O96" s="3">
         <v>-2100</v>
       </c>
       <c r="P96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-74100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-44400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-436800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,244 +7516,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4044300</v>
+        <v>-580100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3605600</v>
+        <v>-4185700</v>
       </c>
       <c r="F100" s="3">
-        <v>-5073900</v>
+        <v>-3731600</v>
       </c>
       <c r="G100" s="3">
-        <v>-574900</v>
+        <v>-5251200</v>
       </c>
       <c r="H100" s="3">
-        <v>-10465700</v>
+        <v>-595000</v>
       </c>
       <c r="I100" s="3">
-        <v>-9394400</v>
+        <v>-10831600</v>
       </c>
       <c r="J100" s="3">
+        <v>-9722800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5138400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-214600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7505800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-181400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4018700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-718600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-939400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1051500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>179900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>90900</v>
+        <v>-110000</v>
       </c>
       <c r="E101" s="3">
-        <v>363700</v>
+        <v>94100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1044000</v>
+        <v>376400</v>
       </c>
       <c r="G101" s="3">
-        <v>203500</v>
+        <v>-1080500</v>
       </c>
       <c r="H101" s="3">
-        <v>680000</v>
+        <v>210600</v>
       </c>
       <c r="I101" s="3">
-        <v>-308900</v>
+        <v>703800</v>
       </c>
       <c r="J101" s="3">
+        <v>-319700</v>
+      </c>
+      <c r="K101" s="3">
         <v>1045800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-597600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>367200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>504300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1095300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-111400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>412800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-45000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-147400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>153200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>453300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-75200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>89000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-96000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>57700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-50600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>8800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1799400</v>
+        <v>-639800</v>
       </c>
       <c r="E102" s="3">
-        <v>-991200</v>
+        <v>-1862300</v>
       </c>
       <c r="F102" s="3">
-        <v>-4205400</v>
+        <v>-1025900</v>
       </c>
       <c r="G102" s="3">
-        <v>1188300</v>
+        <v>-4352400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1724500</v>
+        <v>1229800</v>
       </c>
       <c r="I102" s="3">
-        <v>-338800</v>
+        <v>-1784800</v>
       </c>
       <c r="J102" s="3">
+        <v>-350600</v>
+      </c>
+      <c r="K102" s="3">
         <v>619800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3952500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3202900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>994900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5651400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2338800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>648600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-542600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-358900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1568300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>822900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-161900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-604200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1832900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-877500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,372 +665,385 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12147400</v>
+        <v>8829600</v>
       </c>
       <c r="E8" s="3">
-        <v>10084300</v>
+        <v>12634800</v>
       </c>
       <c r="F8" s="3">
-        <v>10644600</v>
+        <v>10488900</v>
       </c>
       <c r="G8" s="3">
-        <v>10982500</v>
+        <v>11071800</v>
       </c>
       <c r="H8" s="3">
-        <v>13576400</v>
+        <v>11423200</v>
       </c>
       <c r="I8" s="3">
-        <v>12473300</v>
+        <v>14121200</v>
       </c>
       <c r="J8" s="3">
+        <v>12973800</v>
+      </c>
+      <c r="K8" s="3">
         <v>30164500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12870300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14972500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11278900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7967900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5578900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7576200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7627900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6375400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5792000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6682000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7005700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7293600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6522800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7647100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7332500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5989800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6634200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7604100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7280700</v>
+        <v>5180800</v>
       </c>
       <c r="E9" s="3">
-        <v>6398100</v>
+        <v>7572800</v>
       </c>
       <c r="F9" s="3">
-        <v>5688300</v>
+        <v>6654900</v>
       </c>
       <c r="G9" s="3">
-        <v>4680800</v>
+        <v>5916500</v>
       </c>
       <c r="H9" s="3">
-        <v>5956400</v>
+        <v>4868600</v>
       </c>
       <c r="I9" s="3">
-        <v>5543900</v>
+        <v>6195400</v>
       </c>
       <c r="J9" s="3">
+        <v>5766400</v>
+      </c>
+      <c r="K9" s="3">
         <v>10135500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4412900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4535000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5043500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4466800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3430200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4280600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4244500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3591400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3321500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3914200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4223700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4544900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3962900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4828000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4383800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4220500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3560000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4062900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4866700</v>
+        <v>3648800</v>
       </c>
       <c r="E10" s="3">
-        <v>3686100</v>
+        <v>5062000</v>
       </c>
       <c r="F10" s="3">
-        <v>4956300</v>
+        <v>3834100</v>
       </c>
       <c r="G10" s="3">
-        <v>6301700</v>
+        <v>5155200</v>
       </c>
       <c r="H10" s="3">
-        <v>7620100</v>
+        <v>6554600</v>
       </c>
       <c r="I10" s="3">
-        <v>6929300</v>
+        <v>7925800</v>
       </c>
       <c r="J10" s="3">
+        <v>7207400</v>
+      </c>
+      <c r="K10" s="3">
         <v>20029000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8457400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>10437500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6235400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3501100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2148700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3295500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3383400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2784100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2470400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2767800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2781900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2748700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2559900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2819100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2948600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1769200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>3074200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3541300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,174 +1243,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>565000</v>
+        <v>120400</v>
       </c>
       <c r="E14" s="3">
-        <v>384400</v>
+        <v>587700</v>
       </c>
       <c r="F14" s="3">
-        <v>334200</v>
+        <v>399800</v>
       </c>
       <c r="G14" s="3">
-        <v>-870600</v>
+        <v>347600</v>
       </c>
       <c r="H14" s="3">
-        <v>-272200</v>
+        <v>-905500</v>
       </c>
       <c r="I14" s="3">
-        <v>229100</v>
+        <v>-283200</v>
       </c>
       <c r="J14" s="3">
+        <v>238300</v>
+      </c>
+      <c r="K14" s="3">
         <v>474400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>241500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5472700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>432900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>582000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>150600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4454700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>191800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1048500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3240200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>196900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>130900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2500</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>402500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>136300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>186000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>127800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>2084300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>8700</v>
+        <v>12100</v>
       </c>
       <c r="E15" s="3">
-        <v>9300</v>
+        <v>9100</v>
       </c>
       <c r="F15" s="3">
-        <v>11200</v>
+        <v>9700</v>
       </c>
       <c r="G15" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="H15" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="I15" s="3">
-        <v>11800</v>
+        <v>13100</v>
       </c>
       <c r="J15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K15" s="3">
         <v>19600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>14000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>12400</v>
-      </c>
-      <c r="V15" s="3">
-        <v>13300</v>
       </c>
       <c r="W15" s="3">
         <v>13300</v>
       </c>
       <c r="X15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="Y15" s="3">
         <v>18200</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
         <v>18500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>22300</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>102600</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8522600</v>
+        <v>5874800</v>
       </c>
       <c r="E17" s="3">
-        <v>7132900</v>
+        <v>8864600</v>
       </c>
       <c r="F17" s="3">
-        <v>6608400</v>
+        <v>7419200</v>
       </c>
       <c r="G17" s="3">
-        <v>4105000</v>
+        <v>6873600</v>
       </c>
       <c r="H17" s="3">
-        <v>7490000</v>
+        <v>4269700</v>
       </c>
       <c r="I17" s="3">
-        <v>6087500</v>
+        <v>7790500</v>
       </c>
       <c r="J17" s="3">
+        <v>6331800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11974900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5023200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11155700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6076200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6328100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4146900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9518900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4836000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5618400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6989800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4666600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4597100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5190500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4285100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5681300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4816100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4773800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3636500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5701000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3624800</v>
+        <v>2954700</v>
       </c>
       <c r="E18" s="3">
-        <v>2951300</v>
+        <v>3770200</v>
       </c>
       <c r="F18" s="3">
-        <v>4036200</v>
+        <v>3069700</v>
       </c>
       <c r="G18" s="3">
-        <v>6877500</v>
+        <v>4198200</v>
       </c>
       <c r="H18" s="3">
-        <v>6086400</v>
+        <v>7153500</v>
       </c>
       <c r="I18" s="3">
-        <v>6385700</v>
+        <v>6330700</v>
       </c>
       <c r="J18" s="3">
+        <v>6642000</v>
+      </c>
+      <c r="K18" s="3">
         <v>18189600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7847100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3816900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5202600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1639800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1432000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2791900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>757000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2015400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2408500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2103100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2237700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1965800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2516400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1215900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2997700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1903100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,423 +1650,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-504800</v>
+        <v>-359300</v>
       </c>
       <c r="E20" s="3">
-        <v>2504800</v>
+        <v>-525000</v>
       </c>
       <c r="F20" s="3">
-        <v>932700</v>
+        <v>2605300</v>
       </c>
       <c r="G20" s="3">
-        <v>-101700</v>
+        <v>970100</v>
       </c>
       <c r="H20" s="3">
-        <v>3638100</v>
+        <v>-105700</v>
       </c>
       <c r="I20" s="3">
-        <v>-193600</v>
+        <v>3784100</v>
       </c>
       <c r="J20" s="3">
+        <v>-201400</v>
+      </c>
+      <c r="K20" s="3">
         <v>728600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-585200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1215100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-301200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-491600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-678000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-321500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-333600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>148100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-755700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-210700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-855000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>440700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-741700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-143800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-221800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4036600</v>
+        <v>3282000</v>
       </c>
       <c r="E21" s="3">
-        <v>6244000</v>
+        <v>4198600</v>
       </c>
       <c r="F21" s="3">
-        <v>5741900</v>
+        <v>6494500</v>
       </c>
       <c r="G21" s="3">
-        <v>7471200</v>
+        <v>5972300</v>
       </c>
       <c r="H21" s="3">
-        <v>10544200</v>
+        <v>7771000</v>
       </c>
       <c r="I21" s="3">
-        <v>6900200</v>
+        <v>10967300</v>
       </c>
       <c r="J21" s="3">
+        <v>7177100</v>
+      </c>
+      <c r="K21" s="3">
         <v>20562000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8580400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4097300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4798000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2193200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>375800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2805900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1106000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-964600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2684000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2277600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>487300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2688700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1923000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>3704700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1219400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3561300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2509400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>161300</v>
+        <v>199400</v>
       </c>
       <c r="E22" s="3">
-        <v>148900</v>
+        <v>167800</v>
       </c>
       <c r="F22" s="3">
-        <v>153000</v>
+        <v>154900</v>
       </c>
       <c r="G22" s="3">
-        <v>164800</v>
+        <v>159100</v>
       </c>
       <c r="H22" s="3">
-        <v>140000</v>
+        <v>171400</v>
       </c>
       <c r="I22" s="3">
-        <v>158000</v>
+        <v>145600</v>
       </c>
       <c r="J22" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K22" s="3">
         <v>365800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>138000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>222400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>209100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>159600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>148300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>176500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>180600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>150800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>165600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>161700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>209900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>209200</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>213800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>247700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>370900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>270200</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>286300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2958700</v>
+        <v>2396100</v>
       </c>
       <c r="E23" s="3">
-        <v>5307200</v>
+        <v>3077400</v>
       </c>
       <c r="F23" s="3">
-        <v>4816000</v>
+        <v>5520200</v>
       </c>
       <c r="G23" s="3">
-        <v>6611100</v>
+        <v>5009200</v>
       </c>
       <c r="H23" s="3">
-        <v>9584500</v>
+        <v>6876400</v>
       </c>
       <c r="I23" s="3">
-        <v>6034100</v>
+        <v>9969200</v>
       </c>
       <c r="J23" s="3">
+        <v>6276200</v>
+      </c>
+      <c r="K23" s="3">
         <v>18552500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7812500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3093700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3765100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1129500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-440100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1937400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>254900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1997900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1491200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-449200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1817800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>897000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2709500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>103300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2583700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1395100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-848300</v>
+        <v>435600</v>
       </c>
       <c r="E24" s="3">
-        <v>809600</v>
+        <v>-882300</v>
       </c>
       <c r="F24" s="3">
-        <v>851800</v>
+        <v>842100</v>
       </c>
       <c r="G24" s="3">
-        <v>2127200</v>
+        <v>886000</v>
       </c>
       <c r="H24" s="3">
-        <v>1213500</v>
+        <v>2212600</v>
       </c>
       <c r="I24" s="3">
-        <v>468800</v>
+        <v>1262200</v>
       </c>
       <c r="J24" s="3">
+        <v>487600</v>
+      </c>
+      <c r="K24" s="3">
         <v>4060000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1861500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>512100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>829300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>168500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-553800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>725400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>329100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-457400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-617700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>453600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-535800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>546300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-132000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>784800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-39800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>549700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>38400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3807000</v>
+        <v>1960400</v>
       </c>
       <c r="E26" s="3">
-        <v>4497600</v>
+        <v>3959700</v>
       </c>
       <c r="F26" s="3">
-        <v>3964200</v>
+        <v>4678100</v>
       </c>
       <c r="G26" s="3">
-        <v>4483900</v>
+        <v>4123300</v>
       </c>
       <c r="H26" s="3">
-        <v>8371000</v>
+        <v>4663800</v>
       </c>
       <c r="I26" s="3">
-        <v>5565300</v>
+        <v>8706900</v>
       </c>
       <c r="J26" s="3">
+        <v>5788600</v>
+      </c>
+      <c r="K26" s="3">
         <v>14492400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5951000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2581600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2935800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>961100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>113700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1212000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-74200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2615600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1037600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>86500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1271500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1029000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1924700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>143100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>2034000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1356700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3787200</v>
+        <v>1917500</v>
       </c>
       <c r="E27" s="3">
-        <v>4508900</v>
+        <v>3939200</v>
       </c>
       <c r="F27" s="3">
-        <v>3915400</v>
+        <v>4689800</v>
       </c>
       <c r="G27" s="3">
-        <v>4461200</v>
+        <v>4072500</v>
       </c>
       <c r="H27" s="3">
-        <v>8297000</v>
+        <v>4640300</v>
       </c>
       <c r="I27" s="3">
-        <v>5535300</v>
+        <v>8630000</v>
       </c>
       <c r="J27" s="3">
+        <v>5757400</v>
+      </c>
+      <c r="K27" s="3">
         <v>14466500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5937300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2681100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3041500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1042100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>175700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1227100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-68000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2584300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1064500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>80600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1257000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1066000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1917800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>115000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>2021400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1383900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2376,28 +2437,28 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>1899900</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>1976100</v>
+      </c>
+      <c r="H29" s="3">
         <v>1200</v>
       </c>
-      <c r="H29" s="3">
-        <v>-2417300</v>
-      </c>
       <c r="I29" s="3">
-        <v>-1623400</v>
+        <v>-2514300</v>
       </c>
       <c r="J29" s="3">
+        <v>-1688500</v>
+      </c>
+      <c r="K29" s="3">
         <v>-784800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-219100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-1736800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2405,8 +2466,8 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2418,37 +2479,40 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-9100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-63300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-416600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-86500</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-99500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-63800</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-993600</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>504800</v>
+        <v>359300</v>
       </c>
       <c r="E32" s="3">
-        <v>-2504800</v>
+        <v>525000</v>
       </c>
       <c r="F32" s="3">
-        <v>-932700</v>
+        <v>-2605300</v>
       </c>
       <c r="G32" s="3">
-        <v>101700</v>
+        <v>-970100</v>
       </c>
       <c r="H32" s="3">
-        <v>-3638100</v>
+        <v>105700</v>
       </c>
       <c r="I32" s="3">
-        <v>193600</v>
+        <v>-3784100</v>
       </c>
       <c r="J32" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-728600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>585200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1215100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>301200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1712500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>491600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>678000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>321500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>333600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-148100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>755700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2342400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>210700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>855000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-440700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>741700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>143800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>221800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3787200</v>
+        <v>1917500</v>
       </c>
       <c r="E33" s="3">
-        <v>4508900</v>
+        <v>3939200</v>
       </c>
       <c r="F33" s="3">
-        <v>5815300</v>
+        <v>4689800</v>
       </c>
       <c r="G33" s="3">
-        <v>4462400</v>
+        <v>6048600</v>
       </c>
       <c r="H33" s="3">
-        <v>5879700</v>
+        <v>4641500</v>
       </c>
       <c r="I33" s="3">
-        <v>3911900</v>
+        <v>6115700</v>
       </c>
       <c r="J33" s="3">
+        <v>4068900</v>
+      </c>
+      <c r="K33" s="3">
         <v>13681700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5718200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>944300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3041500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1042100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>175700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1227100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-68000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2584200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1064500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>71500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1193800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>649400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1831300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>15500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1957600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>390300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3787200</v>
+        <v>1917500</v>
       </c>
       <c r="E35" s="3">
-        <v>4508900</v>
+        <v>3939200</v>
       </c>
       <c r="F35" s="3">
-        <v>5815300</v>
+        <v>4689800</v>
       </c>
       <c r="G35" s="3">
-        <v>4462400</v>
+        <v>6048600</v>
       </c>
       <c r="H35" s="3">
-        <v>5879700</v>
+        <v>4641500</v>
       </c>
       <c r="I35" s="3">
-        <v>3911900</v>
+        <v>6115700</v>
       </c>
       <c r="J35" s="3">
+        <v>4068900</v>
+      </c>
+      <c r="K35" s="3">
         <v>13681700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5718200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>944300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3041500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1042100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>175700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1227100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-68000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2584200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1064500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>71500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1193800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>649400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1831300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>15500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1957600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>390300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,135 +3181,139 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4784800</v>
+        <v>4813700</v>
       </c>
       <c r="E41" s="3">
-        <v>5424500</v>
+        <v>4976800</v>
       </c>
       <c r="F41" s="3">
-        <v>7286900</v>
+        <v>5642200</v>
       </c>
       <c r="G41" s="3">
-        <v>8312700</v>
+        <v>7579300</v>
       </c>
       <c r="H41" s="3">
-        <v>12665100</v>
+        <v>8646300</v>
       </c>
       <c r="I41" s="3">
-        <v>11435200</v>
+        <v>13173400</v>
       </c>
       <c r="J41" s="3">
+        <v>11894100</v>
+      </c>
+      <c r="K41" s="3">
         <v>13220000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13732100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13715700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9717500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13071600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10940500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5472100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6686200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4103800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3651500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3998400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4519200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5734600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4166300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3670700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3832600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4851300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5278900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3446000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62000</v>
+        <v>54600</v>
       </c>
       <c r="E42" s="3">
-        <v>43600</v>
+        <v>64400</v>
       </c>
       <c r="F42" s="3">
-        <v>49000</v>
+        <v>45300</v>
       </c>
       <c r="G42" s="3">
-        <v>39500</v>
+        <v>51000</v>
       </c>
       <c r="H42" s="3">
-        <v>199100</v>
+        <v>41100</v>
       </c>
       <c r="I42" s="3">
-        <v>548700</v>
+        <v>207000</v>
       </c>
       <c r="J42" s="3">
+        <v>570700</v>
+      </c>
+      <c r="K42" s="3">
         <v>921500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1523100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>783900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>137800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>99900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>444100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>614800</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -3237,8 +3327,8 @@
       <c r="U42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3252,598 +3342,622 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>8</v>
+      <c r="AA42" s="3">
+        <v>0</v>
       </c>
       <c r="AB42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5649300</v>
+        <v>4126300</v>
       </c>
       <c r="E43" s="3">
-        <v>3149000</v>
+        <v>5876000</v>
       </c>
       <c r="F43" s="3">
-        <v>2932500</v>
+        <v>3275400</v>
       </c>
       <c r="G43" s="3">
-        <v>3628600</v>
+        <v>3050200</v>
       </c>
       <c r="H43" s="3">
-        <v>5160000</v>
+        <v>3774200</v>
       </c>
       <c r="I43" s="3">
-        <v>1787400</v>
+        <v>5367100</v>
       </c>
       <c r="J43" s="3">
+        <v>1859100</v>
+      </c>
+      <c r="K43" s="3">
         <v>5445700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4401500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5847600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4169800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3709800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2728400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2807800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2956900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3056800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3287800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3067600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3244000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3929800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3695900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5471000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5103900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4454100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5326500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4461500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4528200</v>
+        <v>5107900</v>
       </c>
       <c r="E44" s="3">
-        <v>5514600</v>
+        <v>4709900</v>
       </c>
       <c r="F44" s="3">
-        <v>5227400</v>
+        <v>5735900</v>
       </c>
       <c r="G44" s="3">
-        <v>4622100</v>
+        <v>5437200</v>
       </c>
       <c r="H44" s="3">
-        <v>4730200</v>
+        <v>4807600</v>
       </c>
       <c r="I44" s="3">
-        <v>5355600</v>
+        <v>4920000</v>
       </c>
       <c r="J44" s="3">
+        <v>5570500</v>
+      </c>
+      <c r="K44" s="3">
         <v>4552800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4556100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4129800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4756100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4378900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>3795800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3182100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3616000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3205900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3579800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3071300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3004600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3600300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3078800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3329700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3316000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3277300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2862100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2707400</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>661400</v>
+        <v>742400</v>
       </c>
       <c r="E45" s="3">
-        <v>442800</v>
+        <v>688000</v>
       </c>
       <c r="F45" s="3">
-        <v>754400</v>
+        <v>460600</v>
       </c>
       <c r="G45" s="3">
-        <v>1253400</v>
+        <v>784700</v>
       </c>
       <c r="H45" s="3">
-        <v>1410600</v>
+        <v>1303700</v>
       </c>
       <c r="I45" s="3">
-        <v>1927600</v>
+        <v>1467200</v>
       </c>
       <c r="J45" s="3">
+        <v>2005000</v>
+      </c>
+      <c r="K45" s="3">
         <v>464200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>487600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>338800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>493800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>651900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>600500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>611600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1181900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>432900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>473400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>433900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>442300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>662200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>886800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>3603900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3900800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>4262900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4157200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>7630700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15685800</v>
+        <v>14844800</v>
       </c>
       <c r="E46" s="3">
-        <v>14574500</v>
+        <v>16315200</v>
       </c>
       <c r="F46" s="3">
-        <v>16250200</v>
+        <v>15159400</v>
       </c>
       <c r="G46" s="3">
-        <v>17856400</v>
+        <v>16902300</v>
       </c>
       <c r="H46" s="3">
-        <v>24165000</v>
+        <v>18572900</v>
       </c>
       <c r="I46" s="3">
-        <v>21054600</v>
+        <v>25134700</v>
       </c>
       <c r="J46" s="3">
+        <v>21899500</v>
+      </c>
+      <c r="K46" s="3">
         <v>24604200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24700400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24815800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19274900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21912100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>18509400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12688400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14441000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10799300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10992400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10571300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11210200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13927000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11827800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16075200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16153400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16845500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17624700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>18245600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1816400</v>
+        <v>1816200</v>
       </c>
       <c r="E47" s="3">
-        <v>1879400</v>
+        <v>1889300</v>
       </c>
       <c r="F47" s="3">
-        <v>1815900</v>
+        <v>1954800</v>
       </c>
       <c r="G47" s="3">
-        <v>1767800</v>
+        <v>1888700</v>
       </c>
       <c r="H47" s="3">
-        <v>1892000</v>
+        <v>1838800</v>
       </c>
       <c r="I47" s="3">
-        <v>3662000</v>
+        <v>1967900</v>
       </c>
       <c r="J47" s="3">
+        <v>3809000</v>
+      </c>
+      <c r="K47" s="3">
         <v>3579700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3027300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3064700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5915300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5670400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3566600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3338800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3661200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3267100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3663100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3448900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3634400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4463000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4230800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5382600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5425000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5465700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5299900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>3135400</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>45400800</v>
+        <v>47098600</v>
       </c>
       <c r="E48" s="3">
-        <v>44173800</v>
+        <v>47222700</v>
       </c>
       <c r="F48" s="3">
-        <v>43781100</v>
+        <v>45946400</v>
       </c>
       <c r="G48" s="3">
-        <v>42482400</v>
+        <v>45537900</v>
       </c>
       <c r="H48" s="3">
-        <v>45308500</v>
+        <v>44187200</v>
       </c>
       <c r="I48" s="3">
-        <v>43274700</v>
+        <v>47126600</v>
       </c>
       <c r="J48" s="3">
+        <v>45011200</v>
+      </c>
+      <c r="K48" s="3">
         <v>42505300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41636300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41847700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41737500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41234400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>36354000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>34674300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>38174800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34360800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>36388200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33446700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>35140300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>43858900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>42028700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>46541900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>45711500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>46359000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>44231600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>44807200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10343900</v>
+        <v>10689900</v>
       </c>
       <c r="E49" s="3">
-        <v>9782200</v>
+        <v>10759000</v>
       </c>
       <c r="F49" s="3">
-        <v>9582200</v>
+        <v>10174700</v>
       </c>
       <c r="G49" s="3">
-        <v>9418400</v>
+        <v>9966700</v>
       </c>
       <c r="H49" s="3">
-        <v>9737100</v>
+        <v>9796300</v>
       </c>
       <c r="I49" s="3">
-        <v>9387700</v>
+        <v>10127800</v>
       </c>
       <c r="J49" s="3">
+        <v>9764500</v>
+      </c>
+      <c r="K49" s="3">
         <v>10651500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9231500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9454000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7266700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7236900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6400400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6327300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6490100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5864100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6227400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5503700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5771100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7193600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6669200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7202800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7026100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6116100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5742700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5555600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,91 +4125,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14542400</v>
+        <v>15127800</v>
       </c>
       <c r="E52" s="3">
-        <v>13980500</v>
+        <v>15125900</v>
       </c>
       <c r="F52" s="3">
-        <v>14129400</v>
+        <v>14541500</v>
       </c>
       <c r="G52" s="3">
-        <v>13927000</v>
+        <v>14696400</v>
       </c>
       <c r="H52" s="3">
-        <v>15543600</v>
+        <v>14485900</v>
       </c>
       <c r="I52" s="3">
-        <v>14125500</v>
+        <v>16167400</v>
       </c>
       <c r="J52" s="3">
+        <v>14692400</v>
+      </c>
+      <c r="K52" s="3">
         <v>12335400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14120500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14387800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13678600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13668200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13666100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>11249300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10580700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10670200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>11382200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>7991400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7575700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9872000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8500200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8915000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8603700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8591300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8068500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8310700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>87789300</v>
+        <v>89577300</v>
       </c>
       <c r="E54" s="3">
-        <v>84390300</v>
+        <v>91312100</v>
       </c>
       <c r="F54" s="3">
-        <v>85558700</v>
+        <v>87776800</v>
       </c>
       <c r="G54" s="3">
-        <v>85452000</v>
+        <v>88992000</v>
       </c>
       <c r="H54" s="3">
-        <v>96646200</v>
+        <v>88881000</v>
       </c>
       <c r="I54" s="3">
-        <v>91504600</v>
+        <v>100524400</v>
       </c>
       <c r="J54" s="3">
+        <v>95176500</v>
+      </c>
+      <c r="K54" s="3">
         <v>93676100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>92716000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93569900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>87873000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>89722100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>78496500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>68278100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73347700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>64961600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>68653400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60961900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>63331800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>79314400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>73256700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>84117400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>82919700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>83377600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>80967300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>80054500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,506 +4449,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4911200</v>
+        <v>4943600</v>
       </c>
       <c r="E57" s="3">
-        <v>5099100</v>
+        <v>5108300</v>
       </c>
       <c r="F57" s="3">
-        <v>3889600</v>
+        <v>5303700</v>
       </c>
       <c r="G57" s="3">
-        <v>3509900</v>
+        <v>4045700</v>
       </c>
       <c r="H57" s="3">
-        <v>4179500</v>
+        <v>3650800</v>
       </c>
       <c r="I57" s="3">
-        <v>4454000</v>
+        <v>4347200</v>
       </c>
       <c r="J57" s="3">
+        <v>4632800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3840500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4093700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4159700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4225600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3969100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3586900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3787600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3911300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3192200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3232300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3211600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3364900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3721200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3451600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3656100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3671200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3613400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3632600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3477900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>494100</v>
+        <v>555900</v>
       </c>
       <c r="E58" s="3">
-        <v>467000</v>
+        <v>514000</v>
       </c>
       <c r="F58" s="3">
-        <v>948600</v>
+        <v>485800</v>
       </c>
       <c r="G58" s="3">
-        <v>1012300</v>
+        <v>986700</v>
       </c>
       <c r="H58" s="3">
-        <v>1301200</v>
+        <v>1052900</v>
       </c>
       <c r="I58" s="3">
-        <v>1417000</v>
+        <v>1353400</v>
       </c>
       <c r="J58" s="3">
+        <v>1473800</v>
+      </c>
+      <c r="K58" s="3">
         <v>960900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1053900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1154900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1124800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1303300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1081900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1072100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1224700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1035000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2139900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>693700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1017200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1641000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1525900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1444300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1493200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1749300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1891800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1342000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8628500</v>
+        <v>7778500</v>
       </c>
       <c r="E59" s="3">
-        <v>8037000</v>
+        <v>8974800</v>
       </c>
       <c r="F59" s="3">
-        <v>7451100</v>
+        <v>8359500</v>
       </c>
       <c r="G59" s="3">
-        <v>8933500</v>
+        <v>7750100</v>
       </c>
       <c r="H59" s="3">
-        <v>10941800</v>
+        <v>9292000</v>
       </c>
       <c r="I59" s="3">
-        <v>11060400</v>
+        <v>11380900</v>
       </c>
       <c r="J59" s="3">
+        <v>11504200</v>
+      </c>
+      <c r="K59" s="3">
         <v>9081500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7458300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9526800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6386900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6762700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6075600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5447600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5355300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4480400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3717300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2430900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2411800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2909200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2776400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6015600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3540800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3612600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3770200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>4262100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14033900</v>
+        <v>13277900</v>
       </c>
       <c r="E60" s="3">
-        <v>13603100</v>
+        <v>14597100</v>
       </c>
       <c r="F60" s="3">
-        <v>12289300</v>
+        <v>14149000</v>
       </c>
       <c r="G60" s="3">
-        <v>13455700</v>
+        <v>12782500</v>
       </c>
       <c r="H60" s="3">
-        <v>16422500</v>
+        <v>13995700</v>
       </c>
       <c r="I60" s="3">
-        <v>16931400</v>
+        <v>17081500</v>
       </c>
       <c r="J60" s="3">
+        <v>17610900</v>
+      </c>
+      <c r="K60" s="3">
         <v>13882900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12606000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14841400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11737400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12035100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10744500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10307300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10491300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>8707600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9089500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6336200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6794000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8271400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7754000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11116000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8705200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8975400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>9294600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9082100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12349300</v>
+        <v>12729300</v>
       </c>
       <c r="E61" s="3">
-        <v>12308100</v>
+        <v>12844900</v>
       </c>
       <c r="F61" s="3">
-        <v>11839100</v>
+        <v>12802000</v>
       </c>
       <c r="G61" s="3">
-        <v>11845300</v>
+        <v>12314200</v>
       </c>
       <c r="H61" s="3">
-        <v>13590700</v>
+        <v>12320600</v>
       </c>
       <c r="I61" s="3">
-        <v>12891400</v>
+        <v>14136100</v>
       </c>
       <c r="J61" s="3">
+        <v>13408700</v>
+      </c>
+      <c r="K61" s="3">
         <v>12466000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13664000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14127100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15428000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>18719600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16336900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9980800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11740200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>10927700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11567200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>9997400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11436400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>14481900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14211900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>17628400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>19453700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>21873800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>21350800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>22365300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23668800</v>
+        <v>23798200</v>
       </c>
       <c r="E62" s="3">
-        <v>22176300</v>
+        <v>24618500</v>
       </c>
       <c r="F62" s="3">
-        <v>23921100</v>
+        <v>23066100</v>
       </c>
       <c r="G62" s="3">
-        <v>24840400</v>
+        <v>24881000</v>
       </c>
       <c r="H62" s="3">
-        <v>28476600</v>
+        <v>25837200</v>
       </c>
       <c r="I62" s="3">
-        <v>25769600</v>
+        <v>29619300</v>
       </c>
       <c r="J62" s="3">
+        <v>26803700</v>
+      </c>
+      <c r="K62" s="3">
         <v>26291800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28672100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>29182500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24213200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23422600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20549700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18964500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>17782200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15935900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>16510200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>13643400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14258200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>17951400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>15742900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17401700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17013600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>16990600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16074300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>15438300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51558800</v>
+        <v>51376100</v>
       </c>
       <c r="E66" s="3">
-        <v>49626400</v>
+        <v>53627800</v>
       </c>
       <c r="F66" s="3">
-        <v>49553000</v>
+        <v>51617800</v>
       </c>
       <c r="G66" s="3">
-        <v>50925100</v>
+        <v>51541500</v>
       </c>
       <c r="H66" s="3">
-        <v>59391200</v>
+        <v>52968600</v>
       </c>
       <c r="I66" s="3">
-        <v>56400200</v>
+        <v>61774400</v>
       </c>
       <c r="J66" s="3">
+        <v>58663400</v>
+      </c>
+      <c r="K66" s="3">
         <v>53316500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53897300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57211800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>49961000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>52879900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46567500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>38452700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>40540500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36074500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37759800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30562100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>33124200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>41550700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>38565900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>47260900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>46370100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>49052200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>47925500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>48488600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20728700</v>
+        <v>18686500</v>
       </c>
       <c r="E72" s="3">
-        <v>18322200</v>
+        <v>21560500</v>
       </c>
       <c r="F72" s="3">
-        <v>20718000</v>
+        <v>19057500</v>
       </c>
       <c r="G72" s="3">
-        <v>14892900</v>
+        <v>21549400</v>
       </c>
       <c r="H72" s="3">
-        <v>16725400</v>
+        <v>15490500</v>
       </c>
       <c r="I72" s="3">
-        <v>10272000</v>
+        <v>17396500</v>
       </c>
       <c r="J72" s="3">
+        <v>10684200</v>
+      </c>
+      <c r="K72" s="3">
         <v>15577300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10565000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7396700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7901300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7350400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5702100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5717700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8104800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6492300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6933100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7755300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5363300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7222100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7146900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6553000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7109800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4470600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4822700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2946700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36230500</v>
+        <v>38201100</v>
       </c>
       <c r="E76" s="3">
-        <v>34763900</v>
+        <v>37684400</v>
       </c>
       <c r="F76" s="3">
-        <v>36005700</v>
+        <v>36159000</v>
       </c>
       <c r="G76" s="3">
-        <v>34526900</v>
+        <v>37450500</v>
       </c>
       <c r="H76" s="3">
-        <v>37255000</v>
+        <v>35912400</v>
       </c>
       <c r="I76" s="3">
-        <v>35104400</v>
+        <v>38750000</v>
       </c>
       <c r="J76" s="3">
+        <v>36513100</v>
+      </c>
+      <c r="K76" s="3">
         <v>40359600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>38818700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36358100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37911900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36842200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31929000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29825400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32807200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28887100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30893600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30399800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30207600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>37763700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>34690800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>36856600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36549600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>34325300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>33041800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31565800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3787200</v>
+        <v>1917500</v>
       </c>
       <c r="E81" s="3">
-        <v>4508900</v>
+        <v>3939200</v>
       </c>
       <c r="F81" s="3">
-        <v>5815300</v>
+        <v>4689800</v>
       </c>
       <c r="G81" s="3">
-        <v>4462400</v>
+        <v>6048600</v>
       </c>
       <c r="H81" s="3">
-        <v>5879700</v>
+        <v>4641500</v>
       </c>
       <c r="I81" s="3">
-        <v>3911900</v>
+        <v>6115700</v>
       </c>
       <c r="J81" s="3">
+        <v>4068900</v>
+      </c>
+      <c r="K81" s="3">
         <v>13681700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5718200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>944300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3041500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1042100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>175700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1227100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-68000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2584200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1064500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>71500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1193800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>649400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1831300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>15500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1957600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>390300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>916600</v>
+        <v>686600</v>
       </c>
       <c r="E83" s="3">
-        <v>787900</v>
+        <v>953400</v>
       </c>
       <c r="F83" s="3">
-        <v>773000</v>
+        <v>819500</v>
       </c>
       <c r="G83" s="3">
-        <v>695300</v>
+        <v>804000</v>
       </c>
       <c r="H83" s="3">
-        <v>819600</v>
+        <v>723200</v>
       </c>
       <c r="I83" s="3">
-        <v>708100</v>
+        <v>852500</v>
       </c>
       <c r="J83" s="3">
+        <v>736500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1643800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>750500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>881700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>810500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>854500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>656300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>784300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>692000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>670400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>566900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>520500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>624700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>726600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>661700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>812200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>747600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>745200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>707400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>598500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1933800</v>
+        <v>3821400</v>
       </c>
       <c r="E89" s="3">
-        <v>3258400</v>
+        <v>2011400</v>
       </c>
       <c r="F89" s="3">
-        <v>3410000</v>
+        <v>3389200</v>
       </c>
       <c r="G89" s="3">
-        <v>2667300</v>
+        <v>3546900</v>
       </c>
       <c r="H89" s="3">
-        <v>2029900</v>
+        <v>2774300</v>
       </c>
       <c r="I89" s="3">
-        <v>9158500</v>
+        <v>2111400</v>
       </c>
       <c r="J89" s="3">
+        <v>9526000</v>
+      </c>
+      <c r="K89" s="3">
         <v>15293600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7167300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6815300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4990000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1385300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1380700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2067400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3051200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2047500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1546000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2227400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2857700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3016300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1654300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3075400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1940400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2841900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2379500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2108400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1818600</v>
+        <v>-5872000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1249900</v>
+        <v>-9392000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1234000</v>
+        <v>-6455000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1154800</v>
+        <v>-6373000</v>
       </c>
       <c r="H91" s="3">
-        <v>-4679500</v>
+        <v>-5964000</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-6067900</v>
       </c>
       <c r="J91" s="3">
+        <v>-6526200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-606800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-586300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1336100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-914000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-892400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-717900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-507300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-431500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-520500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-592700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-674300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-816500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-695500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-731200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-865000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>2329500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1883400</v>
+        <v>-1388500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1029100</v>
+        <v>-1959000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1080600</v>
+        <v>-1070400</v>
       </c>
       <c r="G94" s="3">
-        <v>-688000</v>
+        <v>-1124000</v>
       </c>
       <c r="H94" s="3">
-        <v>-415700</v>
+        <v>-715600</v>
       </c>
       <c r="I94" s="3">
-        <v>-815500</v>
+        <v>-432400</v>
       </c>
       <c r="J94" s="3">
+        <v>-848200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5601600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2454800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2050500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1054400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-713100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-843300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-968200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-406600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-414400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-508600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-366500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>2166300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-687700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-404900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-949700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-675900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,91 +7420,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2700</v>
+        <v>-1903000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3148200</v>
+        <v>-2800</v>
       </c>
       <c r="F96" s="3">
-        <v>-6800</v>
+        <v>-3274600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3456100</v>
+        <v>-7000</v>
       </c>
       <c r="H96" s="3">
-        <v>-24900</v>
+        <v>-3594800</v>
       </c>
       <c r="I96" s="3">
-        <v>-7787000</v>
+        <v>-25900</v>
       </c>
       <c r="J96" s="3">
+        <v>-8099500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-6378700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4090900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3604700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2100</v>
       </c>
       <c r="P96" s="3">
         <v>-2100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-74100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-44400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-4700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-436800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,253 +7762,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-580100</v>
+        <v>-2506200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4185700</v>
+        <v>-603400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3731600</v>
+        <v>-4353700</v>
       </c>
       <c r="G100" s="3">
-        <v>-5251200</v>
+        <v>-3881400</v>
       </c>
       <c r="H100" s="3">
-        <v>-595000</v>
+        <v>-5462000</v>
       </c>
       <c r="I100" s="3">
-        <v>-10831600</v>
+        <v>-618900</v>
       </c>
       <c r="J100" s="3">
+        <v>-11266200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9722800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5138400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-214600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7505800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-181400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4018700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-718600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-939400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1051500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>179900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-110000</v>
+        <v>-89800</v>
       </c>
       <c r="E101" s="3">
-        <v>94100</v>
+        <v>-114400</v>
       </c>
       <c r="F101" s="3">
-        <v>376400</v>
+        <v>97900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1080500</v>
+        <v>391500</v>
       </c>
       <c r="H101" s="3">
-        <v>210600</v>
+        <v>-1123800</v>
       </c>
       <c r="I101" s="3">
-        <v>703800</v>
+        <v>219000</v>
       </c>
       <c r="J101" s="3">
+        <v>732000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-319700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1045800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-597600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>367200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>504300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1095300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-111400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>412800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-45000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-147400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>153200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>453300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-75200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>89000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-96000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>57700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-50600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>8800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-639800</v>
+        <v>-163100</v>
       </c>
       <c r="E102" s="3">
-        <v>-1862300</v>
+        <v>-665400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1025900</v>
+        <v>-1937100</v>
       </c>
       <c r="G102" s="3">
-        <v>-4352400</v>
+        <v>-1067000</v>
       </c>
       <c r="H102" s="3">
-        <v>1229800</v>
+        <v>-4527100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1784800</v>
+        <v>1279200</v>
       </c>
       <c r="J102" s="3">
+        <v>-1856400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-350600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>619800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3952500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3202900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>994900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5651400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2338800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>648600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-542600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-358900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1568300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>822900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-161900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-604200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1832900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-877500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,385 +665,398 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8829600</v>
+        <v>9639500</v>
       </c>
       <c r="E8" s="3">
-        <v>12634800</v>
+        <v>8848900</v>
       </c>
       <c r="F8" s="3">
-        <v>10488900</v>
+        <v>12662400</v>
       </c>
       <c r="G8" s="3">
-        <v>11071800</v>
+        <v>10511800</v>
       </c>
       <c r="H8" s="3">
-        <v>11423200</v>
+        <v>11096000</v>
       </c>
       <c r="I8" s="3">
-        <v>14121200</v>
+        <v>11448200</v>
       </c>
       <c r="J8" s="3">
+        <v>14152100</v>
+      </c>
+      <c r="K8" s="3">
         <v>12973800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30164500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12870300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14972500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11278900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7967900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5578900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7576200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7627900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6375400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5792000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6682000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7005700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7293600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6522800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7647100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7332500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5989800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6634200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7604100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5180800</v>
+        <v>5925200</v>
       </c>
       <c r="E9" s="3">
-        <v>7572800</v>
+        <v>5192100</v>
       </c>
       <c r="F9" s="3">
-        <v>6654900</v>
+        <v>7589400</v>
       </c>
       <c r="G9" s="3">
-        <v>5916500</v>
+        <v>6669400</v>
       </c>
       <c r="H9" s="3">
-        <v>4868600</v>
+        <v>5929500</v>
       </c>
       <c r="I9" s="3">
-        <v>6195400</v>
+        <v>4879300</v>
       </c>
       <c r="J9" s="3">
+        <v>6208900</v>
+      </c>
+      <c r="K9" s="3">
         <v>5766400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10135500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4412900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4535000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5043500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4466800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3430200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4280600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4244500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3591400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3321500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3914200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4223700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4544900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3962900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4828000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4383800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4220500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>3560000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4062900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3648800</v>
+        <v>3714300</v>
       </c>
       <c r="E10" s="3">
-        <v>5062000</v>
+        <v>3656700</v>
       </c>
       <c r="F10" s="3">
-        <v>3834100</v>
+        <v>5073000</v>
       </c>
       <c r="G10" s="3">
-        <v>5155200</v>
+        <v>3842400</v>
       </c>
       <c r="H10" s="3">
-        <v>6554600</v>
+        <v>5166500</v>
       </c>
       <c r="I10" s="3">
-        <v>7925800</v>
+        <v>6568900</v>
       </c>
       <c r="J10" s="3">
+        <v>7943100</v>
+      </c>
+      <c r="K10" s="3">
         <v>7207400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>20029000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8457400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>10437500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6235400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3501100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2148700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3295500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3383400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2784100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2470400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2767800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2781900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2748700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2559900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2819100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2948600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1769200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>3074200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3541300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,180 +1263,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>120400</v>
+        <v>333200</v>
       </c>
       <c r="E14" s="3">
-        <v>587700</v>
+        <v>120700</v>
       </c>
       <c r="F14" s="3">
-        <v>399800</v>
+        <v>589000</v>
       </c>
       <c r="G14" s="3">
-        <v>347600</v>
+        <v>400700</v>
       </c>
       <c r="H14" s="3">
-        <v>-905500</v>
+        <v>348400</v>
       </c>
       <c r="I14" s="3">
-        <v>-283200</v>
+        <v>-907500</v>
       </c>
       <c r="J14" s="3">
+        <v>-283800</v>
+      </c>
+      <c r="K14" s="3">
         <v>238300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>474400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>241500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5472700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>432900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>582000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>150600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4454700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>191800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1048500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3240200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>196900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>130900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-2500</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>402500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>136300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>186000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>127800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>2084300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E15" s="3">
         <v>12100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>13100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>12300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>19600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>14000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>7800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>12400</v>
-      </c>
-      <c r="W15" s="3">
-        <v>13300</v>
       </c>
       <c r="X15" s="3">
         <v>13300</v>
       </c>
       <c r="Y15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="Z15" s="3">
         <v>18200</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
         <v>18500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>22300</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>102600</v>
       </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5874800</v>
+        <v>6771700</v>
       </c>
       <c r="E17" s="3">
-        <v>8864600</v>
+        <v>5887700</v>
       </c>
       <c r="F17" s="3">
-        <v>7419200</v>
+        <v>8884000</v>
       </c>
       <c r="G17" s="3">
-        <v>6873600</v>
+        <v>7435400</v>
       </c>
       <c r="H17" s="3">
-        <v>4269700</v>
+        <v>6888600</v>
       </c>
       <c r="I17" s="3">
-        <v>7790500</v>
+        <v>4279000</v>
       </c>
       <c r="J17" s="3">
+        <v>7807600</v>
+      </c>
+      <c r="K17" s="3">
         <v>6331800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11974900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5023200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11155700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6076200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6328100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4146900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9518900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4836000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5618400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6989800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4666600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4597100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5190500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4285100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5681300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4816100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4773800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3636500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5701000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2954700</v>
+        <v>2867700</v>
       </c>
       <c r="E18" s="3">
-        <v>3770200</v>
+        <v>2961200</v>
       </c>
       <c r="F18" s="3">
-        <v>3069700</v>
+        <v>3778400</v>
       </c>
       <c r="G18" s="3">
-        <v>4198200</v>
+        <v>3076400</v>
       </c>
       <c r="H18" s="3">
-        <v>7153500</v>
+        <v>4207400</v>
       </c>
       <c r="I18" s="3">
-        <v>6330700</v>
+        <v>7169200</v>
       </c>
       <c r="J18" s="3">
+        <v>6344500</v>
+      </c>
+      <c r="K18" s="3">
         <v>6642000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18189600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7847100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3816900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5202600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1639800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1432000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2791900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>757000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2015400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2408500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2103100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2237700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1965800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2516400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1215900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2997700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1903100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,438 +1684,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-359300</v>
+        <v>50700</v>
       </c>
       <c r="E20" s="3">
-        <v>-525000</v>
+        <v>-360100</v>
       </c>
       <c r="F20" s="3">
-        <v>2605300</v>
+        <v>-526200</v>
       </c>
       <c r="G20" s="3">
-        <v>970100</v>
+        <v>2611000</v>
       </c>
       <c r="H20" s="3">
-        <v>-105700</v>
+        <v>972300</v>
       </c>
       <c r="I20" s="3">
-        <v>3784100</v>
+        <v>-106000</v>
       </c>
       <c r="J20" s="3">
+        <v>3792300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-201400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>728600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-585200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1215100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-301200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-491600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-678000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-321500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-333600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>148100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-755700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-210700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-855000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>440700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-741700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-143800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-221800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3282000</v>
+        <v>3695700</v>
       </c>
       <c r="E21" s="3">
-        <v>4198600</v>
+        <v>3289200</v>
       </c>
       <c r="F21" s="3">
-        <v>6494500</v>
+        <v>4207800</v>
       </c>
       <c r="G21" s="3">
-        <v>5972300</v>
+        <v>6508700</v>
       </c>
       <c r="H21" s="3">
-        <v>7771000</v>
+        <v>5985400</v>
       </c>
       <c r="I21" s="3">
-        <v>10967300</v>
+        <v>7788000</v>
       </c>
       <c r="J21" s="3">
+        <v>10991200</v>
+      </c>
+      <c r="K21" s="3">
         <v>7177100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20562000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8580400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4097300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4798000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2193200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>375800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2805900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1106000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-964600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2684000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2277600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>487300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2688700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1923000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3704700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1219400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>3561300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2509400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199400</v>
+        <v>194800</v>
       </c>
       <c r="E22" s="3">
-        <v>167800</v>
+        <v>199800</v>
       </c>
       <c r="F22" s="3">
-        <v>154900</v>
+        <v>168100</v>
       </c>
       <c r="G22" s="3">
-        <v>159100</v>
+        <v>155200</v>
       </c>
       <c r="H22" s="3">
-        <v>171400</v>
+        <v>159500</v>
       </c>
       <c r="I22" s="3">
-        <v>145600</v>
+        <v>171800</v>
       </c>
       <c r="J22" s="3">
+        <v>145900</v>
+      </c>
+      <c r="K22" s="3">
         <v>164300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>365800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>138000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>222400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>209100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>159600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>148300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>176500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>180600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>150800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>165600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>161700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>209900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>209200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>213800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>247700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>370900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>270200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>286300</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2396100</v>
+        <v>2723600</v>
       </c>
       <c r="E23" s="3">
-        <v>3077400</v>
+        <v>2401300</v>
       </c>
       <c r="F23" s="3">
-        <v>5520200</v>
+        <v>3084100</v>
       </c>
       <c r="G23" s="3">
-        <v>5009200</v>
+        <v>5532200</v>
       </c>
       <c r="H23" s="3">
-        <v>6876400</v>
+        <v>5020200</v>
       </c>
       <c r="I23" s="3">
-        <v>9969200</v>
+        <v>6891400</v>
       </c>
       <c r="J23" s="3">
+        <v>9990900</v>
+      </c>
+      <c r="K23" s="3">
         <v>6276200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18552500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7812500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3093700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3765100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1129500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-440100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1937400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>254900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1997900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1491200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-449200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1817800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>897000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2709500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>103300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2583700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1395100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>435600</v>
+        <v>1764500</v>
       </c>
       <c r="E24" s="3">
-        <v>-882300</v>
+        <v>436600</v>
       </c>
       <c r="F24" s="3">
-        <v>842100</v>
+        <v>-884300</v>
       </c>
       <c r="G24" s="3">
-        <v>886000</v>
+        <v>843900</v>
       </c>
       <c r="H24" s="3">
-        <v>2212600</v>
+        <v>887900</v>
       </c>
       <c r="I24" s="3">
-        <v>1262200</v>
+        <v>2217400</v>
       </c>
       <c r="J24" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="K24" s="3">
         <v>487600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4060000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1861500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>512100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>829300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>168500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-553800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>725400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>329100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-457400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-617700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>453600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-535800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>546300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-132000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>784800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-39800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>549700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>38400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1960400</v>
+        <v>959100</v>
       </c>
       <c r="E26" s="3">
-        <v>3959700</v>
+        <v>1964700</v>
       </c>
       <c r="F26" s="3">
-        <v>4678100</v>
+        <v>3968400</v>
       </c>
       <c r="G26" s="3">
-        <v>4123300</v>
+        <v>4688300</v>
       </c>
       <c r="H26" s="3">
-        <v>4663800</v>
+        <v>4132300</v>
       </c>
       <c r="I26" s="3">
-        <v>8706900</v>
+        <v>4674000</v>
       </c>
       <c r="J26" s="3">
+        <v>8725900</v>
+      </c>
+      <c r="K26" s="3">
         <v>5788600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14492400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5951000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2581600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2935800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>961100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>113700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1212000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-74200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2615600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1037600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>86500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1271500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1029000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1924700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>143100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>2034000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1356700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1917500</v>
+        <v>923000</v>
       </c>
       <c r="E27" s="3">
-        <v>3939200</v>
+        <v>1921700</v>
       </c>
       <c r="F27" s="3">
-        <v>4689800</v>
+        <v>3947800</v>
       </c>
       <c r="G27" s="3">
-        <v>4072500</v>
+        <v>4700000</v>
       </c>
       <c r="H27" s="3">
-        <v>4640300</v>
+        <v>4081400</v>
       </c>
       <c r="I27" s="3">
-        <v>8630000</v>
+        <v>4650400</v>
       </c>
       <c r="J27" s="3">
+        <v>8648800</v>
+      </c>
+      <c r="K27" s="3">
         <v>5757400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14466500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5937300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2681100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3041500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1042100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>175700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1227100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-68000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2584300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1064500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>80600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1257000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1066000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1917800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>115000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>2021400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1383900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2440,28 +2501,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>1976100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>1980500</v>
+      </c>
+      <c r="I29" s="3">
         <v>1200</v>
       </c>
-      <c r="I29" s="3">
-        <v>-2514300</v>
-      </c>
       <c r="J29" s="3">
+        <v>-2519800</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1688500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-784800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-219100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-1736800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2469,8 +2530,8 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2482,37 +2543,40 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-9100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-63300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-416600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-86500</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-99500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-63800</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-993600</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>359300</v>
+        <v>-50700</v>
       </c>
       <c r="E32" s="3">
-        <v>525000</v>
+        <v>360100</v>
       </c>
       <c r="F32" s="3">
-        <v>-2605300</v>
+        <v>526200</v>
       </c>
       <c r="G32" s="3">
-        <v>-970100</v>
+        <v>-2611000</v>
       </c>
       <c r="H32" s="3">
-        <v>105700</v>
+        <v>-972300</v>
       </c>
       <c r="I32" s="3">
-        <v>-3784100</v>
+        <v>106000</v>
       </c>
       <c r="J32" s="3">
+        <v>-3792300</v>
+      </c>
+      <c r="K32" s="3">
         <v>201400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-728600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>585200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1215100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>301200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1712500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>491600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>678000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>321500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>333600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-148100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>755700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2342400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>210700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>855000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-440700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>741700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>143800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>221800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1917500</v>
+        <v>923000</v>
       </c>
       <c r="E33" s="3">
-        <v>3939200</v>
+        <v>1921700</v>
       </c>
       <c r="F33" s="3">
-        <v>4689800</v>
+        <v>3947800</v>
       </c>
       <c r="G33" s="3">
-        <v>6048600</v>
+        <v>4700000</v>
       </c>
       <c r="H33" s="3">
-        <v>4641500</v>
+        <v>6061900</v>
       </c>
       <c r="I33" s="3">
-        <v>6115700</v>
+        <v>4651600</v>
       </c>
       <c r="J33" s="3">
+        <v>6129000</v>
+      </c>
+      <c r="K33" s="3">
         <v>4068900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13681700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5718200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>944300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3041500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1042100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>175700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1227100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-68000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2584200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1064500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>71500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>649400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1831300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>15500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1957600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>390300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1917500</v>
+        <v>923000</v>
       </c>
       <c r="E35" s="3">
-        <v>3939200</v>
+        <v>1921700</v>
       </c>
       <c r="F35" s="3">
-        <v>4689800</v>
+        <v>3947800</v>
       </c>
       <c r="G35" s="3">
-        <v>6048600</v>
+        <v>4700000</v>
       </c>
       <c r="H35" s="3">
-        <v>4641500</v>
+        <v>6061900</v>
       </c>
       <c r="I35" s="3">
-        <v>6115700</v>
+        <v>4651600</v>
       </c>
       <c r="J35" s="3">
+        <v>6129000</v>
+      </c>
+      <c r="K35" s="3">
         <v>4068900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13681700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5718200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>944300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3041500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1042100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>175700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1227100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-68000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2584200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1064500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>71500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>649400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1831300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>15500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1957600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>390300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,141 +3268,145 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4813700</v>
+        <v>4846800</v>
       </c>
       <c r="E41" s="3">
-        <v>4976800</v>
+        <v>4824200</v>
       </c>
       <c r="F41" s="3">
-        <v>5642200</v>
+        <v>4987700</v>
       </c>
       <c r="G41" s="3">
-        <v>7579300</v>
+        <v>5654500</v>
       </c>
       <c r="H41" s="3">
-        <v>8646300</v>
+        <v>7595800</v>
       </c>
       <c r="I41" s="3">
-        <v>13173400</v>
+        <v>8665200</v>
       </c>
       <c r="J41" s="3">
+        <v>13202200</v>
+      </c>
+      <c r="K41" s="3">
         <v>11894100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13220000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13732100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13715700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9717500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13071600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10940500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5472100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6686200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4103800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3651500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3998400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4519200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5734600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4166300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3670700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3832600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4851300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5278900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3446000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>54600</v>
+        <v>45400</v>
       </c>
       <c r="E42" s="3">
-        <v>64400</v>
+        <v>54700</v>
       </c>
       <c r="F42" s="3">
-        <v>45300</v>
+        <v>64600</v>
       </c>
       <c r="G42" s="3">
-        <v>51000</v>
+        <v>45400</v>
       </c>
       <c r="H42" s="3">
-        <v>41100</v>
+        <v>51100</v>
       </c>
       <c r="I42" s="3">
-        <v>207000</v>
+        <v>41200</v>
       </c>
       <c r="J42" s="3">
+        <v>207500</v>
+      </c>
+      <c r="K42" s="3">
         <v>570700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>921500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1523100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>783900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>137800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>99900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>444100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>614800</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>8</v>
@@ -3330,8 +3420,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3345,619 +3435,643 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>8</v>
+      <c r="AB42" s="3">
+        <v>0</v>
       </c>
       <c r="AC42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AD42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4126300</v>
+        <v>4346600</v>
       </c>
       <c r="E43" s="3">
-        <v>5876000</v>
+        <v>4135300</v>
       </c>
       <c r="F43" s="3">
-        <v>3275400</v>
+        <v>5888900</v>
       </c>
       <c r="G43" s="3">
-        <v>3050200</v>
+        <v>3282500</v>
       </c>
       <c r="H43" s="3">
-        <v>3774200</v>
+        <v>3056900</v>
       </c>
       <c r="I43" s="3">
-        <v>5367100</v>
+        <v>3782500</v>
       </c>
       <c r="J43" s="3">
+        <v>5378800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1859100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5445700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4401500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5847600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4169800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3709800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2728400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2807800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2956900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3056800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3287800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3067600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3244000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3929800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3695900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5471000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5103900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4454100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>5326500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>4461500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5107900</v>
+        <v>5051200</v>
       </c>
       <c r="E44" s="3">
-        <v>4709900</v>
+        <v>5119100</v>
       </c>
       <c r="F44" s="3">
-        <v>5735900</v>
+        <v>4720200</v>
       </c>
       <c r="G44" s="3">
-        <v>5437200</v>
+        <v>5748400</v>
       </c>
       <c r="H44" s="3">
-        <v>4807600</v>
+        <v>5449100</v>
       </c>
       <c r="I44" s="3">
-        <v>4920000</v>
+        <v>4818100</v>
       </c>
       <c r="J44" s="3">
+        <v>4930700</v>
+      </c>
+      <c r="K44" s="3">
         <v>5570500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4552800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4556100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4129800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4756100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4378900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>3795800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3182100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3616000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3205900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3579800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3071300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3004600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3600300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3078800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3329700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3316000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3277300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2862100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2707400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>742400</v>
+        <v>832400</v>
       </c>
       <c r="E45" s="3">
-        <v>688000</v>
+        <v>744000</v>
       </c>
       <c r="F45" s="3">
-        <v>460600</v>
+        <v>689500</v>
       </c>
       <c r="G45" s="3">
-        <v>784700</v>
+        <v>461600</v>
       </c>
       <c r="H45" s="3">
-        <v>1303700</v>
+        <v>786400</v>
       </c>
       <c r="I45" s="3">
-        <v>1467200</v>
+        <v>1306500</v>
       </c>
       <c r="J45" s="3">
+        <v>1470400</v>
+      </c>
+      <c r="K45" s="3">
         <v>2005000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>464200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>487600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>338800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>493800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>651900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>600500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>611600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1181900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>432900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>473400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>433900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>442300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>662200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>886800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3603900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3900800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>4262900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4157200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>7630700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14844800</v>
+        <v>15122500</v>
       </c>
       <c r="E46" s="3">
-        <v>16315200</v>
+        <v>14877200</v>
       </c>
       <c r="F46" s="3">
-        <v>15159400</v>
+        <v>16350900</v>
       </c>
       <c r="G46" s="3">
-        <v>16902300</v>
+        <v>15192500</v>
       </c>
       <c r="H46" s="3">
-        <v>18572900</v>
+        <v>16939200</v>
       </c>
       <c r="I46" s="3">
-        <v>25134700</v>
+        <v>18613500</v>
       </c>
       <c r="J46" s="3">
+        <v>25189600</v>
+      </c>
+      <c r="K46" s="3">
         <v>21899500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24604200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24700400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24815800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19274900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>21912100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>18509400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12688400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14441000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10799300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10992400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10571300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11210200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13927000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11827800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16075200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16153400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16845500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17624700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>18245600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1816200</v>
+        <v>1849100</v>
       </c>
       <c r="E47" s="3">
-        <v>1889300</v>
+        <v>1820200</v>
       </c>
       <c r="F47" s="3">
-        <v>1954800</v>
+        <v>1893500</v>
       </c>
       <c r="G47" s="3">
-        <v>1888700</v>
+        <v>1959100</v>
       </c>
       <c r="H47" s="3">
-        <v>1838800</v>
+        <v>1892900</v>
       </c>
       <c r="I47" s="3">
-        <v>1967900</v>
+        <v>1842800</v>
       </c>
       <c r="J47" s="3">
+        <v>1972200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3809000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3579700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3027300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3064700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5915300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5670400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3566600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3338800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3661200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3267100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3663100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3448900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3634400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4463000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4230800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5382600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5425000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5465700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5299900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>3135400</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47098600</v>
+        <v>47338100</v>
       </c>
       <c r="E48" s="3">
-        <v>47222700</v>
+        <v>47201500</v>
       </c>
       <c r="F48" s="3">
-        <v>45946400</v>
+        <v>47325800</v>
       </c>
       <c r="G48" s="3">
-        <v>45537900</v>
+        <v>46046800</v>
       </c>
       <c r="H48" s="3">
-        <v>44187200</v>
+        <v>45637400</v>
       </c>
       <c r="I48" s="3">
-        <v>47126600</v>
+        <v>44283700</v>
       </c>
       <c r="J48" s="3">
+        <v>47229600</v>
+      </c>
+      <c r="K48" s="3">
         <v>45011200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>42505300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>41636300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41847700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41737500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41234400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36354000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>34674300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>38174800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>34360800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>36388200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>33446700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>35140300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>43858900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>42028700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>46541900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>45711500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>46359000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>44231600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>44807200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10689900</v>
+        <v>10701000</v>
       </c>
       <c r="E49" s="3">
-        <v>10759000</v>
+        <v>10713300</v>
       </c>
       <c r="F49" s="3">
-        <v>10174700</v>
+        <v>10782500</v>
       </c>
       <c r="G49" s="3">
-        <v>9966700</v>
+        <v>10197000</v>
       </c>
       <c r="H49" s="3">
-        <v>9796300</v>
+        <v>9988500</v>
       </c>
       <c r="I49" s="3">
-        <v>10127800</v>
+        <v>9817700</v>
       </c>
       <c r="J49" s="3">
+        <v>10149900</v>
+      </c>
+      <c r="K49" s="3">
         <v>9764500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10651500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9231500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9454000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7266700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7236900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6400400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6327300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6490100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5864100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6227400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5503700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5771100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7193600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6669200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>7202800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7026100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6116100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5742700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5555600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,94 +4245,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15127800</v>
+        <v>14008100</v>
       </c>
       <c r="E52" s="3">
-        <v>15125900</v>
+        <v>15160800</v>
       </c>
       <c r="F52" s="3">
-        <v>14541500</v>
+        <v>15159000</v>
       </c>
       <c r="G52" s="3">
-        <v>14696400</v>
+        <v>14573300</v>
       </c>
       <c r="H52" s="3">
-        <v>14485900</v>
+        <v>14728500</v>
       </c>
       <c r="I52" s="3">
-        <v>16167400</v>
+        <v>14517500</v>
       </c>
       <c r="J52" s="3">
+        <v>16202700</v>
+      </c>
+      <c r="K52" s="3">
         <v>14692400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12335400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14120500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14387800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13678600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13668200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13666100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11249300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10580700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10670200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>11382200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7991400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7575700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9872000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8500200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8915000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8603700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8591300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8068500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8310700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89577300</v>
+        <v>89018700</v>
       </c>
       <c r="E54" s="3">
-        <v>91312100</v>
+        <v>89773000</v>
       </c>
       <c r="F54" s="3">
-        <v>87776800</v>
+        <v>91511600</v>
       </c>
       <c r="G54" s="3">
-        <v>88992000</v>
+        <v>87968500</v>
       </c>
       <c r="H54" s="3">
-        <v>88881000</v>
+        <v>89186400</v>
       </c>
       <c r="I54" s="3">
-        <v>100524400</v>
+        <v>89075200</v>
       </c>
       <c r="J54" s="3">
+        <v>100744000</v>
+      </c>
+      <c r="K54" s="3">
         <v>95176500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>93676100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>92716000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>93569900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>87873000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>89722100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>78496500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>68278100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73347700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>64961600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>68653400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60961900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>63331800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>79314400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>73256700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>84117400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>82919700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>83377600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>80967300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>80054500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,524 +4580,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4943600</v>
+        <v>5278900</v>
       </c>
       <c r="E57" s="3">
-        <v>5108300</v>
+        <v>4954400</v>
       </c>
       <c r="F57" s="3">
-        <v>5303700</v>
+        <v>5119500</v>
       </c>
       <c r="G57" s="3">
-        <v>4045700</v>
+        <v>5315300</v>
       </c>
       <c r="H57" s="3">
-        <v>3650800</v>
+        <v>4054600</v>
       </c>
       <c r="I57" s="3">
-        <v>4347200</v>
+        <v>3658800</v>
       </c>
       <c r="J57" s="3">
+        <v>4356700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4632800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3840500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4093700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4159700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4225600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3969100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3586900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3787600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3911300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3192200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3232300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3211600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3364900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3721200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3451600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3656100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3671200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3613400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3632600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3477900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>555900</v>
+        <v>887100</v>
       </c>
       <c r="E58" s="3">
-        <v>514000</v>
+        <v>557100</v>
       </c>
       <c r="F58" s="3">
-        <v>485800</v>
+        <v>515100</v>
       </c>
       <c r="G58" s="3">
-        <v>986700</v>
+        <v>486800</v>
       </c>
       <c r="H58" s="3">
-        <v>1052900</v>
+        <v>988800</v>
       </c>
       <c r="I58" s="3">
-        <v>1353400</v>
+        <v>1055200</v>
       </c>
       <c r="J58" s="3">
+        <v>1356400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1473800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>960900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1053900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1154900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1124800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1303300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1081900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1072100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1224700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1035000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2139900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>693700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1017200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1641000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1525900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1444300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1493200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1749300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1891800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1342000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7778500</v>
+        <v>7020000</v>
       </c>
       <c r="E59" s="3">
-        <v>8974800</v>
+        <v>7795500</v>
       </c>
       <c r="F59" s="3">
-        <v>8359500</v>
+        <v>8994400</v>
       </c>
       <c r="G59" s="3">
-        <v>7750100</v>
+        <v>8377800</v>
       </c>
       <c r="H59" s="3">
-        <v>9292000</v>
+        <v>7767000</v>
       </c>
       <c r="I59" s="3">
-        <v>11380900</v>
+        <v>9312300</v>
       </c>
       <c r="J59" s="3">
+        <v>11405800</v>
+      </c>
+      <c r="K59" s="3">
         <v>11504200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9081500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7458300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9526800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6386900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6762700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6075600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5447600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5355300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4480400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3717300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2430900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2411800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2909200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2776400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>6015600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3540800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3612600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3770200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>4262100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13277900</v>
+        <v>13186000</v>
       </c>
       <c r="E60" s="3">
-        <v>14597100</v>
+        <v>13306900</v>
       </c>
       <c r="F60" s="3">
-        <v>14149000</v>
+        <v>14629000</v>
       </c>
       <c r="G60" s="3">
-        <v>12782500</v>
+        <v>14179900</v>
       </c>
       <c r="H60" s="3">
-        <v>13995700</v>
+        <v>12810400</v>
       </c>
       <c r="I60" s="3">
-        <v>17081500</v>
+        <v>14026300</v>
       </c>
       <c r="J60" s="3">
+        <v>17118900</v>
+      </c>
+      <c r="K60" s="3">
         <v>17610900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13882900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12606000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14841400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11737400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12035100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10744500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10307300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10491300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>8707600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9089500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6336200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6794000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>8271400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>7754000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11116000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>8705200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8975400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>9294600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9082100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12729300</v>
+        <v>12669500</v>
       </c>
       <c r="E61" s="3">
-        <v>12844900</v>
+        <v>12757100</v>
       </c>
       <c r="F61" s="3">
-        <v>12802000</v>
+        <v>12873000</v>
       </c>
       <c r="G61" s="3">
-        <v>12314200</v>
+        <v>12830000</v>
       </c>
       <c r="H61" s="3">
-        <v>12320600</v>
+        <v>12341100</v>
       </c>
       <c r="I61" s="3">
-        <v>14136100</v>
+        <v>12347600</v>
       </c>
       <c r="J61" s="3">
+        <v>14166900</v>
+      </c>
+      <c r="K61" s="3">
         <v>13408700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12466000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13664000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14127100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15428000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>18719600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16336900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>9980800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>11740200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>10927700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>11567200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>9997400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>11436400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>14481900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14211900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>17628400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>19453700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>21873800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>21350800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>22365300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23798200</v>
+        <v>23983200</v>
       </c>
       <c r="E62" s="3">
-        <v>24618500</v>
+        <v>23850200</v>
       </c>
       <c r="F62" s="3">
-        <v>23066100</v>
+        <v>24672300</v>
       </c>
       <c r="G62" s="3">
-        <v>24881000</v>
+        <v>23116500</v>
       </c>
       <c r="H62" s="3">
-        <v>25837200</v>
+        <v>24935300</v>
       </c>
       <c r="I62" s="3">
-        <v>29619300</v>
+        <v>25893600</v>
       </c>
       <c r="J62" s="3">
+        <v>29684000</v>
+      </c>
+      <c r="K62" s="3">
         <v>26803700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26291800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>28672100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>29182500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>24213200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23422600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20549700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18964500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>17782200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>15935900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>16510200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>13643400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14258200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>17951400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>15742900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>17401700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17013600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>16990600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16074300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>15438300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51376100</v>
+        <v>51277000</v>
       </c>
       <c r="E66" s="3">
-        <v>53627800</v>
+        <v>51488400</v>
       </c>
       <c r="F66" s="3">
-        <v>51617800</v>
+        <v>53744900</v>
       </c>
       <c r="G66" s="3">
-        <v>51541500</v>
+        <v>51730600</v>
       </c>
       <c r="H66" s="3">
-        <v>52968600</v>
+        <v>51654100</v>
       </c>
       <c r="I66" s="3">
-        <v>61774400</v>
+        <v>53084300</v>
       </c>
       <c r="J66" s="3">
+        <v>61909400</v>
+      </c>
+      <c r="K66" s="3">
         <v>58663400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>53316500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53897300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>57211800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>49961000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>52879900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>46567500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38452700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>40540500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36074500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37759800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>30562100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>33124200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>41550700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>38565900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>47260900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>46370100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>49052200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>47925500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>48488600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18686500</v>
+        <v>19663900</v>
       </c>
       <c r="E72" s="3">
-        <v>21560500</v>
+        <v>18727300</v>
       </c>
       <c r="F72" s="3">
-        <v>19057500</v>
+        <v>21607600</v>
       </c>
       <c r="G72" s="3">
-        <v>21549400</v>
+        <v>19099100</v>
       </c>
       <c r="H72" s="3">
-        <v>15490500</v>
+        <v>21596500</v>
       </c>
       <c r="I72" s="3">
-        <v>17396500</v>
+        <v>15524300</v>
       </c>
       <c r="J72" s="3">
+        <v>17434500</v>
+      </c>
+      <c r="K72" s="3">
         <v>10684200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15577300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10565000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7396700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7901300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7350400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5702100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5717700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8104800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6492300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6933100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7755300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5363300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7222100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7146900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6553000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7109800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4470600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4822700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2946700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38201100</v>
+        <v>37741700</v>
       </c>
       <c r="E76" s="3">
-        <v>37684400</v>
+        <v>38284600</v>
       </c>
       <c r="F76" s="3">
-        <v>36159000</v>
+        <v>37766700</v>
       </c>
       <c r="G76" s="3">
-        <v>37450500</v>
+        <v>36237900</v>
       </c>
       <c r="H76" s="3">
-        <v>35912400</v>
+        <v>37532300</v>
       </c>
       <c r="I76" s="3">
-        <v>38750000</v>
+        <v>35990900</v>
       </c>
       <c r="J76" s="3">
+        <v>38834600</v>
+      </c>
+      <c r="K76" s="3">
         <v>36513100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40359600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>38818700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36358100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37911900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36842200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31929000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29825400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32807200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28887100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30893600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30399800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30207600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>37763700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>34690800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36856600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36549600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>34325300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>33041800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>31565800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1917500</v>
+        <v>923000</v>
       </c>
       <c r="E81" s="3">
-        <v>3939200</v>
+        <v>1921700</v>
       </c>
       <c r="F81" s="3">
-        <v>4689800</v>
+        <v>3947800</v>
       </c>
       <c r="G81" s="3">
-        <v>6048600</v>
+        <v>4700000</v>
       </c>
       <c r="H81" s="3">
-        <v>4641500</v>
+        <v>6061900</v>
       </c>
       <c r="I81" s="3">
-        <v>6115700</v>
+        <v>4651600</v>
       </c>
       <c r="J81" s="3">
+        <v>6129000</v>
+      </c>
+      <c r="K81" s="3">
         <v>4068900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13681700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5718200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>944300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3041500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1042100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>175700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1227100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-68000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2584200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1064500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>71500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1193800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>649400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1831300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>15500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1957600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>390300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>686600</v>
+        <v>777300</v>
       </c>
       <c r="E83" s="3">
-        <v>953400</v>
+        <v>688100</v>
       </c>
       <c r="F83" s="3">
-        <v>819500</v>
+        <v>955500</v>
       </c>
       <c r="G83" s="3">
-        <v>804000</v>
+        <v>821300</v>
       </c>
       <c r="H83" s="3">
-        <v>723200</v>
+        <v>805700</v>
       </c>
       <c r="I83" s="3">
-        <v>852500</v>
+        <v>724800</v>
       </c>
       <c r="J83" s="3">
+        <v>854400</v>
+      </c>
+      <c r="K83" s="3">
         <v>736500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1643800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>750500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>881700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>810500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>854500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>656300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>784300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>692000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>670400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>566900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>520500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>624700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>726600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>661700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>812200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>747600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>745200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>707400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>598500</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3821400</v>
+        <v>1864200</v>
       </c>
       <c r="E89" s="3">
-        <v>2011400</v>
+        <v>3829700</v>
       </c>
       <c r="F89" s="3">
-        <v>3389200</v>
+        <v>2015800</v>
       </c>
       <c r="G89" s="3">
-        <v>3546900</v>
+        <v>3396600</v>
       </c>
       <c r="H89" s="3">
-        <v>2774300</v>
+        <v>3554600</v>
       </c>
       <c r="I89" s="3">
-        <v>2111400</v>
+        <v>2780300</v>
       </c>
       <c r="J89" s="3">
+        <v>2116000</v>
+      </c>
+      <c r="K89" s="3">
         <v>9526000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15293600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7167300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6815300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4990000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1385300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1380700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2067400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3051200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2047500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1546000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2227400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2857700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3016300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1654300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3075400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1940400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>2841900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2379500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2108400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5974000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5872000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9392000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6455000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6373000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5964000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6067900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6526200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-606800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-586300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1336100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-914000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-892400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-717900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-507300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-431500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-520500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-592700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-674300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-816500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-695500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-731200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-865000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>2329500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1388500</v>
+        <v>-1062500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1959000</v>
+        <v>-1391500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1070400</v>
+        <v>-1963300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1124000</v>
+        <v>-1072800</v>
       </c>
       <c r="H94" s="3">
-        <v>-715600</v>
+        <v>-1126500</v>
       </c>
       <c r="I94" s="3">
-        <v>-432400</v>
+        <v>-717100</v>
       </c>
       <c r="J94" s="3">
+        <v>-433300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-848200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5601600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2454800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2050500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1054400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-713100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-843300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-968200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-406600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-414400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-508600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-366500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>2166300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-687700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-404900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-949700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-675900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,94 +7654,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1903000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-1907200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2800</v>
       </c>
-      <c r="F96" s="3">
-        <v>-3274600</v>
-      </c>
       <c r="G96" s="3">
-        <v>-7000</v>
+        <v>-3281700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3594800</v>
+        <v>-7100</v>
       </c>
       <c r="I96" s="3">
+        <v>-3602600</v>
+      </c>
+      <c r="J96" s="3">
         <v>-25900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8099500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6378700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4090900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3604700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q96" s="3">
         <v>-2100</v>
       </c>
       <c r="R96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-74100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-44400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-4700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-436800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,262 +8008,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2506200</v>
+        <v>-615800</v>
       </c>
       <c r="E100" s="3">
-        <v>-603400</v>
+        <v>-2511700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4353700</v>
+        <v>-604700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3881400</v>
+        <v>-4363200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5462000</v>
+        <v>-3889900</v>
       </c>
       <c r="I100" s="3">
-        <v>-618900</v>
+        <v>-5473900</v>
       </c>
       <c r="J100" s="3">
+        <v>-620300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11266200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9722800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5138400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-214600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7505800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-181400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4018700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-718600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-939400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1051500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>179900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-89800</v>
+        <v>-163300</v>
       </c>
       <c r="E101" s="3">
-        <v>-114400</v>
+        <v>-90000</v>
       </c>
       <c r="F101" s="3">
-        <v>97900</v>
+        <v>-114600</v>
       </c>
       <c r="G101" s="3">
-        <v>391500</v>
+        <v>98100</v>
       </c>
       <c r="H101" s="3">
-        <v>-1123800</v>
+        <v>392400</v>
       </c>
       <c r="I101" s="3">
-        <v>219000</v>
+        <v>-1126300</v>
       </c>
       <c r="J101" s="3">
+        <v>219500</v>
+      </c>
+      <c r="K101" s="3">
         <v>732000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-319700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1045800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-597600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>367200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>504300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1095300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-111400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>412800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-45000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-147400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>153200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>453300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-75200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>89000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>57700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-50600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>8800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-163100</v>
+        <v>22600</v>
       </c>
       <c r="E102" s="3">
-        <v>-665400</v>
+        <v>-163500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1937100</v>
+        <v>-666900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1067000</v>
+        <v>-1941300</v>
       </c>
       <c r="H102" s="3">
-        <v>-4527100</v>
+        <v>-1069300</v>
       </c>
       <c r="I102" s="3">
-        <v>1279200</v>
+        <v>-4537000</v>
       </c>
       <c r="J102" s="3">
+        <v>1282000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1856400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-350600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>619800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3952500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3202900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>994900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5651400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2338800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>648600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-542600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-358900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1568300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>822900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-161900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-604200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1832900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-877500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>1005000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VALE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>VALE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,398 +665,411 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9639500</v>
+        <v>10684900</v>
       </c>
       <c r="E8" s="3">
-        <v>8848900</v>
+        <v>9820500</v>
       </c>
       <c r="F8" s="3">
-        <v>12662400</v>
+        <v>9015000</v>
       </c>
       <c r="G8" s="3">
-        <v>10511800</v>
+        <v>12900200</v>
       </c>
       <c r="H8" s="3">
-        <v>11096000</v>
+        <v>10709200</v>
       </c>
       <c r="I8" s="3">
-        <v>11448200</v>
+        <v>11304300</v>
       </c>
       <c r="J8" s="3">
+        <v>11663100</v>
+      </c>
+      <c r="K8" s="3">
         <v>14152100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12973800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30164500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12870300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14972500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11278900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7967900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5578900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7576200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7627900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6375400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5792000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6682000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7005700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7293600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6522800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7647100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7332500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5989800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6634200</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7604100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>5416000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5925200</v>
+        <v>6343900</v>
       </c>
       <c r="E9" s="3">
-        <v>5192100</v>
+        <v>6036500</v>
       </c>
       <c r="F9" s="3">
-        <v>7589400</v>
+        <v>5289600</v>
       </c>
       <c r="G9" s="3">
-        <v>6669400</v>
+        <v>7731900</v>
       </c>
       <c r="H9" s="3">
-        <v>5929500</v>
+        <v>6794600</v>
       </c>
       <c r="I9" s="3">
-        <v>4879300</v>
+        <v>6040800</v>
       </c>
       <c r="J9" s="3">
+        <v>4970900</v>
+      </c>
+      <c r="K9" s="3">
         <v>6208900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5766400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10135500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4412900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4535000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5043500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4466800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3430200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4280600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4244500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3591400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3321500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3914200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4223700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4544900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3962900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>4828000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4383800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4220500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>3560000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>4062900</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>3727900</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3714300</v>
+        <v>4341100</v>
       </c>
       <c r="E10" s="3">
-        <v>3656700</v>
+        <v>3784000</v>
       </c>
       <c r="F10" s="3">
-        <v>5073000</v>
+        <v>3725400</v>
       </c>
       <c r="G10" s="3">
-        <v>3842400</v>
+        <v>5168300</v>
       </c>
       <c r="H10" s="3">
-        <v>5166500</v>
+        <v>3914600</v>
       </c>
       <c r="I10" s="3">
-        <v>6568900</v>
+        <v>5263500</v>
       </c>
       <c r="J10" s="3">
+        <v>6692200</v>
+      </c>
+      <c r="K10" s="3">
         <v>7943100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7207400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>20029000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8457400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10437500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6235400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3501100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2148700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3295500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3383400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2784100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2470400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2767800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2781900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2748700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2559900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2819100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2948600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1769200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>3074200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>3541300</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1688100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1088,8 +1101,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,186 +1283,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>333200</v>
+        <v>384700</v>
       </c>
       <c r="E14" s="3">
-        <v>120700</v>
+        <v>339500</v>
       </c>
       <c r="F14" s="3">
-        <v>589000</v>
+        <v>123000</v>
       </c>
       <c r="G14" s="3">
-        <v>400700</v>
+        <v>600000</v>
       </c>
       <c r="H14" s="3">
-        <v>348400</v>
+        <v>408200</v>
       </c>
       <c r="I14" s="3">
-        <v>-907500</v>
+        <v>354900</v>
       </c>
       <c r="J14" s="3">
+        <v>-924500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-283800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>238300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>474400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>241500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5472700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>432900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>582000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>150600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4454700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>191800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1048500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3240200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>196900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>130900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>402500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>136300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>186000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>127800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>2084300</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>133900</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>12900</v>
+        <v>12100</v>
       </c>
       <c r="E15" s="3">
-        <v>12100</v>
+        <v>13200</v>
       </c>
       <c r="F15" s="3">
-        <v>9100</v>
+        <v>12300</v>
       </c>
       <c r="G15" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I15" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>13100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>12300</v>
+      </c>
+      <c r="M15" s="3">
+        <v>19600</v>
+      </c>
+      <c r="N15" s="3">
+        <v>9000</v>
+      </c>
+      <c r="O15" s="3">
+        <v>9400</v>
+      </c>
+      <c r="P15" s="3">
         <v>9700</v>
       </c>
-      <c r="H15" s="3">
-        <v>11700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>13100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>12300</v>
-      </c>
-      <c r="L15" s="3">
-        <v>19600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>9000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>9400</v>
-      </c>
-      <c r="O15" s="3">
-        <v>9700</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>14000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>14600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>7800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>12400</v>
-      </c>
-      <c r="X15" s="3">
-        <v>13300</v>
       </c>
       <c r="Y15" s="3">
         <v>13300</v>
       </c>
       <c r="Z15" s="3">
+        <v>13300</v>
+      </c>
+      <c r="AA15" s="3">
         <v>18200</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
       <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
         <v>18500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>22300</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>102600</v>
       </c>
-      <c r="AE15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6771700</v>
+        <v>7292300</v>
       </c>
       <c r="E17" s="3">
-        <v>5887700</v>
+        <v>6898900</v>
       </c>
       <c r="F17" s="3">
-        <v>8884000</v>
+        <v>5998200</v>
       </c>
       <c r="G17" s="3">
-        <v>7435400</v>
+        <v>9050800</v>
       </c>
       <c r="H17" s="3">
-        <v>6888600</v>
+        <v>7575000</v>
       </c>
       <c r="I17" s="3">
-        <v>4279000</v>
+        <v>7017900</v>
       </c>
       <c r="J17" s="3">
+        <v>4359400</v>
+      </c>
+      <c r="K17" s="3">
         <v>7807600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6331800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11974900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5023200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11155700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6076200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6328100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4146900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9518900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4836000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5618400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6989800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4666600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4597100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5190500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4285100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5681300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4816100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4773800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3636500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5701000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3729700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2867700</v>
+        <v>3392700</v>
       </c>
       <c r="E18" s="3">
-        <v>2961200</v>
+        <v>2921600</v>
       </c>
       <c r="F18" s="3">
-        <v>3778400</v>
+        <v>3016800</v>
       </c>
       <c r="G18" s="3">
-        <v>3076400</v>
+        <v>3849400</v>
       </c>
       <c r="H18" s="3">
-        <v>4207400</v>
+        <v>3134200</v>
       </c>
       <c r="I18" s="3">
-        <v>7169200</v>
+        <v>4286400</v>
       </c>
       <c r="J18" s="3">
+        <v>7303800</v>
+      </c>
+      <c r="K18" s="3">
         <v>6344500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6642000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18189600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7847100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3816900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5202600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1639800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1432000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1942700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2791900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>757000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1197800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2015400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2408500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2103100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2237700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1965800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2516400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1215900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2997700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1903100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1686400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,453 +1718,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>50700</v>
+        <v>-191900</v>
       </c>
       <c r="E20" s="3">
-        <v>-360100</v>
+        <v>51600</v>
       </c>
       <c r="F20" s="3">
-        <v>-526200</v>
+        <v>-366800</v>
       </c>
       <c r="G20" s="3">
-        <v>2611000</v>
+        <v>-536100</v>
       </c>
       <c r="H20" s="3">
-        <v>972300</v>
+        <v>2660000</v>
       </c>
       <c r="I20" s="3">
-        <v>-106000</v>
+        <v>990500</v>
       </c>
       <c r="J20" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K20" s="3">
         <v>3792300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-201400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>728600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-585200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1215100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-301200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1712500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-491600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-678000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-321500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-333600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>148100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-755700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2342400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-210700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-855000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>440700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-741700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-143800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-221800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-604200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3695700</v>
+        <v>3984700</v>
       </c>
       <c r="E21" s="3">
-        <v>3289200</v>
+        <v>3765100</v>
       </c>
       <c r="F21" s="3">
-        <v>4207800</v>
+        <v>3350900</v>
       </c>
       <c r="G21" s="3">
-        <v>6508700</v>
+        <v>4286800</v>
       </c>
       <c r="H21" s="3">
-        <v>5985400</v>
+        <v>6631000</v>
       </c>
       <c r="I21" s="3">
-        <v>7788000</v>
+        <v>6097800</v>
       </c>
       <c r="J21" s="3">
+        <v>7934200</v>
+      </c>
+      <c r="K21" s="3">
         <v>10991200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7177100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20562000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>8580400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4097300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4798000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2193200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>375800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1650100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2805900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1106000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-964600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2684000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2277600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>487300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2688700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1923000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>3704700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1219400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>3561300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2509400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1769700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>194800</v>
+        <v>202300</v>
       </c>
       <c r="E22" s="3">
-        <v>199800</v>
+        <v>198400</v>
       </c>
       <c r="F22" s="3">
-        <v>168100</v>
+        <v>203600</v>
       </c>
       <c r="G22" s="3">
-        <v>155200</v>
+        <v>171300</v>
       </c>
       <c r="H22" s="3">
-        <v>159500</v>
+        <v>158100</v>
       </c>
       <c r="I22" s="3">
-        <v>171800</v>
+        <v>162400</v>
       </c>
       <c r="J22" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K22" s="3">
         <v>145900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>164300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>365800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>138000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>222400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>209100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>159600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>148300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>176500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>180600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>150800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>165600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>161700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>209900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>209200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>213800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>247700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>370900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>270200</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>286300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>236900</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2723600</v>
+        <v>2998500</v>
       </c>
       <c r="E23" s="3">
-        <v>2401300</v>
+        <v>2774800</v>
       </c>
       <c r="F23" s="3">
-        <v>3084100</v>
+        <v>2446400</v>
       </c>
       <c r="G23" s="3">
-        <v>5532200</v>
+        <v>3142000</v>
       </c>
       <c r="H23" s="3">
-        <v>5020200</v>
+        <v>5636100</v>
       </c>
       <c r="I23" s="3">
-        <v>6891400</v>
+        <v>5114400</v>
       </c>
       <c r="J23" s="3">
+        <v>7020800</v>
+      </c>
+      <c r="K23" s="3">
         <v>9990900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6276200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>18552500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7812500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3093700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3765100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1129500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-440100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2582700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1937400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>254900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1682200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1997900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1491200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-449200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1817800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>897000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2709500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>103300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2583700</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1395100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>845300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1764500</v>
+        <v>126700</v>
       </c>
       <c r="E24" s="3">
-        <v>436600</v>
+        <v>1797600</v>
       </c>
       <c r="F24" s="3">
-        <v>-884300</v>
+        <v>444800</v>
       </c>
       <c r="G24" s="3">
-        <v>843900</v>
+        <v>-900900</v>
       </c>
       <c r="H24" s="3">
-        <v>887900</v>
+        <v>859700</v>
       </c>
       <c r="I24" s="3">
-        <v>2217400</v>
+        <v>904600</v>
       </c>
       <c r="J24" s="3">
+        <v>2259100</v>
+      </c>
+      <c r="K24" s="3">
         <v>1265000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>487600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4060000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1861500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>512100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>829300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>168500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-553800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1069500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>725400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>329100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-457400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-617700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>453600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-535800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>546300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-132000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>784800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-39800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>549700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>38400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>350900</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>959100</v>
+        <v>2871800</v>
       </c>
       <c r="E26" s="3">
-        <v>1964700</v>
+        <v>977200</v>
       </c>
       <c r="F26" s="3">
-        <v>3968400</v>
+        <v>2001600</v>
       </c>
       <c r="G26" s="3">
-        <v>4688300</v>
+        <v>4042900</v>
       </c>
       <c r="H26" s="3">
-        <v>4132300</v>
+        <v>4776400</v>
       </c>
       <c r="I26" s="3">
-        <v>4674000</v>
+        <v>4209900</v>
       </c>
       <c r="J26" s="3">
+        <v>4761800</v>
+      </c>
+      <c r="K26" s="3">
         <v>8725900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5788600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14492400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5951000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2581600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2935800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>961100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>113700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1513200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1212000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-74200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1224900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2615600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1037600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>86500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1271500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1029000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1924700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>143100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>2034000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1356700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>494400</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>923000</v>
+        <v>2850900</v>
       </c>
       <c r="E27" s="3">
-        <v>1921700</v>
+        <v>940300</v>
       </c>
       <c r="F27" s="3">
-        <v>3947800</v>
+        <v>1957800</v>
       </c>
       <c r="G27" s="3">
-        <v>4700000</v>
+        <v>4021900</v>
       </c>
       <c r="H27" s="3">
-        <v>4081400</v>
+        <v>4788300</v>
       </c>
       <c r="I27" s="3">
-        <v>4650400</v>
+        <v>4158000</v>
       </c>
       <c r="J27" s="3">
+        <v>4737700</v>
+      </c>
+      <c r="K27" s="3">
         <v>8648800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5757400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>14466500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5937300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2681100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3041500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1042100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>175700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1183400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1227100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-68000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1201700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2584300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1064500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>80600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1257000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1066000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1917800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>115000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>2021400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1383900</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>488600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2504,28 +2565,28 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>1980500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>2017600</v>
+      </c>
+      <c r="J29" s="3">
         <v>1200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-2519800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1688500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-784800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-219100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-1736800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2533,8 +2594,8 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2546,37 +2607,40 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-9100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-63300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-416600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-86500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-99500</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-63800</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-993600</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>-31600</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50700</v>
+        <v>191900</v>
       </c>
       <c r="E32" s="3">
-        <v>360100</v>
+        <v>-51600</v>
       </c>
       <c r="F32" s="3">
-        <v>526200</v>
+        <v>366800</v>
       </c>
       <c r="G32" s="3">
-        <v>-2611000</v>
+        <v>536100</v>
       </c>
       <c r="H32" s="3">
-        <v>-972300</v>
+        <v>-2660000</v>
       </c>
       <c r="I32" s="3">
-        <v>106000</v>
+        <v>-990500</v>
       </c>
       <c r="J32" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3792300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>201400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-728600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>585200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1215100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>301200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1712500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>491600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>678000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>321500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>333600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-148100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>755700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2342400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>210700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>855000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-440700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>741700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>143800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>221800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>604200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>923000</v>
+        <v>2850900</v>
       </c>
       <c r="E33" s="3">
-        <v>1921700</v>
+        <v>940300</v>
       </c>
       <c r="F33" s="3">
-        <v>3947800</v>
+        <v>1957800</v>
       </c>
       <c r="G33" s="3">
-        <v>4700000</v>
+        <v>4021900</v>
       </c>
       <c r="H33" s="3">
-        <v>6061900</v>
+        <v>4788300</v>
       </c>
       <c r="I33" s="3">
-        <v>4651600</v>
+        <v>6175700</v>
       </c>
       <c r="J33" s="3">
+        <v>4738900</v>
+      </c>
+      <c r="K33" s="3">
         <v>6129000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4068900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13681700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5718200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>944300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3041500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1042100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>175700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1183400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1227100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-68000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1201700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2584200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1064500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>71500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>649400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1831300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>15500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1957600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>390300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>923000</v>
+        <v>2850900</v>
       </c>
       <c r="E35" s="3">
-        <v>1921700</v>
+        <v>940300</v>
       </c>
       <c r="F35" s="3">
-        <v>3947800</v>
+        <v>1957800</v>
       </c>
       <c r="G35" s="3">
-        <v>4700000</v>
+        <v>4021900</v>
       </c>
       <c r="H35" s="3">
-        <v>6061900</v>
+        <v>4788300</v>
       </c>
       <c r="I35" s="3">
-        <v>4651600</v>
+        <v>6175700</v>
       </c>
       <c r="J35" s="3">
+        <v>4738900</v>
+      </c>
+      <c r="K35" s="3">
         <v>6129000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4068900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13681700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5718200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>944300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3041500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1042100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>175700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1183400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1227100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-68000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1201700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2584200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1064500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>71500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>649400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1831300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>15500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1957600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>390300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,147 +3355,151 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4846800</v>
+        <v>4084600</v>
       </c>
       <c r="E41" s="3">
-        <v>4824200</v>
+        <v>4937800</v>
       </c>
       <c r="F41" s="3">
-        <v>4987700</v>
+        <v>4914800</v>
       </c>
       <c r="G41" s="3">
-        <v>5654500</v>
+        <v>5081300</v>
       </c>
       <c r="H41" s="3">
-        <v>7595800</v>
+        <v>5760700</v>
       </c>
       <c r="I41" s="3">
-        <v>8665200</v>
+        <v>7738500</v>
       </c>
       <c r="J41" s="3">
+        <v>8827900</v>
+      </c>
+      <c r="K41" s="3">
         <v>13202200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11894100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13220000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>13732100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13715700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9717500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13071600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10940500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5472100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6686200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4103800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3651500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3998400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4519200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5734600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4166300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3670700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3832600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4851300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5278900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>3446000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2352300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45400</v>
+        <v>62500</v>
       </c>
       <c r="E42" s="3">
-        <v>54700</v>
+        <v>46300</v>
       </c>
       <c r="F42" s="3">
-        <v>64600</v>
+        <v>55700</v>
       </c>
       <c r="G42" s="3">
-        <v>45400</v>
+        <v>65800</v>
       </c>
       <c r="H42" s="3">
-        <v>51100</v>
+        <v>46300</v>
       </c>
       <c r="I42" s="3">
-        <v>41200</v>
+        <v>52000</v>
       </c>
       <c r="J42" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K42" s="3">
         <v>207500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>570700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>921500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1523100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>783900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>137800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>99900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>444100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>614800</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>8</v>
@@ -3423,8 +3513,8 @@
       <c r="W42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3438,640 +3528,664 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-      <c r="AC42" s="3" t="s">
-        <v>8</v>
+      <c r="AC42" s="3">
+        <v>0</v>
       </c>
       <c r="AD42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AE42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF42" s="3">
         <v>1971200</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4346600</v>
+        <v>4842600</v>
       </c>
       <c r="E43" s="3">
-        <v>4135300</v>
+        <v>4428200</v>
       </c>
       <c r="F43" s="3">
-        <v>5888900</v>
+        <v>4212900</v>
       </c>
       <c r="G43" s="3">
-        <v>3282500</v>
+        <v>5999500</v>
       </c>
       <c r="H43" s="3">
-        <v>3056900</v>
+        <v>3344200</v>
       </c>
       <c r="I43" s="3">
-        <v>3782500</v>
+        <v>3114300</v>
       </c>
       <c r="J43" s="3">
+        <v>3853500</v>
+      </c>
+      <c r="K43" s="3">
         <v>5378800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1859100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5445700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4401500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5847600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4169800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3709800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2728400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2807800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2956900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3056800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3287800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3067600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3244000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3929800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3695900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5471000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5103900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4454100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>5326500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>4461500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3658600</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5051200</v>
+        <v>5266000</v>
       </c>
       <c r="E44" s="3">
-        <v>5119100</v>
+        <v>5146100</v>
       </c>
       <c r="F44" s="3">
-        <v>4720200</v>
+        <v>5215200</v>
       </c>
       <c r="G44" s="3">
-        <v>5748400</v>
+        <v>4808900</v>
       </c>
       <c r="H44" s="3">
-        <v>5449100</v>
+        <v>5856300</v>
       </c>
       <c r="I44" s="3">
-        <v>4818100</v>
+        <v>5551400</v>
       </c>
       <c r="J44" s="3">
+        <v>4908600</v>
+      </c>
+      <c r="K44" s="3">
         <v>4930700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>5570500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4552800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4556100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4129800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4756100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4378900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>3795800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>3182100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>3616000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>3205900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>3579800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>3071300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>3004600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>3600300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>3078800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>3329700</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>3316000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>3277300</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>2862100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2707400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>3140400</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>832400</v>
+        <v>852700</v>
       </c>
       <c r="E45" s="3">
-        <v>744000</v>
+        <v>848000</v>
       </c>
       <c r="F45" s="3">
-        <v>689500</v>
+        <v>758000</v>
       </c>
       <c r="G45" s="3">
-        <v>461600</v>
+        <v>702400</v>
       </c>
       <c r="H45" s="3">
-        <v>786400</v>
+        <v>470300</v>
       </c>
       <c r="I45" s="3">
-        <v>1306500</v>
+        <v>801100</v>
       </c>
       <c r="J45" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1470400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2005000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>464200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>487600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>338800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>493800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>651900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>611600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1181900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>432900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>473400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>433900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>442300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>662200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>886800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3603900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>3900800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>4262900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>4157200</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>7630700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>4587000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15122500</v>
+        <v>15108500</v>
       </c>
       <c r="E46" s="3">
-        <v>14877200</v>
+        <v>15406400</v>
       </c>
       <c r="F46" s="3">
-        <v>16350900</v>
+        <v>15156600</v>
       </c>
       <c r="G46" s="3">
-        <v>15192500</v>
+        <v>16657900</v>
       </c>
       <c r="H46" s="3">
-        <v>16939200</v>
+        <v>15477800</v>
       </c>
       <c r="I46" s="3">
-        <v>18613500</v>
+        <v>17257300</v>
       </c>
       <c r="J46" s="3">
+        <v>18963000</v>
+      </c>
+      <c r="K46" s="3">
         <v>25189600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21899500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24604200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>24700400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24815800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19274900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>21912100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18509400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12688400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>14441000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10799300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10992400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10571300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11210200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13927000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11827800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>16075200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>16153400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>16845500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17624700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>18245600</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>15709500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1849100</v>
+        <v>1980000</v>
       </c>
       <c r="E47" s="3">
-        <v>1820200</v>
+        <v>1883800</v>
       </c>
       <c r="F47" s="3">
-        <v>1893500</v>
+        <v>1854400</v>
       </c>
       <c r="G47" s="3">
-        <v>1959100</v>
+        <v>1929000</v>
       </c>
       <c r="H47" s="3">
-        <v>1892900</v>
+        <v>1995800</v>
       </c>
       <c r="I47" s="3">
-        <v>1842800</v>
+        <v>1928400</v>
       </c>
       <c r="J47" s="3">
+        <v>1877400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1972200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3809000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3579700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3027300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3064700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5915300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5670400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3566600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3338800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3661200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3267100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3663100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3448900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3634400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4463000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4230800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5382600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>5425000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>5465700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>5299900</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>3135400</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>3364300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>47338100</v>
+        <v>49168600</v>
       </c>
       <c r="E48" s="3">
-        <v>47201500</v>
+        <v>48227000</v>
       </c>
       <c r="F48" s="3">
-        <v>47325800</v>
+        <v>48087800</v>
       </c>
       <c r="G48" s="3">
-        <v>46046800</v>
+        <v>48214500</v>
       </c>
       <c r="H48" s="3">
-        <v>45637400</v>
+        <v>46911400</v>
       </c>
       <c r="I48" s="3">
-        <v>44283700</v>
+        <v>46494400</v>
       </c>
       <c r="J48" s="3">
+        <v>45115200</v>
+      </c>
+      <c r="K48" s="3">
         <v>47229600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>45011200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>42505300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>41636300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41847700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41737500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>41234400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36354000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>34674300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>38174800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>34360800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>36388200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>33446700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35140300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>43858900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>42028700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>46541900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>45711500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>46359000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>44231600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>44807200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>49226600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10701000</v>
+        <v>10897400</v>
       </c>
       <c r="E49" s="3">
-        <v>10713300</v>
+        <v>10901900</v>
       </c>
       <c r="F49" s="3">
-        <v>10782500</v>
+        <v>10914400</v>
       </c>
       <c r="G49" s="3">
-        <v>10197000</v>
+        <v>10985000</v>
       </c>
       <c r="H49" s="3">
-        <v>9988500</v>
+        <v>10388400</v>
       </c>
       <c r="I49" s="3">
-        <v>9817700</v>
+        <v>10176000</v>
       </c>
       <c r="J49" s="3">
+        <v>10002000</v>
+      </c>
+      <c r="K49" s="3">
         <v>10149900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9764500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10651500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9231500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9454000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7266700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7236900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6400400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6327300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6490100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5864100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6227400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5503700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5771100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>7193600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6669200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>7202800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>7026100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6116100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5742700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5555600</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5603900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,97 +4365,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14008100</v>
+        <v>14478600</v>
       </c>
       <c r="E52" s="3">
-        <v>15160800</v>
+        <v>14271100</v>
       </c>
       <c r="F52" s="3">
-        <v>15159000</v>
+        <v>15445500</v>
       </c>
       <c r="G52" s="3">
-        <v>14573300</v>
+        <v>15443600</v>
       </c>
       <c r="H52" s="3">
-        <v>14728500</v>
+        <v>14846900</v>
       </c>
       <c r="I52" s="3">
-        <v>14517500</v>
+        <v>15005000</v>
       </c>
       <c r="J52" s="3">
+        <v>14790100</v>
+      </c>
+      <c r="K52" s="3">
         <v>16202700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14692400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12335400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14120500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14387800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13678600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>13668200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>13666100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11249300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10580700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10670200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11382200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7991400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>7575700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9872000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8500200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>8915000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>8603700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>8591300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>8068500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>8310700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>8308600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,97 +4549,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89018700</v>
+        <v>91633000</v>
       </c>
       <c r="E54" s="3">
-        <v>89773000</v>
+        <v>90690200</v>
       </c>
       <c r="F54" s="3">
-        <v>91511600</v>
+        <v>91458700</v>
       </c>
       <c r="G54" s="3">
-        <v>87968500</v>
+        <v>93230000</v>
       </c>
       <c r="H54" s="3">
-        <v>89186400</v>
+        <v>89620300</v>
       </c>
       <c r="I54" s="3">
-        <v>89075200</v>
+        <v>90861100</v>
       </c>
       <c r="J54" s="3">
+        <v>90747800</v>
+      </c>
+      <c r="K54" s="3">
         <v>100744000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>95176500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>93676100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>92716000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>93569900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>87873000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>89722100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>78496500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>68278100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73347700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>64961600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>68653400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60961900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>63331800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>79314400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>73256700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>84117400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>82919700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>83377600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>80967300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>80054500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>82213000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,542 +4711,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5278900</v>
+        <v>5915400</v>
       </c>
       <c r="E57" s="3">
-        <v>4954400</v>
+        <v>5378000</v>
       </c>
       <c r="F57" s="3">
-        <v>5119500</v>
+        <v>5047400</v>
       </c>
       <c r="G57" s="3">
-        <v>5315300</v>
+        <v>5215600</v>
       </c>
       <c r="H57" s="3">
-        <v>4054600</v>
+        <v>5415100</v>
       </c>
       <c r="I57" s="3">
-        <v>3658800</v>
+        <v>4130700</v>
       </c>
       <c r="J57" s="3">
+        <v>3727500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4356700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4632800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3840500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4093700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4159700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4225600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3969100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3586900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3787600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3911300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3192200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3232300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3211600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3364900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3721200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3451600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3656100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3671200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3613400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3632600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3477900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>3470000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>887100</v>
+        <v>1005100</v>
       </c>
       <c r="E58" s="3">
-        <v>557100</v>
+        <v>903700</v>
       </c>
       <c r="F58" s="3">
-        <v>515100</v>
+        <v>567500</v>
       </c>
       <c r="G58" s="3">
-        <v>486800</v>
+        <v>524800</v>
       </c>
       <c r="H58" s="3">
-        <v>988800</v>
+        <v>496000</v>
       </c>
       <c r="I58" s="3">
-        <v>1055200</v>
+        <v>1007400</v>
       </c>
       <c r="J58" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1356400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1473800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>960900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1053900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1154900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1124800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1303300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1081900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1072100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1224700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1035000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2139900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>693700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1017200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1641000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1525900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1444300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1493200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1749300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1891800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1342000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1756400</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7020000</v>
+        <v>7128600</v>
       </c>
       <c r="E59" s="3">
-        <v>7795500</v>
+        <v>7151800</v>
       </c>
       <c r="F59" s="3">
-        <v>8994400</v>
+        <v>7941800</v>
       </c>
       <c r="G59" s="3">
-        <v>8377800</v>
+        <v>9163300</v>
       </c>
       <c r="H59" s="3">
-        <v>7767000</v>
+        <v>8535100</v>
       </c>
       <c r="I59" s="3">
-        <v>9312300</v>
+        <v>7912800</v>
       </c>
       <c r="J59" s="3">
+        <v>9487200</v>
+      </c>
+      <c r="K59" s="3">
         <v>11405800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11504200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9081500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7458300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9526800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6386900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6762700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>6075600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5447600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5355300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4480400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3717300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2430900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2411800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2909200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2776400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6015600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3540800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>3612600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3770200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>4262100</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3507600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13186000</v>
+        <v>14049100</v>
       </c>
       <c r="E60" s="3">
-        <v>13306900</v>
+        <v>13433600</v>
       </c>
       <c r="F60" s="3">
-        <v>14629000</v>
+        <v>13556800</v>
       </c>
       <c r="G60" s="3">
-        <v>14179900</v>
+        <v>14903700</v>
       </c>
       <c r="H60" s="3">
-        <v>12810400</v>
+        <v>14446100</v>
       </c>
       <c r="I60" s="3">
-        <v>14026300</v>
+        <v>13050900</v>
       </c>
       <c r="J60" s="3">
+        <v>14289600</v>
+      </c>
+      <c r="K60" s="3">
         <v>17118900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17610900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13882900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12606000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14841400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11737400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12035100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10744500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10307300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10491300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8707600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9089500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6336200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6794000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8271400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7754000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11116000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>8705200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>8975400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>9294600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>9082100</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>8734100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12669500</v>
+        <v>13448400</v>
       </c>
       <c r="E61" s="3">
-        <v>12757100</v>
+        <v>12907400</v>
       </c>
       <c r="F61" s="3">
-        <v>12873000</v>
+        <v>12996600</v>
       </c>
       <c r="G61" s="3">
-        <v>12830000</v>
+        <v>13114700</v>
       </c>
       <c r="H61" s="3">
-        <v>12341100</v>
+        <v>13070900</v>
       </c>
       <c r="I61" s="3">
-        <v>12347600</v>
+        <v>12572800</v>
       </c>
       <c r="J61" s="3">
+        <v>12579400</v>
+      </c>
+      <c r="K61" s="3">
         <v>14166900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13408700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12466000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13664000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14127100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15428000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>18719600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16336900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>9980800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>11740200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>10927700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>11567200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>9997400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>11436400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>14481900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>14211900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>17628400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>19453700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>21873800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>21350800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>22365300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>23570000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>23983200</v>
+        <v>23489300</v>
       </c>
       <c r="E62" s="3">
-        <v>23850200</v>
+        <v>24433600</v>
       </c>
       <c r="F62" s="3">
-        <v>24672300</v>
+        <v>24298100</v>
       </c>
       <c r="G62" s="3">
-        <v>23116500</v>
+        <v>25135600</v>
       </c>
       <c r="H62" s="3">
-        <v>24935300</v>
+        <v>23550600</v>
       </c>
       <c r="I62" s="3">
-        <v>25893600</v>
+        <v>25403500</v>
       </c>
       <c r="J62" s="3">
+        <v>26379900</v>
+      </c>
+      <c r="K62" s="3">
         <v>29684000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>26803700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>26291800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>28672100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>29182500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>24213200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>23422600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20549700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18964500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>17782200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>15935900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>16510200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>13643400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14258200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>17951400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>15742900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>17401700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>17013600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>16990600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>16074300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>15438300</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>16222000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,97 +5537,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51277000</v>
+        <v>52528000</v>
       </c>
       <c r="E66" s="3">
-        <v>51488400</v>
+        <v>52239900</v>
       </c>
       <c r="F66" s="3">
-        <v>53744900</v>
+        <v>52455200</v>
       </c>
       <c r="G66" s="3">
-        <v>51730600</v>
+        <v>54754100</v>
       </c>
       <c r="H66" s="3">
-        <v>51654100</v>
+        <v>52701900</v>
       </c>
       <c r="I66" s="3">
-        <v>53084300</v>
+        <v>52624000</v>
       </c>
       <c r="J66" s="3">
+        <v>54081100</v>
+      </c>
+      <c r="K66" s="3">
         <v>61909400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>58663400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>53316500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>53897300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>57211800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>49961000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>52879900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>46567500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38452700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>40540500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>36074500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37759800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>30562100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>33124200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>41550700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>38565900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>47260900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>46370100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>49052200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>47925500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>48488600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>50227100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,97 +6031,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>19663900</v>
+        <v>21194100</v>
       </c>
       <c r="E72" s="3">
-        <v>18727300</v>
+        <v>20033100</v>
       </c>
       <c r="F72" s="3">
-        <v>21607600</v>
+        <v>19079000</v>
       </c>
       <c r="G72" s="3">
-        <v>19099100</v>
+        <v>22013300</v>
       </c>
       <c r="H72" s="3">
-        <v>21596500</v>
+        <v>19457700</v>
       </c>
       <c r="I72" s="3">
-        <v>15524300</v>
+        <v>22002000</v>
       </c>
       <c r="J72" s="3">
+        <v>15815800</v>
+      </c>
+      <c r="K72" s="3">
         <v>17434500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10684200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15577300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10565000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7396700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7901300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7350400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5702100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5717700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8104800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6492300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6933100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7755300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>5363300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7222100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7146900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6553000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7109800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4470600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4822700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2946700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>3414000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,97 +6399,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37741700</v>
+        <v>39105100</v>
       </c>
       <c r="E76" s="3">
-        <v>38284600</v>
+        <v>38450300</v>
       </c>
       <c r="F76" s="3">
-        <v>37766700</v>
+        <v>39003500</v>
       </c>
       <c r="G76" s="3">
-        <v>36237900</v>
+        <v>38475800</v>
       </c>
       <c r="H76" s="3">
-        <v>37532300</v>
+        <v>36918400</v>
       </c>
       <c r="I76" s="3">
-        <v>35990900</v>
+        <v>38237100</v>
       </c>
       <c r="J76" s="3">
+        <v>36666700</v>
+      </c>
+      <c r="K76" s="3">
         <v>38834600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36513100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40359600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>38818700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36358100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37911900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36842200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31929000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29825400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32807200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28887100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30893600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30399800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30207600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>37763700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>34690800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36856600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>36549600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>34325300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>33041800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>31565800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>31985900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>923000</v>
+        <v>2850900</v>
       </c>
       <c r="E81" s="3">
-        <v>1921700</v>
+        <v>940300</v>
       </c>
       <c r="F81" s="3">
-        <v>3947800</v>
+        <v>1957800</v>
       </c>
       <c r="G81" s="3">
-        <v>4700000</v>
+        <v>4021900</v>
       </c>
       <c r="H81" s="3">
-        <v>6061900</v>
+        <v>4788300</v>
       </c>
       <c r="I81" s="3">
-        <v>4651600</v>
+        <v>6175700</v>
       </c>
       <c r="J81" s="3">
+        <v>4738900</v>
+      </c>
+      <c r="K81" s="3">
         <v>6129000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4068900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13681700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5718200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>944300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3041500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1042100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>175700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1183400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1227100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-68000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1201700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2584200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1064500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>71500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1193800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>649400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1831300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>15500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1957600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>390300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>457000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>777300</v>
+        <v>783900</v>
       </c>
       <c r="E83" s="3">
-        <v>688100</v>
+        <v>791900</v>
       </c>
       <c r="F83" s="3">
-        <v>955500</v>
+        <v>701000</v>
       </c>
       <c r="G83" s="3">
-        <v>821300</v>
+        <v>973500</v>
       </c>
       <c r="H83" s="3">
-        <v>805700</v>
+        <v>836700</v>
       </c>
       <c r="I83" s="3">
-        <v>724800</v>
+        <v>820900</v>
       </c>
       <c r="J83" s="3">
+        <v>738400</v>
+      </c>
+      <c r="K83" s="3">
         <v>854400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>736500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1643800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>750500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>881700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>810500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>854500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>656300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>784300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>692000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>670400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>566900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>520500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>624700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>726600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>661700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>812200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>747600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>745200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>707400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>598500</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>775800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1864200</v>
+        <v>2896500</v>
       </c>
       <c r="E89" s="3">
-        <v>3829700</v>
+        <v>1899200</v>
       </c>
       <c r="F89" s="3">
-        <v>2015800</v>
+        <v>3901600</v>
       </c>
       <c r="G89" s="3">
-        <v>3396600</v>
+        <v>2053600</v>
       </c>
       <c r="H89" s="3">
-        <v>3554600</v>
+        <v>3460300</v>
       </c>
       <c r="I89" s="3">
-        <v>2780300</v>
+        <v>3621300</v>
       </c>
       <c r="J89" s="3">
+        <v>2832600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2116000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9526000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>15293600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7167300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6815300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4990000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1385300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1380700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2067400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3051200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2047500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1546000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2227400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2857700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3016300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1654300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3075400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1940400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>2841900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>2379500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>2108400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>1937700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7145000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5974000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5872000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9392000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6455000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6373000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5964000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6067900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6526200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-606800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-586300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1336100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-914000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1025000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-892400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1066900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-717900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-507300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-431500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1024000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-520500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-592700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-674300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-816500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-695500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-731200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-865000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>2329500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-1929200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1062500</v>
+        <v>-1701000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1391500</v>
+        <v>-1082400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1963300</v>
+        <v>-1417600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1072800</v>
+        <v>-2000200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1126500</v>
+        <v>-1092900</v>
       </c>
       <c r="I94" s="3">
-        <v>-717100</v>
+        <v>-1147600</v>
       </c>
       <c r="J94" s="3">
+        <v>-730600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-433300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-848200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5601600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2454800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2050500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1054400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-713100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-843300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-968200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-406600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-414400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3141400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1049900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-508600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-366500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>2166300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-687700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-404900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-949700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-675900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1063200</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-533700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,97 +7888,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1702000</v>
       </c>
       <c r="E96" s="3">
-        <v>-1907200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2800</v>
+        <v>-1943000</v>
       </c>
       <c r="G96" s="3">
-        <v>-3281700</v>
+        <v>-2900</v>
       </c>
       <c r="H96" s="3">
-        <v>-7100</v>
+        <v>-3343300</v>
       </c>
       <c r="I96" s="3">
-        <v>-3602600</v>
+        <v>-7200</v>
       </c>
       <c r="J96" s="3">
+        <v>-3670300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-25900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-8099500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6378700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4090900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-3604700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-5800</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-2100</v>
       </c>
       <c r="R96" s="3">
         <v>-2100</v>
       </c>
       <c r="S96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-74100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-9000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-44400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-1481900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-1170100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1192300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-2200</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-436800</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>49700</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,271 +8254,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-615800</v>
+        <v>-2158700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2511700</v>
+        <v>-627400</v>
       </c>
       <c r="F100" s="3">
-        <v>-604700</v>
+        <v>-2558900</v>
       </c>
       <c r="G100" s="3">
-        <v>-4363200</v>
+        <v>-616100</v>
       </c>
       <c r="H100" s="3">
-        <v>-3889900</v>
+        <v>-4445100</v>
       </c>
       <c r="I100" s="3">
-        <v>-5473900</v>
+        <v>-3962900</v>
       </c>
       <c r="J100" s="3">
+        <v>-5576700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-620300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11266200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9722800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5138400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-214600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7505800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-181400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4018700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2099200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-718600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-939400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1051500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1389000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2527100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1534500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2922500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2563500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2373000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2436100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>179900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1931600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-446800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-163300</v>
+        <v>110000</v>
       </c>
       <c r="E101" s="3">
-        <v>-90000</v>
+        <v>-166400</v>
       </c>
       <c r="F101" s="3">
-        <v>-114600</v>
+        <v>-91700</v>
       </c>
       <c r="G101" s="3">
-        <v>98100</v>
+        <v>-116800</v>
       </c>
       <c r="H101" s="3">
-        <v>392400</v>
+        <v>99900</v>
       </c>
       <c r="I101" s="3">
-        <v>-1126300</v>
+        <v>399700</v>
       </c>
       <c r="J101" s="3">
+        <v>-1147400</v>
+      </c>
+      <c r="K101" s="3">
         <v>219500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>732000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-319700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1045800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-597600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>367200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>504300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1095300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-111400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>412800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-45000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-147400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>153200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>453300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-75200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>89000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-96000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>57700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-50600</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>8800</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>47800</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22600</v>
+        <v>-853200</v>
       </c>
       <c r="E102" s="3">
-        <v>-163500</v>
+        <v>23000</v>
       </c>
       <c r="F102" s="3">
-        <v>-666900</v>
+        <v>-166600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1941300</v>
+        <v>-679400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1069300</v>
+        <v>-1977700</v>
       </c>
       <c r="I102" s="3">
-        <v>-4537000</v>
+        <v>-1089400</v>
       </c>
       <c r="J102" s="3">
+        <v>-4622200</v>
+      </c>
+      <c r="K102" s="3">
         <v>1282000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1856400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-350600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>619800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3952500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3202900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>994900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5651400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1111400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2338800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>648600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-542600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-358900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-24600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1568300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>822900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-161900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1018600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-604200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1832900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-877500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>1005000</v>
       </c>
     </row>
